--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE7F354-0CB9-4807-A870-363EBD377E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDED12C-9D53-4E73-A3A7-3BEA498155A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -97,12 +97,14 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -312,9 +314,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -328,24 +327,6 @@
   <si>
     <t>メール送信</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>△</t>
   </si>
   <si>
     <t>IPA</t>
@@ -1068,10 +1049,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Implement measures 4-(iv)-a</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1318,6 +1295,15 @@
   <si>
     <t>PCI DSS Items</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -2117,9 +2103,126 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2132,24 +2235,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2162,9 +2250,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2177,107 +2262,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2842,11 +2828,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>〇　・・・　</a:t>
+            <a:t>　・・・　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
@@ -2859,11 +2852,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>△　・・・　</a:t>
+            <a:t>　・・・　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
@@ -2880,7 +2880,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>×</a:t>
+            <a:t>C</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -3473,7 +3473,7 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -4184,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="69" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4199,38 +4199,38 @@
       <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" s="73" customFormat="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="89" t="s">
+      <c r="C3" s="91" t="s">
         <v>75</v>
       </c>
+      <c r="D3" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="73" customFormat="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="74" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+        <v>73</v>
+      </c>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
     </row>
     <row r="5" spans="1:9" s="78" customFormat="1" ht="28.5">
       <c r="A5" s="75">
@@ -4240,15 +4240,15 @@
         <v>41547</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" s="76"/>
       <c r="E5" s="76"/>
       <c r="F5" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>85</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="80" customFormat="1" ht="42.75">
@@ -4259,19 +4259,19 @@
         <v>43949</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="80" customFormat="1" ht="42.75">
@@ -4282,24 +4282,24 @@
         <v>43970</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="80" customFormat="1">
       <c r="A8" s="71" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="83" customFormat="1" ht="18.75">
@@ -4341,7 +4341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
@@ -4350,108 +4350,108 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="88" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="F47" s="21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="F48" s="21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4474,7 +4474,7 @@
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4496,31 +4496,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4532,1335 +4532,1335 @@
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="131"/>
+      <c r="E8" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="119" t="s">
+      <c r="K8" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="117" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="117" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="132" t="s">
-        <v>191</v>
+      <c r="L8" s="126" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" thickBot="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="133"/>
+        <v>182</v>
+      </c>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="127"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="94">
+      <c r="B10" s="100">
         <v>1</v>
       </c>
-      <c r="C10" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="130" t="s">
-        <v>120</v>
+      <c r="C10" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>114</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="100" t="s">
-        <v>193</v>
+        <v>229</v>
+      </c>
+      <c r="L10" s="134" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="131"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="101"/>
+        <v>229</v>
+      </c>
+      <c r="L11" s="135"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="101"/>
+        <v>229</v>
+      </c>
+      <c r="L12" s="135"/>
     </row>
     <row r="13" spans="1:12" ht="36">
-      <c r="B13" s="96"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="101"/>
+        <v>229</v>
+      </c>
+      <c r="L13" s="135"/>
     </row>
     <row r="14" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="102"/>
+        <v>231</v>
+      </c>
+      <c r="L14" s="136"/>
     </row>
     <row r="15" spans="1:12" ht="48">
-      <c r="B15" s="94">
+      <c r="B15" s="100">
         <v>2</v>
       </c>
-      <c r="C15" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="109"/>
+      <c r="C15" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="95"/>
       <c r="E15" s="37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="98" t="s">
-        <v>195</v>
+        <v>229</v>
+      </c>
+      <c r="L15" s="105" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="84.75" thickBot="1">
-      <c r="B16" s="114"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="99"/>
+        <v>231</v>
+      </c>
+      <c r="L16" s="113"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="94">
+      <c r="B17" s="100">
         <v>3</v>
       </c>
-      <c r="C17" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="103" t="s">
+      <c r="C17" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="125" t="s">
+      <c r="H17" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="122" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="98" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="K17" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="105" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="95"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="120"/>
-      <c r="L18" s="134"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="117"/>
+      <c r="L18" s="128"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="127" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="122" t="s">
+      <c r="H19" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="119" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="115"/>
+        <v>192</v>
+      </c>
+      <c r="K19" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="L19" s="106"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="96"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="K20" s="120"/>
-      <c r="L20" s="115"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="117"/>
+      <c r="L20" s="106"/>
     </row>
     <row r="21" spans="2:12" ht="48">
-      <c r="B21" s="96"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="52" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I21" s="59" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="115"/>
+        <v>231</v>
+      </c>
+      <c r="L21" s="106"/>
     </row>
     <row r="22" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B22" s="97"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="53" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="141" t="s">
-        <v>199</v>
+      <c r="J22" s="89" t="s">
+        <v>193</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="116"/>
+        <v>229</v>
+      </c>
+      <c r="L22" s="107"/>
     </row>
     <row r="23" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B23" s="94">
+      <c r="B23" s="100">
         <v>4</v>
       </c>
-      <c r="C23" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="109"/>
+      <c r="C23" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="95"/>
       <c r="E23" s="37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="56" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="L23" s="98" t="s">
-        <v>200</v>
+        <v>229</v>
+      </c>
+      <c r="L23" s="105" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B24" s="96"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="56" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="115"/>
+        <v>229</v>
+      </c>
+      <c r="L24" s="106"/>
     </row>
     <row r="25" spans="2:12" ht="48">
-      <c r="B25" s="96"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="56" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" s="115"/>
+        <v>229</v>
+      </c>
+      <c r="L25" s="106"/>
     </row>
     <row r="26" spans="2:12" ht="36">
-      <c r="B26" s="96"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="131" t="s">
-        <v>120</v>
+      <c r="B26" s="103"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>114</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="115"/>
+        <v>230</v>
+      </c>
+      <c r="L26" s="106"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="96"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="131"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="135" t="s">
-        <v>202</v>
-      </c>
-      <c r="K27" s="136"/>
-      <c r="L27" s="115"/>
+      <c r="J27" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="109"/>
+      <c r="L27" s="106"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="96"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="56" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="115"/>
+        <v>229</v>
+      </c>
+      <c r="L28" s="106"/>
     </row>
     <row r="29" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B29" s="97"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="35" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I29" s="38" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="56" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="116"/>
+        <v>229</v>
+      </c>
+      <c r="L29" s="107"/>
     </row>
     <row r="30" spans="2:12" ht="48">
-      <c r="B30" s="94">
+      <c r="B30" s="100">
         <v>5</v>
       </c>
-      <c r="C30" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="109" t="s">
-        <v>152</v>
+      <c r="C30" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>146</v>
       </c>
       <c r="E30" s="86" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="56" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L30" s="98" t="s">
-        <v>204</v>
+        <v>229</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="48">
-      <c r="B31" s="96"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="111"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="87" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="115"/>
+        <v>231</v>
+      </c>
+      <c r="L31" s="106"/>
     </row>
     <row r="32" spans="2:12" ht="48">
-      <c r="B32" s="96"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="111"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="115"/>
+        <v>231</v>
+      </c>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="2:12" ht="48">
-      <c r="B33" s="96"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="111"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="115"/>
+        <v>231</v>
+      </c>
+      <c r="L33" s="106"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="96"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="111"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="141" t="s">
-        <v>199</v>
+      <c r="J34" s="89" t="s">
+        <v>193</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" s="115"/>
+        <v>229</v>
+      </c>
+      <c r="L34" s="106"/>
     </row>
     <row r="35" spans="2:12" ht="60">
-      <c r="B35" s="96"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="111" t="s">
-        <v>153</v>
+      <c r="B35" s="103"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="96" t="s">
+        <v>147</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="57" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L35" s="115" t="s">
-        <v>205</v>
+        <v>229</v>
+      </c>
+      <c r="L35" s="106" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="96"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="111"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="115"/>
+        <v>231</v>
+      </c>
+      <c r="L36" s="106"/>
     </row>
     <row r="37" spans="2:12" ht="60">
-      <c r="B37" s="96"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="111" t="s">
-        <v>154</v>
+      <c r="B37" s="103"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="96" t="s">
+        <v>148</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="57" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" s="115" t="s">
-        <v>208</v>
+        <v>229</v>
+      </c>
+      <c r="L37" s="106" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="60">
-      <c r="B38" s="96"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="111"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="96"/>
       <c r="E38" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="115"/>
+        <v>231</v>
+      </c>
+      <c r="L38" s="106"/>
     </row>
     <row r="39" spans="2:12" ht="60.75" thickBot="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="112"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="34" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I39" s="32" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="63" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" s="116"/>
+        <v>229</v>
+      </c>
+      <c r="L39" s="107"/>
     </row>
     <row r="40" spans="2:12" ht="132">
-      <c r="B40" s="94">
+      <c r="B40" s="100">
         <v>6</v>
       </c>
-      <c r="C40" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="109"/>
-      <c r="E40" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="130" t="s">
-        <v>120</v>
+      <c r="C40" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="95"/>
+      <c r="E40" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="93" t="s">
+        <v>114</v>
       </c>
       <c r="G40" s="27" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I40" s="29" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="56" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" s="98" t="s">
-        <v>213</v>
+        <v>229</v>
+      </c>
+      <c r="L40" s="105" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="84">
-      <c r="B41" s="96"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="131"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="94"/>
       <c r="G41" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="135" t="s">
-        <v>212</v>
-      </c>
-      <c r="K41" s="136"/>
-      <c r="L41" s="115"/>
+      <c r="J41" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" s="109"/>
+      <c r="L41" s="106"/>
     </row>
     <row r="42" spans="2:12" ht="48">
-      <c r="B42" s="96"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="131"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="94"/>
       <c r="G42" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="135" t="s">
-        <v>212</v>
-      </c>
-      <c r="K42" s="136"/>
-      <c r="L42" s="115"/>
+      <c r="J42" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" s="109"/>
+      <c r="L42" s="106"/>
     </row>
     <row r="43" spans="2:12" ht="60.75" thickBot="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
       <c r="E43" s="38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I43" s="38" t="s">
         <v>33</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" s="116"/>
+        <v>231</v>
+      </c>
+      <c r="L43" s="107"/>
     </row>
     <row r="44" spans="2:12" ht="72">
-      <c r="B44" s="94">
+      <c r="B44" s="100">
         <v>7</v>
       </c>
-      <c r="C44" s="109" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="130" t="s">
-        <v>120</v>
+      <c r="C44" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="95"/>
+      <c r="E44" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="93" t="s">
+        <v>114</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I44" s="29" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="42" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L44" s="98" t="s">
-        <v>216</v>
+        <v>229</v>
+      </c>
+      <c r="L44" s="105" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="96">
-      <c r="B45" s="96"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="131"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="94"/>
       <c r="G45" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="135" t="s">
-        <v>215</v>
-      </c>
-      <c r="K45" s="136"/>
-      <c r="L45" s="115"/>
+      <c r="J45" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" s="109"/>
+      <c r="L45" s="106"/>
     </row>
     <row r="46" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G46" s="39"/>
       <c r="H46" s="34" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I46" s="38" t="s">
         <v>36</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="116"/>
+        <v>231</v>
+      </c>
+      <c r="L46" s="107"/>
     </row>
     <row r="47" spans="2:12" ht="60">
-      <c r="B47" s="94">
+      <c r="B47" s="100">
         <v>8</v>
       </c>
-      <c r="C47" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="109"/>
-      <c r="E47" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="130" t="s">
-        <v>120</v>
+      <c r="C47" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="95"/>
+      <c r="E47" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="93" t="s">
+        <v>114</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="L47" s="98" t="s">
-        <v>217</v>
+        <v>230</v>
+      </c>
+      <c r="L47" s="105" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="72">
-      <c r="B48" s="96"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="131"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="94"/>
       <c r="G48" s="25" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L48" s="115"/>
+        <v>230</v>
+      </c>
+      <c r="L48" s="106"/>
     </row>
     <row r="49" spans="2:12" ht="48">
-      <c r="B49" s="96"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
       <c r="E49" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L49" s="115"/>
+        <v>231</v>
+      </c>
+      <c r="L49" s="106"/>
     </row>
     <row r="50" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B50" s="114"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
       <c r="E50" s="43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>40</v>
       </c>
       <c r="J50" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="L50" s="99"/>
+        <v>231</v>
+      </c>
+      <c r="L50" s="113"/>
     </row>
     <row r="51" spans="2:12" ht="84">
-      <c r="B51" s="94">
+      <c r="B51" s="100">
         <v>9</v>
       </c>
-      <c r="C51" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="130" t="s">
-        <v>120</v>
+      <c r="C51" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="95"/>
+      <c r="E51" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="93" t="s">
+        <v>114</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I51" s="29" t="s">
         <v>41</v>
       </c>
       <c r="J51" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="K51" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="L51" s="98" t="s">
-        <v>219</v>
+        <v>203</v>
+      </c>
+      <c r="K51" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="L51" s="105" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="84">
-      <c r="B52" s="96"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="131"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="94"/>
       <c r="G52" s="25" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="K52" s="136"/>
-      <c r="L52" s="115"/>
+      <c r="J52" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="K52" s="109"/>
+      <c r="L52" s="106"/>
     </row>
     <row r="53" spans="2:12" ht="60.75" thickBot="1">
-      <c r="B53" s="97"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I53" s="32" t="s">
         <v>43</v>
       </c>
       <c r="J53" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="116"/>
+        <v>231</v>
+      </c>
+      <c r="L53" s="107"/>
     </row>
     <row r="54" spans="2:12" ht="36">
-      <c r="B54" s="94">
+      <c r="B54" s="100">
         <v>10</v>
       </c>
-      <c r="C54" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="109"/>
-      <c r="E54" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="130" t="s">
-        <v>120</v>
+      <c r="C54" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="95"/>
+      <c r="E54" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="93" t="s">
+        <v>114</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="42" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K54" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="98" t="s">
-        <v>220</v>
+        <v>229</v>
+      </c>
+      <c r="L54" s="105" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="96"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="131"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="94"/>
       <c r="G55" s="25" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L55" s="115"/>
+        <v>229</v>
+      </c>
+      <c r="L55" s="106"/>
     </row>
     <row r="56" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B56" s="97"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="48" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G56" s="49"/>
       <c r="H56" s="50" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I56" s="51" t="s">
         <v>46</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L56" s="116"/>
+        <v>229</v>
+      </c>
+      <c r="L56" s="107"/>
     </row>
     <row r="57" spans="2:12" ht="96">
-      <c r="B57" s="94">
+      <c r="B57" s="100">
         <v>11</v>
       </c>
-      <c r="C57" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="109"/>
+      <c r="C57" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="95"/>
       <c r="E57" s="37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="L57" s="98" t="s">
-        <v>221</v>
+        <v>230</v>
+      </c>
+      <c r="L57" s="105" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="84.75" thickBot="1">
-      <c r="B58" s="97"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="48" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G58" s="49"/>
       <c r="H58" s="50" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I58" s="51" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="63" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L58" s="116"/>
+        <v>229</v>
+      </c>
+      <c r="L58" s="107"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
+      <c r="F59" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5874,13 +5874,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="F44:F45"/>
@@ -5897,57 +5941,13 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6002,22 +6002,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="68" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6026,90 +6026,90 @@
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="B6" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
       <c r="B7" s="66" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="66" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="66" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="84">
       <c r="B11" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="66" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="96">
       <c r="B14" s="66" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="48">
       <c r="B16" s="67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDED12C-9D53-4E73-A3A7-3BEA498155A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7DCC3-047F-495E-A154-929137F4F286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,6 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.Overview'!$A$1:$AR$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.2. Checklist'!$A$1:$L$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Revision History'!$A$1:$H$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Revision History'!$1:$4</definedName>
     <definedName name="RuleComponent">#REF!</definedName>
     <definedName name="ｓｄ">#REF!</definedName>
@@ -97,14 +96,12 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -112,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="233">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -322,10 +319,6 @@
   </si>
   <si>
     <t>Nablarch Example</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メール送信</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -391,10 +384,6 @@
     <t>担当者</t>
   </si>
   <si>
-    <t>区分：新規、追加、変更、削除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -526,9 +515,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>改訂第7版(Revised 7th ed.)</t>
-  </si>
-  <si>
     <t>The following is the status of the response in Nablarch for each type of vulnerability disclosed in the IPA.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -538,49 +524,6 @@
   </si>
   <si>
     <t>The features of Nablarch that correspond to each countermeasure are shown on the right.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>For "保険的対策(insurance measures)", determine whether or not you need to support them according to the system requirements.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>根本的解決
-(fundamentally resolved)</t>
-    <rPh sb="0" eb="2">
-      <t>コンポン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Be sure to respond to any vulnerability countermeasure published in the IPA that has been "根本的解決(fundamentally resolved)". </t>
-    <rPh sb="94" eb="96">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>根本的解決
-(fundamentally resolved)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保険的対策(insurance measures)</t>
-    <rPh sb="0" eb="2">
-      <t>ホケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイサク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -601,359 +544,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SQLインジェクション
-(SQL Injection)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSコマンド・インジェクション
-(OS command injection)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パス名パラメータの未チェック／ディレクトリ・トラバーサル
-(Unchecked pathname parameter/directory traversal)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セッション管理の不備
-(Deficiencies in session management)</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クロスサイト・スクリプティング
-(cross-site scripting)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CSRF
-（Cross Site Request Forgeries)）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTTPヘッダ・インジェクション
-(HTTP Header Injection)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールヘッダ・インジェクション
-(Mail Header Injection)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クリックジャッキング
-(clickjacking)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッファオーバーフロー
-(buffer overflow)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アクセス制御や認可制御の欠落
-(Lack of access control or authorization control)</t>
-    <rPh sb="4" eb="6">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケツラク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://www.ipa.go.jp/security/vuln/websecurity.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQL文の組み立ては全てプレースホルダで実装する。
-(All SQL statement assembly is implemented with placeholders.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQL文の構成を文字列連結により行う場合は、アプリケーションの変数をSQL文のリテラルとして正しく構成する。
-(When constructing SQL statements by string concatenation, set application variables as literals of SQL statements correctly.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウェブアプリケーションに渡されるパラメータにSQL文を直接指定しない。
-(Do not directly specify SQL statements in parameters passed to the web application.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージをそのままブラウザに表示しない。
-(Do not display the error message in the browser as it is.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースアカウントに適切な権限を与える。
-(Give the appropriate privileges to the database account.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シェルを起動できる言語機能の利用を避ける。
-(Avoid using language features that can invoke the shell.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シェルを起動できる言語機能を利用する場合は、その引数を構成する全ての変数に対してチェックを行い、あらかじめ許可した処理のみを実行する。
-(If you use a language feature that allows you to invoke the shell, check all the variables that make up its arguments and perform only those operations that you have allowed beforehand.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外部からのパラメータでウェブサーバ内のファイル名を直接指定する実装を避ける。
-(Avoid the implementation of specifying the file name in the web server directly in an external parameter.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイルを開く際は、固定のディレクトリを指定し、かつファイル名にディレクトリ名が含まれないようにする。
-(When you open a file, specify a fixed directory and do not include the name of the directory in the file name.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウェブサーバ内のファイルへのアクセス権限の設定を正しく管理する。
-(Correctly manage the setting of access rights to files in the web server.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル名のチェックを行う。
-(Check the file name.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セッションIDを推測が困難なものにする。
-(Make the session ID difficult to guess.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セッションIDをURLパラメータに格納しない。
-(Do not store the session ID in the URL parameter.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTTPS通信で利用するCookieにはsecure属性を加える。
-(Add the secure attribute to the cookie used for HTTPS communication.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン成功後に、新しくセッションを開始する。
-(After a successful login, a new session is started.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン成功後に、既存のセッションIDとは別に秘密情報を発行し、ページの遷移ごとにその値を確認する。
-(After a successful login, we issue a secret information separate from the existing session ID and check its value at each page transition.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セッションIDを固定値にしない。
-(Do not set the session ID to a fixed value.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セッションIDをCookieにセットする場合、有効期限の設定に注意する。
-(If you set the session ID as a cookie, be careful to set the expiration date.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTMLテキストの入力を許可しない場合の対策
-(What to do if you don't allow HTML text to be entered)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTMLテキストの入力を許可する場合の対策
-(Measures to be taken when allowing HTML text to be entered)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全てのウェブアプリケーションに共通の対策
-(The same measures apply to all web applications)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウェブページに出力する全ての要素に対して、エスケープ処理を施す。
-(Apply escape processing to all elements output to a web page.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>URLを出力するときは、「http://」や 「https://」で始まるURLのみを許可する。
-(When outputting URLs, only URLs that begin with "http://" or "https://" are allowed.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;script&gt;...&lt;/script&gt; 要素の内容を動的に生成しない。
-(&lt;script&gt;... &lt;/script&gt; The content of the element is not generated dynamically.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スタイルシートを任意のサイトから取り込めるようにしない。
-(Do not allow style sheets to be imported from any site.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力値の内容チェックを行う。
-(Check the contents of the input value.)</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力されたHTMLテキストから構文解析木を作成し、スクリプトを含まない必要な要素のみを抽出する。
-(Create a parse tree from the input HTML text and extract only the necessary elements that do not contain a script.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力されたHTMLテキストから、スクリプトに該当する文字列を排除する。
-(Eliminate a script from the input HTML text.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTTPレスポンスヘッダのContent-Typeフィールドに文字コード（charset）の指定を行う。
-(Specify the character code (charset) in the Content-Type field of the HTTP response header.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Cookie情報の漏えい対策として、発行するCookieにHttpOnly属性を加え、TRACEメソッドを無効化する。
-(To prevent cookie information leakage, add HttpOnly attribute to issued cookies and disable the TRACE method.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クロスサイト・スクリプティングの潜在的な脆弱性対策として有効なブラウザの機能を有効にするレスポンスヘッダを返す。
-(Returns a response header that enables a feature in the browser that is effective as a potential cross-site scripting vulnerability countermeasure.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理を実行するページを POST メソッドでアクセスするようにし、その「hidden パラメータ」に秘密情報が挿入されるよう、前のページを自動生成して、実行ページではその値が正しい場合のみ処理を実行する。
-(The page to be processed is accessed by the POST method, and the previous page is automatically generated so that the secret information is inserted into the "hidden parameter" of the page, and the execution page executes the process only if the value is correct.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理を実行する直前のページで再度パスワードの入力を求め、実行ページでは、再度入力されたパスワードが正しい場合のみ処理を実行する。
-(The page just before executing the process asks for the password again, and the execution page executes the process only if the password entered again is correct.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Refererが正しいリンク元かを確認し、正しい場合のみ処理を実行する。
-(Check to see if the referrer is the correct link source, and if it is, run the process only.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要な操作を行った際に、その旨を登録済みのメールアドレスに自動送信する。
-(Automatically send a notification to your registered email address when you perform an important operation.)</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ムネ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヘッダの出力を直接行わず、ウェブアプリケーションの実行環境や言語に用意されているヘッダ出力用APIを使用する。
-(Do not output the header directly, use the header output API provided in the execution environment and language of the web application.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>改行コードを適切に処理するヘッダ出力用APIを利用できない場合は、改行を許可しないよう、開発者自身で適切な処理を実装する。
-(If the API for header output that properly processes the line feed code cannot be used, implement the appropriate process by the developer himself so that line feed is not allowed.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外部からの入力の全てについて、改行コードを削除する。
-(Remove the line feed code for all external input.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールヘッダを固定値にして、外部からの入力はすべてメール本文に出力する。
-(Set the mail header to a fixed value and output all external input to the body of the mail.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウェブアプリケーションの実行環境や言語に用意されているメール送信用APIを使用する（8-(i) を採用できない場合）。
-(Use the API for sending mail provided in the web application's execution environment and language (if 8-(i) cannot be adopted).)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTMLで宛先を指定しない。
-(Do not specify the destination in HTML.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTTPレスポンスヘッダに、X-Frame-Optionsヘッダフィールドを出力し、他ドメインのサイトからのframe要素やiframe要素による読み込みを制限する。
-(Outputs the X-Frame-Options header field in the HTTP response header to restrict loading by frame elements and iframe elements from sites of other domains.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要な処理は、一連の操作をマウスのみで実行できないようにする。
-(The important process ensures that a series of operations cannot be performed with the mouse alone.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>直接メモリにアクセスできない言語で記述する。
-(Write in a language that does not allow direct access to memory.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>直接メモリにアクセスできる言語で記述する部分を最小限にする。
-(Minimize the portion of the code written in a language that has direct access to memory.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>脆弱性が修正されたバージョンのライブラリを使用する。
-(Use the version of the library where the vulnerability has been fixed.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アクセス制御機能による防御措置が必要とされるウェブサイトには、パスワード等の秘密情報の入力を必要とする認証機能を設ける。
-(Websites that require access control protection are equipped with an authentication function that requires the entry of confidential information, such as a password.)</t>
-    <rPh sb="36" eb="37">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>認証機能に加えて認可制御の処理を実装し、ログイン中の利用者が他人になりすましてアクセスできないようにする。
-(In addition to the authentication function, the authorization control process is implemented to prevent the user from pretending to be someone else while logged in.)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1188,6 +779,279 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>6.CSRF（cross-site request forgery）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCI DSS Items</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Revised 7th ed.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>For "insurance measures", determine whether or not you need to support them according to the system requirements.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Be sure to respond to any vulnerability countermeasure published in the IPA that has been "fundamentally resolved". </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SQL Injection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fundamentally resolved</t>
+  </si>
+  <si>
+    <t>fundamentally resolved</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>All SQL statement assembly is implemented with placeholders.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>When constructing SQL statements by string concatenation, set application variables as literals of SQL statements correctly.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Do not directly specify SQL statements in parameters passed to the web application.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>insurance measures</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Do not display the error message in the browser as it is.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Give the appropriate privileges to the database account.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OS command injection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Avoid using language features that can invoke the shell.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>If you use a language feature that allows you to invoke the shell, check all the variables that make up its arguments and perform only those operations that you have allowed beforehand.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unchecked pathname parameter/directory traversal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Avoid the implementation of specifying the file name in the web server directly in an external parameter.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>When you open a file, specify a fixed directory and do not include the name of the directory in the file name.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Correctly manage the setting of access rights to files in the web server.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Check the file name.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Deficiencies in session management</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Make the session ID difficult to guess.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Do not store the session ID in the URL parameter.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Add the secure attribute to the cookie used for HTTPS communication.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>After a successful login, a new session is started.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>After a successful login, we issue a secret information separate from the existing session ID and check its value at each page transition.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Do not set the session ID to a fixed value.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>If you set the session ID as a cookie, be careful to set the expiration date.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cross-site scripting</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>What to do if you don't allow HTML text to be entered</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Measures to be taken when allowing HTML text to be entered</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The same measures apply to all web applications</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Apply escape processing to all elements output to a web page.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>When outputting URLs, only URLs that begin with "http://" or "https://" are allowed.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;script&gt;... &lt;/script&gt; The content of the element is not generated dynamically.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Do not allow style sheets to be imported from any site.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Check the contents of the input value.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Create a parse tree from the input HTML text and extract only the necessary elements that do not contain a script.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Eliminate a script from the input HTML text.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Specify the character code (charset) in the Content-Type field of the HTTP response header.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>To prevent cookie information leakage, add HttpOnly attribute to issued cookies and disable the TRACE method.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Returns a response header that enables a feature in the browser that is effective as a potential cross-site scripting vulnerability countermeasure.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The page to be processed is accessed by the POST method, and the previous page is automatically generated so that the secret information is inserted into the "hidden parameter" of the page, and the execution page executes the process only if the value is correct.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The page just before executing the process asks for the password again, and the execution page executes the process only if the password entered again is correct.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Check to see if the referrer is the correct link source, and if it is, run the process only.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Automatically send a notification to your registered email address when you perform an important operation.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Do not output the header directly, use the header output API provided in the execution environment and language of the web application.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>If the API for header output that properly processes the line feed code cannot be used, implement the appropriate process by the developer himself so that line feed is not allowed.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Remove the line feed code for all external input.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTTP Header Injection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Set the mail header to a fixed value and output all external input to the body of the mail.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Use the API for sending mail provided in the web application's execution environment and language (if 8-(i) cannot be adopted).</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Do not specify the destination in HTML.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail Header Injection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outputs the X-Frame-Options header field in the HTTP response header to restrict loading by frame elements and iframe elements from sites of other domains.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>clickjacking</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The important process ensures that a series of operations cannot be performed with the mouse alone.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Write in a language that does not allow direct access to memory.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Minimize the portion of the code written in a language that has direct access to memory.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Use the version of the library where the vulnerability has been fixed.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>buffer overflow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Websites that require access control protection are equipped with an authentication function that requires the entry of confidential information, such as a password.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>In addition to the authentication function, the authorization control process is implemented to prevent the user from pretending to be someone else while logged in.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lack of access control or authorization control</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF
+（Cross Site Request Forgeries)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Classification：new、addition、modification、deletion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1197,9 +1061,9 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">1.SQLインジェクション(SQL Injection)
-7.HTTPヘッダ・インジェクション(HTTP Header Injection)
-8.メールヘッダ・インジェクション(Mail Header Injection)
+      <t xml:space="preserve">1.SQL Injection
+7.HTTP Header Injection
+8.Mail Header Injection
 </t>
     </r>
     <r>
@@ -1217,7 +1081,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>10.バッファオーバーフロー(buffer overflow)</t>
+    <t>10.buffer overflow</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1230,8 +1094,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">1-(iii) SQLインジェクション エラーメッセージをそのままブラウザに表示しない
-(SQL Injection Don't display SQL Injection error messages in the browser)
+      <t xml:space="preserve">1-(iii) SQL Injection Don't display SQL Injection error messages in the browser
 </t>
     </r>
     <r>
@@ -1245,13 +1108,10 @@
       <t xml:space="preserve">
 Handling the above items will prevent users from seeing error messages and stack traces that are not handled by the business application. The error messages output by the business application should be handled by the project individually. (e.g., do not output detailed messages when authentication fails)</t>
     </r>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5.クロスサイト・スクリプティング(cross-site scripting)</t>
+    <t>5.cross-site scripting</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1264,8 +1124,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">3.パス名パラメータの未チェック／ディレクトリ・トラバーサル(Unchecked pathname parameter/directory traversal)
-11.アクセス制御や認可制御の欠落(Lack of access control or authorization control etc..)
+      <t xml:space="preserve">3.Unchecked pathname parameter/directory traversal
+11.Lack of access control or authorization control etc..
 </t>
     </r>
     <r>
@@ -1283,27 +1143,27 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>6.CSRF（cross-site request forgery）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.セッション管理の不備(Deficiencies in session management)
-11.アクセス制御や認可制御の欠落(Lack of access control or authorization control etc..)
+    <t xml:space="preserve">4.Deficiencies in session management
+11.Lack of access control or authorization control etc..
 </t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PCI DSS Items</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Mail Send</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mail send</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1845,7 +1705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1883,9 +1743,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1932,9 +1789,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1968,9 +1822,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2021,9 +1872,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2099,10 +1947,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2112,158 +1960,158 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3475,842 +3323,842 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="71" customWidth="1"/>
-    <col min="2" max="2" width="9" style="71" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="85" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="52.625" style="71" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="71" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="85" customWidth="1"/>
-    <col min="10" max="255" width="9" style="71"/>
-    <col min="256" max="256" width="3.875" style="71" customWidth="1"/>
-    <col min="257" max="257" width="5.5" style="71" customWidth="1"/>
-    <col min="258" max="258" width="9" style="71"/>
-    <col min="259" max="259" width="4.875" style="71" customWidth="1"/>
-    <col min="260" max="260" width="11.75" style="71" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="71" customWidth="1"/>
-    <col min="262" max="262" width="52.625" style="71" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.5" style="71" customWidth="1"/>
-    <col min="265" max="265" width="8.625" style="71" customWidth="1"/>
-    <col min="266" max="511" width="9" style="71"/>
-    <col min="512" max="512" width="3.875" style="71" customWidth="1"/>
-    <col min="513" max="513" width="5.5" style="71" customWidth="1"/>
-    <col min="514" max="514" width="9" style="71"/>
-    <col min="515" max="515" width="4.875" style="71" customWidth="1"/>
-    <col min="516" max="516" width="11.75" style="71" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="71" customWidth="1"/>
-    <col min="518" max="518" width="52.625" style="71" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.5" style="71" customWidth="1"/>
-    <col min="521" max="521" width="8.625" style="71" customWidth="1"/>
-    <col min="522" max="767" width="9" style="71"/>
-    <col min="768" max="768" width="3.875" style="71" customWidth="1"/>
-    <col min="769" max="769" width="5.5" style="71" customWidth="1"/>
-    <col min="770" max="770" width="9" style="71"/>
-    <col min="771" max="771" width="4.875" style="71" customWidth="1"/>
-    <col min="772" max="772" width="11.75" style="71" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="71" customWidth="1"/>
-    <col min="774" max="774" width="52.625" style="71" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.5" style="71" customWidth="1"/>
-    <col min="777" max="777" width="8.625" style="71" customWidth="1"/>
-    <col min="778" max="1023" width="9" style="71"/>
-    <col min="1024" max="1024" width="3.875" style="71" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5" style="71" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="71"/>
-    <col min="1027" max="1027" width="4.875" style="71" customWidth="1"/>
-    <col min="1028" max="1028" width="11.75" style="71" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="71" customWidth="1"/>
-    <col min="1030" max="1030" width="52.625" style="71" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.5" style="71" customWidth="1"/>
-    <col min="1033" max="1033" width="8.625" style="71" customWidth="1"/>
-    <col min="1034" max="1279" width="9" style="71"/>
-    <col min="1280" max="1280" width="3.875" style="71" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5" style="71" customWidth="1"/>
-    <col min="1282" max="1282" width="9" style="71"/>
-    <col min="1283" max="1283" width="4.875" style="71" customWidth="1"/>
-    <col min="1284" max="1284" width="11.75" style="71" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="71" customWidth="1"/>
-    <col min="1286" max="1286" width="52.625" style="71" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.5" style="71" customWidth="1"/>
-    <col min="1289" max="1289" width="8.625" style="71" customWidth="1"/>
-    <col min="1290" max="1535" width="9" style="71"/>
-    <col min="1536" max="1536" width="3.875" style="71" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5" style="71" customWidth="1"/>
-    <col min="1538" max="1538" width="9" style="71"/>
-    <col min="1539" max="1539" width="4.875" style="71" customWidth="1"/>
-    <col min="1540" max="1540" width="11.75" style="71" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="71" customWidth="1"/>
-    <col min="1542" max="1542" width="52.625" style="71" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.5" style="71" customWidth="1"/>
-    <col min="1545" max="1545" width="8.625" style="71" customWidth="1"/>
-    <col min="1546" max="1791" width="9" style="71"/>
-    <col min="1792" max="1792" width="3.875" style="71" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5" style="71" customWidth="1"/>
-    <col min="1794" max="1794" width="9" style="71"/>
-    <col min="1795" max="1795" width="4.875" style="71" customWidth="1"/>
-    <col min="1796" max="1796" width="11.75" style="71" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="71" customWidth="1"/>
-    <col min="1798" max="1798" width="52.625" style="71" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.5" style="71" customWidth="1"/>
-    <col min="1801" max="1801" width="8.625" style="71" customWidth="1"/>
-    <col min="1802" max="2047" width="9" style="71"/>
-    <col min="2048" max="2048" width="3.875" style="71" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5" style="71" customWidth="1"/>
-    <col min="2050" max="2050" width="9" style="71"/>
-    <col min="2051" max="2051" width="4.875" style="71" customWidth="1"/>
-    <col min="2052" max="2052" width="11.75" style="71" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="71" customWidth="1"/>
-    <col min="2054" max="2054" width="52.625" style="71" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.5" style="71" customWidth="1"/>
-    <col min="2057" max="2057" width="8.625" style="71" customWidth="1"/>
-    <col min="2058" max="2303" width="9" style="71"/>
-    <col min="2304" max="2304" width="3.875" style="71" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5" style="71" customWidth="1"/>
-    <col min="2306" max="2306" width="9" style="71"/>
-    <col min="2307" max="2307" width="4.875" style="71" customWidth="1"/>
-    <col min="2308" max="2308" width="11.75" style="71" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="71" customWidth="1"/>
-    <col min="2310" max="2310" width="52.625" style="71" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.5" style="71" customWidth="1"/>
-    <col min="2313" max="2313" width="8.625" style="71" customWidth="1"/>
-    <col min="2314" max="2559" width="9" style="71"/>
-    <col min="2560" max="2560" width="3.875" style="71" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5" style="71" customWidth="1"/>
-    <col min="2562" max="2562" width="9" style="71"/>
-    <col min="2563" max="2563" width="4.875" style="71" customWidth="1"/>
-    <col min="2564" max="2564" width="11.75" style="71" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="71" customWidth="1"/>
-    <col min="2566" max="2566" width="52.625" style="71" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.5" style="71" customWidth="1"/>
-    <col min="2569" max="2569" width="8.625" style="71" customWidth="1"/>
-    <col min="2570" max="2815" width="9" style="71"/>
-    <col min="2816" max="2816" width="3.875" style="71" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5" style="71" customWidth="1"/>
-    <col min="2818" max="2818" width="9" style="71"/>
-    <col min="2819" max="2819" width="4.875" style="71" customWidth="1"/>
-    <col min="2820" max="2820" width="11.75" style="71" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="71" customWidth="1"/>
-    <col min="2822" max="2822" width="52.625" style="71" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.5" style="71" customWidth="1"/>
-    <col min="2825" max="2825" width="8.625" style="71" customWidth="1"/>
-    <col min="2826" max="3071" width="9" style="71"/>
-    <col min="3072" max="3072" width="3.875" style="71" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5" style="71" customWidth="1"/>
-    <col min="3074" max="3074" width="9" style="71"/>
-    <col min="3075" max="3075" width="4.875" style="71" customWidth="1"/>
-    <col min="3076" max="3076" width="11.75" style="71" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="71" customWidth="1"/>
-    <col min="3078" max="3078" width="52.625" style="71" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.5" style="71" customWidth="1"/>
-    <col min="3081" max="3081" width="8.625" style="71" customWidth="1"/>
-    <col min="3082" max="3327" width="9" style="71"/>
-    <col min="3328" max="3328" width="3.875" style="71" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5" style="71" customWidth="1"/>
-    <col min="3330" max="3330" width="9" style="71"/>
-    <col min="3331" max="3331" width="4.875" style="71" customWidth="1"/>
-    <col min="3332" max="3332" width="11.75" style="71" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="71" customWidth="1"/>
-    <col min="3334" max="3334" width="52.625" style="71" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.5" style="71" customWidth="1"/>
-    <col min="3337" max="3337" width="8.625" style="71" customWidth="1"/>
-    <col min="3338" max="3583" width="9" style="71"/>
-    <col min="3584" max="3584" width="3.875" style="71" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5" style="71" customWidth="1"/>
-    <col min="3586" max="3586" width="9" style="71"/>
-    <col min="3587" max="3587" width="4.875" style="71" customWidth="1"/>
-    <col min="3588" max="3588" width="11.75" style="71" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="71" customWidth="1"/>
-    <col min="3590" max="3590" width="52.625" style="71" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.5" style="71" customWidth="1"/>
-    <col min="3593" max="3593" width="8.625" style="71" customWidth="1"/>
-    <col min="3594" max="3839" width="9" style="71"/>
-    <col min="3840" max="3840" width="3.875" style="71" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5" style="71" customWidth="1"/>
-    <col min="3842" max="3842" width="9" style="71"/>
-    <col min="3843" max="3843" width="4.875" style="71" customWidth="1"/>
-    <col min="3844" max="3844" width="11.75" style="71" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="71" customWidth="1"/>
-    <col min="3846" max="3846" width="52.625" style="71" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.5" style="71" customWidth="1"/>
-    <col min="3849" max="3849" width="8.625" style="71" customWidth="1"/>
-    <col min="3850" max="4095" width="9" style="71"/>
-    <col min="4096" max="4096" width="3.875" style="71" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5" style="71" customWidth="1"/>
-    <col min="4098" max="4098" width="9" style="71"/>
-    <col min="4099" max="4099" width="4.875" style="71" customWidth="1"/>
-    <col min="4100" max="4100" width="11.75" style="71" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="71" customWidth="1"/>
-    <col min="4102" max="4102" width="52.625" style="71" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.5" style="71" customWidth="1"/>
-    <col min="4105" max="4105" width="8.625" style="71" customWidth="1"/>
-    <col min="4106" max="4351" width="9" style="71"/>
-    <col min="4352" max="4352" width="3.875" style="71" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5" style="71" customWidth="1"/>
-    <col min="4354" max="4354" width="9" style="71"/>
-    <col min="4355" max="4355" width="4.875" style="71" customWidth="1"/>
-    <col min="4356" max="4356" width="11.75" style="71" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="71" customWidth="1"/>
-    <col min="4358" max="4358" width="52.625" style="71" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.5" style="71" customWidth="1"/>
-    <col min="4361" max="4361" width="8.625" style="71" customWidth="1"/>
-    <col min="4362" max="4607" width="9" style="71"/>
-    <col min="4608" max="4608" width="3.875" style="71" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5" style="71" customWidth="1"/>
-    <col min="4610" max="4610" width="9" style="71"/>
-    <col min="4611" max="4611" width="4.875" style="71" customWidth="1"/>
-    <col min="4612" max="4612" width="11.75" style="71" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="71" customWidth="1"/>
-    <col min="4614" max="4614" width="52.625" style="71" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.5" style="71" customWidth="1"/>
-    <col min="4617" max="4617" width="8.625" style="71" customWidth="1"/>
-    <col min="4618" max="4863" width="9" style="71"/>
-    <col min="4864" max="4864" width="3.875" style="71" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5" style="71" customWidth="1"/>
-    <col min="4866" max="4866" width="9" style="71"/>
-    <col min="4867" max="4867" width="4.875" style="71" customWidth="1"/>
-    <col min="4868" max="4868" width="11.75" style="71" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="71" customWidth="1"/>
-    <col min="4870" max="4870" width="52.625" style="71" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.5" style="71" customWidth="1"/>
-    <col min="4873" max="4873" width="8.625" style="71" customWidth="1"/>
-    <col min="4874" max="5119" width="9" style="71"/>
-    <col min="5120" max="5120" width="3.875" style="71" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5" style="71" customWidth="1"/>
-    <col min="5122" max="5122" width="9" style="71"/>
-    <col min="5123" max="5123" width="4.875" style="71" customWidth="1"/>
-    <col min="5124" max="5124" width="11.75" style="71" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="71" customWidth="1"/>
-    <col min="5126" max="5126" width="52.625" style="71" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.5" style="71" customWidth="1"/>
-    <col min="5129" max="5129" width="8.625" style="71" customWidth="1"/>
-    <col min="5130" max="5375" width="9" style="71"/>
-    <col min="5376" max="5376" width="3.875" style="71" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5" style="71" customWidth="1"/>
-    <col min="5378" max="5378" width="9" style="71"/>
-    <col min="5379" max="5379" width="4.875" style="71" customWidth="1"/>
-    <col min="5380" max="5380" width="11.75" style="71" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="71" customWidth="1"/>
-    <col min="5382" max="5382" width="52.625" style="71" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.5" style="71" customWidth="1"/>
-    <col min="5385" max="5385" width="8.625" style="71" customWidth="1"/>
-    <col min="5386" max="5631" width="9" style="71"/>
-    <col min="5632" max="5632" width="3.875" style="71" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5" style="71" customWidth="1"/>
-    <col min="5634" max="5634" width="9" style="71"/>
-    <col min="5635" max="5635" width="4.875" style="71" customWidth="1"/>
-    <col min="5636" max="5636" width="11.75" style="71" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="71" customWidth="1"/>
-    <col min="5638" max="5638" width="52.625" style="71" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.5" style="71" customWidth="1"/>
-    <col min="5641" max="5641" width="8.625" style="71" customWidth="1"/>
-    <col min="5642" max="5887" width="9" style="71"/>
-    <col min="5888" max="5888" width="3.875" style="71" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5" style="71" customWidth="1"/>
-    <col min="5890" max="5890" width="9" style="71"/>
-    <col min="5891" max="5891" width="4.875" style="71" customWidth="1"/>
-    <col min="5892" max="5892" width="11.75" style="71" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="71" customWidth="1"/>
-    <col min="5894" max="5894" width="52.625" style="71" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.5" style="71" customWidth="1"/>
-    <col min="5897" max="5897" width="8.625" style="71" customWidth="1"/>
-    <col min="5898" max="6143" width="9" style="71"/>
-    <col min="6144" max="6144" width="3.875" style="71" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5" style="71" customWidth="1"/>
-    <col min="6146" max="6146" width="9" style="71"/>
-    <col min="6147" max="6147" width="4.875" style="71" customWidth="1"/>
-    <col min="6148" max="6148" width="11.75" style="71" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="71" customWidth="1"/>
-    <col min="6150" max="6150" width="52.625" style="71" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.5" style="71" customWidth="1"/>
-    <col min="6153" max="6153" width="8.625" style="71" customWidth="1"/>
-    <col min="6154" max="6399" width="9" style="71"/>
-    <col min="6400" max="6400" width="3.875" style="71" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5" style="71" customWidth="1"/>
-    <col min="6402" max="6402" width="9" style="71"/>
-    <col min="6403" max="6403" width="4.875" style="71" customWidth="1"/>
-    <col min="6404" max="6404" width="11.75" style="71" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="71" customWidth="1"/>
-    <col min="6406" max="6406" width="52.625" style="71" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.5" style="71" customWidth="1"/>
-    <col min="6409" max="6409" width="8.625" style="71" customWidth="1"/>
-    <col min="6410" max="6655" width="9" style="71"/>
-    <col min="6656" max="6656" width="3.875" style="71" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5" style="71" customWidth="1"/>
-    <col min="6658" max="6658" width="9" style="71"/>
-    <col min="6659" max="6659" width="4.875" style="71" customWidth="1"/>
-    <col min="6660" max="6660" width="11.75" style="71" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="71" customWidth="1"/>
-    <col min="6662" max="6662" width="52.625" style="71" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.5" style="71" customWidth="1"/>
-    <col min="6665" max="6665" width="8.625" style="71" customWidth="1"/>
-    <col min="6666" max="6911" width="9" style="71"/>
-    <col min="6912" max="6912" width="3.875" style="71" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5" style="71" customWidth="1"/>
-    <col min="6914" max="6914" width="9" style="71"/>
-    <col min="6915" max="6915" width="4.875" style="71" customWidth="1"/>
-    <col min="6916" max="6916" width="11.75" style="71" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="71" customWidth="1"/>
-    <col min="6918" max="6918" width="52.625" style="71" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.5" style="71" customWidth="1"/>
-    <col min="6921" max="6921" width="8.625" style="71" customWidth="1"/>
-    <col min="6922" max="7167" width="9" style="71"/>
-    <col min="7168" max="7168" width="3.875" style="71" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5" style="71" customWidth="1"/>
-    <col min="7170" max="7170" width="9" style="71"/>
-    <col min="7171" max="7171" width="4.875" style="71" customWidth="1"/>
-    <col min="7172" max="7172" width="11.75" style="71" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="71" customWidth="1"/>
-    <col min="7174" max="7174" width="52.625" style="71" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.5" style="71" customWidth="1"/>
-    <col min="7177" max="7177" width="8.625" style="71" customWidth="1"/>
-    <col min="7178" max="7423" width="9" style="71"/>
-    <col min="7424" max="7424" width="3.875" style="71" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5" style="71" customWidth="1"/>
-    <col min="7426" max="7426" width="9" style="71"/>
-    <col min="7427" max="7427" width="4.875" style="71" customWidth="1"/>
-    <col min="7428" max="7428" width="11.75" style="71" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="71" customWidth="1"/>
-    <col min="7430" max="7430" width="52.625" style="71" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.5" style="71" customWidth="1"/>
-    <col min="7433" max="7433" width="8.625" style="71" customWidth="1"/>
-    <col min="7434" max="7679" width="9" style="71"/>
-    <col min="7680" max="7680" width="3.875" style="71" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5" style="71" customWidth="1"/>
-    <col min="7682" max="7682" width="9" style="71"/>
-    <col min="7683" max="7683" width="4.875" style="71" customWidth="1"/>
-    <col min="7684" max="7684" width="11.75" style="71" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="71" customWidth="1"/>
-    <col min="7686" max="7686" width="52.625" style="71" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.5" style="71" customWidth="1"/>
-    <col min="7689" max="7689" width="8.625" style="71" customWidth="1"/>
-    <col min="7690" max="7935" width="9" style="71"/>
-    <col min="7936" max="7936" width="3.875" style="71" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5" style="71" customWidth="1"/>
-    <col min="7938" max="7938" width="9" style="71"/>
-    <col min="7939" max="7939" width="4.875" style="71" customWidth="1"/>
-    <col min="7940" max="7940" width="11.75" style="71" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="71" customWidth="1"/>
-    <col min="7942" max="7942" width="52.625" style="71" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.5" style="71" customWidth="1"/>
-    <col min="7945" max="7945" width="8.625" style="71" customWidth="1"/>
-    <col min="7946" max="8191" width="9" style="71"/>
-    <col min="8192" max="8192" width="3.875" style="71" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5" style="71" customWidth="1"/>
-    <col min="8194" max="8194" width="9" style="71"/>
-    <col min="8195" max="8195" width="4.875" style="71" customWidth="1"/>
-    <col min="8196" max="8196" width="11.75" style="71" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="71" customWidth="1"/>
-    <col min="8198" max="8198" width="52.625" style="71" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.5" style="71" customWidth="1"/>
-    <col min="8201" max="8201" width="8.625" style="71" customWidth="1"/>
-    <col min="8202" max="8447" width="9" style="71"/>
-    <col min="8448" max="8448" width="3.875" style="71" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5" style="71" customWidth="1"/>
-    <col min="8450" max="8450" width="9" style="71"/>
-    <col min="8451" max="8451" width="4.875" style="71" customWidth="1"/>
-    <col min="8452" max="8452" width="11.75" style="71" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="71" customWidth="1"/>
-    <col min="8454" max="8454" width="52.625" style="71" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.5" style="71" customWidth="1"/>
-    <col min="8457" max="8457" width="8.625" style="71" customWidth="1"/>
-    <col min="8458" max="8703" width="9" style="71"/>
-    <col min="8704" max="8704" width="3.875" style="71" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5" style="71" customWidth="1"/>
-    <col min="8706" max="8706" width="9" style="71"/>
-    <col min="8707" max="8707" width="4.875" style="71" customWidth="1"/>
-    <col min="8708" max="8708" width="11.75" style="71" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="71" customWidth="1"/>
-    <col min="8710" max="8710" width="52.625" style="71" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.5" style="71" customWidth="1"/>
-    <col min="8713" max="8713" width="8.625" style="71" customWidth="1"/>
-    <col min="8714" max="8959" width="9" style="71"/>
-    <col min="8960" max="8960" width="3.875" style="71" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5" style="71" customWidth="1"/>
-    <col min="8962" max="8962" width="9" style="71"/>
-    <col min="8963" max="8963" width="4.875" style="71" customWidth="1"/>
-    <col min="8964" max="8964" width="11.75" style="71" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="71" customWidth="1"/>
-    <col min="8966" max="8966" width="52.625" style="71" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.5" style="71" customWidth="1"/>
-    <col min="8969" max="8969" width="8.625" style="71" customWidth="1"/>
-    <col min="8970" max="9215" width="9" style="71"/>
-    <col min="9216" max="9216" width="3.875" style="71" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5" style="71" customWidth="1"/>
-    <col min="9218" max="9218" width="9" style="71"/>
-    <col min="9219" max="9219" width="4.875" style="71" customWidth="1"/>
-    <col min="9220" max="9220" width="11.75" style="71" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="71" customWidth="1"/>
-    <col min="9222" max="9222" width="52.625" style="71" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.5" style="71" customWidth="1"/>
-    <col min="9225" max="9225" width="8.625" style="71" customWidth="1"/>
-    <col min="9226" max="9471" width="9" style="71"/>
-    <col min="9472" max="9472" width="3.875" style="71" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5" style="71" customWidth="1"/>
-    <col min="9474" max="9474" width="9" style="71"/>
-    <col min="9475" max="9475" width="4.875" style="71" customWidth="1"/>
-    <col min="9476" max="9476" width="11.75" style="71" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="71" customWidth="1"/>
-    <col min="9478" max="9478" width="52.625" style="71" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.5" style="71" customWidth="1"/>
-    <col min="9481" max="9481" width="8.625" style="71" customWidth="1"/>
-    <col min="9482" max="9727" width="9" style="71"/>
-    <col min="9728" max="9728" width="3.875" style="71" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5" style="71" customWidth="1"/>
-    <col min="9730" max="9730" width="9" style="71"/>
-    <col min="9731" max="9731" width="4.875" style="71" customWidth="1"/>
-    <col min="9732" max="9732" width="11.75" style="71" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="71" customWidth="1"/>
-    <col min="9734" max="9734" width="52.625" style="71" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.5" style="71" customWidth="1"/>
-    <col min="9737" max="9737" width="8.625" style="71" customWidth="1"/>
-    <col min="9738" max="9983" width="9" style="71"/>
-    <col min="9984" max="9984" width="3.875" style="71" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5" style="71" customWidth="1"/>
-    <col min="9986" max="9986" width="9" style="71"/>
-    <col min="9987" max="9987" width="4.875" style="71" customWidth="1"/>
-    <col min="9988" max="9988" width="11.75" style="71" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="71" customWidth="1"/>
-    <col min="9990" max="9990" width="52.625" style="71" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.5" style="71" customWidth="1"/>
-    <col min="9993" max="9993" width="8.625" style="71" customWidth="1"/>
-    <col min="9994" max="10239" width="9" style="71"/>
-    <col min="10240" max="10240" width="3.875" style="71" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5" style="71" customWidth="1"/>
-    <col min="10242" max="10242" width="9" style="71"/>
-    <col min="10243" max="10243" width="4.875" style="71" customWidth="1"/>
-    <col min="10244" max="10244" width="11.75" style="71" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="71" customWidth="1"/>
-    <col min="10246" max="10246" width="52.625" style="71" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.5" style="71" customWidth="1"/>
-    <col min="10249" max="10249" width="8.625" style="71" customWidth="1"/>
-    <col min="10250" max="10495" width="9" style="71"/>
-    <col min="10496" max="10496" width="3.875" style="71" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5" style="71" customWidth="1"/>
-    <col min="10498" max="10498" width="9" style="71"/>
-    <col min="10499" max="10499" width="4.875" style="71" customWidth="1"/>
-    <col min="10500" max="10500" width="11.75" style="71" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="71" customWidth="1"/>
-    <col min="10502" max="10502" width="52.625" style="71" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.5" style="71" customWidth="1"/>
-    <col min="10505" max="10505" width="8.625" style="71" customWidth="1"/>
-    <col min="10506" max="10751" width="9" style="71"/>
-    <col min="10752" max="10752" width="3.875" style="71" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5" style="71" customWidth="1"/>
-    <col min="10754" max="10754" width="9" style="71"/>
-    <col min="10755" max="10755" width="4.875" style="71" customWidth="1"/>
-    <col min="10756" max="10756" width="11.75" style="71" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="71" customWidth="1"/>
-    <col min="10758" max="10758" width="52.625" style="71" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.5" style="71" customWidth="1"/>
-    <col min="10761" max="10761" width="8.625" style="71" customWidth="1"/>
-    <col min="10762" max="11007" width="9" style="71"/>
-    <col min="11008" max="11008" width="3.875" style="71" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5" style="71" customWidth="1"/>
-    <col min="11010" max="11010" width="9" style="71"/>
-    <col min="11011" max="11011" width="4.875" style="71" customWidth="1"/>
-    <col min="11012" max="11012" width="11.75" style="71" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="71" customWidth="1"/>
-    <col min="11014" max="11014" width="52.625" style="71" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.5" style="71" customWidth="1"/>
-    <col min="11017" max="11017" width="8.625" style="71" customWidth="1"/>
-    <col min="11018" max="11263" width="9" style="71"/>
-    <col min="11264" max="11264" width="3.875" style="71" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5" style="71" customWidth="1"/>
-    <col min="11266" max="11266" width="9" style="71"/>
-    <col min="11267" max="11267" width="4.875" style="71" customWidth="1"/>
-    <col min="11268" max="11268" width="11.75" style="71" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="71" customWidth="1"/>
-    <col min="11270" max="11270" width="52.625" style="71" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.5" style="71" customWidth="1"/>
-    <col min="11273" max="11273" width="8.625" style="71" customWidth="1"/>
-    <col min="11274" max="11519" width="9" style="71"/>
-    <col min="11520" max="11520" width="3.875" style="71" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5" style="71" customWidth="1"/>
-    <col min="11522" max="11522" width="9" style="71"/>
-    <col min="11523" max="11523" width="4.875" style="71" customWidth="1"/>
-    <col min="11524" max="11524" width="11.75" style="71" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="71" customWidth="1"/>
-    <col min="11526" max="11526" width="52.625" style="71" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.5" style="71" customWidth="1"/>
-    <col min="11529" max="11529" width="8.625" style="71" customWidth="1"/>
-    <col min="11530" max="11775" width="9" style="71"/>
-    <col min="11776" max="11776" width="3.875" style="71" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5" style="71" customWidth="1"/>
-    <col min="11778" max="11778" width="9" style="71"/>
-    <col min="11779" max="11779" width="4.875" style="71" customWidth="1"/>
-    <col min="11780" max="11780" width="11.75" style="71" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="71" customWidth="1"/>
-    <col min="11782" max="11782" width="52.625" style="71" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.5" style="71" customWidth="1"/>
-    <col min="11785" max="11785" width="8.625" style="71" customWidth="1"/>
-    <col min="11786" max="12031" width="9" style="71"/>
-    <col min="12032" max="12032" width="3.875" style="71" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5" style="71" customWidth="1"/>
-    <col min="12034" max="12034" width="9" style="71"/>
-    <col min="12035" max="12035" width="4.875" style="71" customWidth="1"/>
-    <col min="12036" max="12036" width="11.75" style="71" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="71" customWidth="1"/>
-    <col min="12038" max="12038" width="52.625" style="71" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.5" style="71" customWidth="1"/>
-    <col min="12041" max="12041" width="8.625" style="71" customWidth="1"/>
-    <col min="12042" max="12287" width="9" style="71"/>
-    <col min="12288" max="12288" width="3.875" style="71" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5" style="71" customWidth="1"/>
-    <col min="12290" max="12290" width="9" style="71"/>
-    <col min="12291" max="12291" width="4.875" style="71" customWidth="1"/>
-    <col min="12292" max="12292" width="11.75" style="71" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="71" customWidth="1"/>
-    <col min="12294" max="12294" width="52.625" style="71" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.5" style="71" customWidth="1"/>
-    <col min="12297" max="12297" width="8.625" style="71" customWidth="1"/>
-    <col min="12298" max="12543" width="9" style="71"/>
-    <col min="12544" max="12544" width="3.875" style="71" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5" style="71" customWidth="1"/>
-    <col min="12546" max="12546" width="9" style="71"/>
-    <col min="12547" max="12547" width="4.875" style="71" customWidth="1"/>
-    <col min="12548" max="12548" width="11.75" style="71" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="71" customWidth="1"/>
-    <col min="12550" max="12550" width="52.625" style="71" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.5" style="71" customWidth="1"/>
-    <col min="12553" max="12553" width="8.625" style="71" customWidth="1"/>
-    <col min="12554" max="12799" width="9" style="71"/>
-    <col min="12800" max="12800" width="3.875" style="71" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5" style="71" customWidth="1"/>
-    <col min="12802" max="12802" width="9" style="71"/>
-    <col min="12803" max="12803" width="4.875" style="71" customWidth="1"/>
-    <col min="12804" max="12804" width="11.75" style="71" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="71" customWidth="1"/>
-    <col min="12806" max="12806" width="52.625" style="71" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.5" style="71" customWidth="1"/>
-    <col min="12809" max="12809" width="8.625" style="71" customWidth="1"/>
-    <col min="12810" max="13055" width="9" style="71"/>
-    <col min="13056" max="13056" width="3.875" style="71" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5" style="71" customWidth="1"/>
-    <col min="13058" max="13058" width="9" style="71"/>
-    <col min="13059" max="13059" width="4.875" style="71" customWidth="1"/>
-    <col min="13060" max="13060" width="11.75" style="71" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="71" customWidth="1"/>
-    <col min="13062" max="13062" width="52.625" style="71" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.5" style="71" customWidth="1"/>
-    <col min="13065" max="13065" width="8.625" style="71" customWidth="1"/>
-    <col min="13066" max="13311" width="9" style="71"/>
-    <col min="13312" max="13312" width="3.875" style="71" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5" style="71" customWidth="1"/>
-    <col min="13314" max="13314" width="9" style="71"/>
-    <col min="13315" max="13315" width="4.875" style="71" customWidth="1"/>
-    <col min="13316" max="13316" width="11.75" style="71" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="71" customWidth="1"/>
-    <col min="13318" max="13318" width="52.625" style="71" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.5" style="71" customWidth="1"/>
-    <col min="13321" max="13321" width="8.625" style="71" customWidth="1"/>
-    <col min="13322" max="13567" width="9" style="71"/>
-    <col min="13568" max="13568" width="3.875" style="71" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5" style="71" customWidth="1"/>
-    <col min="13570" max="13570" width="9" style="71"/>
-    <col min="13571" max="13571" width="4.875" style="71" customWidth="1"/>
-    <col min="13572" max="13572" width="11.75" style="71" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="71" customWidth="1"/>
-    <col min="13574" max="13574" width="52.625" style="71" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.5" style="71" customWidth="1"/>
-    <col min="13577" max="13577" width="8.625" style="71" customWidth="1"/>
-    <col min="13578" max="13823" width="9" style="71"/>
-    <col min="13824" max="13824" width="3.875" style="71" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5" style="71" customWidth="1"/>
-    <col min="13826" max="13826" width="9" style="71"/>
-    <col min="13827" max="13827" width="4.875" style="71" customWidth="1"/>
-    <col min="13828" max="13828" width="11.75" style="71" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="71" customWidth="1"/>
-    <col min="13830" max="13830" width="52.625" style="71" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.5" style="71" customWidth="1"/>
-    <col min="13833" max="13833" width="8.625" style="71" customWidth="1"/>
-    <col min="13834" max="14079" width="9" style="71"/>
-    <col min="14080" max="14080" width="3.875" style="71" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5" style="71" customWidth="1"/>
-    <col min="14082" max="14082" width="9" style="71"/>
-    <col min="14083" max="14083" width="4.875" style="71" customWidth="1"/>
-    <col min="14084" max="14084" width="11.75" style="71" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="71" customWidth="1"/>
-    <col min="14086" max="14086" width="52.625" style="71" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.5" style="71" customWidth="1"/>
-    <col min="14089" max="14089" width="8.625" style="71" customWidth="1"/>
-    <col min="14090" max="14335" width="9" style="71"/>
-    <col min="14336" max="14336" width="3.875" style="71" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5" style="71" customWidth="1"/>
-    <col min="14338" max="14338" width="9" style="71"/>
-    <col min="14339" max="14339" width="4.875" style="71" customWidth="1"/>
-    <col min="14340" max="14340" width="11.75" style="71" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="71" customWidth="1"/>
-    <col min="14342" max="14342" width="52.625" style="71" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.5" style="71" customWidth="1"/>
-    <col min="14345" max="14345" width="8.625" style="71" customWidth="1"/>
-    <col min="14346" max="14591" width="9" style="71"/>
-    <col min="14592" max="14592" width="3.875" style="71" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5" style="71" customWidth="1"/>
-    <col min="14594" max="14594" width="9" style="71"/>
-    <col min="14595" max="14595" width="4.875" style="71" customWidth="1"/>
-    <col min="14596" max="14596" width="11.75" style="71" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="71" customWidth="1"/>
-    <col min="14598" max="14598" width="52.625" style="71" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.5" style="71" customWidth="1"/>
-    <col min="14601" max="14601" width="8.625" style="71" customWidth="1"/>
-    <col min="14602" max="14847" width="9" style="71"/>
-    <col min="14848" max="14848" width="3.875" style="71" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5" style="71" customWidth="1"/>
-    <col min="14850" max="14850" width="9" style="71"/>
-    <col min="14851" max="14851" width="4.875" style="71" customWidth="1"/>
-    <col min="14852" max="14852" width="11.75" style="71" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="71" customWidth="1"/>
-    <col min="14854" max="14854" width="52.625" style="71" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.5" style="71" customWidth="1"/>
-    <col min="14857" max="14857" width="8.625" style="71" customWidth="1"/>
-    <col min="14858" max="15103" width="9" style="71"/>
-    <col min="15104" max="15104" width="3.875" style="71" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5" style="71" customWidth="1"/>
-    <col min="15106" max="15106" width="9" style="71"/>
-    <col min="15107" max="15107" width="4.875" style="71" customWidth="1"/>
-    <col min="15108" max="15108" width="11.75" style="71" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="71" customWidth="1"/>
-    <col min="15110" max="15110" width="52.625" style="71" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.5" style="71" customWidth="1"/>
-    <col min="15113" max="15113" width="8.625" style="71" customWidth="1"/>
-    <col min="15114" max="15359" width="9" style="71"/>
-    <col min="15360" max="15360" width="3.875" style="71" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5" style="71" customWidth="1"/>
-    <col min="15362" max="15362" width="9" style="71"/>
-    <col min="15363" max="15363" width="4.875" style="71" customWidth="1"/>
-    <col min="15364" max="15364" width="11.75" style="71" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="71" customWidth="1"/>
-    <col min="15366" max="15366" width="52.625" style="71" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.5" style="71" customWidth="1"/>
-    <col min="15369" max="15369" width="8.625" style="71" customWidth="1"/>
-    <col min="15370" max="15615" width="9" style="71"/>
-    <col min="15616" max="15616" width="3.875" style="71" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5" style="71" customWidth="1"/>
-    <col min="15618" max="15618" width="9" style="71"/>
-    <col min="15619" max="15619" width="4.875" style="71" customWidth="1"/>
-    <col min="15620" max="15620" width="11.75" style="71" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="71" customWidth="1"/>
-    <col min="15622" max="15622" width="52.625" style="71" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.5" style="71" customWidth="1"/>
-    <col min="15625" max="15625" width="8.625" style="71" customWidth="1"/>
-    <col min="15626" max="15871" width="9" style="71"/>
-    <col min="15872" max="15872" width="3.875" style="71" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5" style="71" customWidth="1"/>
-    <col min="15874" max="15874" width="9" style="71"/>
-    <col min="15875" max="15875" width="4.875" style="71" customWidth="1"/>
-    <col min="15876" max="15876" width="11.75" style="71" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="71" customWidth="1"/>
-    <col min="15878" max="15878" width="52.625" style="71" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.5" style="71" customWidth="1"/>
-    <col min="15881" max="15881" width="8.625" style="71" customWidth="1"/>
-    <col min="15882" max="16127" width="9" style="71"/>
-    <col min="16128" max="16128" width="3.875" style="71" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5" style="71" customWidth="1"/>
-    <col min="16130" max="16130" width="9" style="71"/>
-    <col min="16131" max="16131" width="4.875" style="71" customWidth="1"/>
-    <col min="16132" max="16132" width="11.75" style="71" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="71" customWidth="1"/>
-    <col min="16134" max="16134" width="52.625" style="71" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.5" style="71" customWidth="1"/>
-    <col min="16137" max="16137" width="8.625" style="71" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="71"/>
+    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="9" style="67" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
+    <col min="10" max="255" width="9" style="67"/>
+    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
+    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
+    <col min="258" max="258" width="9" style="67"/>
+    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
+    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
+    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
+    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
+    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
+    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
+    <col min="266" max="511" width="9" style="67"/>
+    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
+    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
+    <col min="514" max="514" width="9" style="67"/>
+    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
+    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
+    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
+    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
+    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
+    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
+    <col min="522" max="767" width="9" style="67"/>
+    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
+    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
+    <col min="770" max="770" width="9" style="67"/>
+    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
+    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
+    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
+    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
+    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
+    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
+    <col min="778" max="1023" width="9" style="67"/>
+    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1026" max="1026" width="9" style="67"/>
+    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1034" max="1279" width="9" style="67"/>
+    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1282" max="1282" width="9" style="67"/>
+    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1290" max="1535" width="9" style="67"/>
+    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1538" max="1538" width="9" style="67"/>
+    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1546" max="1791" width="9" style="67"/>
+    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1794" max="1794" width="9" style="67"/>
+    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1802" max="2047" width="9" style="67"/>
+    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2050" max="2050" width="9" style="67"/>
+    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2058" max="2303" width="9" style="67"/>
+    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2306" max="2306" width="9" style="67"/>
+    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2314" max="2559" width="9" style="67"/>
+    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2562" max="2562" width="9" style="67"/>
+    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2570" max="2815" width="9" style="67"/>
+    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2818" max="2818" width="9" style="67"/>
+    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2826" max="3071" width="9" style="67"/>
+    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3074" max="3074" width="9" style="67"/>
+    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3082" max="3327" width="9" style="67"/>
+    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3330" max="3330" width="9" style="67"/>
+    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3338" max="3583" width="9" style="67"/>
+    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3586" max="3586" width="9" style="67"/>
+    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3594" max="3839" width="9" style="67"/>
+    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3842" max="3842" width="9" style="67"/>
+    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3850" max="4095" width="9" style="67"/>
+    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4098" max="4098" width="9" style="67"/>
+    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4106" max="4351" width="9" style="67"/>
+    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4354" max="4354" width="9" style="67"/>
+    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4362" max="4607" width="9" style="67"/>
+    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4610" max="4610" width="9" style="67"/>
+    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4618" max="4863" width="9" style="67"/>
+    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4866" max="4866" width="9" style="67"/>
+    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4874" max="5119" width="9" style="67"/>
+    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5122" max="5122" width="9" style="67"/>
+    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5130" max="5375" width="9" style="67"/>
+    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5378" max="5378" width="9" style="67"/>
+    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5386" max="5631" width="9" style="67"/>
+    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5634" max="5634" width="9" style="67"/>
+    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5642" max="5887" width="9" style="67"/>
+    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5890" max="5890" width="9" style="67"/>
+    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5898" max="6143" width="9" style="67"/>
+    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6146" max="6146" width="9" style="67"/>
+    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6154" max="6399" width="9" style="67"/>
+    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6402" max="6402" width="9" style="67"/>
+    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6410" max="6655" width="9" style="67"/>
+    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6658" max="6658" width="9" style="67"/>
+    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6666" max="6911" width="9" style="67"/>
+    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6914" max="6914" width="9" style="67"/>
+    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6922" max="7167" width="9" style="67"/>
+    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7170" max="7170" width="9" style="67"/>
+    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7178" max="7423" width="9" style="67"/>
+    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7426" max="7426" width="9" style="67"/>
+    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7434" max="7679" width="9" style="67"/>
+    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7682" max="7682" width="9" style="67"/>
+    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7690" max="7935" width="9" style="67"/>
+    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7938" max="7938" width="9" style="67"/>
+    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7946" max="8191" width="9" style="67"/>
+    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8194" max="8194" width="9" style="67"/>
+    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8202" max="8447" width="9" style="67"/>
+    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8450" max="8450" width="9" style="67"/>
+    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8458" max="8703" width="9" style="67"/>
+    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8706" max="8706" width="9" style="67"/>
+    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8714" max="8959" width="9" style="67"/>
+    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8962" max="8962" width="9" style="67"/>
+    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8970" max="9215" width="9" style="67"/>
+    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9218" max="9218" width="9" style="67"/>
+    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9226" max="9471" width="9" style="67"/>
+    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9474" max="9474" width="9" style="67"/>
+    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9482" max="9727" width="9" style="67"/>
+    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9730" max="9730" width="9" style="67"/>
+    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9738" max="9983" width="9" style="67"/>
+    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9986" max="9986" width="9" style="67"/>
+    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9994" max="10239" width="9" style="67"/>
+    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10242" max="10242" width="9" style="67"/>
+    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10250" max="10495" width="9" style="67"/>
+    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10498" max="10498" width="9" style="67"/>
+    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10506" max="10751" width="9" style="67"/>
+    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10754" max="10754" width="9" style="67"/>
+    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10762" max="11007" width="9" style="67"/>
+    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11010" max="11010" width="9" style="67"/>
+    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11018" max="11263" width="9" style="67"/>
+    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11266" max="11266" width="9" style="67"/>
+    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11274" max="11519" width="9" style="67"/>
+    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11522" max="11522" width="9" style="67"/>
+    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11530" max="11775" width="9" style="67"/>
+    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11778" max="11778" width="9" style="67"/>
+    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11786" max="12031" width="9" style="67"/>
+    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12034" max="12034" width="9" style="67"/>
+    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12042" max="12287" width="9" style="67"/>
+    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12290" max="12290" width="9" style="67"/>
+    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12298" max="12543" width="9" style="67"/>
+    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12546" max="12546" width="9" style="67"/>
+    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12554" max="12799" width="9" style="67"/>
+    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12802" max="12802" width="9" style="67"/>
+    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12810" max="13055" width="9" style="67"/>
+    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13058" max="13058" width="9" style="67"/>
+    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13066" max="13311" width="9" style="67"/>
+    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13314" max="13314" width="9" style="67"/>
+    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13322" max="13567" width="9" style="67"/>
+    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13570" max="13570" width="9" style="67"/>
+    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13578" max="13823" width="9" style="67"/>
+    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13826" max="13826" width="9" style="67"/>
+    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13834" max="14079" width="9" style="67"/>
+    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14082" max="14082" width="9" style="67"/>
+    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14090" max="14335" width="9" style="67"/>
+    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14338" max="14338" width="9" style="67"/>
+    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14346" max="14591" width="9" style="67"/>
+    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14594" max="14594" width="9" style="67"/>
+    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14602" max="14847" width="9" style="67"/>
+    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14850" max="14850" width="9" style="67"/>
+    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14858" max="15103" width="9" style="67"/>
+    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15106" max="15106" width="9" style="67"/>
+    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15114" max="15359" width="9" style="67"/>
+    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15362" max="15362" width="9" style="67"/>
+    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15370" max="15615" width="9" style="67"/>
+    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15618" max="15618" width="9" style="67"/>
+    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15626" max="15871" width="9" style="67"/>
+    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15874" max="15874" width="9" style="67"/>
+    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15882" max="16127" width="9" style="67"/>
+    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
+    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16130" max="16130" width="9" style="67"/>
+    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
+    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
+    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
+    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
+    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" ht="26.4">
+      <c r="A1" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="68"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1">
+      <c r="A3" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="I1" s="71"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="72"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" s="73" customFormat="1">
-      <c r="A3" s="91" t="s">
+      <c r="C3" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91" t="s">
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="91" t="s">
+      <c r="E4" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+    </row>
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="26.4">
+      <c r="A5" s="71">
+        <v>1</v>
+      </c>
+      <c r="B5" s="73">
+        <v>41547</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="91" t="s">
+      <c r="G5" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
+      <c r="A6" s="71">
+        <v>2</v>
+      </c>
+      <c r="B6" s="75">
+        <v>43949</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="73" customFormat="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-    </row>
-    <row r="5" spans="1:9" s="78" customFormat="1" ht="28.5">
-      <c r="A5" s="75">
-        <v>1</v>
-      </c>
-      <c r="B5" s="77">
-        <v>41547</v>
-      </c>
-      <c r="C5" s="75" t="s">
+      <c r="F6" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
+      <c r="A7" s="71">
+        <v>3</v>
+      </c>
+      <c r="B7" s="75">
+        <v>43970</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="80" customFormat="1" ht="42.75">
-      <c r="A6" s="75">
-        <v>2</v>
-      </c>
-      <c r="B6" s="79">
-        <v>43949</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="76" t="s">
+      <c r="E7" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="80" customFormat="1" ht="42.75">
-      <c r="A7" s="75">
-        <v>3</v>
-      </c>
-      <c r="B7" s="79">
-        <v>43970</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="75" t="s">
+      <c r="G7" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="80" customFormat="1">
-      <c r="A8" s="71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="83" customFormat="1" ht="18.75">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="I9" s="84"/>
+    </row>
+    <row r="8" spans="1:9" s="76" customFormat="1">
+      <c r="A8" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="I9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4328,7 +4176,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.82677165354330717" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;10TISインテックグループ外秘</oddHeader>
     <oddFooter>&amp;L
@@ -4343,115 +4191,115 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="21"/>
+    <col min="1" max="16384" width="2.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="21" t="s">
+    <row r="7" spans="2:4">
+      <c r="D7" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="D6" s="21" t="s">
+    <row r="8" spans="2:4">
+      <c r="D8" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="D7" s="21" t="s">
+    <row r="10" spans="2:4">
+      <c r="D10" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="21" t="s">
+    <row r="12" spans="2:4">
+      <c r="D12" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="21" t="s">
+    <row r="13" spans="2:4">
+      <c r="D13" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="21" t="s">
+    <row r="14" spans="2:4">
+      <c r="D14" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="21" t="s">
+    <row r="15" spans="2:4">
+      <c r="D15" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="21" t="s">
+    <row r="16" spans="2:4">
+      <c r="D16" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="21" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="D16" s="21" t="s">
+    <row r="19" spans="4:4">
+      <c r="D19" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="21" t="s">
+    <row r="20" spans="4:4">
+      <c r="D20" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="21" t="s">
+    <row r="21" spans="4:4">
+      <c r="D21" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="21" t="s">
+    <row r="43" spans="3:10">
+      <c r="C43" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="21" t="s">
+    <row r="45" spans="3:10">
+      <c r="D45" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="3:10">
-      <c r="C43" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10">
-      <c r="D45" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="47" spans="3:10">
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="F48" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10">
-      <c r="F48" s="21" t="s">
+      <c r="J48" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4477,1390 +4325,1390 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:12" ht="16.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5">
+    <row r="2" spans="1:12" ht="16.2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5">
+    <row r="3" spans="1:12" ht="16.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5">
+    <row r="4" spans="1:12" ht="16.2">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" ht="16.2">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5">
+    <row r="6" spans="1:12" ht="16.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1">
+    <row r="7" spans="1:12" ht="16.8" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="90"/>
+      <c r="E8" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="25.8" thickBot="1">
+      <c r="B9" s="89"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="129" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="131"/>
+    </row>
+    <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
+      <c r="B10" s="92">
         <v>1</v>
       </c>
-      <c r="C8" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="126" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24.75" thickBot="1">
-      <c r="B9" s="130"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="127"/>
-    </row>
-    <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="100">
-        <v>1</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="27" t="s">
+      <c r="C10" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="107"/>
+      <c r="E10" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" s="134" t="s">
-        <v>187</v>
+      <c r="J10" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="98" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="25" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="56" t="s">
-        <v>186</v>
+      <c r="J11" s="53" t="s">
+        <v>119</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L11" s="135"/>
+        <v>228</v>
+      </c>
+      <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="103"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="25"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="24"/>
       <c r="H12" s="5" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="56" t="s">
-        <v>186</v>
+      <c r="J12" s="53" t="s">
+        <v>119</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" s="135"/>
-    </row>
-    <row r="13" spans="1:12" ht="36">
-      <c r="B13" s="103"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+        <v>228</v>
+      </c>
+      <c r="L12" s="99"/>
+    </row>
+    <row r="13" spans="1:12" ht="37.799999999999997">
+      <c r="B13" s="94"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="57" t="s">
-        <v>188</v>
+      <c r="J13" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="99"/>
+    </row>
+    <row r="14" spans="1:12" ht="38.4" thickBot="1">
+      <c r="B14" s="95"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="L13" s="135"/>
-    </row>
-    <row r="14" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B14" s="101"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="32" t="s">
+      <c r="L14" s="100"/>
+    </row>
+    <row r="15" spans="1:12" ht="37.799999999999997">
+      <c r="B15" s="92">
+        <v>2</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="107"/>
+      <c r="E15" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L15" s="96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="63.6" thickBot="1">
+      <c r="B16" s="112"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="97"/>
+    </row>
+    <row r="17" spans="2:12" ht="27" customHeight="1">
+      <c r="B17" s="92">
         <v>3</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="C17" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
+      <c r="B18" s="93"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="118"/>
+      <c r="L18" s="132"/>
+    </row>
+    <row r="19" spans="2:12" ht="27" customHeight="1">
+      <c r="B19" s="94"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="113"/>
+    </row>
+    <row r="20" spans="2:12" ht="37.5" customHeight="1">
+      <c r="B20" s="94"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="118"/>
+      <c r="L20" s="113"/>
+    </row>
+    <row r="21" spans="2:12" ht="37.799999999999997">
+      <c r="B21" s="94"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L14" s="136"/>
-    </row>
-    <row r="15" spans="1:12" ht="48">
-      <c r="B15" s="100">
-        <v>2</v>
-      </c>
-      <c r="C15" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="K15" s="31" t="s">
+      <c r="K21" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="L15" s="105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="84.75" thickBot="1">
-      <c r="B16" s="104"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="L16" s="113"/>
-    </row>
-    <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="100">
-        <v>3</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" s="118" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="105" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="133"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="128"/>
-    </row>
-    <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="103"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="106"/>
-    </row>
-    <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="103"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" s="117"/>
-      <c r="L20" s="106"/>
-    </row>
-    <row r="21" spans="2:12" ht="48">
-      <c r="B21" s="103"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="L21" s="106"/>
-    </row>
-    <row r="22" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B22" s="101"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="53" t="s">
+      <c r="L21" s="113"/>
+    </row>
+    <row r="22" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B22" s="95"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="L22" s="107"/>
-    </row>
-    <row r="23" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B23" s="100">
+      <c r="J22" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="114"/>
+    </row>
+    <row r="23" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B23" s="92">
         <v>4</v>
       </c>
-      <c r="C23" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="29" t="s">
+      <c r="C23" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="107"/>
+      <c r="E23" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L23" s="105" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B24" s="103"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="25"/>
+      <c r="J23" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" s="96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B24" s="94"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="56" t="s">
-        <v>196</v>
+      <c r="J24" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L24" s="106"/>
-    </row>
-    <row r="25" spans="2:12" ht="48">
-      <c r="B25" s="103"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="25"/>
+        <v>228</v>
+      </c>
+      <c r="L24" s="113"/>
+    </row>
+    <row r="25" spans="2:12" ht="37.799999999999997">
+      <c r="B25" s="94"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="24"/>
       <c r="H25" s="5" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="56" t="s">
-        <v>196</v>
+      <c r="J25" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L25" s="106"/>
-    </row>
-    <row r="26" spans="2:12" ht="36">
-      <c r="B26" s="103"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="113"/>
+    </row>
+    <row r="26" spans="2:12" ht="25.2">
+      <c r="B26" s="94"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="54" t="s">
         <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L26" s="106"/>
+      <c r="L26" s="113"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="103"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="25" t="s">
+      <c r="B27" s="94"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="106"/>
-    </row>
-    <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="103"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="24"/>
+      <c r="J27" s="137" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="138"/>
+      <c r="L27" s="113"/>
+    </row>
+    <row r="28" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B28" s="94"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="23"/>
       <c r="H28" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="56" t="s">
-        <v>196</v>
+      <c r="J28" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L28" s="106"/>
-    </row>
-    <row r="29" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B29" s="101"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" s="113"/>
+    </row>
+    <row r="29" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B29" s="95"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="L29" s="107"/>
-    </row>
-    <row r="30" spans="2:12" ht="48">
-      <c r="B30" s="100">
+      <c r="J29" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="114"/>
+    </row>
+    <row r="30" spans="2:12" ht="37.799999999999997">
+      <c r="B30" s="92">
         <v>5</v>
       </c>
-      <c r="C30" s="110" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="29" t="s">
+      <c r="C30" s="133" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L30" s="105" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="48">
-      <c r="B31" s="103"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="25"/>
+      <c r="J30" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" s="96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="37.799999999999997">
+      <c r="B31" s="94"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="24"/>
       <c r="H31" s="5" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L31" s="106"/>
-    </row>
-    <row r="32" spans="2:12" ht="48">
-      <c r="B32" s="103"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="25"/>
+        <v>229</v>
+      </c>
+      <c r="L31" s="113"/>
+    </row>
+    <row r="32" spans="2:12" ht="37.799999999999997">
+      <c r="B32" s="94"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="24"/>
       <c r="H32" s="5" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="106"/>
-    </row>
-    <row r="33" spans="2:12" ht="48">
-      <c r="B33" s="103"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="25"/>
+        <v>229</v>
+      </c>
+      <c r="L32" s="113"/>
+    </row>
+    <row r="33" spans="2:12" ht="37.799999999999997">
+      <c r="B33" s="94"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="24"/>
       <c r="H33" s="5" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L33" s="106"/>
-    </row>
-    <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="103"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="24"/>
+        <v>229</v>
+      </c>
+      <c r="L33" s="113"/>
+    </row>
+    <row r="34" spans="2:12" ht="37.799999999999997">
+      <c r="B34" s="94"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="23"/>
       <c r="H34" s="9" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="89" t="s">
+      <c r="J34" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="113"/>
+    </row>
+    <row r="35" spans="2:12" ht="37.799999999999997">
+      <c r="B35" s="94"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L34" s="106"/>
-    </row>
-    <row r="35" spans="2:12" ht="60">
-      <c r="B35" s="103"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="57" t="s">
-        <v>200</v>
+      <c r="J35" s="54" t="s">
+        <v>133</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L35" s="106" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="103"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="22" t="s">
-        <v>112</v>
+        <v>228</v>
+      </c>
+      <c r="L35" s="113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="37.799999999999997">
+      <c r="B36" s="94"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="G36" s="23"/>
       <c r="H36" s="9" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L36" s="106"/>
-    </row>
-    <row r="37" spans="2:12" ht="60">
-      <c r="B37" s="103"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="25"/>
+        <v>229</v>
+      </c>
+      <c r="L36" s="113"/>
+    </row>
+    <row r="37" spans="2:12" ht="37.799999999999997">
+      <c r="B37" s="94"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="57" t="s">
-        <v>202</v>
+      <c r="J37" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L37" s="106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="60">
-      <c r="B38" s="103"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="22" t="s">
-        <v>112</v>
+        <v>228</v>
+      </c>
+      <c r="L37" s="113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="37.799999999999997">
+      <c r="B38" s="94"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="G38" s="23"/>
       <c r="H38" s="9" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L38" s="106"/>
-    </row>
-    <row r="39" spans="2:12" ht="60.75" thickBot="1">
-      <c r="B39" s="101"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="L38" s="113"/>
+    </row>
+    <row r="39" spans="2:12" ht="51" thickBot="1">
+      <c r="B39" s="95"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="L39" s="107"/>
-    </row>
-    <row r="40" spans="2:12" ht="132">
-      <c r="B40" s="100">
+      <c r="J39" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" s="114"/>
+    </row>
+    <row r="40" spans="2:12" ht="88.2">
+      <c r="B40" s="92">
         <v>6</v>
       </c>
-      <c r="C40" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="95"/>
-      <c r="E40" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="27" t="s">
+      <c r="C40" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="107"/>
+      <c r="E40" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="29" t="s">
+      <c r="H40" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="K40" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L40" s="105" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="84">
-      <c r="B41" s="103"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="25" t="s">
+      <c r="J40" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="63">
+      <c r="B41" s="94"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="108" t="s">
-        <v>205</v>
-      </c>
-      <c r="K41" s="109"/>
-      <c r="L41" s="106"/>
-    </row>
-    <row r="42" spans="2:12" ht="48">
-      <c r="B42" s="103"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="25" t="s">
+      <c r="J41" s="137" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" s="138"/>
+      <c r="L41" s="113"/>
+    </row>
+    <row r="42" spans="2:12" ht="37.799999999999997">
+      <c r="B42" s="94"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="108" t="s">
+      <c r="J42" s="137" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" s="138"/>
+      <c r="L42" s="113"/>
+    </row>
+    <row r="43" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B43" s="95"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L43" s="114"/>
+    </row>
+    <row r="44" spans="2:12" ht="50.4">
+      <c r="B44" s="92">
+        <v>7</v>
+      </c>
+      <c r="C44" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="K42" s="109"/>
-      <c r="L42" s="106"/>
-    </row>
-    <row r="43" spans="2:12" ht="60.75" thickBot="1">
-      <c r="B43" s="101"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L43" s="107"/>
-    </row>
-    <row r="44" spans="2:12" ht="72">
-      <c r="B44" s="100">
-        <v>7</v>
-      </c>
-      <c r="C44" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="95"/>
-      <c r="E44" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="27" t="s">
+      <c r="D44" s="107"/>
+      <c r="E44" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I44" s="29" t="s">
+      <c r="H44" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="K44" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L44" s="105" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="96">
-      <c r="B45" s="103"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="25" t="s">
+      <c r="J44" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L44" s="96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="63">
+      <c r="B45" s="94"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="108" t="s">
-        <v>208</v>
-      </c>
-      <c r="K45" s="109"/>
-      <c r="L45" s="106"/>
-    </row>
-    <row r="46" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B46" s="101"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="34" t="s">
+      <c r="J45" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="K45" s="138"/>
+      <c r="L45" s="113"/>
+    </row>
+    <row r="46" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B46" s="95"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="I46" s="38" t="s">
+      <c r="F46" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="K46" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L46" s="114"/>
+    </row>
+    <row r="47" spans="2:12" ht="37.799999999999997">
+      <c r="B47" s="92">
+        <v>8</v>
+      </c>
+      <c r="C47" s="107" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="107"/>
+      <c r="E47" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="L46" s="107"/>
-    </row>
-    <row r="47" spans="2:12" ht="60">
-      <c r="B47" s="100">
-        <v>8</v>
-      </c>
-      <c r="C47" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="27" t="s">
+      <c r="K47" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L47" s="96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="50.4">
+      <c r="B48" s="94"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="L47" s="105" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="72">
-      <c r="B48" s="103"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="25" t="s">
-        <v>0</v>
-      </c>
       <c r="H48" s="5" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>53</v>
+      <c r="J48" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L48" s="106"/>
-    </row>
-    <row r="49" spans="2:12" ht="48">
-      <c r="B49" s="103"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="25"/>
+      <c r="L48" s="113"/>
+    </row>
+    <row r="49" spans="2:12" ht="37.799999999999997">
+      <c r="B49" s="94"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="24"/>
       <c r="H49" s="5" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="10" t="s">
         <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L49" s="106"/>
-    </row>
-    <row r="50" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B50" s="104"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="L49" s="113"/>
+    </row>
+    <row r="50" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B50" s="112"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="F50" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I50" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="46" t="s">
+      <c r="J50" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="L50" s="113"/>
-    </row>
-    <row r="51" spans="2:12" ht="84">
-      <c r="B51" s="100">
+      <c r="K50" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="L50" s="97"/>
+    </row>
+    <row r="51" spans="2:12" ht="50.4">
+      <c r="B51" s="92">
         <v>9</v>
       </c>
-      <c r="C51" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="95"/>
-      <c r="E51" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="27" t="s">
+      <c r="C51" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="I51" s="29" t="s">
+      <c r="H51" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J51" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="K51" s="90" t="s">
-        <v>229</v>
-      </c>
-      <c r="L51" s="105" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="84">
-      <c r="B52" s="103"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="25" t="s">
+      <c r="J51" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="L51" s="96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="63">
+      <c r="B52" s="94"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="K52" s="109"/>
-      <c r="L52" s="106"/>
-    </row>
-    <row r="53" spans="2:12" ht="60.75" thickBot="1">
-      <c r="B53" s="101"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="32" t="s">
+      <c r="J52" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="K52" s="138"/>
+      <c r="L52" s="113"/>
+    </row>
+    <row r="53" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B53" s="95"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L53" s="107"/>
-    </row>
-    <row r="54" spans="2:12" ht="36">
-      <c r="B54" s="100">
+      <c r="K53" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L53" s="114"/>
+    </row>
+    <row r="54" spans="2:12" ht="25.2">
+      <c r="B54" s="92">
         <v>10</v>
       </c>
-      <c r="C54" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="95"/>
-      <c r="E54" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="27" t="s">
+      <c r="C54" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="107"/>
+      <c r="E54" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="I54" s="29" t="s">
+      <c r="H54" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J54" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="K54" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L54" s="105" t="s">
-        <v>213</v>
+      <c r="J54" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L54" s="96" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="103"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="25" t="s">
+      <c r="B55" s="94"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>207</v>
+      <c r="J55" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L55" s="106"/>
-    </row>
-    <row r="56" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B56" s="101"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="I56" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="L55" s="113"/>
+    </row>
+    <row r="56" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B56" s="95"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="K56" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="L56" s="107"/>
-    </row>
-    <row r="57" spans="2:12" ht="96">
-      <c r="B57" s="100">
+      <c r="J56" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="L56" s="114"/>
+    </row>
+    <row r="57" spans="2:12" ht="63">
+      <c r="B57" s="92">
         <v>11</v>
       </c>
-      <c r="C57" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="95"/>
-      <c r="E57" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="29" t="s">
+      <c r="C57" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="107"/>
+      <c r="E57" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="30" t="s">
+      <c r="J57" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="31" t="s">
+      <c r="K57" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="L57" s="105" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="84.75" thickBot="1">
-      <c r="B58" s="101"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="51" t="s">
+      <c r="L57" s="96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="63.6" thickBot="1">
+      <c r="B58" s="95"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="I58" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="J58" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="L58" s="107"/>
+      <c r="J58" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="L58" s="114"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
+      <c r="F59" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5874,19 +5722,51 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="C47:D50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:D56"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
     <mergeCell ref="L40:L43"/>
     <mergeCell ref="L47:L50"/>
     <mergeCell ref="J8:J9"/>
@@ -5903,81 +5783,49 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L17:L22"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="C47:D50"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:D56"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" xr:uid="{4F140B6E-5408-48C2-85F6-23DE7979BC59}"/>
-    <hyperlink ref="J15" r:id="rId2" location="api" xr:uid="{BC69DE72-1D6A-4D2E-B3CE-7340994E1030}"/>
-    <hyperlink ref="J30" r:id="rId3" xr:uid="{33C6779D-2410-4466-91D2-A6D5E0812D94}"/>
-    <hyperlink ref="J37" r:id="rId4" xr:uid="{BF5D6791-E27E-4B27-BF3C-616B5AD5FC8F}"/>
-    <hyperlink ref="J39" r:id="rId5" xr:uid="{F9C8DA33-B24A-470A-8F5A-0703DF12B786}"/>
-    <hyperlink ref="J40" r:id="rId6" xr:uid="{6843F36A-624F-4EB2-94F7-DA629EDFC68E}"/>
-    <hyperlink ref="J47" r:id="rId7" location="mail-mail-header-injection" xr:uid="{FE72989F-EB4B-4F08-BF72-9D39574FC646}"/>
-    <hyperlink ref="J57" r:id="rId8" xr:uid="{9469AB9C-1EA2-4BB0-B476-48C9BCDB6777}"/>
-    <hyperlink ref="J58" r:id="rId9" xr:uid="{7A4C070F-45E3-4C57-B9C0-345201DC3E9B}"/>
-    <hyperlink ref="J26" r:id="rId10" location="L74" xr:uid="{3F799024-841A-4591-8AD7-C727A5B27D20}"/>
-    <hyperlink ref="J35" r:id="rId11" location="tag-html-unescape" xr:uid="{03ED6A5D-2F13-41DB-87A2-2FFB2FF1975C}"/>
-    <hyperlink ref="J23" r:id="rId12" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
-    <hyperlink ref="J48" r:id="rId13" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
-    <hyperlink ref="J10" r:id="rId14" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
-    <hyperlink ref="J11" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{C4B628DC-CAAA-477D-9399-C306432674FD}"/>
-    <hyperlink ref="J12" r:id="rId18" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{513BFC2F-9594-457E-9B34-A72CF200141B}"/>
-    <hyperlink ref="J19" r:id="rId19" xr:uid="{BD1606F7-9C47-4F21-BD85-28CBBC79FF72}"/>
-    <hyperlink ref="J20" r:id="rId20" xr:uid="{EBB17A27-0099-40BF-8A5B-8841858A66A0}"/>
-    <hyperlink ref="J22" r:id="rId21" xr:uid="{03837F78-C97B-45F2-A895-A25A1894062F}"/>
-    <hyperlink ref="J24" r:id="rId22" xr:uid="{9DD14D4D-33EF-4F94-A5A3-8F3C11B2CCEC}"/>
-    <hyperlink ref="J25" r:id="rId23" xr:uid="{CCE89E47-9ACC-4D1A-BD41-A734E9CF9420}"/>
-    <hyperlink ref="J28" r:id="rId24" xr:uid="{387B647F-EF30-4342-8D96-AAE940499B33}"/>
-    <hyperlink ref="J29" r:id="rId25" xr:uid="{F4DBEFD9-C488-4CC1-A39F-1E6FB60044A9}"/>
-    <hyperlink ref="J34" r:id="rId26" xr:uid="{067FAC7B-4AD6-4732-8C41-10C7928DB432}"/>
-    <hyperlink ref="J51" r:id="rId27" xr:uid="{12746EF3-4314-4B74-9950-1B39AFDACD4B}"/>
+    <hyperlink ref="J13" r:id="rId1" xr:uid="{22416889-E1DA-4FE5-B884-59FB923EE32B}"/>
+    <hyperlink ref="J15" r:id="rId2" location="api" xr:uid="{2E6DE5D9-E035-4339-8725-B37FEE67D6A5}"/>
+    <hyperlink ref="J30" r:id="rId3" xr:uid="{4630D29E-9F16-4F0F-91C8-BAD644C69399}"/>
+    <hyperlink ref="J37" r:id="rId4" xr:uid="{7EE1C80D-1D5E-4959-9555-A1A566DC3588}"/>
+    <hyperlink ref="J39" r:id="rId5" xr:uid="{96A374D4-1E0B-4EB0-AAF7-7147698616BF}"/>
+    <hyperlink ref="J40" r:id="rId6" xr:uid="{BDFA8237-8FF6-43B4-A6AF-F1CDB6E13260}"/>
+    <hyperlink ref="J47" r:id="rId7" location="mail-mail-header-injection" display="メール送信" xr:uid="{3E5E123C-D938-47AA-9075-AC0B14ED76DD}"/>
+    <hyperlink ref="J57" r:id="rId8" xr:uid="{F955FF49-9B0D-4FBA-B1DF-3E6A1647A3FE}"/>
+    <hyperlink ref="J58" r:id="rId9" xr:uid="{AB6AEF1D-AA26-4B0C-8635-5D387E1FFFBD}"/>
+    <hyperlink ref="J26" r:id="rId10" location="L74" xr:uid="{A4D74E3D-D6D3-4D6E-ACDA-87936D36432F}"/>
+    <hyperlink ref="J35" r:id="rId11" location="tag-html-unescape" xr:uid="{FC107919-8E3D-4DE5-8317-FE796B8217A2}"/>
+    <hyperlink ref="J23" r:id="rId12" xr:uid="{83B168C5-B734-43CE-B2F1-ED8EC79C2C07}"/>
+    <hyperlink ref="J48" r:id="rId13" location="mail-mail-header-injection" display="メール送信" xr:uid="{7C0DD612-6FF5-4836-B74C-EBFCF69D02CD}"/>
+    <hyperlink ref="J10" r:id="rId14" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{77551F28-66B4-42FE-8D06-FFEA6C21D606}"/>
+    <hyperlink ref="J17" r:id="rId15" xr:uid="{F4909BBB-F04D-411A-888F-CB53321E0447}"/>
+    <hyperlink ref="J18" r:id="rId16" xr:uid="{F94155A1-DE27-46DD-B5A5-FE5511572027}"/>
+    <hyperlink ref="J11" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{DF1880DF-A205-4D81-A2DD-1F4020E982B2}"/>
+    <hyperlink ref="J12" r:id="rId18" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{5A849690-1060-42D6-8269-C3D464266A71}"/>
+    <hyperlink ref="J19" r:id="rId19" xr:uid="{CB5983E8-5924-4F78-9E03-93B0424F2DC4}"/>
+    <hyperlink ref="J20" r:id="rId20" xr:uid="{350A62DA-C942-47E9-B738-3A1F5BAA60A0}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{63D22E6F-E14B-4D91-8728-F37C61CFF5E9}"/>
+    <hyperlink ref="J24" r:id="rId22" xr:uid="{38BAADA3-0500-4922-999A-8F5764526F2E}"/>
+    <hyperlink ref="J25" r:id="rId23" xr:uid="{D8D0FC36-D8F1-4F24-A3C2-FE4538C75737}"/>
+    <hyperlink ref="J28" r:id="rId24" xr:uid="{469CD663-4780-4593-B89A-9BEA93A165EF}"/>
+    <hyperlink ref="J29" r:id="rId25" xr:uid="{1F7563A8-B4CB-45D6-BB09-47879E388659}"/>
+    <hyperlink ref="J34" r:id="rId26" xr:uid="{0187B08A-3E00-4899-9654-73C01F93D036}"/>
+    <hyperlink ref="J51" r:id="rId27" xr:uid="{9C0C16D7-8E5C-46CD-9E7A-1EF79EA97A20}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
@@ -5992,123 +5840,123 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>216</v>
+      <c r="A1" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
-        <v>217</v>
+      <c r="A2" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19" t="s">
-        <v>218</v>
+      <c r="A3" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="68" t="s">
-        <v>219</v>
+      <c r="A4" s="64" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="24">
-      <c r="B6" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="84">
-      <c r="B7" s="66" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" ht="25.2">
+      <c r="B6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="100.8">
+      <c r="B7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="65" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="66" t="s">
+      <c r="C8" s="62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="66" t="s">
+      <c r="C9" s="61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="100.8">
+      <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="84">
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="66" t="s">
+      <c r="C13" s="62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75.599999999999994">
+      <c r="B14" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="66" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="96">
-      <c r="B14" s="66" t="s">
+      <c r="C14" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37.799999999999997">
+      <c r="B16" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="66" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="48">
-      <c r="B16" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="63" t="s">
         <v>227</v>
       </c>
     </row>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7DCC3-047F-495E-A154-929137F4F286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0D2A0-28E5-4127-A222-6542B6581883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="4035" windowWidth="29070" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -96,12 +96,14 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -610,11 +612,6 @@
   </si>
   <si>
     <t>Check if unauthorized APIs are being used</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarch provides a file path management feature. By using this feature to access files in the server, you can specify the base directory to be accessed. This limits the directories to which you can publish. At the same time, only files with specific extensions can be accessed.
-When prompting users for a file name, you can combine this with an input value check to not allow characters such as ". in the input value check, to prevent directory traversal.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1163,6 +1160,11 @@
   </si>
   <si>
     <t>Mail send</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarch provides a file path management feature. By using this feature to access files in the server, you can specify the base directory to be accessed. This limits the directories to which you can publish. At the same time, only files with specific extensions can be accessed.
+When prompting users for a file name, you can combine this with an input value check to not allow characters such as "." in the input value check, to prevent directory traversal.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1960,6 +1962,117 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,24 +2085,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2002,9 +2100,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2017,101 +2112,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3323,714 +3325,714 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="67" customWidth="1"/>
     <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
     <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
+    <col min="256" max="256" width="3.875" style="67" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="67" customWidth="1"/>
     <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
+    <col min="259" max="259" width="4.875" style="67" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="67" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="67" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="67" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="67" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="67" customWidth="1"/>
     <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
+    <col min="512" max="512" width="3.875" style="67" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="67" customWidth="1"/>
     <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
+    <col min="515" max="515" width="4.875" style="67" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="67" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="67" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="67" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="67" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="67" customWidth="1"/>
     <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
+    <col min="768" max="768" width="3.875" style="67" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="67" customWidth="1"/>
     <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
+    <col min="771" max="771" width="4.875" style="67" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="67" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="67" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="67" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="67" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="67" customWidth="1"/>
     <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1024" max="1024" width="3.875" style="67" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="67" customWidth="1"/>
     <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1027" max="1027" width="4.875" style="67" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="67" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="67" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="67" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="67" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="67" customWidth="1"/>
     <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1280" max="1280" width="3.875" style="67" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="67" customWidth="1"/>
     <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1283" max="1283" width="4.875" style="67" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="67" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="67" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="67" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="67" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="67" customWidth="1"/>
     <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1536" max="1536" width="3.875" style="67" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="67" customWidth="1"/>
     <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1539" max="1539" width="4.875" style="67" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="67" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="67" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="67" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="67" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="67" customWidth="1"/>
     <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1792" max="1792" width="3.875" style="67" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="67" customWidth="1"/>
     <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1795" max="1795" width="4.875" style="67" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="67" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="67" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="67" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="67" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="67" customWidth="1"/>
     <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2048" max="2048" width="3.875" style="67" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="67" customWidth="1"/>
     <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2051" max="2051" width="4.875" style="67" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="67" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="67" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="67" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="67" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="67" customWidth="1"/>
     <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2304" max="2304" width="3.875" style="67" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="67" customWidth="1"/>
     <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2307" max="2307" width="4.875" style="67" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="67" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="67" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="67" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="67" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="67" customWidth="1"/>
     <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2560" max="2560" width="3.875" style="67" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="67" customWidth="1"/>
     <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2563" max="2563" width="4.875" style="67" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="67" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="67" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="67" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="67" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="67" customWidth="1"/>
     <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2816" max="2816" width="3.875" style="67" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="67" customWidth="1"/>
     <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2819" max="2819" width="4.875" style="67" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="67" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="67" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="67" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="67" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="67" customWidth="1"/>
     <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3072" max="3072" width="3.875" style="67" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="67" customWidth="1"/>
     <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3075" max="3075" width="4.875" style="67" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="67" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="67" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="67" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="67" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="67" customWidth="1"/>
     <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3328" max="3328" width="3.875" style="67" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="67" customWidth="1"/>
     <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3331" max="3331" width="4.875" style="67" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="67" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="67" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="67" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="67" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="67" customWidth="1"/>
     <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3584" max="3584" width="3.875" style="67" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="67" customWidth="1"/>
     <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3587" max="3587" width="4.875" style="67" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="67" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="67" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="67" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="67" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="67" customWidth="1"/>
     <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3840" max="3840" width="3.875" style="67" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="67" customWidth="1"/>
     <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3843" max="3843" width="4.875" style="67" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="67" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="67" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="67" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="67" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="67" customWidth="1"/>
     <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4096" max="4096" width="3.875" style="67" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="67" customWidth="1"/>
     <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4099" max="4099" width="4.875" style="67" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="67" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="67" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="67" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="67" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="67" customWidth="1"/>
     <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4352" max="4352" width="3.875" style="67" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="67" customWidth="1"/>
     <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4355" max="4355" width="4.875" style="67" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="67" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="67" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="67" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="67" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="67" customWidth="1"/>
     <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4608" max="4608" width="3.875" style="67" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="67" customWidth="1"/>
     <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4611" max="4611" width="4.875" style="67" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="67" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="67" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="67" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="67" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="67" customWidth="1"/>
     <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4864" max="4864" width="3.875" style="67" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="67" customWidth="1"/>
     <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4867" max="4867" width="4.875" style="67" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="67" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="67" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="67" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="67" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="67" customWidth="1"/>
     <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5120" max="5120" width="3.875" style="67" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="67" customWidth="1"/>
     <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5123" max="5123" width="4.875" style="67" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="67" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="67" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="67" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="67" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="67" customWidth="1"/>
     <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5376" max="5376" width="3.875" style="67" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="67" customWidth="1"/>
     <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5379" max="5379" width="4.875" style="67" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="67" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="67" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="67" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="67" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="67" customWidth="1"/>
     <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5632" max="5632" width="3.875" style="67" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="67" customWidth="1"/>
     <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5635" max="5635" width="4.875" style="67" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="67" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="67" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="67" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="67" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="67" customWidth="1"/>
     <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5888" max="5888" width="3.875" style="67" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="67" customWidth="1"/>
     <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5891" max="5891" width="4.875" style="67" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="67" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="67" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="67" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="67" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="67" customWidth="1"/>
     <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6144" max="6144" width="3.875" style="67" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="67" customWidth="1"/>
     <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6147" max="6147" width="4.875" style="67" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="67" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="67" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="67" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="67" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="67" customWidth="1"/>
     <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6400" max="6400" width="3.875" style="67" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="67" customWidth="1"/>
     <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6403" max="6403" width="4.875" style="67" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="67" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="67" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="67" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="67" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="67" customWidth="1"/>
     <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6656" max="6656" width="3.875" style="67" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="67" customWidth="1"/>
     <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6659" max="6659" width="4.875" style="67" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="67" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="67" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="67" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="67" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="67" customWidth="1"/>
     <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6912" max="6912" width="3.875" style="67" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="67" customWidth="1"/>
     <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6915" max="6915" width="4.875" style="67" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="67" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="67" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="67" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="67" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="67" customWidth="1"/>
     <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7168" max="7168" width="3.875" style="67" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="67" customWidth="1"/>
     <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7171" max="7171" width="4.875" style="67" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="67" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="67" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="67" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="67" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="67" customWidth="1"/>
     <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7424" max="7424" width="3.875" style="67" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="67" customWidth="1"/>
     <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7427" max="7427" width="4.875" style="67" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="67" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="67" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="67" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="67" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="67" customWidth="1"/>
     <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7680" max="7680" width="3.875" style="67" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="67" customWidth="1"/>
     <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7683" max="7683" width="4.875" style="67" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="67" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="67" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="67" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="67" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="67" customWidth="1"/>
     <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7936" max="7936" width="3.875" style="67" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="67" customWidth="1"/>
     <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7939" max="7939" width="4.875" style="67" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="67" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="67" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="67" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="67" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="67" customWidth="1"/>
     <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8192" max="8192" width="3.875" style="67" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="67" customWidth="1"/>
     <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8195" max="8195" width="4.875" style="67" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="67" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="67" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="67" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="67" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="67" customWidth="1"/>
     <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8448" max="8448" width="3.875" style="67" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="67" customWidth="1"/>
     <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8451" max="8451" width="4.875" style="67" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="67" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="67" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="67" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="67" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="67" customWidth="1"/>
     <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8704" max="8704" width="3.875" style="67" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="67" customWidth="1"/>
     <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8707" max="8707" width="4.875" style="67" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="67" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="67" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="67" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="67" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="67" customWidth="1"/>
     <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8960" max="8960" width="3.875" style="67" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="67" customWidth="1"/>
     <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8963" max="8963" width="4.875" style="67" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="67" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="67" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="67" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="67" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="67" customWidth="1"/>
     <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9216" max="9216" width="3.875" style="67" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="67" customWidth="1"/>
     <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9219" max="9219" width="4.875" style="67" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="67" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="67" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="67" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="67" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="67" customWidth="1"/>
     <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9472" max="9472" width="3.875" style="67" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="67" customWidth="1"/>
     <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9475" max="9475" width="4.875" style="67" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="67" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="67" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="67" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="67" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="67" customWidth="1"/>
     <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9728" max="9728" width="3.875" style="67" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="67" customWidth="1"/>
     <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9731" max="9731" width="4.875" style="67" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="67" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="67" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="67" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="67" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="67" customWidth="1"/>
     <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9984" max="9984" width="3.875" style="67" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="67" customWidth="1"/>
     <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9987" max="9987" width="4.875" style="67" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="67" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="67" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="67" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="67" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="67" customWidth="1"/>
     <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10240" max="10240" width="3.875" style="67" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="67" customWidth="1"/>
     <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10243" max="10243" width="4.875" style="67" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="67" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="67" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="67" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="67" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="67" customWidth="1"/>
     <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10496" max="10496" width="3.875" style="67" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="67" customWidth="1"/>
     <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10499" max="10499" width="4.875" style="67" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="67" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="67" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="67" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="67" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="67" customWidth="1"/>
     <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10752" max="10752" width="3.875" style="67" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="67" customWidth="1"/>
     <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10755" max="10755" width="4.875" style="67" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="67" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="67" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="67" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="67" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="67" customWidth="1"/>
     <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11008" max="11008" width="3.875" style="67" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="67" customWidth="1"/>
     <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11011" max="11011" width="4.875" style="67" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="67" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="67" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="67" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="67" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="67" customWidth="1"/>
     <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11264" max="11264" width="3.875" style="67" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="67" customWidth="1"/>
     <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11267" max="11267" width="4.875" style="67" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="67" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="67" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="67" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="67" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="67" customWidth="1"/>
     <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11520" max="11520" width="3.875" style="67" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="67" customWidth="1"/>
     <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11523" max="11523" width="4.875" style="67" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="67" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="67" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="67" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="67" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="67" customWidth="1"/>
     <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11776" max="11776" width="3.875" style="67" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="67" customWidth="1"/>
     <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11779" max="11779" width="4.875" style="67" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="67" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="67" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="67" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="67" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="67" customWidth="1"/>
     <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12032" max="12032" width="3.875" style="67" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="67" customWidth="1"/>
     <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12035" max="12035" width="4.875" style="67" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="67" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="67" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="67" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="67" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="67" customWidth="1"/>
     <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12288" max="12288" width="3.875" style="67" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="67" customWidth="1"/>
     <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12291" max="12291" width="4.875" style="67" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="67" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="67" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="67" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="67" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="67" customWidth="1"/>
     <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12544" max="12544" width="3.875" style="67" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="67" customWidth="1"/>
     <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12547" max="12547" width="4.875" style="67" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="67" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="67" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="67" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="67" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="67" customWidth="1"/>
     <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12800" max="12800" width="3.875" style="67" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="67" customWidth="1"/>
     <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12803" max="12803" width="4.875" style="67" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="67" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="67" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="67" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="67" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="67" customWidth="1"/>
     <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13056" max="13056" width="3.875" style="67" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="67" customWidth="1"/>
     <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13059" max="13059" width="4.875" style="67" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="67" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="67" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="67" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="67" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="67" customWidth="1"/>
     <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13312" max="13312" width="3.875" style="67" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="67" customWidth="1"/>
     <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13315" max="13315" width="4.875" style="67" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="67" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="67" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="67" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="67" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="67" customWidth="1"/>
     <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13568" max="13568" width="3.875" style="67" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="67" customWidth="1"/>
     <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13571" max="13571" width="4.875" style="67" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="67" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="67" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="67" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="67" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="67" customWidth="1"/>
     <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13824" max="13824" width="3.875" style="67" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="67" customWidth="1"/>
     <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13827" max="13827" width="4.875" style="67" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="67" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="67" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="67" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="67" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="67" customWidth="1"/>
     <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14080" max="14080" width="3.875" style="67" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="67" customWidth="1"/>
     <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14083" max="14083" width="4.875" style="67" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="67" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="67" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="67" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="67" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="67" customWidth="1"/>
     <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14336" max="14336" width="3.875" style="67" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="67" customWidth="1"/>
     <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14339" max="14339" width="4.875" style="67" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="67" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="67" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="67" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="67" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="67" customWidth="1"/>
     <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14592" max="14592" width="3.875" style="67" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="67" customWidth="1"/>
     <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14595" max="14595" width="4.875" style="67" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="67" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="67" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="67" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="67" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="67" customWidth="1"/>
     <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14848" max="14848" width="3.875" style="67" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="67" customWidth="1"/>
     <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14851" max="14851" width="4.875" style="67" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="67" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="67" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="67" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="67" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="67" customWidth="1"/>
     <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15104" max="15104" width="3.875" style="67" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="67" customWidth="1"/>
     <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15107" max="15107" width="4.875" style="67" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="67" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="67" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="67" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="67" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="67" customWidth="1"/>
     <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15360" max="15360" width="3.875" style="67" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="67" customWidth="1"/>
     <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15363" max="15363" width="4.875" style="67" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="67" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="67" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="67" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="67" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="67" customWidth="1"/>
     <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15616" max="15616" width="3.875" style="67" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="67" customWidth="1"/>
     <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15619" max="15619" width="4.875" style="67" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="67" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="67" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="67" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="67" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="67" customWidth="1"/>
     <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15872" max="15872" width="3.875" style="67" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="67" customWidth="1"/>
     <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15875" max="15875" width="4.875" style="67" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="67" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="67" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="67" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="67" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="67" customWidth="1"/>
     <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16128" max="16128" width="3.875" style="67" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="67" customWidth="1"/>
     <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
+    <col min="16131" max="16131" width="4.875" style="67" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="67" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="67" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="67" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="67" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="67" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4">
+    <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="65" t="s">
         <v>70</v>
       </c>
@@ -4080,7 +4082,7 @@
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
     </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="26.4">
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="28.5">
       <c r="A5" s="71">
         <v>1</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
+    <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A6" s="71">
         <v>2</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A7" s="71">
         <v>3</v>
       </c>
@@ -4147,10 +4149,10 @@
     </row>
     <row r="8" spans="1:9" s="76" customFormat="1">
       <c r="A8" s="67" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="79" customFormat="1" ht="18.75">
       <c r="A9" s="77"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -4191,9 +4193,9 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="20"/>
+    <col min="1" max="16384" width="2.625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -4291,7 +4293,7 @@
         <v>53</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -4325,58 +4327,58 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2">
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2">
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2">
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="16.8" thickBot="1">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="25" t="s">
@@ -4384,34 +4386,34 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="117" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="115" t="s">
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="L8" s="122" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.8" thickBot="1">
-      <c r="B9" s="89"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+    <row r="9" spans="1:12" ht="24.75" thickBot="1">
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="34" t="s">
         <v>112</v>
       </c>
@@ -4425,29 +4427,29 @@
       <c r="I9" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="131"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="92">
+      <c r="B10" s="96">
         <v>1</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="128" t="s">
+      <c r="C10" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="89" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>7</v>
@@ -4456,23 +4458,23 @@
         <v>119</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L10" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="130" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="94"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="129"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
@@ -4481,23 +4483,23 @@
         <v>119</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" s="99"/>
+        <v>227</v>
+      </c>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="94"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
@@ -4506,23 +4508,23 @@
         <v>119</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L12" s="99"/>
-    </row>
-    <row r="13" spans="1:12" ht="37.799999999999997">
-      <c r="B13" s="94"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
+        <v>227</v>
+      </c>
+      <c r="L12" s="131"/>
+    </row>
+    <row r="13" spans="1:12" ht="36">
+      <c r="B13" s="99"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
@@ -4531,23 +4533,23 @@
         <v>121</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" s="99"/>
-    </row>
-    <row r="14" spans="1:12" ht="38.4" thickBot="1">
-      <c r="B14" s="95"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
+        <v>227</v>
+      </c>
+      <c r="L13" s="131"/>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
+      <c r="B14" s="97"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>107</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>3</v>
@@ -4556,20 +4558,20 @@
         <v>50</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="100"/>
-    </row>
-    <row r="15" spans="1:12" ht="37.799999999999997">
-      <c r="B15" s="92">
+        <v>228</v>
+      </c>
+      <c r="L14" s="132"/>
+    </row>
+    <row r="15" spans="1:12" ht="36">
+      <c r="B15" s="96">
         <v>2</v>
       </c>
-      <c r="C15" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="107"/>
+      <c r="C15" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="91"/>
       <c r="E15" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>107</v>
@@ -4578,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>9</v>
@@ -4587,18 +4589,18 @@
         <v>123</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L15" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="L15" s="101" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="63.6" thickBot="1">
-      <c r="B16" s="112"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+    <row r="16" spans="1:12" ht="48.75" thickBot="1">
+      <c r="B16" s="100"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>107</v>
@@ -4607,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>8</v>
@@ -4616,109 +4618,109 @@
         <v>50</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="L16" s="97"/>
+        <v>228</v>
+      </c>
+      <c r="L16" s="109"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="92">
+      <c r="B17" s="96">
         <v>3</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="101" t="s">
+      <c r="I17" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
+      <c r="B18" s="129"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="113"/>
+      <c r="L18" s="124"/>
+    </row>
+    <row r="19" spans="2:12" ht="27" customHeight="1">
+      <c r="B19" s="99"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H19" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="58" t="s">
+      <c r="I19" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" spans="2:12" ht="37.5" customHeight="1">
+      <c r="B20" s="99"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="93"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="118"/>
-      <c r="L18" s="132"/>
-    </row>
-    <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="94"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="125" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="118" t="s">
-        <v>228</v>
-      </c>
-      <c r="L19" s="113"/>
-    </row>
-    <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="94"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="118"/>
-      <c r="L20" s="113"/>
-    </row>
-    <row r="21" spans="2:12" ht="37.799999999999997">
-      <c r="B21" s="94"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="102"/>
+    </row>
+    <row r="21" spans="2:12" ht="36">
+      <c r="B21" s="99"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>107</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>12</v>
@@ -4727,131 +4729,131 @@
         <v>50</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="L21" s="113"/>
-    </row>
-    <row r="22" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B22" s="95"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
+        <v>228</v>
+      </c>
+      <c r="L21" s="102"/>
+    </row>
+    <row r="22" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B22" s="97"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>107</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="L22" s="114"/>
-    </row>
-    <row r="23" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B23" s="92">
+        <v>227</v>
+      </c>
+      <c r="L22" s="103"/>
+    </row>
+    <row r="23" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B23" s="96">
         <v>4</v>
       </c>
-      <c r="C23" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="107"/>
+      <c r="C23" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="91"/>
       <c r="E23" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>107</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L23" s="96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B24" s="94"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+        <v>227</v>
+      </c>
+      <c r="L23" s="101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B24" s="99"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" s="113"/>
-    </row>
-    <row r="25" spans="2:12" ht="37.799999999999997">
-      <c r="B25" s="94"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
+        <v>227</v>
+      </c>
+      <c r="L24" s="102"/>
+    </row>
+    <row r="25" spans="2:12" ht="36">
+      <c r="B25" s="99"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" s="113"/>
-    </row>
-    <row r="26" spans="2:12" ht="25.2">
-      <c r="B26" s="94"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="127" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="129" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="102"/>
+    </row>
+    <row r="26" spans="2:12" ht="24">
+      <c r="B26" s="99"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="90" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
@@ -4860,127 +4862,127 @@
         <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="L26" s="113"/>
+        <v>229</v>
+      </c>
+      <c r="L26" s="102"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="129"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="137" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="138"/>
-      <c r="L27" s="113"/>
-    </row>
-    <row r="28" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B28" s="94"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
+      <c r="J27" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="105"/>
+      <c r="L27" s="102"/>
+    </row>
+    <row r="28" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B28" s="99"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>107</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="113"/>
-    </row>
-    <row r="29" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B29" s="95"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
+        <v>227</v>
+      </c>
+      <c r="L28" s="102"/>
+    </row>
+    <row r="29" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B29" s="97"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="L29" s="114"/>
-    </row>
-    <row r="30" spans="2:12" ht="37.799999999999997">
-      <c r="B30" s="92">
+        <v>227</v>
+      </c>
+      <c r="L29" s="103"/>
+    </row>
+    <row r="30" spans="2:12" ht="36">
+      <c r="B30" s="96">
         <v>5</v>
       </c>
-      <c r="C30" s="133" t="s">
+      <c r="C30" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="107" t="s">
-        <v>185</v>
-      </c>
       <c r="E30" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>107</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30" s="96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="37.799999999999997">
-      <c r="B31" s="94"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="109"/>
+        <v>227</v>
+      </c>
+      <c r="L30" s="101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="36">
+      <c r="B31" s="99"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -4989,23 +4991,23 @@
         <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L31" s="113"/>
-    </row>
-    <row r="32" spans="2:12" ht="37.799999999999997">
-      <c r="B32" s="94"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="109"/>
+        <v>228</v>
+      </c>
+      <c r="L31" s="102"/>
+    </row>
+    <row r="32" spans="2:12" ht="36">
+      <c r="B32" s="99"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -5014,23 +5016,23 @@
         <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L32" s="113"/>
-    </row>
-    <row r="33" spans="2:12" ht="37.799999999999997">
-      <c r="B33" s="94"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="109"/>
+        <v>228</v>
+      </c>
+      <c r="L32" s="102"/>
+    </row>
+    <row r="33" spans="2:12" ht="36">
+      <c r="B33" s="99"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
@@ -5039,77 +5041,77 @@
         <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L33" s="113"/>
-    </row>
-    <row r="34" spans="2:12" ht="37.799999999999997">
-      <c r="B34" s="94"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="109"/>
+        <v>228</v>
+      </c>
+      <c r="L33" s="102"/>
+    </row>
+    <row r="34" spans="2:12" ht="36">
+      <c r="B34" s="99"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>107</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" s="113"/>
-    </row>
-    <row r="35" spans="2:12" ht="37.799999999999997">
-      <c r="B35" s="94"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="109" t="s">
-        <v>186</v>
+        <v>227</v>
+      </c>
+      <c r="L34" s="102"/>
+    </row>
+    <row r="35" spans="2:12" ht="36">
+      <c r="B35" s="99"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="92" t="s">
+        <v>185</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="37.799999999999997">
-      <c r="B36" s="94"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="109"/>
+        <v>227</v>
+      </c>
+      <c r="L35" s="102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="36">
+      <c r="B36" s="99"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
@@ -5118,52 +5120,52 @@
         <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L36" s="113"/>
-    </row>
-    <row r="37" spans="2:12" ht="37.799999999999997">
-      <c r="B37" s="94"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="109" t="s">
-        <v>187</v>
+        <v>228</v>
+      </c>
+      <c r="L36" s="102"/>
+    </row>
+    <row r="37" spans="2:12" ht="36">
+      <c r="B37" s="99"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="92" t="s">
+        <v>186</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" s="113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="37.799999999999997">
-      <c r="B38" s="94"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="109"/>
+        <v>227</v>
+      </c>
+      <c r="L37" s="102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="36">
+      <c r="B38" s="99"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -5172,123 +5174,123 @@
         <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L38" s="113"/>
-    </row>
-    <row r="39" spans="2:12" ht="51" thickBot="1">
-      <c r="B39" s="95"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="110"/>
+        <v>228</v>
+      </c>
+      <c r="L38" s="102"/>
+    </row>
+    <row r="39" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B39" s="97"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>107</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="L39" s="114"/>
-    </row>
-    <row r="40" spans="2:12" ht="88.2">
-      <c r="B40" s="92">
+        <v>227</v>
+      </c>
+      <c r="L39" s="103"/>
+    </row>
+    <row r="40" spans="2:12" ht="84">
+      <c r="B40" s="96">
         <v>6</v>
       </c>
-      <c r="C40" s="107" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="128" t="s">
+      <c r="C40" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="89" t="s">
         <v>106</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L40" s="96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="63">
-      <c r="B41" s="94"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="129"/>
+        <v>227</v>
+      </c>
+      <c r="L40" s="101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="48">
+      <c r="B41" s="99"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="90"/>
       <c r="G41" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="K41" s="138"/>
-      <c r="L41" s="113"/>
-    </row>
-    <row r="42" spans="2:12" ht="37.799999999999997">
-      <c r="B42" s="94"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="129"/>
+      <c r="J41" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="105"/>
+      <c r="L41" s="102"/>
+    </row>
+    <row r="42" spans="2:12" ht="24">
+      <c r="B42" s="99"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="90"/>
       <c r="G42" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="K42" s="138"/>
-      <c r="L42" s="113"/>
-    </row>
-    <row r="43" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B43" s="95"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
+      <c r="J42" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="105"/>
+      <c r="L42" s="102"/>
+    </row>
+    <row r="43" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B43" s="97"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
       <c r="E43" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>107</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>33</v>
@@ -5297,77 +5299,77 @@
         <v>50</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="L43" s="114"/>
-    </row>
-    <row r="44" spans="2:12" ht="50.4">
-      <c r="B44" s="92">
+        <v>228</v>
+      </c>
+      <c r="L43" s="103"/>
+    </row>
+    <row r="44" spans="2:12" ht="48">
+      <c r="B44" s="96">
         <v>7</v>
       </c>
-      <c r="C44" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="107"/>
-      <c r="E44" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="128" t="s">
+      <c r="C44" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="91"/>
+      <c r="E44" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="89" t="s">
         <v>106</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L44" s="96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="63">
-      <c r="B45" s="94"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="129"/>
+        <v>227</v>
+      </c>
+      <c r="L44" s="101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="60">
+      <c r="B45" s="99"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="90"/>
       <c r="G45" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="K45" s="138"/>
-      <c r="L45" s="113"/>
-    </row>
-    <row r="46" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B46" s="95"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
+      <c r="J45" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="K45" s="105"/>
+      <c r="L45" s="102"/>
+    </row>
+    <row r="46" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B46" s="97"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
       <c r="E46" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="37" t="s">
         <v>107</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>36</v>
@@ -5376,79 +5378,79 @@
         <v>50</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="L46" s="114"/>
-    </row>
-    <row r="47" spans="2:12" ht="37.799999999999997">
-      <c r="B47" s="92">
+        <v>228</v>
+      </c>
+      <c r="L46" s="103"/>
+    </row>
+    <row r="47" spans="2:12" ht="36">
+      <c r="B47" s="96">
         <v>8</v>
       </c>
-      <c r="C47" s="107" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="128" t="s">
+      <c r="C47" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="91"/>
+      <c r="E47" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="89" t="s">
         <v>106</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="L47" s="96" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="50.4">
-      <c r="B48" s="94"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="129"/>
+        <v>229</v>
+      </c>
+      <c r="L47" s="101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="36">
+      <c r="B48" s="99"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="90"/>
       <c r="G48" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="L48" s="113"/>
-    </row>
-    <row r="49" spans="2:12" ht="37.799999999999997">
-      <c r="B49" s="94"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
+        <v>229</v>
+      </c>
+      <c r="L48" s="102"/>
+    </row>
+    <row r="49" spans="2:12" ht="36">
+      <c r="B49" s="99"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
@@ -5457,23 +5459,23 @@
         <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L49" s="113"/>
-    </row>
-    <row r="50" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B50" s="112"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
+        <v>228</v>
+      </c>
+      <c r="L49" s="102"/>
+    </row>
+    <row r="50" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B50" s="100"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>107</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>40</v>
@@ -5482,77 +5484,77 @@
         <v>50</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="L50" s="97"/>
-    </row>
-    <row r="51" spans="2:12" ht="50.4">
-      <c r="B51" s="92">
+        <v>228</v>
+      </c>
+      <c r="L50" s="109"/>
+    </row>
+    <row r="51" spans="2:12" ht="48">
+      <c r="B51" s="96">
         <v>9</v>
       </c>
-      <c r="C51" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="128" t="s">
+      <c r="C51" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="91"/>
+      <c r="E51" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="89" t="s">
         <v>106</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>41</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="L51" s="96" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="63">
-      <c r="B52" s="94"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="129"/>
+        <v>227</v>
+      </c>
+      <c r="L51" s="101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="48">
+      <c r="B52" s="99"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="90"/>
       <c r="G52" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="K52" s="138"/>
-      <c r="L52" s="113"/>
-    </row>
-    <row r="53" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B53" s="95"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
+      <c r="J52" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="K52" s="105"/>
+      <c r="L52" s="102"/>
+    </row>
+    <row r="53" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B53" s="97"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
       <c r="E53" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>107</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>43</v>
@@ -5561,108 +5563,108 @@
         <v>50</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="L53" s="114"/>
-    </row>
-    <row r="54" spans="2:12" ht="25.2">
-      <c r="B54" s="92">
+        <v>228</v>
+      </c>
+      <c r="L53" s="103"/>
+    </row>
+    <row r="54" spans="2:12" ht="24">
+      <c r="B54" s="96">
         <v>10</v>
       </c>
-      <c r="C54" s="107" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="128" t="s">
+      <c r="C54" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="E54" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="89" t="s">
         <v>106</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L54" s="96" t="s">
-        <v>146</v>
+        <v>227</v>
+      </c>
+      <c r="L54" s="101" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="94"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="129"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="90"/>
       <c r="G55" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L55" s="113"/>
-    </row>
-    <row r="56" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B56" s="95"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
+        <v>227</v>
+      </c>
+      <c r="L55" s="102"/>
+    </row>
+    <row r="56" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B56" s="97"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F56" s="46" t="s">
         <v>107</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I56" s="48" t="s">
         <v>46</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="L56" s="114"/>
-    </row>
-    <row r="57" spans="2:12" ht="63">
-      <c r="B57" s="92">
+        <v>227</v>
+      </c>
+      <c r="L56" s="103"/>
+    </row>
+    <row r="57" spans="2:12" ht="60">
+      <c r="B57" s="96">
         <v>11</v>
       </c>
-      <c r="C57" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="107"/>
+      <c r="C57" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="91"/>
       <c r="E57" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>107</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>47</v>
@@ -5671,44 +5673,44 @@
         <v>51</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="L57" s="96" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="63.6" thickBot="1">
-      <c r="B58" s="95"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
+        <v>229</v>
+      </c>
+      <c r="L57" s="101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="48.75" thickBot="1">
+      <c r="B58" s="97"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
       <c r="E58" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>107</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="L58" s="114"/>
+        <v>227</v>
+      </c>
+      <c r="L58" s="103"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="136" t="s">
+      <c r="F59" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5722,13 +5724,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="F44:F45"/>
@@ -5745,57 +5791,13 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5840,52 +5842,52 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="25.2">
+    <row r="6" spans="1:3" ht="24">
       <c r="B6" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="100.8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="84">
       <c r="B7" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5893,7 +5895,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5912,12 +5914,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="100.8">
+    <row r="11" spans="1:3" ht="84">
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5933,15 +5935,15 @@
         <v>62</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75.599999999999994">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72">
       <c r="B14" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5949,15 +5951,15 @@
         <v>64</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="37.799999999999997">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36">
       <c r="B16" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0D2A0-28E5-4127-A222-6542B6581883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A660BE0-DA80-4635-BE56-11E58841DAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="4035" windowWidth="29070" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -498,13 +498,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">Formal design of security requirements to be provided by the system using the response table and security guidelines </t>
-  </si>
-  <si>
-    <t>to be followed by each project as input.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>In addition to the above, refer to the PCI DSS compliance table for systems that are required to be compliant with PCI DSS.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -620,20 +613,6 @@
   </si>
   <si>
     <t>Input Value Check</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nablarch provides a session store feature as an abstraction of HTTP sessions.
-The session store provides the following features that provide a fundamental solution to session management vulnerabilities.
-　・　The session ID is stored in a cookie to track the session.
-　・　The session IDs use UUIDs that are difficult to guess.
-　・　By default, the session store does not set the secure attribute to Set-Cookie in HTTP headers.
-　　　To use HTTPS, specify the secure attribute in the settings.
-　・　Session IDs are numbered for each session created.
-　・　By default, the session store does not set the MaxAge attribute on cookies.
-　　　For this reason, the cookie is only valid until the browser is closed.
-For 4-(iv), please refer to the example implementation of the login process provided in the Nablarch Example and start a new session after a successful login in your project.
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1165,6 +1144,27 @@
   <si>
     <t>Nablarch provides a file path management feature. By using this feature to access files in the server, you can specify the base directory to be accessed. This limits the directories to which you can publish. At the same time, only files with specific extensions can be accessed.
 When prompting users for a file name, you can combine this with an input value check to not allow characters such as "." in the input value check, to prevent directory traversal.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the security guidelines that each project must follow and the respondance table </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>to design a method that meets the security requirements of the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarch provides a session store feature as an abstraction of HTTP sessions.
+The session store provides the following features that provide a fundamental solution to session management vulnerabilities.
+　・　The session ID is stored in a cookie to track the session.
+　・　The session IDs use UUIDs that are difficult to guess.
+　・　By default, the session store does not set the secure attribute to Set-Cookie in HTTP headers.
+　　　To use HTTPS, specify the secure attribute in the settings.
+　・　Session IDs are numbered for each session created.
+　・　By default, the session store does not set the MaxAge attribute on cookies.
+　　　For this reason, the cookie is only valid until the browser is closed.
+For 4-(iv), Your project should refer to the example implementation of the login process provided in the Nablarch Example and start a new session after a successful login.
+</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2548,13 +2548,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2569,8 +2569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086224" y="4181474"/>
-          <a:ext cx="2486025" cy="704851"/>
+          <a:off x="3743324" y="4387215"/>
+          <a:ext cx="2280285" cy="489586"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2609,7 +2609,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>It will be used to determine Nablarch's coverage when complying with security guidelines.</a:t>
+            <a:t>Used to check Nablarch coverage when following security guidelines.</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3325,714 +3325,714 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
     <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
     <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.5" style="67" customWidth="1"/>
+    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
+    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
     <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.75" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.5" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.625" style="67" customWidth="1"/>
+    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
+    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
+    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
+    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
+    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
+    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
     <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.5" style="67" customWidth="1"/>
+    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
+    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
     <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.75" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.5" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.625" style="67" customWidth="1"/>
+    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
+    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
+    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
+    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
+    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
+    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
     <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.5" style="67" customWidth="1"/>
+    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
+    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
     <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.75" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.5" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.625" style="67" customWidth="1"/>
+    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
+    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
+    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
+    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
+    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
+    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
     <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5" style="67" customWidth="1"/>
+    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
     <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.75" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.5" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.625" style="67" customWidth="1"/>
+    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
     <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5" style="67" customWidth="1"/>
+    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
     <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.75" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.5" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.625" style="67" customWidth="1"/>
+    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
     <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5" style="67" customWidth="1"/>
+    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
     <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.75" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.5" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.625" style="67" customWidth="1"/>
+    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
     <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5" style="67" customWidth="1"/>
+    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
     <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.75" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.5" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.625" style="67" customWidth="1"/>
+    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
     <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5" style="67" customWidth="1"/>
+    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
     <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.75" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.5" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.625" style="67" customWidth="1"/>
+    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
     <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5" style="67" customWidth="1"/>
+    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
     <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.75" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.5" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.625" style="67" customWidth="1"/>
+    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
     <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5" style="67" customWidth="1"/>
+    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
     <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.75" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.5" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.625" style="67" customWidth="1"/>
+    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
     <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5" style="67" customWidth="1"/>
+    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
     <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.75" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.5" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.625" style="67" customWidth="1"/>
+    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
     <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5" style="67" customWidth="1"/>
+    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
     <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.75" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.5" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.625" style="67" customWidth="1"/>
+    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
     <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5" style="67" customWidth="1"/>
+    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
     <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.75" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.5" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.625" style="67" customWidth="1"/>
+    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
     <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5" style="67" customWidth="1"/>
+    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
     <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.75" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.5" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.625" style="67" customWidth="1"/>
+    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
     <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5" style="67" customWidth="1"/>
+    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
     <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.75" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.5" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.625" style="67" customWidth="1"/>
+    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
     <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5" style="67" customWidth="1"/>
+    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
     <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.75" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.5" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.625" style="67" customWidth="1"/>
+    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
     <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5" style="67" customWidth="1"/>
+    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
     <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.75" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.5" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.625" style="67" customWidth="1"/>
+    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
     <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5" style="67" customWidth="1"/>
+    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
     <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.75" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.5" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.625" style="67" customWidth="1"/>
+    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
     <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5" style="67" customWidth="1"/>
+    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
     <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.75" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.5" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.625" style="67" customWidth="1"/>
+    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
     <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5" style="67" customWidth="1"/>
+    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
     <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.75" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.5" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.625" style="67" customWidth="1"/>
+    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
     <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5" style="67" customWidth="1"/>
+    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
     <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.75" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.5" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.625" style="67" customWidth="1"/>
+    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
     <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5" style="67" customWidth="1"/>
+    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
     <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.75" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.5" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.625" style="67" customWidth="1"/>
+    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
     <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5" style="67" customWidth="1"/>
+    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
     <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.75" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.5" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.625" style="67" customWidth="1"/>
+    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
     <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5" style="67" customWidth="1"/>
+    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
     <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.75" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.5" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.625" style="67" customWidth="1"/>
+    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
     <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5" style="67" customWidth="1"/>
+    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
     <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.75" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.5" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.625" style="67" customWidth="1"/>
+    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
     <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5" style="67" customWidth="1"/>
+    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
     <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.75" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.5" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.625" style="67" customWidth="1"/>
+    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
     <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5" style="67" customWidth="1"/>
+    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
     <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.75" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.5" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.625" style="67" customWidth="1"/>
+    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
     <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5" style="67" customWidth="1"/>
+    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
     <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.75" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.5" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.625" style="67" customWidth="1"/>
+    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
     <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5" style="67" customWidth="1"/>
+    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
     <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.75" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.5" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.625" style="67" customWidth="1"/>
+    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
     <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5" style="67" customWidth="1"/>
+    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
     <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.75" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.5" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.625" style="67" customWidth="1"/>
+    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
     <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5" style="67" customWidth="1"/>
+    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
     <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.75" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.5" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.625" style="67" customWidth="1"/>
+    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
     <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5" style="67" customWidth="1"/>
+    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
     <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.75" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.5" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.625" style="67" customWidth="1"/>
+    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
     <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5" style="67" customWidth="1"/>
+    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
     <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.75" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.5" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.625" style="67" customWidth="1"/>
+    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
     <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5" style="67" customWidth="1"/>
+    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
     <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.75" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.5" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.625" style="67" customWidth="1"/>
+    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
     <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5" style="67" customWidth="1"/>
+    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
     <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.75" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.5" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.625" style="67" customWidth="1"/>
+    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
     <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5" style="67" customWidth="1"/>
+    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
     <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.75" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.5" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.625" style="67" customWidth="1"/>
+    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
     <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5" style="67" customWidth="1"/>
+    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
     <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.75" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.5" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.625" style="67" customWidth="1"/>
+    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
     <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5" style="67" customWidth="1"/>
+    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
     <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.75" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.5" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.625" style="67" customWidth="1"/>
+    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
     <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5" style="67" customWidth="1"/>
+    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
     <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.75" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.5" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.625" style="67" customWidth="1"/>
+    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
     <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5" style="67" customWidth="1"/>
+    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
     <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.75" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.5" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.625" style="67" customWidth="1"/>
+    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
     <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5" style="67" customWidth="1"/>
+    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
     <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.75" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.5" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.625" style="67" customWidth="1"/>
+    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
     <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5" style="67" customWidth="1"/>
+    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
     <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.75" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.5" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.625" style="67" customWidth="1"/>
+    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
     <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5" style="67" customWidth="1"/>
+    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
     <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.75" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.5" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.625" style="67" customWidth="1"/>
+    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
     <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5" style="67" customWidth="1"/>
+    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
     <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.75" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.5" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.625" style="67" customWidth="1"/>
+    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
     <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5" style="67" customWidth="1"/>
+    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
     <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.75" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.5" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.625" style="67" customWidth="1"/>
+    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
     <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5" style="67" customWidth="1"/>
+    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
     <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.75" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.5" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.625" style="67" customWidth="1"/>
+    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
     <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5" style="67" customWidth="1"/>
+    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
     <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.75" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.5" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.625" style="67" customWidth="1"/>
+    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
     <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5" style="67" customWidth="1"/>
+    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
     <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.75" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.5" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.625" style="67" customWidth="1"/>
+    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
     <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5" style="67" customWidth="1"/>
+    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
     <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.75" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.5" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.625" style="67" customWidth="1"/>
+    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
     <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5" style="67" customWidth="1"/>
+    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
     <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.75" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.5" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.625" style="67" customWidth="1"/>
+    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
     <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5" style="67" customWidth="1"/>
+    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
     <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.75" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.5" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.625" style="67" customWidth="1"/>
+    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
     <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5" style="67" customWidth="1"/>
+    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
     <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.75" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.5" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.625" style="67" customWidth="1"/>
+    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
     <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5" style="67" customWidth="1"/>
+    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
     <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.75" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.5" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.625" style="67" customWidth="1"/>
+    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
     <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5" style="67" customWidth="1"/>
+    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
     <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.75" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.5" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.625" style="67" customWidth="1"/>
+    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
     <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5" style="67" customWidth="1"/>
+    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
     <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.75" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.5" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.625" style="67" customWidth="1"/>
+    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
     <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5" style="67" customWidth="1"/>
+    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
     <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.75" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.5" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.625" style="67" customWidth="1"/>
+    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
     <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5" style="67" customWidth="1"/>
+    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
     <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.75" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.5" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.625" style="67" customWidth="1"/>
+    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
     <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5" style="67" customWidth="1"/>
+    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
     <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.75" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.5" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.625" style="67" customWidth="1"/>
+    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
     <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5" style="67" customWidth="1"/>
+    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
     <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.75" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.5" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.625" style="67" customWidth="1"/>
+    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
     <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5" style="67" customWidth="1"/>
+    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
     <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.75" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.5" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.625" style="67" customWidth="1"/>
+    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
     <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5" style="67" customWidth="1"/>
+    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
     <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.75" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.5" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.625" style="67" customWidth="1"/>
+    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
     <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5" style="67" customWidth="1"/>
+    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
     <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.75" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.5" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.625" style="67" customWidth="1"/>
+    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
     <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5" style="67" customWidth="1"/>
+    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
+    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
     <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.75" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.5" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.625" style="67" customWidth="1"/>
+    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
+    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
+    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
+    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
+    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75">
+    <row r="1" spans="1:9" ht="26.4">
       <c r="A1" s="65" t="s">
         <v>70</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
     </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="28.5">
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="26.4">
       <c r="A5" s="71">
         <v>1</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
+    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
       <c r="A6" s="71">
         <v>2</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
       <c r="A7" s="71">
         <v>3</v>
       </c>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="8" spans="1:9" s="76" customFormat="1">
       <c r="A8" s="67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="79" customFormat="1" ht="18.75">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
       <c r="A9" s="77"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -4193,9 +4193,9 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="20"/>
+    <col min="1" max="16384" width="2.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -4220,7 +4220,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -4265,27 +4265,27 @@
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="20" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="20" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="3:10">
@@ -4293,7 +4293,7 @@
         <v>53</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -4327,62 +4327,62 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:12" ht="16.2">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.2">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.2">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.2">
+      <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" ht="16.2">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5">
+    <row r="6" spans="1:12" ht="16.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1">
+    <row r="7" spans="1:12" ht="16.8" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4390,42 +4390,42 @@
         <v>1</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="127"/>
       <c r="E8" s="112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="112"/>
       <c r="G8" s="112"/>
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
       <c r="J8" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="122" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24.75" thickBot="1">
+    </row>
+    <row r="9" spans="1:12" ht="25.8" thickBot="1">
       <c r="B9" s="126"/>
       <c r="C9" s="128"/>
       <c r="D9" s="128"/>
       <c r="E9" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J9" s="111"/>
       <c r="K9" s="111"/>
@@ -4436,32 +4436,32 @@
         <v>1</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D10" s="91"/>
       <c r="E10" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L10" s="130" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
@@ -4474,16 +4474,16 @@
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L11" s="131"/>
     </row>
@@ -4492,64 +4492,64 @@
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
       <c r="E12" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L12" s="131"/>
     </row>
-    <row r="13" spans="1:12" ht="36">
+    <row r="13" spans="1:12" ht="37.799999999999997">
       <c r="B13" s="99"/>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L13" s="131"/>
     </row>
-    <row r="14" spans="1:12" ht="36.75" thickBot="1">
+    <row r="14" spans="1:12" ht="38.4" thickBot="1">
       <c r="B14" s="97"/>
       <c r="C14" s="93"/>
       <c r="D14" s="93"/>
       <c r="E14" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>3</v>
@@ -4558,58 +4558,58 @@
         <v>50</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L14" s="132"/>
     </row>
-    <row r="15" spans="1:12" ht="36">
+    <row r="15" spans="1:12" ht="37.799999999999997">
       <c r="B15" s="96">
         <v>2</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D15" s="91"/>
       <c r="E15" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L15" s="101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="48.75" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="63.6" thickBot="1">
       <c r="B16" s="100"/>
       <c r="C16" s="98"/>
       <c r="D16" s="98"/>
       <c r="E16" s="40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>8</v>
@@ -4618,7 +4618,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L16" s="109"/>
     </row>
@@ -4627,32 +4627,32 @@
         <v>3</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" s="91"/>
       <c r="E17" s="135" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" s="133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="133" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="119" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I17" s="118" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K17" s="114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L17" s="101" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
@@ -4665,7 +4665,7 @@
       <c r="H18" s="117"/>
       <c r="I18" s="115"/>
       <c r="J18" s="85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K18" s="113"/>
       <c r="L18" s="124"/>
@@ -4680,16 +4680,16 @@
         <v>2</v>
       </c>
       <c r="H19" s="116" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I19" s="115" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K19" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L19" s="102"/>
     </row>
@@ -4703,24 +4703,24 @@
       <c r="H20" s="117"/>
       <c r="I20" s="115"/>
       <c r="J20" s="85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K20" s="113"/>
       <c r="L20" s="102"/>
     </row>
-    <row r="21" spans="2:12" ht="36">
+    <row r="21" spans="2:12" ht="37.799999999999997">
       <c r="B21" s="99"/>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
       <c r="E21" s="49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>12</v>
@@ -4729,131 +4729,131 @@
         <v>50</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L21" s="102"/>
     </row>
-    <row r="22" spans="2:12" ht="36.75" thickBot="1">
+    <row r="22" spans="2:12" ht="38.4" thickBot="1">
       <c r="B22" s="97"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
       <c r="E22" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L22" s="103"/>
     </row>
-    <row r="23" spans="2:12" ht="36.75" thickBot="1">
+    <row r="23" spans="2:12" ht="38.4" thickBot="1">
       <c r="B23" s="96">
         <v>4</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L23" s="101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="36.75" thickBot="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="38.4" thickBot="1">
       <c r="B24" s="99"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
       <c r="E24" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L24" s="102"/>
     </row>
-    <row r="25" spans="2:12" ht="36">
+    <row r="25" spans="2:12" ht="37.799999999999997">
       <c r="B25" s="99"/>
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
       <c r="E25" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L25" s="102"/>
     </row>
-    <row r="26" spans="2:12" ht="24">
+    <row r="26" spans="2:12" ht="25.2">
       <c r="B26" s="99"/>
       <c r="C26" s="92"/>
       <c r="D26" s="92"/>
       <c r="E26" s="95" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F26" s="90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
@@ -4862,7 +4862,7 @@
         <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L26" s="102"/>
     </row>
@@ -4876,113 +4876,113 @@
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="104" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K27" s="105"/>
       <c r="L27" s="102"/>
     </row>
-    <row r="28" spans="2:12" ht="36.75" thickBot="1">
+    <row r="28" spans="2:12" ht="38.4" thickBot="1">
       <c r="B28" s="99"/>
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
       <c r="E28" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L28" s="102"/>
     </row>
-    <row r="29" spans="2:12" ht="36.75" thickBot="1">
+    <row r="29" spans="2:12" ht="38.4" thickBot="1">
       <c r="B29" s="97"/>
       <c r="C29" s="93"/>
       <c r="D29" s="93"/>
       <c r="E29" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L29" s="103"/>
     </row>
-    <row r="30" spans="2:12" ht="36">
+    <row r="30" spans="2:12" ht="37.799999999999997">
       <c r="B30" s="96">
         <v>5</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L30" s="101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="36">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="37.799999999999997">
       <c r="B31" s="99"/>
       <c r="C31" s="107"/>
       <c r="D31" s="92"/>
       <c r="E31" s="84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -4991,23 +4991,23 @@
         <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L31" s="102"/>
     </row>
-    <row r="32" spans="2:12" ht="36">
+    <row r="32" spans="2:12" ht="37.799999999999997">
       <c r="B32" s="99"/>
       <c r="C32" s="107"/>
       <c r="D32" s="92"/>
       <c r="E32" s="84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -5016,23 +5016,23 @@
         <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="102"/>
     </row>
-    <row r="33" spans="2:12" ht="36">
+    <row r="33" spans="2:12" ht="37.799999999999997">
       <c r="B33" s="99"/>
       <c r="C33" s="107"/>
       <c r="D33" s="92"/>
       <c r="E33" s="84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
@@ -5041,77 +5041,77 @@
         <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L33" s="102"/>
     </row>
-    <row r="34" spans="2:12" ht="36">
+    <row r="34" spans="2:12" ht="37.799999999999997">
       <c r="B34" s="99"/>
       <c r="C34" s="107"/>
       <c r="D34" s="92"/>
       <c r="E34" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L34" s="102"/>
     </row>
-    <row r="35" spans="2:12" ht="36">
+    <row r="35" spans="2:12" ht="37.799999999999997">
       <c r="B35" s="99"/>
       <c r="C35" s="107"/>
       <c r="D35" s="92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L35" s="102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="36">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="37.799999999999997">
       <c r="B36" s="99"/>
       <c r="C36" s="107"/>
       <c r="D36" s="92"/>
       <c r="E36" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
@@ -5120,52 +5120,52 @@
         <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L36" s="102"/>
     </row>
-    <row r="37" spans="2:12" ht="36">
+    <row r="37" spans="2:12" ht="37.799999999999997">
       <c r="B37" s="99"/>
       <c r="C37" s="107"/>
       <c r="D37" s="92" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L37" s="102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="37.799999999999997">
       <c r="B38" s="99"/>
       <c r="C38" s="107"/>
       <c r="D38" s="92"/>
       <c r="E38" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -5174,69 +5174,69 @@
         <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L38" s="102"/>
     </row>
-    <row r="39" spans="2:12" ht="36.75" thickBot="1">
+    <row r="39" spans="2:12" ht="51" thickBot="1">
       <c r="B39" s="97"/>
       <c r="C39" s="108"/>
       <c r="D39" s="93"/>
       <c r="E39" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L39" s="103"/>
     </row>
-    <row r="40" spans="2:12" ht="84">
+    <row r="40" spans="2:12" ht="88.2">
       <c r="B40" s="96">
         <v>6</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D40" s="91"/>
       <c r="E40" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F40" s="89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L40" s="101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="63">
       <c r="B41" s="99"/>
       <c r="C41" s="92"/>
       <c r="D41" s="92"/>
@@ -5246,18 +5246,18 @@
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J41" s="104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K41" s="105"/>
       <c r="L41" s="102"/>
     </row>
-    <row r="42" spans="2:12" ht="24">
+    <row r="42" spans="2:12" ht="37.799999999999997">
       <c r="B42" s="99"/>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -5267,30 +5267,30 @@
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J42" s="104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K42" s="105"/>
       <c r="L42" s="102"/>
     </row>
-    <row r="43" spans="2:12" ht="36.75" thickBot="1">
+    <row r="43" spans="2:12" ht="38.4" thickBot="1">
       <c r="B43" s="97"/>
       <c r="C43" s="93"/>
       <c r="D43" s="93"/>
       <c r="E43" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>33</v>
@@ -5299,44 +5299,44 @@
         <v>50</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L43" s="103"/>
     </row>
-    <row r="44" spans="2:12" ht="48">
+    <row r="44" spans="2:12" ht="50.4">
       <c r="B44" s="96">
         <v>7</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D44" s="91"/>
       <c r="E44" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L44" s="101" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="60">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="63">
       <c r="B45" s="99"/>
       <c r="C45" s="92"/>
       <c r="D45" s="92"/>
@@ -5346,30 +5346,30 @@
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J45" s="104" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K45" s="105"/>
       <c r="L45" s="102"/>
     </row>
-    <row r="46" spans="2:12" ht="36.75" thickBot="1">
+    <row r="46" spans="2:12" ht="38.4" thickBot="1">
       <c r="B46" s="97"/>
       <c r="C46" s="93"/>
       <c r="D46" s="93"/>
       <c r="E46" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>36</v>
@@ -5378,44 +5378,44 @@
         <v>50</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L46" s="103"/>
     </row>
-    <row r="47" spans="2:12" ht="36">
+    <row r="47" spans="2:12" ht="37.799999999999997">
       <c r="B47" s="96">
         <v>8</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D47" s="91"/>
       <c r="E47" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F47" s="89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L47" s="101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="36">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="50.4">
       <c r="B48" s="99"/>
       <c r="C48" s="92"/>
       <c r="D48" s="92"/>
@@ -5425,32 +5425,32 @@
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L48" s="102"/>
     </row>
-    <row r="49" spans="2:12" ht="36">
+    <row r="49" spans="2:12" ht="37.799999999999997">
       <c r="B49" s="99"/>
       <c r="C49" s="92"/>
       <c r="D49" s="92"/>
       <c r="E49" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
@@ -5459,23 +5459,23 @@
         <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L49" s="102"/>
     </row>
-    <row r="50" spans="2:12" ht="36.75" thickBot="1">
+    <row r="50" spans="2:12" ht="38.4" thickBot="1">
       <c r="B50" s="100"/>
       <c r="C50" s="98"/>
       <c r="D50" s="98"/>
       <c r="E50" s="40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>40</v>
@@ -5484,44 +5484,44 @@
         <v>50</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L50" s="109"/>
     </row>
-    <row r="51" spans="2:12" ht="48">
+    <row r="51" spans="2:12" ht="50.4">
       <c r="B51" s="96">
         <v>9</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D51" s="91"/>
       <c r="E51" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F51" s="89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>41</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L51" s="101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="48">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="63">
       <c r="B52" s="99"/>
       <c r="C52" s="92"/>
       <c r="D52" s="92"/>
@@ -5531,30 +5531,30 @@
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J52" s="104" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K52" s="105"/>
       <c r="L52" s="102"/>
     </row>
-    <row r="53" spans="2:12" ht="36.75" thickBot="1">
+    <row r="53" spans="2:12" ht="38.4" thickBot="1">
       <c r="B53" s="97"/>
       <c r="C53" s="93"/>
       <c r="D53" s="93"/>
       <c r="E53" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>43</v>
@@ -5563,41 +5563,41 @@
         <v>50</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L53" s="103"/>
     </row>
-    <row r="54" spans="2:12" ht="24">
+    <row r="54" spans="2:12" ht="25.2">
       <c r="B54" s="96">
         <v>10</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D54" s="91"/>
       <c r="E54" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F54" s="89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L54" s="101" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
@@ -5610,61 +5610,61 @@
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L55" s="102"/>
     </row>
-    <row r="56" spans="2:12" ht="36.75" thickBot="1">
+    <row r="56" spans="2:12" ht="38.4" thickBot="1">
       <c r="B56" s="97"/>
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I56" s="48" t="s">
         <v>46</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L56" s="103"/>
     </row>
-    <row r="57" spans="2:12" ht="60">
+    <row r="57" spans="2:12" ht="63">
       <c r="B57" s="96">
         <v>11</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D57" s="91"/>
       <c r="E57" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>47</v>
@@ -5673,40 +5673,40 @@
         <v>51</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L57" s="101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="48.75" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="63.6" thickBot="1">
       <c r="B58" s="97"/>
       <c r="C58" s="93"/>
       <c r="D58" s="93"/>
       <c r="E58" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L58" s="103"/>
     </row>
     <row r="59" spans="2:12">
       <c r="F59" s="88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G59" s="88"/>
       <c r="H59" s="88"/>
@@ -5842,52 +5842,52 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="24">
+    <row r="6" spans="1:3" ht="25.2">
       <c r="B6" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="84">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="100.8">
       <c r="B7" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5895,7 +5895,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5914,12 +5914,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="84">
+    <row r="11" spans="1:3" ht="100.8">
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5935,15 +5935,15 @@
         <v>62</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75.599999999999994">
       <c r="B14" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5951,15 +5951,15 @@
         <v>64</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37.799999999999997">
       <c r="B16" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A660BE0-DA80-4635-BE56-11E58841DAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EEBFB-A313-45F0-A1D5-BE54133FC9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="3510" windowWidth="28215" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -1962,158 +1962,158 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2696,7 +2696,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Nablarch features and tools associated with Nablarch</a:t>
+            <a:t>Nablarch features and tools associated with Nablarch are availabled.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3325,714 +3325,714 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="67" customWidth="1"/>
     <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
     <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
+    <col min="256" max="256" width="3.875" style="67" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="67" customWidth="1"/>
     <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
+    <col min="259" max="259" width="4.875" style="67" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="67" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="67" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="67" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="67" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="67" customWidth="1"/>
     <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
+    <col min="512" max="512" width="3.875" style="67" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="67" customWidth="1"/>
     <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
+    <col min="515" max="515" width="4.875" style="67" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="67" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="67" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="67" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="67" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="67" customWidth="1"/>
     <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
+    <col min="768" max="768" width="3.875" style="67" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="67" customWidth="1"/>
     <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
+    <col min="771" max="771" width="4.875" style="67" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="67" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="67" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="67" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="67" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="67" customWidth="1"/>
     <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1024" max="1024" width="3.875" style="67" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="67" customWidth="1"/>
     <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1027" max="1027" width="4.875" style="67" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="67" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="67" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="67" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="67" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="67" customWidth="1"/>
     <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1280" max="1280" width="3.875" style="67" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="67" customWidth="1"/>
     <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1283" max="1283" width="4.875" style="67" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="67" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="67" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="67" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="67" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="67" customWidth="1"/>
     <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1536" max="1536" width="3.875" style="67" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="67" customWidth="1"/>
     <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1539" max="1539" width="4.875" style="67" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="67" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="67" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="67" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="67" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="67" customWidth="1"/>
     <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1792" max="1792" width="3.875" style="67" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="67" customWidth="1"/>
     <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1795" max="1795" width="4.875" style="67" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="67" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="67" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="67" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="67" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="67" customWidth="1"/>
     <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2048" max="2048" width="3.875" style="67" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="67" customWidth="1"/>
     <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2051" max="2051" width="4.875" style="67" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="67" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="67" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="67" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="67" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="67" customWidth="1"/>
     <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2304" max="2304" width="3.875" style="67" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="67" customWidth="1"/>
     <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2307" max="2307" width="4.875" style="67" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="67" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="67" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="67" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="67" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="67" customWidth="1"/>
     <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2560" max="2560" width="3.875" style="67" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="67" customWidth="1"/>
     <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2563" max="2563" width="4.875" style="67" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="67" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="67" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="67" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="67" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="67" customWidth="1"/>
     <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2816" max="2816" width="3.875" style="67" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="67" customWidth="1"/>
     <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2819" max="2819" width="4.875" style="67" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="67" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="67" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="67" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="67" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="67" customWidth="1"/>
     <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3072" max="3072" width="3.875" style="67" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="67" customWidth="1"/>
     <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3075" max="3075" width="4.875" style="67" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="67" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="67" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="67" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="67" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="67" customWidth="1"/>
     <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3328" max="3328" width="3.875" style="67" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="67" customWidth="1"/>
     <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3331" max="3331" width="4.875" style="67" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="67" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="67" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="67" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="67" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="67" customWidth="1"/>
     <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3584" max="3584" width="3.875" style="67" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="67" customWidth="1"/>
     <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3587" max="3587" width="4.875" style="67" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="67" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="67" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="67" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="67" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="67" customWidth="1"/>
     <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3840" max="3840" width="3.875" style="67" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="67" customWidth="1"/>
     <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3843" max="3843" width="4.875" style="67" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="67" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="67" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="67" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="67" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="67" customWidth="1"/>
     <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4096" max="4096" width="3.875" style="67" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="67" customWidth="1"/>
     <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4099" max="4099" width="4.875" style="67" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="67" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="67" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="67" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="67" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="67" customWidth="1"/>
     <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4352" max="4352" width="3.875" style="67" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="67" customWidth="1"/>
     <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4355" max="4355" width="4.875" style="67" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="67" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="67" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="67" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="67" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="67" customWidth="1"/>
     <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4608" max="4608" width="3.875" style="67" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="67" customWidth="1"/>
     <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4611" max="4611" width="4.875" style="67" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="67" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="67" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="67" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="67" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="67" customWidth="1"/>
     <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4864" max="4864" width="3.875" style="67" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="67" customWidth="1"/>
     <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4867" max="4867" width="4.875" style="67" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="67" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="67" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="67" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="67" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="67" customWidth="1"/>
     <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5120" max="5120" width="3.875" style="67" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="67" customWidth="1"/>
     <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5123" max="5123" width="4.875" style="67" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="67" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="67" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="67" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="67" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="67" customWidth="1"/>
     <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5376" max="5376" width="3.875" style="67" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="67" customWidth="1"/>
     <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5379" max="5379" width="4.875" style="67" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="67" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="67" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="67" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="67" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="67" customWidth="1"/>
     <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5632" max="5632" width="3.875" style="67" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="67" customWidth="1"/>
     <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5635" max="5635" width="4.875" style="67" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="67" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="67" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="67" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="67" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="67" customWidth="1"/>
     <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5888" max="5888" width="3.875" style="67" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="67" customWidth="1"/>
     <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5891" max="5891" width="4.875" style="67" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="67" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="67" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="67" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="67" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="67" customWidth="1"/>
     <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6144" max="6144" width="3.875" style="67" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="67" customWidth="1"/>
     <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6147" max="6147" width="4.875" style="67" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="67" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="67" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="67" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="67" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="67" customWidth="1"/>
     <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6400" max="6400" width="3.875" style="67" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="67" customWidth="1"/>
     <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6403" max="6403" width="4.875" style="67" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="67" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="67" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="67" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="67" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="67" customWidth="1"/>
     <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6656" max="6656" width="3.875" style="67" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="67" customWidth="1"/>
     <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6659" max="6659" width="4.875" style="67" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="67" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="67" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="67" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="67" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="67" customWidth="1"/>
     <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6912" max="6912" width="3.875" style="67" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="67" customWidth="1"/>
     <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6915" max="6915" width="4.875" style="67" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="67" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="67" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="67" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="67" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="67" customWidth="1"/>
     <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7168" max="7168" width="3.875" style="67" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="67" customWidth="1"/>
     <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7171" max="7171" width="4.875" style="67" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="67" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="67" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="67" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="67" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="67" customWidth="1"/>
     <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7424" max="7424" width="3.875" style="67" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="67" customWidth="1"/>
     <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7427" max="7427" width="4.875" style="67" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="67" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="67" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="67" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="67" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="67" customWidth="1"/>
     <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7680" max="7680" width="3.875" style="67" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="67" customWidth="1"/>
     <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7683" max="7683" width="4.875" style="67" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="67" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="67" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="67" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="67" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="67" customWidth="1"/>
     <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7936" max="7936" width="3.875" style="67" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="67" customWidth="1"/>
     <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7939" max="7939" width="4.875" style="67" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="67" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="67" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="67" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="67" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="67" customWidth="1"/>
     <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8192" max="8192" width="3.875" style="67" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="67" customWidth="1"/>
     <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8195" max="8195" width="4.875" style="67" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="67" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="67" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="67" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="67" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="67" customWidth="1"/>
     <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8448" max="8448" width="3.875" style="67" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="67" customWidth="1"/>
     <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8451" max="8451" width="4.875" style="67" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="67" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="67" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="67" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="67" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="67" customWidth="1"/>
     <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8704" max="8704" width="3.875" style="67" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="67" customWidth="1"/>
     <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8707" max="8707" width="4.875" style="67" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="67" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="67" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="67" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="67" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="67" customWidth="1"/>
     <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8960" max="8960" width="3.875" style="67" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="67" customWidth="1"/>
     <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8963" max="8963" width="4.875" style="67" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="67" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="67" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="67" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="67" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="67" customWidth="1"/>
     <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9216" max="9216" width="3.875" style="67" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="67" customWidth="1"/>
     <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9219" max="9219" width="4.875" style="67" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="67" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="67" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="67" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="67" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="67" customWidth="1"/>
     <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9472" max="9472" width="3.875" style="67" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="67" customWidth="1"/>
     <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9475" max="9475" width="4.875" style="67" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="67" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="67" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="67" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="67" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="67" customWidth="1"/>
     <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9728" max="9728" width="3.875" style="67" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="67" customWidth="1"/>
     <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9731" max="9731" width="4.875" style="67" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="67" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="67" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="67" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="67" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="67" customWidth="1"/>
     <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9984" max="9984" width="3.875" style="67" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="67" customWidth="1"/>
     <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9987" max="9987" width="4.875" style="67" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="67" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="67" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="67" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="67" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="67" customWidth="1"/>
     <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10240" max="10240" width="3.875" style="67" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="67" customWidth="1"/>
     <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10243" max="10243" width="4.875" style="67" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="67" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="67" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="67" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="67" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="67" customWidth="1"/>
     <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10496" max="10496" width="3.875" style="67" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="67" customWidth="1"/>
     <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10499" max="10499" width="4.875" style="67" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="67" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="67" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="67" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="67" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="67" customWidth="1"/>
     <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10752" max="10752" width="3.875" style="67" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="67" customWidth="1"/>
     <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10755" max="10755" width="4.875" style="67" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="67" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="67" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="67" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="67" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="67" customWidth="1"/>
     <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11008" max="11008" width="3.875" style="67" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="67" customWidth="1"/>
     <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11011" max="11011" width="4.875" style="67" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="67" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="67" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="67" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="67" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="67" customWidth="1"/>
     <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11264" max="11264" width="3.875" style="67" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="67" customWidth="1"/>
     <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11267" max="11267" width="4.875" style="67" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="67" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="67" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="67" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="67" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="67" customWidth="1"/>
     <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11520" max="11520" width="3.875" style="67" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="67" customWidth="1"/>
     <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11523" max="11523" width="4.875" style="67" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="67" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="67" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="67" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="67" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="67" customWidth="1"/>
     <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11776" max="11776" width="3.875" style="67" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="67" customWidth="1"/>
     <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11779" max="11779" width="4.875" style="67" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="67" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="67" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="67" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="67" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="67" customWidth="1"/>
     <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12032" max="12032" width="3.875" style="67" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="67" customWidth="1"/>
     <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12035" max="12035" width="4.875" style="67" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="67" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="67" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="67" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="67" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="67" customWidth="1"/>
     <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12288" max="12288" width="3.875" style="67" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="67" customWidth="1"/>
     <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12291" max="12291" width="4.875" style="67" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="67" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="67" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="67" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="67" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="67" customWidth="1"/>
     <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12544" max="12544" width="3.875" style="67" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="67" customWidth="1"/>
     <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12547" max="12547" width="4.875" style="67" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="67" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="67" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="67" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="67" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="67" customWidth="1"/>
     <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12800" max="12800" width="3.875" style="67" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="67" customWidth="1"/>
     <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12803" max="12803" width="4.875" style="67" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="67" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="67" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="67" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="67" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="67" customWidth="1"/>
     <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13056" max="13056" width="3.875" style="67" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="67" customWidth="1"/>
     <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13059" max="13059" width="4.875" style="67" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="67" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="67" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="67" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="67" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="67" customWidth="1"/>
     <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13312" max="13312" width="3.875" style="67" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="67" customWidth="1"/>
     <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13315" max="13315" width="4.875" style="67" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="67" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="67" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="67" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="67" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="67" customWidth="1"/>
     <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13568" max="13568" width="3.875" style="67" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="67" customWidth="1"/>
     <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13571" max="13571" width="4.875" style="67" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="67" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="67" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="67" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="67" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="67" customWidth="1"/>
     <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13824" max="13824" width="3.875" style="67" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="67" customWidth="1"/>
     <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13827" max="13827" width="4.875" style="67" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="67" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="67" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="67" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="67" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="67" customWidth="1"/>
     <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14080" max="14080" width="3.875" style="67" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="67" customWidth="1"/>
     <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14083" max="14083" width="4.875" style="67" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="67" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="67" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="67" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="67" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="67" customWidth="1"/>
     <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14336" max="14336" width="3.875" style="67" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="67" customWidth="1"/>
     <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14339" max="14339" width="4.875" style="67" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="67" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="67" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="67" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="67" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="67" customWidth="1"/>
     <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14592" max="14592" width="3.875" style="67" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="67" customWidth="1"/>
     <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14595" max="14595" width="4.875" style="67" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="67" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="67" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="67" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="67" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="67" customWidth="1"/>
     <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14848" max="14848" width="3.875" style="67" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="67" customWidth="1"/>
     <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14851" max="14851" width="4.875" style="67" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="67" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="67" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="67" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="67" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="67" customWidth="1"/>
     <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15104" max="15104" width="3.875" style="67" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="67" customWidth="1"/>
     <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15107" max="15107" width="4.875" style="67" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="67" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="67" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="67" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="67" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="67" customWidth="1"/>
     <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15360" max="15360" width="3.875" style="67" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="67" customWidth="1"/>
     <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15363" max="15363" width="4.875" style="67" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="67" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="67" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="67" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="67" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="67" customWidth="1"/>
     <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15616" max="15616" width="3.875" style="67" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="67" customWidth="1"/>
     <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15619" max="15619" width="4.875" style="67" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="67" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="67" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="67" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="67" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="67" customWidth="1"/>
     <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15872" max="15872" width="3.875" style="67" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="67" customWidth="1"/>
     <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15875" max="15875" width="4.875" style="67" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="67" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="67" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="67" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="67" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="67" customWidth="1"/>
     <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16128" max="16128" width="3.875" style="67" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="67" customWidth="1"/>
     <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
+    <col min="16131" max="16131" width="4.875" style="67" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="67" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="67" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="67" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="67" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="67" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4">
+    <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="65" t="s">
         <v>70</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
     </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="26.4">
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="28.5">
       <c r="A5" s="71">
         <v>1</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
+    <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A6" s="71">
         <v>2</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A7" s="71">
         <v>3</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
+    <row r="9" spans="1:9" s="79" customFormat="1" ht="18.75">
       <c r="A9" s="77"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -4193,9 +4193,9 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="20"/>
+    <col min="1" max="16384" width="2.625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -4327,58 +4327,58 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2">
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2">
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2">
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="16.8" thickBot="1">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="25" t="s">
@@ -4386,34 +4386,34 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="112" t="s">
+      <c r="D8" s="90"/>
+      <c r="E8" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="110" t="s">
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="110" t="s">
+      <c r="K8" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.8" thickBot="1">
-      <c r="B9" s="126"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
+    <row r="9" spans="1:12" ht="24.75" thickBot="1">
+      <c r="B9" s="89"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="34" t="s">
         <v>110</v>
       </c>
@@ -4427,22 +4427,22 @@
       <c r="I9" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="123"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="96">
+      <c r="B10" s="92">
         <v>1</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="128" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="26" t="s">
@@ -4460,16 +4460,16 @@
       <c r="K10" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L10" s="130" t="s">
+      <c r="L10" s="98" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="99"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="90"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
@@ -4485,12 +4485,12 @@
       <c r="K11" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L11" s="131"/>
+      <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="99"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="22" t="s">
         <v>157</v>
       </c>
@@ -4510,12 +4510,12 @@
       <c r="K12" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L12" s="131"/>
-    </row>
-    <row r="13" spans="1:12" ht="37.799999999999997">
-      <c r="B13" s="99"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="L12" s="99"/>
+    </row>
+    <row r="13" spans="1:12" ht="36">
+      <c r="B13" s="94"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="7" t="s">
         <v>161</v>
       </c>
@@ -4535,12 +4535,12 @@
       <c r="K13" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L13" s="131"/>
-    </row>
-    <row r="14" spans="1:12" ht="38.4" thickBot="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
+      <c r="L13" s="99"/>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
+      <c r="B14" s="95"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30" t="s">
         <v>161</v>
       </c>
@@ -4560,16 +4560,16 @@
       <c r="K14" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="132"/>
-    </row>
-    <row r="15" spans="1:12" ht="37.799999999999997">
-      <c r="B15" s="96">
+      <c r="L14" s="100"/>
+    </row>
+    <row r="15" spans="1:12" ht="36">
+      <c r="B15" s="92">
         <v>2</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="35" t="s">
         <v>157</v>
       </c>
@@ -4591,14 +4591,14 @@
       <c r="K15" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="63.6" thickBot="1">
-      <c r="B16" s="100"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
+    <row r="16" spans="1:12" ht="48.75" thickBot="1">
+      <c r="B16" s="112"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="40" t="s">
         <v>161</v>
       </c>
@@ -4620,98 +4620,98 @@
       <c r="K16" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="L16" s="109"/>
+      <c r="L16" s="97"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="96">
+      <c r="B17" s="92">
         <v>3</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="135" t="s">
+      <c r="D17" s="107"/>
+      <c r="E17" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="133" t="s">
+      <c r="F17" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="123" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="114" t="s">
+      <c r="K17" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="L17" s="101" t="s">
+      <c r="L17" s="96" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="115"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="113"/>
-      <c r="L18" s="124"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="132"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="99"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="120" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="116" t="s">
+      <c r="H19" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="120" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="113" t="s">
+      <c r="K19" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="L19" s="102"/>
+      <c r="L19" s="113"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="99"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="115"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="120"/>
       <c r="J20" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="113"/>
-      <c r="L20" s="102"/>
-    </row>
-    <row r="21" spans="2:12" ht="37.799999999999997">
-      <c r="B21" s="99"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="113"/>
+    </row>
+    <row r="21" spans="2:12" ht="36">
+      <c r="B21" s="94"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="49" t="s">
         <v>161</v>
       </c>
@@ -4731,12 +4731,12 @@
       <c r="K21" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="L21" s="102"/>
-    </row>
-    <row r="22" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B22" s="97"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
+      <c r="L21" s="113"/>
+    </row>
+    <row r="22" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B22" s="95"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
       <c r="E22" s="50" t="s">
         <v>161</v>
       </c>
@@ -4756,16 +4756,16 @@
       <c r="K22" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="L22" s="103"/>
-    </row>
-    <row r="23" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B23" s="96">
+      <c r="L22" s="114"/>
+    </row>
+    <row r="23" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B23" s="92">
         <v>4</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="35" t="s">
         <v>157</v>
       </c>
@@ -4785,14 +4785,14 @@
       <c r="K23" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L23" s="101" t="s">
+      <c r="L23" s="96" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B24" s="99"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+    <row r="24" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B24" s="94"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="22" t="s">
         <v>157</v>
       </c>
@@ -4812,12 +4812,12 @@
       <c r="K24" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L24" s="102"/>
-    </row>
-    <row r="25" spans="2:12" ht="37.799999999999997">
-      <c r="B25" s="99"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="L24" s="113"/>
+    </row>
+    <row r="25" spans="2:12" ht="36">
+      <c r="B25" s="94"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="22" t="s">
         <v>157</v>
       </c>
@@ -4837,16 +4837,16 @@
       <c r="K25" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L25" s="102"/>
-    </row>
-    <row r="26" spans="2:12" ht="25.2">
-      <c r="B26" s="99"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="95" t="s">
+      <c r="L25" s="113"/>
+    </row>
+    <row r="26" spans="2:12" ht="24">
+      <c r="B26" s="94"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="129" t="s">
         <v>104</v>
       </c>
       <c r="G26" s="24" t="s">
@@ -4864,14 +4864,14 @@
       <c r="K26" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="L26" s="102"/>
+      <c r="L26" s="113"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="99"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="90"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="24" t="s">
         <v>2</v>
       </c>
@@ -4881,16 +4881,16 @@
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="102"/>
-    </row>
-    <row r="28" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B28" s="99"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="113"/>
+    </row>
+    <row r="28" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B28" s="94"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
       <c r="E28" s="21" t="s">
         <v>161</v>
       </c>
@@ -4910,12 +4910,12 @@
       <c r="K28" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L28" s="102"/>
-    </row>
-    <row r="29" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B29" s="97"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
+      <c r="L28" s="113"/>
+    </row>
+    <row r="29" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B29" s="95"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="36" t="s">
         <v>161</v>
       </c>
@@ -4935,16 +4935,16 @@
       <c r="K29" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="L29" s="103"/>
-    </row>
-    <row r="30" spans="2:12" ht="37.799999999999997">
-      <c r="B30" s="96">
+      <c r="L29" s="114"/>
+    </row>
+    <row r="30" spans="2:12" ht="36">
+      <c r="B30" s="92">
         <v>5</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="107" t="s">
         <v>181</v>
       </c>
       <c r="E30" s="82" t="s">
@@ -4966,14 +4966,14 @@
       <c r="K30" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L30" s="101" t="s">
+      <c r="L30" s="96" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="37.799999999999997">
-      <c r="B31" s="99"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="92"/>
+    <row r="31" spans="2:12" ht="36">
+      <c r="B31" s="94"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="84" t="s">
         <v>156</v>
       </c>
@@ -4993,12 +4993,12 @@
       <c r="K31" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L31" s="102"/>
-    </row>
-    <row r="32" spans="2:12" ht="37.799999999999997">
-      <c r="B32" s="99"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="92"/>
+      <c r="L31" s="113"/>
+    </row>
+    <row r="32" spans="2:12" ht="36">
+      <c r="B32" s="94"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="84" t="s">
         <v>156</v>
       </c>
@@ -5018,12 +5018,12 @@
       <c r="K32" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L32" s="102"/>
-    </row>
-    <row r="33" spans="2:12" ht="37.799999999999997">
-      <c r="B33" s="99"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="92"/>
+      <c r="L32" s="113"/>
+    </row>
+    <row r="33" spans="2:12" ht="36">
+      <c r="B33" s="94"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="84" t="s">
         <v>156</v>
       </c>
@@ -5043,12 +5043,12 @@
       <c r="K33" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L33" s="102"/>
-    </row>
-    <row r="34" spans="2:12" ht="37.799999999999997">
-      <c r="B34" s="99"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="92"/>
+      <c r="L33" s="113"/>
+    </row>
+    <row r="34" spans="2:12" ht="36">
+      <c r="B34" s="94"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="21" t="s">
         <v>161</v>
       </c>
@@ -5068,12 +5068,12 @@
       <c r="K34" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L34" s="102"/>
-    </row>
-    <row r="35" spans="2:12" ht="37.799999999999997">
-      <c r="B35" s="99"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="92" t="s">
+      <c r="L34" s="113"/>
+    </row>
+    <row r="35" spans="2:12" ht="36">
+      <c r="B35" s="94"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="109" t="s">
         <v>182</v>
       </c>
       <c r="E35" s="84" t="s">
@@ -5095,14 +5095,14 @@
       <c r="K35" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L35" s="102" t="s">
+      <c r="L35" s="113" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="37.799999999999997">
-      <c r="B36" s="99"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="92"/>
+    <row r="36" spans="2:12" ht="36">
+      <c r="B36" s="94"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="109"/>
       <c r="E36" s="21" t="s">
         <v>161</v>
       </c>
@@ -5122,12 +5122,12 @@
       <c r="K36" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L36" s="102"/>
-    </row>
-    <row r="37" spans="2:12" ht="37.799999999999997">
-      <c r="B37" s="99"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="92" t="s">
+      <c r="L36" s="113"/>
+    </row>
+    <row r="37" spans="2:12" ht="36">
+      <c r="B37" s="94"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="109" t="s">
         <v>183</v>
       </c>
       <c r="E37" s="84" t="s">
@@ -5149,14 +5149,14 @@
       <c r="K37" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L37" s="102" t="s">
+      <c r="L37" s="113" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="37.799999999999997">
-      <c r="B38" s="99"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="92"/>
+    <row r="38" spans="2:12" ht="36">
+      <c r="B38" s="94"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="21" t="s">
         <v>161</v>
       </c>
@@ -5176,12 +5176,12 @@
       <c r="K38" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L38" s="102"/>
-    </row>
-    <row r="39" spans="2:12" ht="51" thickBot="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="93"/>
+      <c r="L38" s="113"/>
+    </row>
+    <row r="39" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B39" s="95"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="36" t="s">
         <v>161</v>
       </c>
@@ -5201,20 +5201,20 @@
       <c r="K39" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="L39" s="103"/>
-    </row>
-    <row r="40" spans="2:12" ht="88.2">
-      <c r="B40" s="96">
+      <c r="L39" s="114"/>
+    </row>
+    <row r="40" spans="2:12" ht="84">
+      <c r="B40" s="92">
         <v>6</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="94" t="s">
+      <c r="D40" s="107"/>
+      <c r="E40" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="128" t="s">
         <v>104</v>
       </c>
       <c r="G40" s="26" t="s">
@@ -5232,16 +5232,16 @@
       <c r="K40" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L40" s="101" t="s">
+      <c r="L40" s="96" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="63">
-      <c r="B41" s="99"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="90"/>
+    <row r="41" spans="2:12" ht="48">
+      <c r="B41" s="94"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="24" t="s">
         <v>2</v>
       </c>
@@ -5251,18 +5251,18 @@
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="104" t="s">
+      <c r="J41" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="102"/>
-    </row>
-    <row r="42" spans="2:12" ht="37.799999999999997">
-      <c r="B42" s="99"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="90"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="113"/>
+    </row>
+    <row r="42" spans="2:12" ht="24">
+      <c r="B42" s="94"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="24" t="s">
         <v>2</v>
       </c>
@@ -5272,16 +5272,16 @@
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="104" t="s">
+      <c r="J42" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="102"/>
-    </row>
-    <row r="43" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="113"/>
+    </row>
+    <row r="43" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B43" s="95"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
       <c r="E43" s="36" t="s">
         <v>161</v>
       </c>
@@ -5301,20 +5301,20 @@
       <c r="K43" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="L43" s="103"/>
-    </row>
-    <row r="44" spans="2:12" ht="50.4">
-      <c r="B44" s="96">
+      <c r="L43" s="114"/>
+    </row>
+    <row r="44" spans="2:12" ht="48">
+      <c r="B44" s="92">
         <v>7</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="94" t="s">
+      <c r="D44" s="107"/>
+      <c r="E44" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="89" t="s">
+      <c r="F44" s="128" t="s">
         <v>104</v>
       </c>
       <c r="G44" s="26" t="s">
@@ -5332,16 +5332,16 @@
       <c r="K44" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L44" s="101" t="s">
+      <c r="L44" s="96" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="63">
-      <c r="B45" s="99"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="90"/>
+    <row r="45" spans="2:12" ht="60">
+      <c r="B45" s="94"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="129"/>
       <c r="G45" s="24" t="s">
         <v>2</v>
       </c>
@@ -5351,16 +5351,16 @@
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="104" t="s">
+      <c r="J45" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="K45" s="105"/>
-      <c r="L45" s="102"/>
-    </row>
-    <row r="46" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="113"/>
+    </row>
+    <row r="46" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B46" s="95"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
       <c r="E46" s="36" t="s">
         <v>161</v>
       </c>
@@ -5380,20 +5380,20 @@
       <c r="K46" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="L46" s="103"/>
-    </row>
-    <row r="47" spans="2:12" ht="37.799999999999997">
-      <c r="B47" s="96">
+      <c r="L46" s="114"/>
+    </row>
+    <row r="47" spans="2:12" ht="36">
+      <c r="B47" s="92">
         <v>8</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="91"/>
-      <c r="E47" s="94" t="s">
+      <c r="D47" s="107"/>
+      <c r="E47" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="128" t="s">
         <v>104</v>
       </c>
       <c r="G47" s="26" t="s">
@@ -5411,16 +5411,16 @@
       <c r="K47" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L47" s="101" t="s">
+      <c r="L47" s="96" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="50.4">
-      <c r="B48" s="99"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="90"/>
+    <row r="48" spans="2:12" ht="36">
+      <c r="B48" s="94"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="129"/>
       <c r="G48" s="24" t="s">
         <v>0</v>
       </c>
@@ -5436,12 +5436,12 @@
       <c r="K48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="L48" s="102"/>
-    </row>
-    <row r="49" spans="2:12" ht="37.799999999999997">
-      <c r="B49" s="99"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="L48" s="113"/>
+    </row>
+    <row r="49" spans="2:12" ht="36">
+      <c r="B49" s="94"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
       <c r="E49" s="22" t="s">
         <v>157</v>
       </c>
@@ -5461,12 +5461,12 @@
       <c r="K49" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L49" s="102"/>
-    </row>
-    <row r="50" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B50" s="100"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
+      <c r="L49" s="113"/>
+    </row>
+    <row r="50" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B50" s="112"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
       <c r="E50" s="40" t="s">
         <v>161</v>
       </c>
@@ -5486,20 +5486,20 @@
       <c r="K50" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="L50" s="109"/>
-    </row>
-    <row r="51" spans="2:12" ht="50.4">
-      <c r="B51" s="96">
+      <c r="L50" s="97"/>
+    </row>
+    <row r="51" spans="2:12" ht="48">
+      <c r="B51" s="92">
         <v>9</v>
       </c>
-      <c r="C51" s="91" t="s">
+      <c r="C51" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="94" t="s">
+      <c r="D51" s="107"/>
+      <c r="E51" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="F51" s="89" t="s">
+      <c r="F51" s="128" t="s">
         <v>104</v>
       </c>
       <c r="G51" s="26" t="s">
@@ -5517,16 +5517,16 @@
       <c r="K51" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="L51" s="101" t="s">
+      <c r="L51" s="96" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="63">
-      <c r="B52" s="99"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="90"/>
+    <row r="52" spans="2:12" ht="48">
+      <c r="B52" s="94"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="129"/>
       <c r="G52" s="24" t="s">
         <v>0</v>
       </c>
@@ -5536,16 +5536,16 @@
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="104" t="s">
+      <c r="J52" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="K52" s="105"/>
-      <c r="L52" s="102"/>
-    </row>
-    <row r="53" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B53" s="97"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="113"/>
+    </row>
+    <row r="53" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B53" s="95"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
       <c r="E53" s="30" t="s">
         <v>161</v>
       </c>
@@ -5565,20 +5565,20 @@
       <c r="K53" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="L53" s="103"/>
-    </row>
-    <row r="54" spans="2:12" ht="25.2">
-      <c r="B54" s="96">
+      <c r="L53" s="114"/>
+    </row>
+    <row r="54" spans="2:12" ht="24">
+      <c r="B54" s="92">
         <v>10</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="94" t="s">
+      <c r="D54" s="107"/>
+      <c r="E54" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="F54" s="89" t="s">
+      <c r="F54" s="128" t="s">
         <v>104</v>
       </c>
       <c r="G54" s="26" t="s">
@@ -5596,16 +5596,16 @@
       <c r="K54" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L54" s="101" t="s">
+      <c r="L54" s="96" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="99"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="90"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="129"/>
       <c r="G55" s="24" t="s">
         <v>0</v>
       </c>
@@ -5621,12 +5621,12 @@
       <c r="K55" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L55" s="102"/>
-    </row>
-    <row r="56" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B56" s="97"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
+      <c r="L55" s="113"/>
+    </row>
+    <row r="56" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B56" s="95"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
       <c r="E56" s="45" t="s">
         <v>157</v>
       </c>
@@ -5646,16 +5646,16 @@
       <c r="K56" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="L56" s="103"/>
-    </row>
-    <row r="57" spans="2:12" ht="63">
-      <c r="B57" s="96">
+      <c r="L56" s="114"/>
+    </row>
+    <row r="57" spans="2:12" ht="60">
+      <c r="B57" s="92">
         <v>11</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="D57" s="91"/>
+      <c r="D57" s="107"/>
       <c r="E57" s="35" t="s">
         <v>157</v>
       </c>
@@ -5675,14 +5675,14 @@
       <c r="K57" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="L57" s="101" t="s">
+      <c r="L57" s="96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="63.6" thickBot="1">
-      <c r="B58" s="97"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
+    <row r="58" spans="2:12" ht="48.75" thickBot="1">
+      <c r="B58" s="95"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
       <c r="E58" s="45" t="s">
         <v>157</v>
       </c>
@@ -5702,15 +5702,15 @@
       <c r="K58" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="L58" s="103"/>
+      <c r="L58" s="114"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="88" t="s">
+      <c r="F59" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5724,19 +5724,51 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="C47:D50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:D56"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
     <mergeCell ref="L40:L43"/>
     <mergeCell ref="L47:L50"/>
     <mergeCell ref="J8:J9"/>
@@ -5753,51 +5785,19 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L17:L22"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="C47:D50"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:D56"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5842,11 +5842,11 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -5874,7 +5874,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="25.2">
+    <row r="6" spans="1:3" ht="24">
       <c r="B6" s="15" t="s">
         <v>151</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8">
+    <row r="7" spans="1:3" ht="84">
       <c r="B7" s="62" t="s">
         <v>56</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="100.8">
+    <row r="11" spans="1:3" ht="84">
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75.599999999999994">
+    <row r="14" spans="1:3" ht="72">
       <c r="B14" s="62" t="s">
         <v>63</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="37.799999999999997">
+    <row r="16" spans="1:3" ht="36">
       <c r="B16" s="63" t="s">
         <v>65</v>
       </c>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EEBFB-A313-45F0-A1D5-BE54133FC9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0B8E8-E195-4E68-9693-8A993BEBB5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="3510" windowWidth="28215" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="1260" windowWidth="27090" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -383,9 +383,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>担当者</t>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -439,14 +436,6 @@
   </si>
   <si>
     <t>Supplementary description of CSRF countermeasures changed to match the CSRF countermeasures added in Nablarch5u17</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIS Kumano</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIS Itho</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1165,6 +1154,14 @@
 　　　For this reason, the cookie is only valid until the browser is closed.
 For 4-(iv), Your project should refer to the example implementation of the login process provided in the Nablarch Example and start a new session after a successful login.
 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIS </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Person in charge</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1707,7 +1704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1962,6 +1959,117 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1974,24 +2082,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2004,9 +2097,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2019,101 +2109,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3323,7 +3323,7 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -4034,7 +4034,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -4053,36 +4053,36 @@
         <v>67</v>
       </c>
       <c r="B3" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="69" customFormat="1">
+        <v>75</v>
+      </c>
+      <c r="G3" s="139" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="87"/>
       <c r="B4" s="87"/>
       <c r="C4" s="87"/>
       <c r="D4" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-    </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="28.5">
+      <c r="G4" s="139"/>
+    </row>
+    <row r="5" spans="1:9" s="74" customFormat="1">
       <c r="A5" s="71">
         <v>1</v>
       </c>
@@ -4090,15 +4090,15 @@
         <v>41547</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
@@ -4109,19 +4109,19 @@
         <v>43949</v>
       </c>
       <c r="C6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="E6" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>81</v>
-      </c>
       <c r="G6" s="71" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
@@ -4132,24 +4132,24 @@
         <v>43970</v>
       </c>
       <c r="C7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>80</v>
-      </c>
       <c r="E7" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="76" customFormat="1">
       <c r="A8" s="67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="79" customFormat="1" ht="18.75">
@@ -4191,7 +4191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
@@ -4200,92 +4200,92 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="83" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="3:10">
@@ -4293,7 +4293,7 @@
         <v>53</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -4346,31 +4346,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4382,174 +4382,174 @@
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="127" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="127"/>
+      <c r="E8" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="122" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24.75" thickBot="1">
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24.75" thickBot="1">
-      <c r="B9" s="89"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="131"/>
+        <v>110</v>
+      </c>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="92">
+      <c r="B10" s="96">
         <v>1</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="128" t="s">
-        <v>104</v>
+      <c r="C10" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="L10" s="98" t="s">
-        <v>118</v>
+        <v>221</v>
+      </c>
+      <c r="L10" s="130" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="94"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="129"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L11" s="99"/>
+        <v>221</v>
+      </c>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="94"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L12" s="99"/>
+        <v>221</v>
+      </c>
+      <c r="L12" s="131"/>
     </row>
     <row r="13" spans="1:12" ht="36">
-      <c r="B13" s="94"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L13" s="99"/>
+        <v>221</v>
+      </c>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B14" s="95"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>3</v>
@@ -4558,58 +4558,58 @@
         <v>50</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="100"/>
+        <v>222</v>
+      </c>
+      <c r="L14" s="132"/>
     </row>
     <row r="15" spans="1:12" ht="36">
-      <c r="B15" s="92">
+      <c r="B15" s="96">
         <v>2</v>
       </c>
-      <c r="C15" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="107"/>
+      <c r="C15" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="91"/>
       <c r="E15" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="L15" s="96" t="s">
-        <v>120</v>
+        <v>221</v>
+      </c>
+      <c r="L15" s="101" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="48.75" thickBot="1">
-      <c r="B16" s="112"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>8</v>
@@ -4618,109 +4618,109 @@
         <v>50</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="97"/>
+        <v>222</v>
+      </c>
+      <c r="L16" s="109"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="92">
+      <c r="B17" s="96">
         <v>3</v>
       </c>
-      <c r="C17" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="101" t="s">
+      <c r="C17" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="123" t="s">
+      <c r="H17" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="118" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="L17" s="96" t="s">
-        <v>229</v>
+        <v>119</v>
+      </c>
+      <c r="K17" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="101" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="93"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="120"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="118"/>
-      <c r="L18" s="132"/>
+        <v>120</v>
+      </c>
+      <c r="K18" s="113"/>
+      <c r="L18" s="124"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="94"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="125" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" s="120" t="s">
+      <c r="H19" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="115" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="118" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="113"/>
+        <v>119</v>
+      </c>
+      <c r="K19" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="94"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="115"/>
       <c r="J20" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="118"/>
-      <c r="L20" s="113"/>
+        <v>120</v>
+      </c>
+      <c r="K20" s="113"/>
+      <c r="L20" s="102"/>
     </row>
     <row r="21" spans="2:12" ht="36">
-      <c r="B21" s="94"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>12</v>
@@ -4729,131 +4729,131 @@
         <v>50</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="L21" s="113"/>
+        <v>222</v>
+      </c>
+      <c r="L21" s="102"/>
     </row>
     <row r="22" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B22" s="95"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="L22" s="114"/>
+        <v>221</v>
+      </c>
+      <c r="L22" s="103"/>
     </row>
     <row r="23" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B23" s="92">
+      <c r="B23" s="96">
         <v>4</v>
       </c>
-      <c r="C23" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="107"/>
+      <c r="C23" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="91"/>
       <c r="E23" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="L23" s="96" t="s">
-        <v>232</v>
+        <v>221</v>
+      </c>
+      <c r="L23" s="101" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B24" s="94"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" s="113"/>
+        <v>221</v>
+      </c>
+      <c r="L24" s="102"/>
     </row>
     <row r="25" spans="2:12" ht="36">
-      <c r="B25" s="94"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" s="113"/>
+        <v>221</v>
+      </c>
+      <c r="L25" s="102"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="94"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="129" t="s">
-        <v>104</v>
+      <c r="B26" s="99"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="90" t="s">
+        <v>101</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
@@ -4862,127 +4862,127 @@
         <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="L26" s="113"/>
+        <v>223</v>
+      </c>
+      <c r="L26" s="102"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="129"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="133" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="134"/>
-      <c r="L27" s="113"/>
+      <c r="J27" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="105"/>
+      <c r="L27" s="102"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="94"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L28" s="113"/>
+        <v>221</v>
+      </c>
+      <c r="L28" s="102"/>
     </row>
     <row r="29" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B29" s="95"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="L29" s="114"/>
+        <v>221</v>
+      </c>
+      <c r="L29" s="103"/>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="92">
+      <c r="B30" s="96">
         <v>5</v>
       </c>
-      <c r="C30" s="135" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="107" t="s">
-        <v>181</v>
+      <c r="C30" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>178</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="96" t="s">
-        <v>126</v>
+        <v>221</v>
+      </c>
+      <c r="L30" s="101" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="94"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="109"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -4991,23 +4991,23 @@
         <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="113"/>
+        <v>222</v>
+      </c>
+      <c r="L31" s="102"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="94"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="109"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -5016,23 +5016,23 @@
         <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="113"/>
+        <v>222</v>
+      </c>
+      <c r="L32" s="102"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="94"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="109"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
@@ -5041,77 +5041,77 @@
         <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L33" s="113"/>
+        <v>222</v>
+      </c>
+      <c r="L33" s="102"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="94"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L34" s="113"/>
+        <v>221</v>
+      </c>
+      <c r="L34" s="102"/>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="94"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="109" t="s">
-        <v>182</v>
+      <c r="B35" s="99"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="92" t="s">
+        <v>179</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="54" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" s="113" t="s">
-        <v>127</v>
+        <v>221</v>
+      </c>
+      <c r="L35" s="102" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="94"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="109"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
@@ -5120,52 +5120,52 @@
         <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L36" s="113"/>
+        <v>222</v>
+      </c>
+      <c r="L36" s="102"/>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="94"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="109" t="s">
-        <v>183</v>
+      <c r="B37" s="99"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="92" t="s">
+        <v>180</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="113" t="s">
-        <v>130</v>
+        <v>221</v>
+      </c>
+      <c r="L37" s="102" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="36">
-      <c r="B38" s="94"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="109"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -5174,123 +5174,123 @@
         <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L38" s="113"/>
+        <v>222</v>
+      </c>
+      <c r="L38" s="102"/>
     </row>
     <row r="39" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B39" s="95"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="110"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="L39" s="114"/>
+        <v>221</v>
+      </c>
+      <c r="L39" s="103"/>
     </row>
     <row r="40" spans="2:12" ht="84">
-      <c r="B40" s="92">
+      <c r="B40" s="96">
         <v>6</v>
       </c>
-      <c r="C40" s="107" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="128" t="s">
-        <v>104</v>
+      <c r="C40" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="L40" s="96" t="s">
-        <v>135</v>
+        <v>221</v>
+      </c>
+      <c r="L40" s="101" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="48">
-      <c r="B41" s="94"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="129"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="90"/>
       <c r="G41" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="K41" s="134"/>
-      <c r="L41" s="113"/>
+      <c r="J41" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="105"/>
+      <c r="L41" s="102"/>
     </row>
     <row r="42" spans="2:12" ht="24">
-      <c r="B42" s="94"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="129"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="90"/>
       <c r="G42" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="K42" s="134"/>
-      <c r="L42" s="113"/>
+      <c r="J42" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="105"/>
+      <c r="L42" s="102"/>
     </row>
     <row r="43" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B43" s="95"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
       <c r="E43" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>33</v>
@@ -5299,77 +5299,77 @@
         <v>50</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="L43" s="114"/>
+        <v>222</v>
+      </c>
+      <c r="L43" s="103"/>
     </row>
     <row r="44" spans="2:12" ht="48">
-      <c r="B44" s="92">
+      <c r="B44" s="96">
         <v>7</v>
       </c>
-      <c r="C44" s="107" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="107"/>
-      <c r="E44" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="128" t="s">
-        <v>104</v>
+      <c r="C44" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="91"/>
+      <c r="E44" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="L44" s="96" t="s">
-        <v>138</v>
+        <v>221</v>
+      </c>
+      <c r="L44" s="101" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="60">
-      <c r="B45" s="94"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="129"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="90"/>
       <c r="G45" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="133" t="s">
-        <v>137</v>
-      </c>
-      <c r="K45" s="134"/>
-      <c r="L45" s="113"/>
+      <c r="J45" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="105"/>
+      <c r="L45" s="102"/>
     </row>
     <row r="46" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B46" s="95"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
       <c r="E46" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>36</v>
@@ -5378,79 +5378,79 @@
         <v>50</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="L46" s="114"/>
+        <v>222</v>
+      </c>
+      <c r="L46" s="103"/>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="92">
+      <c r="B47" s="96">
         <v>8</v>
       </c>
-      <c r="C47" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="128" t="s">
-        <v>104</v>
+      <c r="C47" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="91"/>
+      <c r="E47" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="L47" s="96" t="s">
-        <v>139</v>
+        <v>223</v>
+      </c>
+      <c r="L47" s="101" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="94"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="129"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="90"/>
       <c r="G48" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="L48" s="113"/>
+        <v>223</v>
+      </c>
+      <c r="L48" s="102"/>
     </row>
     <row r="49" spans="2:12" ht="36">
-      <c r="B49" s="94"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
@@ -5459,23 +5459,23 @@
         <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L49" s="113"/>
+        <v>222</v>
+      </c>
+      <c r="L49" s="102"/>
     </row>
     <row r="50" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B50" s="112"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>40</v>
@@ -5484,77 +5484,77 @@
         <v>50</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="L50" s="97"/>
+        <v>222</v>
+      </c>
+      <c r="L50" s="109"/>
     </row>
     <row r="51" spans="2:12" ht="48">
-      <c r="B51" s="92">
+      <c r="B51" s="96">
         <v>9</v>
       </c>
-      <c r="C51" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="128" t="s">
-        <v>104</v>
+      <c r="C51" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="91"/>
+      <c r="E51" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>41</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="L51" s="96" t="s">
-        <v>141</v>
+        <v>221</v>
+      </c>
+      <c r="L51" s="101" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="48">
-      <c r="B52" s="94"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="129"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="90"/>
       <c r="G52" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="K52" s="134"/>
-      <c r="L52" s="113"/>
+      <c r="J52" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="K52" s="105"/>
+      <c r="L52" s="102"/>
     </row>
     <row r="53" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B53" s="95"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
       <c r="E53" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>43</v>
@@ -5563,108 +5563,108 @@
         <v>50</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="L53" s="114"/>
+        <v>222</v>
+      </c>
+      <c r="L53" s="103"/>
     </row>
     <row r="54" spans="2:12" ht="24">
-      <c r="B54" s="92">
+      <c r="B54" s="96">
         <v>10</v>
       </c>
-      <c r="C54" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="128" t="s">
-        <v>104</v>
+      <c r="C54" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="E54" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="89" t="s">
+        <v>101</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="L54" s="96" t="s">
-        <v>142</v>
+        <v>221</v>
+      </c>
+      <c r="L54" s="101" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="94"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="129"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="90"/>
       <c r="G55" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L55" s="113"/>
+        <v>221</v>
+      </c>
+      <c r="L55" s="102"/>
     </row>
     <row r="56" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B56" s="95"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I56" s="48" t="s">
         <v>46</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="L56" s="114"/>
+        <v>221</v>
+      </c>
+      <c r="L56" s="103"/>
     </row>
     <row r="57" spans="2:12" ht="60">
-      <c r="B57" s="92">
+      <c r="B57" s="96">
         <v>11</v>
       </c>
-      <c r="C57" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="D57" s="107"/>
+      <c r="C57" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" s="91"/>
       <c r="E57" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>47</v>
@@ -5673,44 +5673,44 @@
         <v>51</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="L57" s="96" t="s">
-        <v>143</v>
+        <v>223</v>
+      </c>
+      <c r="L57" s="101" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B58" s="95"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
       <c r="E58" s="45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="L58" s="114"/>
+        <v>221</v>
+      </c>
+      <c r="L58" s="103"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="138"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
+      <c r="F59" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5724,13 +5724,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="F44:F45"/>
@@ -5747,57 +5791,13 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5852,22 +5852,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="64" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5876,10 +5876,10 @@
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="B6" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
@@ -5887,7 +5887,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5895,7 +5895,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5935,7 +5935,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
@@ -5943,7 +5943,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5951,7 +5951,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36">
@@ -5959,7 +5959,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0B8E8-E195-4E68-9693-8A993BEBB5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC773C-1EA9-4482-95C8-97AD49F5CD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1260" windowWidth="27090" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -1957,163 +1957,163 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2548,13 +2548,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2569,8 +2569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743324" y="4387215"/>
-          <a:ext cx="2280285" cy="489586"/>
+          <a:off x="3743324" y="4387214"/>
+          <a:ext cx="2280285" cy="680085"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3323,716 +3323,716 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
     <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
     <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.5" style="67" customWidth="1"/>
+    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
+    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
     <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.75" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.5" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.625" style="67" customWidth="1"/>
+    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
+    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
+    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
+    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
+    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
+    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
     <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.5" style="67" customWidth="1"/>
+    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
+    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
     <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.75" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.5" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.625" style="67" customWidth="1"/>
+    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
+    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
+    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
+    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
+    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
+    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
     <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.5" style="67" customWidth="1"/>
+    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
+    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
     <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.75" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.5" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.625" style="67" customWidth="1"/>
+    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
+    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
+    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
+    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
+    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
+    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
     <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5" style="67" customWidth="1"/>
+    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
     <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.75" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.5" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.625" style="67" customWidth="1"/>
+    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
     <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5" style="67" customWidth="1"/>
+    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
     <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.75" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.5" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.625" style="67" customWidth="1"/>
+    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
     <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5" style="67" customWidth="1"/>
+    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
     <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.75" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.5" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.625" style="67" customWidth="1"/>
+    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
     <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5" style="67" customWidth="1"/>
+    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
     <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.75" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.5" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.625" style="67" customWidth="1"/>
+    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
+    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
+    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
+    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
+    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
     <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5" style="67" customWidth="1"/>
+    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
     <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.75" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.5" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.625" style="67" customWidth="1"/>
+    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
     <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5" style="67" customWidth="1"/>
+    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
     <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.75" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.5" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.625" style="67" customWidth="1"/>
+    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
     <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5" style="67" customWidth="1"/>
+    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
     <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.75" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.5" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.625" style="67" customWidth="1"/>
+    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
     <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5" style="67" customWidth="1"/>
+    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
+    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
     <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.75" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.5" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.625" style="67" customWidth="1"/>
+    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
+    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
+    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
+    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
+    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
     <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5" style="67" customWidth="1"/>
+    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
     <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.75" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.5" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.625" style="67" customWidth="1"/>
+    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
     <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5" style="67" customWidth="1"/>
+    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
     <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.75" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.5" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.625" style="67" customWidth="1"/>
+    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
     <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5" style="67" customWidth="1"/>
+    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
     <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.75" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.5" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.625" style="67" customWidth="1"/>
+    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
     <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5" style="67" customWidth="1"/>
+    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
+    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
     <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.75" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.5" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.625" style="67" customWidth="1"/>
+    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
+    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
+    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
+    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
+    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
     <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5" style="67" customWidth="1"/>
+    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
     <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.75" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.5" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.625" style="67" customWidth="1"/>
+    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
     <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5" style="67" customWidth="1"/>
+    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
     <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.75" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.5" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.625" style="67" customWidth="1"/>
+    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
     <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5" style="67" customWidth="1"/>
+    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
     <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.75" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.5" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.625" style="67" customWidth="1"/>
+    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
     <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5" style="67" customWidth="1"/>
+    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
+    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
     <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.75" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.5" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.625" style="67" customWidth="1"/>
+    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
+    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
+    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
+    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
+    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
     <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5" style="67" customWidth="1"/>
+    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
     <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.75" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.5" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.625" style="67" customWidth="1"/>
+    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
     <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5" style="67" customWidth="1"/>
+    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
     <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.75" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.5" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.625" style="67" customWidth="1"/>
+    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
     <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5" style="67" customWidth="1"/>
+    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
     <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.75" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.5" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.625" style="67" customWidth="1"/>
+    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
     <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5" style="67" customWidth="1"/>
+    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
+    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
     <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.75" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.5" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.625" style="67" customWidth="1"/>
+    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
+    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
+    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
+    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
+    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
     <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5" style="67" customWidth="1"/>
+    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
     <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.75" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.5" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.625" style="67" customWidth="1"/>
+    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
     <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5" style="67" customWidth="1"/>
+    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
     <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.75" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.5" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.625" style="67" customWidth="1"/>
+    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
     <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5" style="67" customWidth="1"/>
+    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
     <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.75" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.5" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.625" style="67" customWidth="1"/>
+    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
     <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5" style="67" customWidth="1"/>
+    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
+    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
     <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.75" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.5" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.625" style="67" customWidth="1"/>
+    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
+    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
+    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
+    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
+    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
     <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5" style="67" customWidth="1"/>
+    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
     <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.75" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.5" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.625" style="67" customWidth="1"/>
+    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
     <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5" style="67" customWidth="1"/>
+    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
     <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.75" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.5" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.625" style="67" customWidth="1"/>
+    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
     <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5" style="67" customWidth="1"/>
+    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
     <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.75" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.5" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.625" style="67" customWidth="1"/>
+    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
     <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5" style="67" customWidth="1"/>
+    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
+    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
     <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.75" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.5" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.625" style="67" customWidth="1"/>
+    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
+    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
+    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
+    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
+    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
     <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5" style="67" customWidth="1"/>
+    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
     <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.75" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.5" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.625" style="67" customWidth="1"/>
+    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
     <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5" style="67" customWidth="1"/>
+    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
     <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.75" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.5" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.625" style="67" customWidth="1"/>
+    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
     <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5" style="67" customWidth="1"/>
+    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
     <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.75" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.5" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.625" style="67" customWidth="1"/>
+    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
     <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5" style="67" customWidth="1"/>
+    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
+    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
     <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.75" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.5" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.625" style="67" customWidth="1"/>
+    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
+    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
+    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
+    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
+    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
     <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5" style="67" customWidth="1"/>
+    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
     <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.75" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.5" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.625" style="67" customWidth="1"/>
+    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
     <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5" style="67" customWidth="1"/>
+    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
     <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.75" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.5" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.625" style="67" customWidth="1"/>
+    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
     <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5" style="67" customWidth="1"/>
+    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
     <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.75" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.5" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.625" style="67" customWidth="1"/>
+    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
     <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5" style="67" customWidth="1"/>
+    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
+    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
     <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.75" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.5" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.625" style="67" customWidth="1"/>
+    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
+    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
+    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
+    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
+    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
     <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5" style="67" customWidth="1"/>
+    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
     <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.75" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.5" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.625" style="67" customWidth="1"/>
+    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
     <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5" style="67" customWidth="1"/>
+    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
     <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.75" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.5" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.625" style="67" customWidth="1"/>
+    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
     <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5" style="67" customWidth="1"/>
+    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
+    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
     <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.75" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.5" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.625" style="67" customWidth="1"/>
+    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
+    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
+    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
+    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
+    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
     <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5" style="67" customWidth="1"/>
+    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
     <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.75" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.5" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.625" style="67" customWidth="1"/>
+    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
     <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5" style="67" customWidth="1"/>
+    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
     <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.75" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.5" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.625" style="67" customWidth="1"/>
+    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
     <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5" style="67" customWidth="1"/>
+    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
     <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.75" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.5" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.625" style="67" customWidth="1"/>
+    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
     <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5" style="67" customWidth="1"/>
+    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
+    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
     <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.75" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.5" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.625" style="67" customWidth="1"/>
+    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
+    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
+    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
+    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
+    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
     <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5" style="67" customWidth="1"/>
+    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
     <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.75" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.5" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.625" style="67" customWidth="1"/>
+    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
     <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5" style="67" customWidth="1"/>
+    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
     <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.75" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.5" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.625" style="67" customWidth="1"/>
+    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
     <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5" style="67" customWidth="1"/>
+    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
     <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.75" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.5" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.625" style="67" customWidth="1"/>
+    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
     <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5" style="67" customWidth="1"/>
+    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
+    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
     <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.75" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.5" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.625" style="67" customWidth="1"/>
+    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
+    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
+    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
+    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
+    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
     <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5" style="67" customWidth="1"/>
+    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
     <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.75" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.5" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.625" style="67" customWidth="1"/>
+    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
     <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5" style="67" customWidth="1"/>
+    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
     <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.75" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.5" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.625" style="67" customWidth="1"/>
+    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
     <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5" style="67" customWidth="1"/>
+    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
     <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.75" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.5" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.625" style="67" customWidth="1"/>
+    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
     <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5" style="67" customWidth="1"/>
+    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
+    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
     <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.75" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.5" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.625" style="67" customWidth="1"/>
+    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
+    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
+    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
+    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
+    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
     <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5" style="67" customWidth="1"/>
+    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
     <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.75" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.5" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.625" style="67" customWidth="1"/>
+    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
     <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5" style="67" customWidth="1"/>
+    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
     <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.75" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.5" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.625" style="67" customWidth="1"/>
+    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
     <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5" style="67" customWidth="1"/>
+    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
     <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.75" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.5" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.625" style="67" customWidth="1"/>
+    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
     <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5" style="67" customWidth="1"/>
+    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
+    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
     <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.75" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.5" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.625" style="67" customWidth="1"/>
+    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
+    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
+    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
+    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
+    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
     <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5" style="67" customWidth="1"/>
+    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
     <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.75" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.5" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.625" style="67" customWidth="1"/>
+    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
     <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5" style="67" customWidth="1"/>
+    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
     <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.75" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.5" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.625" style="67" customWidth="1"/>
+    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
     <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5" style="67" customWidth="1"/>
+    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
     <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.75" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.5" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.625" style="67" customWidth="1"/>
+    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
     <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5" style="67" customWidth="1"/>
+    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
+    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
     <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.75" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.5" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.625" style="67" customWidth="1"/>
+    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
+    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
+    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
+    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
+    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
     <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5" style="67" customWidth="1"/>
+    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
+    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
     <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.75" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.5" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.625" style="67" customWidth="1"/>
+    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
+    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
+    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
+    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
+    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75">
+    <row r="1" spans="1:9" ht="26.4">
       <c r="A1" s="65" t="s">
         <v>69</v>
       </c>
@@ -4049,38 +4049,38 @@
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" s="69" customFormat="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="87" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="69" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="70" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="139"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:9" s="74" customFormat="1">
       <c r="A5" s="71">
@@ -4101,7 +4101,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
+    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
       <c r="A6" s="71">
         <v>2</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
       <c r="A7" s="71">
         <v>3</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="79" customFormat="1" ht="18.75">
+    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
       <c r="A9" s="77"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -4191,11 +4191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="20"/>
+    <col min="1" max="16384" width="2.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -4327,58 +4327,58 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:12" ht="16.2">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5">
+    <row r="2" spans="1:12" ht="16.2">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5">
+    <row r="3" spans="1:12" ht="16.2">
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5">
+    <row r="4" spans="1:12" ht="16.2">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" ht="16.2">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5">
+    <row r="6" spans="1:12" ht="16.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1">
+    <row r="7" spans="1:12" ht="16.8" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="25" t="s">
@@ -4386,34 +4386,34 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="112" t="s">
+      <c r="D8" s="91"/>
+      <c r="E8" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="110" t="s">
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="110" t="s">
+      <c r="K8" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="131" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24.75" thickBot="1">
-      <c r="B9" s="126"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
+    <row r="9" spans="1:12" ht="25.8" thickBot="1">
+      <c r="B9" s="90"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="34" t="s">
         <v>107</v>
       </c>
@@ -4427,22 +4427,22 @@
       <c r="I9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="123"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="96">
+      <c r="B10" s="93">
         <v>1</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="26" t="s">
@@ -4460,16 +4460,16 @@
       <c r="K10" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="130" t="s">
+      <c r="L10" s="99" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="99"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="90"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
@@ -4485,12 +4485,12 @@
       <c r="K11" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L11" s="131"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="99"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="22" t="s">
         <v>154</v>
       </c>
@@ -4510,12 +4510,12 @@
       <c r="K12" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L12" s="131"/>
-    </row>
-    <row r="13" spans="1:12" ht="36">
-      <c r="B13" s="99"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="L12" s="100"/>
+    </row>
+    <row r="13" spans="1:12" ht="37.799999999999997">
+      <c r="B13" s="95"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="7" t="s">
         <v>158</v>
       </c>
@@ -4535,12 +4535,12 @@
       <c r="K13" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L13" s="131"/>
-    </row>
-    <row r="14" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
+      <c r="L13" s="100"/>
+    </row>
+    <row r="14" spans="1:12" ht="38.4" thickBot="1">
+      <c r="B14" s="96"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30" t="s">
         <v>158</v>
       </c>
@@ -4560,16 +4560,16 @@
       <c r="K14" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="L14" s="132"/>
-    </row>
-    <row r="15" spans="1:12" ht="36">
-      <c r="B15" s="96">
+      <c r="L14" s="101"/>
+    </row>
+    <row r="15" spans="1:12" ht="37.799999999999997">
+      <c r="B15" s="93">
         <v>2</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="35" t="s">
         <v>154</v>
       </c>
@@ -4591,14 +4591,14 @@
       <c r="K15" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="97" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48.75" thickBot="1">
-      <c r="B16" s="100"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
+    <row r="16" spans="1:12" ht="63.6" thickBot="1">
+      <c r="B16" s="113"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="40" t="s">
         <v>158</v>
       </c>
@@ -4620,98 +4620,98 @@
       <c r="K16" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="109"/>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="96">
+      <c r="B17" s="93">
         <v>3</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="135" t="s">
+      <c r="D17" s="108"/>
+      <c r="E17" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="133" t="s">
+      <c r="F17" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="124" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="114" t="s">
+      <c r="K17" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="L17" s="101" t="s">
+      <c r="L17" s="97" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="115"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="113"/>
-      <c r="L18" s="124"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="133"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="99"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="120" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="116" t="s">
+      <c r="H19" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="121" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="113" t="s">
+      <c r="K19" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="L19" s="102"/>
+      <c r="L19" s="114"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="99"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="115"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="113"/>
-      <c r="L20" s="102"/>
-    </row>
-    <row r="21" spans="2:12" ht="36">
-      <c r="B21" s="99"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="114"/>
+    </row>
+    <row r="21" spans="2:12" ht="37.799999999999997">
+      <c r="B21" s="95"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="49" t="s">
         <v>158</v>
       </c>
@@ -4731,12 +4731,12 @@
       <c r="K21" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="102"/>
-    </row>
-    <row r="22" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B22" s="97"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
+      <c r="L21" s="114"/>
+    </row>
+    <row r="22" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B22" s="96"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="50" t="s">
         <v>158</v>
       </c>
@@ -4756,16 +4756,16 @@
       <c r="K22" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="L22" s="103"/>
-    </row>
-    <row r="23" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B23" s="96">
+      <c r="L22" s="115"/>
+    </row>
+    <row r="23" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B23" s="93">
         <v>4</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="35" t="s">
         <v>154</v>
       </c>
@@ -4785,14 +4785,14 @@
       <c r="K23" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L23" s="101" t="s">
+      <c r="L23" s="97" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B24" s="99"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+    <row r="24" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B24" s="95"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="22" t="s">
         <v>154</v>
       </c>
@@ -4812,12 +4812,12 @@
       <c r="K24" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L24" s="102"/>
-    </row>
-    <row r="25" spans="2:12" ht="36">
-      <c r="B25" s="99"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="L24" s="114"/>
+    </row>
+    <row r="25" spans="2:12" ht="37.799999999999997">
+      <c r="B25" s="95"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="22" t="s">
         <v>154</v>
       </c>
@@ -4837,16 +4837,16 @@
       <c r="K25" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L25" s="102"/>
-    </row>
-    <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="99"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="95" t="s">
+      <c r="L25" s="114"/>
+    </row>
+    <row r="26" spans="2:12" ht="25.2">
+      <c r="B26" s="95"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="130" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="24" t="s">
@@ -4864,14 +4864,14 @@
       <c r="K26" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="L26" s="102"/>
+      <c r="L26" s="114"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="99"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="90"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="24" t="s">
         <v>2</v>
       </c>
@@ -4881,16 +4881,16 @@
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="102"/>
-    </row>
-    <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="99"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="114"/>
+    </row>
+    <row r="28" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B28" s="95"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
       <c r="E28" s="21" t="s">
         <v>158</v>
       </c>
@@ -4910,12 +4910,12 @@
       <c r="K28" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L28" s="102"/>
-    </row>
-    <row r="29" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B29" s="97"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
+      <c r="L28" s="114"/>
+    </row>
+    <row r="29" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B29" s="96"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="36" t="s">
         <v>158</v>
       </c>
@@ -4935,16 +4935,16 @@
       <c r="K29" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="L29" s="103"/>
-    </row>
-    <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="96">
+      <c r="L29" s="115"/>
+    </row>
+    <row r="30" spans="2:12" ht="37.799999999999997">
+      <c r="B30" s="93">
         <v>5</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="108" t="s">
         <v>178</v>
       </c>
       <c r="E30" s="82" t="s">
@@ -4966,14 +4966,14 @@
       <c r="K30" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L30" s="101" t="s">
+      <c r="L30" s="97" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="99"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="92"/>
+    <row r="31" spans="2:12" ht="37.799999999999997">
+      <c r="B31" s="95"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="110"/>
       <c r="E31" s="84" t="s">
         <v>153</v>
       </c>
@@ -4993,12 +4993,12 @@
       <c r="K31" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L31" s="102"/>
-    </row>
-    <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="99"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="92"/>
+      <c r="L31" s="114"/>
+    </row>
+    <row r="32" spans="2:12" ht="37.799999999999997">
+      <c r="B32" s="95"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="84" t="s">
         <v>153</v>
       </c>
@@ -5018,12 +5018,12 @@
       <c r="K32" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L32" s="102"/>
-    </row>
-    <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="99"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="92"/>
+      <c r="L32" s="114"/>
+    </row>
+    <row r="33" spans="2:12" ht="37.799999999999997">
+      <c r="B33" s="95"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="110"/>
       <c r="E33" s="84" t="s">
         <v>153</v>
       </c>
@@ -5043,12 +5043,12 @@
       <c r="K33" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L33" s="102"/>
-    </row>
-    <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="99"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="92"/>
+      <c r="L33" s="114"/>
+    </row>
+    <row r="34" spans="2:12" ht="37.799999999999997">
+      <c r="B34" s="95"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="21" t="s">
         <v>158</v>
       </c>
@@ -5068,12 +5068,12 @@
       <c r="K34" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L34" s="102"/>
-    </row>
-    <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="99"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="92" t="s">
+      <c r="L34" s="114"/>
+    </row>
+    <row r="35" spans="2:12" ht="37.799999999999997">
+      <c r="B35" s="95"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="110" t="s">
         <v>179</v>
       </c>
       <c r="E35" s="84" t="s">
@@ -5095,14 +5095,14 @@
       <c r="K35" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L35" s="102" t="s">
+      <c r="L35" s="114" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="99"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="92"/>
+    <row r="36" spans="2:12" ht="37.799999999999997">
+      <c r="B36" s="95"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="21" t="s">
         <v>158</v>
       </c>
@@ -5122,12 +5122,12 @@
       <c r="K36" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L36" s="102"/>
-    </row>
-    <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="99"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="92" t="s">
+      <c r="L36" s="114"/>
+    </row>
+    <row r="37" spans="2:12" ht="37.799999999999997">
+      <c r="B37" s="95"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="110" t="s">
         <v>180</v>
       </c>
       <c r="E37" s="84" t="s">
@@ -5149,14 +5149,14 @@
       <c r="K37" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L37" s="102" t="s">
+      <c r="L37" s="114" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="36">
-      <c r="B38" s="99"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="92"/>
+    <row r="38" spans="2:12" ht="37.799999999999997">
+      <c r="B38" s="95"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="21" t="s">
         <v>158</v>
       </c>
@@ -5176,12 +5176,12 @@
       <c r="K38" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L38" s="102"/>
-    </row>
-    <row r="39" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="93"/>
+      <c r="L38" s="114"/>
+    </row>
+    <row r="39" spans="2:12" ht="51" thickBot="1">
+      <c r="B39" s="96"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="36" t="s">
         <v>158</v>
       </c>
@@ -5201,20 +5201,20 @@
       <c r="K39" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="L39" s="103"/>
-    </row>
-    <row r="40" spans="2:12" ht="84">
-      <c r="B40" s="96">
+      <c r="L39" s="115"/>
+    </row>
+    <row r="40" spans="2:12" ht="88.2">
+      <c r="B40" s="93">
         <v>6</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="94" t="s">
+      <c r="D40" s="108"/>
+      <c r="E40" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G40" s="26" t="s">
@@ -5232,16 +5232,16 @@
       <c r="K40" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L40" s="101" t="s">
+      <c r="L40" s="97" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="48">
-      <c r="B41" s="99"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="90"/>
+    <row r="41" spans="2:12" ht="63">
+      <c r="B41" s="95"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="130"/>
       <c r="G41" s="24" t="s">
         <v>2</v>
       </c>
@@ -5251,18 +5251,18 @@
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="104" t="s">
+      <c r="J41" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="102"/>
-    </row>
-    <row r="42" spans="2:12" ht="24">
-      <c r="B42" s="99"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="90"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="114"/>
+    </row>
+    <row r="42" spans="2:12" ht="37.799999999999997">
+      <c r="B42" s="95"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="130"/>
       <c r="G42" s="24" t="s">
         <v>2</v>
       </c>
@@ -5272,16 +5272,16 @@
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="104" t="s">
+      <c r="J42" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="102"/>
-    </row>
-    <row r="43" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="114"/>
+    </row>
+    <row r="43" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B43" s="96"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
       <c r="E43" s="36" t="s">
         <v>158</v>
       </c>
@@ -5301,20 +5301,20 @@
       <c r="K43" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="L43" s="103"/>
-    </row>
-    <row r="44" spans="2:12" ht="48">
-      <c r="B44" s="96">
+      <c r="L43" s="115"/>
+    </row>
+    <row r="44" spans="2:12" ht="50.4">
+      <c r="B44" s="93">
         <v>7</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="94" t="s">
+      <c r="D44" s="108"/>
+      <c r="E44" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="89" t="s">
+      <c r="F44" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="26" t="s">
@@ -5332,16 +5332,16 @@
       <c r="K44" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L44" s="101" t="s">
+      <c r="L44" s="97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="60">
-      <c r="B45" s="99"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="90"/>
+    <row r="45" spans="2:12" ht="63">
+      <c r="B45" s="95"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="24" t="s">
         <v>2</v>
       </c>
@@ -5351,16 +5351,16 @@
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="104" t="s">
+      <c r="J45" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="K45" s="105"/>
-      <c r="L45" s="102"/>
-    </row>
-    <row r="46" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="114"/>
+    </row>
+    <row r="46" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B46" s="96"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="36" t="s">
         <v>158</v>
       </c>
@@ -5380,20 +5380,20 @@
       <c r="K46" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="L46" s="103"/>
-    </row>
-    <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="96">
+      <c r="L46" s="115"/>
+    </row>
+    <row r="47" spans="2:12" ht="37.799999999999997">
+      <c r="B47" s="93">
         <v>8</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="91"/>
-      <c r="E47" s="94" t="s">
+      <c r="D47" s="108"/>
+      <c r="E47" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G47" s="26" t="s">
@@ -5411,16 +5411,16 @@
       <c r="K47" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="L47" s="101" t="s">
+      <c r="L47" s="97" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="99"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="90"/>
+    <row r="48" spans="2:12" ht="50.4">
+      <c r="B48" s="95"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="130"/>
       <c r="G48" s="24" t="s">
         <v>0</v>
       </c>
@@ -5436,12 +5436,12 @@
       <c r="K48" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="L48" s="102"/>
-    </row>
-    <row r="49" spans="2:12" ht="36">
-      <c r="B49" s="99"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="L48" s="114"/>
+    </row>
+    <row r="49" spans="2:12" ht="37.799999999999997">
+      <c r="B49" s="95"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
       <c r="E49" s="22" t="s">
         <v>154</v>
       </c>
@@ -5461,12 +5461,12 @@
       <c r="K49" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L49" s="102"/>
-    </row>
-    <row r="50" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B50" s="100"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
+      <c r="L49" s="114"/>
+    </row>
+    <row r="50" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B50" s="113"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
       <c r="E50" s="40" t="s">
         <v>158</v>
       </c>
@@ -5486,20 +5486,20 @@
       <c r="K50" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="L50" s="109"/>
-    </row>
-    <row r="51" spans="2:12" ht="48">
-      <c r="B51" s="96">
+      <c r="L50" s="98"/>
+    </row>
+    <row r="51" spans="2:12" ht="50.4">
+      <c r="B51" s="93">
         <v>9</v>
       </c>
-      <c r="C51" s="91" t="s">
+      <c r="C51" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="94" t="s">
+      <c r="D51" s="108"/>
+      <c r="E51" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="89" t="s">
+      <c r="F51" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G51" s="26" t="s">
@@ -5517,16 +5517,16 @@
       <c r="K51" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="L51" s="101" t="s">
+      <c r="L51" s="97" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="48">
-      <c r="B52" s="99"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="90"/>
+    <row r="52" spans="2:12" ht="63">
+      <c r="B52" s="95"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="130"/>
       <c r="G52" s="24" t="s">
         <v>0</v>
       </c>
@@ -5536,16 +5536,16 @@
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="104" t="s">
+      <c r="J52" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="K52" s="105"/>
-      <c r="L52" s="102"/>
-    </row>
-    <row r="53" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B53" s="97"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="114"/>
+    </row>
+    <row r="53" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B53" s="96"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
       <c r="E53" s="30" t="s">
         <v>158</v>
       </c>
@@ -5565,20 +5565,20 @@
       <c r="K53" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="L53" s="103"/>
-    </row>
-    <row r="54" spans="2:12" ht="24">
-      <c r="B54" s="96">
+      <c r="L53" s="115"/>
+    </row>
+    <row r="54" spans="2:12" ht="25.2">
+      <c r="B54" s="93">
         <v>10</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="94" t="s">
+      <c r="D54" s="108"/>
+      <c r="E54" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="89" t="s">
+      <c r="F54" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="26" t="s">
@@ -5596,16 +5596,16 @@
       <c r="K54" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="L54" s="101" t="s">
+      <c r="L54" s="97" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="99"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="90"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="130"/>
       <c r="G55" s="24" t="s">
         <v>0</v>
       </c>
@@ -5621,12 +5621,12 @@
       <c r="K55" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L55" s="102"/>
-    </row>
-    <row r="56" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B56" s="97"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
+      <c r="L55" s="114"/>
+    </row>
+    <row r="56" spans="2:12" ht="38.4" thickBot="1">
+      <c r="B56" s="96"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
       <c r="E56" s="45" t="s">
         <v>154</v>
       </c>
@@ -5646,16 +5646,16 @@
       <c r="K56" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="L56" s="103"/>
-    </row>
-    <row r="57" spans="2:12" ht="60">
-      <c r="B57" s="96">
+      <c r="L56" s="115"/>
+    </row>
+    <row r="57" spans="2:12" ht="63">
+      <c r="B57" s="93">
         <v>11</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="D57" s="91"/>
+      <c r="D57" s="108"/>
       <c r="E57" s="35" t="s">
         <v>154</v>
       </c>
@@ -5675,14 +5675,14 @@
       <c r="K57" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="L57" s="101" t="s">
+      <c r="L57" s="97" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B58" s="97"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
+    <row r="58" spans="2:12" ht="63.6" thickBot="1">
+      <c r="B58" s="96"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
       <c r="E58" s="45" t="s">
         <v>154</v>
       </c>
@@ -5702,15 +5702,15 @@
       <c r="K58" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="L58" s="103"/>
+      <c r="L58" s="115"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="88" t="s">
+      <c r="F59" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5724,19 +5724,51 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="C47:D50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:D56"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
     <mergeCell ref="L40:L43"/>
     <mergeCell ref="L47:L50"/>
     <mergeCell ref="J8:J9"/>
@@ -5753,51 +5785,19 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L17:L22"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="C47:D50"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:D56"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5842,11 +5842,11 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -5874,7 +5874,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="24">
+    <row r="6" spans="1:3" ht="25.2">
       <c r="B6" s="15" t="s">
         <v>148</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="84">
+    <row r="7" spans="1:3" ht="100.8">
       <c r="B7" s="62" t="s">
         <v>56</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="84">
+    <row r="11" spans="1:3" ht="100.8">
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72">
+    <row r="14" spans="1:3" ht="75.599999999999994">
       <c r="B14" s="62" t="s">
         <v>63</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="36">
+    <row r="16" spans="1:3" ht="37.799999999999997">
       <c r="B16" s="63" t="s">
         <v>65</v>
       </c>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC773C-1EA9-4482-95C8-97AD49F5CD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93376E11-A311-4701-AF02-5988580FC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="234">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -721,10 +721,6 @@
   </si>
   <si>
     <t>Permission Check</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Of the requirements defined in the PCI DDSS, only requirement 6.5. corresponds to the checklist below.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1162,6 +1158,18 @@
   </si>
   <si>
     <t>Person in charge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Of the requirements defined in the PCI DSS, only requirement 6.5. corresponds to the checklist below.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.PCIDSS Correspondence Table</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Corrected a typographical error in PCI DDSS.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1962,6 +1970,117 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1974,24 +2093,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2004,9 +2108,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2019,101 +2120,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3321,718 +3329,718 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="67" customWidth="1"/>
     <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
     <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
+    <col min="256" max="256" width="3.875" style="67" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="67" customWidth="1"/>
     <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
+    <col min="259" max="259" width="4.875" style="67" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="67" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="67" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="67" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="67" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="67" customWidth="1"/>
     <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
+    <col min="512" max="512" width="3.875" style="67" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="67" customWidth="1"/>
     <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
+    <col min="515" max="515" width="4.875" style="67" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="67" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="67" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="67" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="67" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="67" customWidth="1"/>
     <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
+    <col min="768" max="768" width="3.875" style="67" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="67" customWidth="1"/>
     <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
+    <col min="771" max="771" width="4.875" style="67" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="67" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="67" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="67" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="67" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="67" customWidth="1"/>
     <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1024" max="1024" width="3.875" style="67" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="67" customWidth="1"/>
     <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1027" max="1027" width="4.875" style="67" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="67" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="67" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="67" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="67" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="67" customWidth="1"/>
     <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1280" max="1280" width="3.875" style="67" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="67" customWidth="1"/>
     <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1283" max="1283" width="4.875" style="67" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="67" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="67" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="67" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="67" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="67" customWidth="1"/>
     <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1536" max="1536" width="3.875" style="67" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="67" customWidth="1"/>
     <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1539" max="1539" width="4.875" style="67" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="67" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="67" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="67" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="67" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="67" customWidth="1"/>
     <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1792" max="1792" width="3.875" style="67" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="67" customWidth="1"/>
     <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1795" max="1795" width="4.875" style="67" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="67" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="67" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="67" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="67" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="67" customWidth="1"/>
     <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2048" max="2048" width="3.875" style="67" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="67" customWidth="1"/>
     <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2051" max="2051" width="4.875" style="67" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="67" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="67" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="67" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="67" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="67" customWidth="1"/>
     <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2304" max="2304" width="3.875" style="67" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="67" customWidth="1"/>
     <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2307" max="2307" width="4.875" style="67" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="67" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="67" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="67" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="67" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="67" customWidth="1"/>
     <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2560" max="2560" width="3.875" style="67" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="67" customWidth="1"/>
     <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2563" max="2563" width="4.875" style="67" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="67" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="67" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="67" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="67" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="67" customWidth="1"/>
     <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2816" max="2816" width="3.875" style="67" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="67" customWidth="1"/>
     <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2819" max="2819" width="4.875" style="67" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="67" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="67" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="67" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="67" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="67" customWidth="1"/>
     <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3072" max="3072" width="3.875" style="67" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="67" customWidth="1"/>
     <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3075" max="3075" width="4.875" style="67" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="67" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="67" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="67" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="67" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="67" customWidth="1"/>
     <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3328" max="3328" width="3.875" style="67" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="67" customWidth="1"/>
     <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3331" max="3331" width="4.875" style="67" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="67" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="67" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="67" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="67" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="67" customWidth="1"/>
     <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3584" max="3584" width="3.875" style="67" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="67" customWidth="1"/>
     <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3587" max="3587" width="4.875" style="67" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="67" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="67" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="67" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="67" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="67" customWidth="1"/>
     <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3840" max="3840" width="3.875" style="67" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="67" customWidth="1"/>
     <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3843" max="3843" width="4.875" style="67" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="67" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="67" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="67" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="67" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="67" customWidth="1"/>
     <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4096" max="4096" width="3.875" style="67" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="67" customWidth="1"/>
     <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4099" max="4099" width="4.875" style="67" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="67" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="67" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="67" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="67" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="67" customWidth="1"/>
     <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4352" max="4352" width="3.875" style="67" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="67" customWidth="1"/>
     <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4355" max="4355" width="4.875" style="67" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="67" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="67" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="67" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="67" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="67" customWidth="1"/>
     <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4608" max="4608" width="3.875" style="67" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="67" customWidth="1"/>
     <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4611" max="4611" width="4.875" style="67" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="67" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="67" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="67" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="67" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="67" customWidth="1"/>
     <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4864" max="4864" width="3.875" style="67" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="67" customWidth="1"/>
     <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4867" max="4867" width="4.875" style="67" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="67" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="67" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="67" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="67" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="67" customWidth="1"/>
     <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5120" max="5120" width="3.875" style="67" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="67" customWidth="1"/>
     <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5123" max="5123" width="4.875" style="67" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="67" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="67" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="67" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="67" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="67" customWidth="1"/>
     <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5376" max="5376" width="3.875" style="67" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="67" customWidth="1"/>
     <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5379" max="5379" width="4.875" style="67" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="67" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="67" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="67" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="67" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="67" customWidth="1"/>
     <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5632" max="5632" width="3.875" style="67" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="67" customWidth="1"/>
     <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5635" max="5635" width="4.875" style="67" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="67" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="67" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="67" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="67" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="67" customWidth="1"/>
     <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5888" max="5888" width="3.875" style="67" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="67" customWidth="1"/>
     <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5891" max="5891" width="4.875" style="67" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="67" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="67" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="67" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="67" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="67" customWidth="1"/>
     <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6144" max="6144" width="3.875" style="67" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="67" customWidth="1"/>
     <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6147" max="6147" width="4.875" style="67" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="67" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="67" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="67" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="67" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="67" customWidth="1"/>
     <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6400" max="6400" width="3.875" style="67" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="67" customWidth="1"/>
     <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6403" max="6403" width="4.875" style="67" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="67" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="67" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="67" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="67" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="67" customWidth="1"/>
     <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6656" max="6656" width="3.875" style="67" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="67" customWidth="1"/>
     <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6659" max="6659" width="4.875" style="67" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="67" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="67" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="67" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="67" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="67" customWidth="1"/>
     <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6912" max="6912" width="3.875" style="67" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="67" customWidth="1"/>
     <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6915" max="6915" width="4.875" style="67" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="67" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="67" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="67" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="67" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="67" customWidth="1"/>
     <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7168" max="7168" width="3.875" style="67" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="67" customWidth="1"/>
     <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7171" max="7171" width="4.875" style="67" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="67" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="67" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="67" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="67" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="67" customWidth="1"/>
     <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7424" max="7424" width="3.875" style="67" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="67" customWidth="1"/>
     <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7427" max="7427" width="4.875" style="67" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="67" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="67" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="67" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="67" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="67" customWidth="1"/>
     <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7680" max="7680" width="3.875" style="67" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="67" customWidth="1"/>
     <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7683" max="7683" width="4.875" style="67" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="67" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="67" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="67" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="67" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="67" customWidth="1"/>
     <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7936" max="7936" width="3.875" style="67" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="67" customWidth="1"/>
     <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7939" max="7939" width="4.875" style="67" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="67" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="67" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="67" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="67" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="67" customWidth="1"/>
     <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8192" max="8192" width="3.875" style="67" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="67" customWidth="1"/>
     <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8195" max="8195" width="4.875" style="67" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="67" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="67" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="67" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="67" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="67" customWidth="1"/>
     <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8448" max="8448" width="3.875" style="67" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="67" customWidth="1"/>
     <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8451" max="8451" width="4.875" style="67" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="67" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="67" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="67" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="67" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="67" customWidth="1"/>
     <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8704" max="8704" width="3.875" style="67" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="67" customWidth="1"/>
     <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8707" max="8707" width="4.875" style="67" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="67" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="67" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="67" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="67" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="67" customWidth="1"/>
     <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8960" max="8960" width="3.875" style="67" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="67" customWidth="1"/>
     <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8963" max="8963" width="4.875" style="67" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="67" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="67" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="67" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="67" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="67" customWidth="1"/>
     <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9216" max="9216" width="3.875" style="67" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="67" customWidth="1"/>
     <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9219" max="9219" width="4.875" style="67" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="67" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="67" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="67" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="67" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="67" customWidth="1"/>
     <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9472" max="9472" width="3.875" style="67" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="67" customWidth="1"/>
     <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9475" max="9475" width="4.875" style="67" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="67" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="67" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="67" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="67" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="67" customWidth="1"/>
     <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9728" max="9728" width="3.875" style="67" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="67" customWidth="1"/>
     <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9731" max="9731" width="4.875" style="67" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="67" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="67" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="67" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="67" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="67" customWidth="1"/>
     <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9984" max="9984" width="3.875" style="67" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="67" customWidth="1"/>
     <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9987" max="9987" width="4.875" style="67" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="67" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="67" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="67" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="67" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="67" customWidth="1"/>
     <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10240" max="10240" width="3.875" style="67" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="67" customWidth="1"/>
     <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10243" max="10243" width="4.875" style="67" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="67" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="67" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="67" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="67" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="67" customWidth="1"/>
     <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10496" max="10496" width="3.875" style="67" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="67" customWidth="1"/>
     <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10499" max="10499" width="4.875" style="67" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="67" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="67" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="67" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="67" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="67" customWidth="1"/>
     <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10752" max="10752" width="3.875" style="67" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="67" customWidth="1"/>
     <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10755" max="10755" width="4.875" style="67" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="67" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="67" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="67" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="67" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="67" customWidth="1"/>
     <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11008" max="11008" width="3.875" style="67" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="67" customWidth="1"/>
     <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11011" max="11011" width="4.875" style="67" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="67" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="67" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="67" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="67" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="67" customWidth="1"/>
     <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11264" max="11264" width="3.875" style="67" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="67" customWidth="1"/>
     <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11267" max="11267" width="4.875" style="67" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="67" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="67" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="67" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="67" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="67" customWidth="1"/>
     <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11520" max="11520" width="3.875" style="67" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="67" customWidth="1"/>
     <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11523" max="11523" width="4.875" style="67" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="67" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="67" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="67" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="67" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="67" customWidth="1"/>
     <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11776" max="11776" width="3.875" style="67" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="67" customWidth="1"/>
     <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11779" max="11779" width="4.875" style="67" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="67" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="67" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="67" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="67" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="67" customWidth="1"/>
     <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12032" max="12032" width="3.875" style="67" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="67" customWidth="1"/>
     <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12035" max="12035" width="4.875" style="67" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="67" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="67" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="67" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="67" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="67" customWidth="1"/>
     <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12288" max="12288" width="3.875" style="67" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="67" customWidth="1"/>
     <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12291" max="12291" width="4.875" style="67" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="67" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="67" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="67" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="67" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="67" customWidth="1"/>
     <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12544" max="12544" width="3.875" style="67" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="67" customWidth="1"/>
     <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12547" max="12547" width="4.875" style="67" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="67" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="67" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="67" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="67" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="67" customWidth="1"/>
     <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12800" max="12800" width="3.875" style="67" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="67" customWidth="1"/>
     <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12803" max="12803" width="4.875" style="67" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="67" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="67" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="67" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="67" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="67" customWidth="1"/>
     <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13056" max="13056" width="3.875" style="67" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="67" customWidth="1"/>
     <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13059" max="13059" width="4.875" style="67" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="67" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="67" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="67" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="67" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="67" customWidth="1"/>
     <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13312" max="13312" width="3.875" style="67" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="67" customWidth="1"/>
     <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13315" max="13315" width="4.875" style="67" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="67" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="67" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="67" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="67" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="67" customWidth="1"/>
     <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13568" max="13568" width="3.875" style="67" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="67" customWidth="1"/>
     <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13571" max="13571" width="4.875" style="67" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="67" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="67" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="67" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="67" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="67" customWidth="1"/>
     <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13824" max="13824" width="3.875" style="67" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="67" customWidth="1"/>
     <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13827" max="13827" width="4.875" style="67" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="67" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="67" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="67" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="67" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="67" customWidth="1"/>
     <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14080" max="14080" width="3.875" style="67" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="67" customWidth="1"/>
     <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14083" max="14083" width="4.875" style="67" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="67" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="67" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="67" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="67" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="67" customWidth="1"/>
     <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14336" max="14336" width="3.875" style="67" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="67" customWidth="1"/>
     <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14339" max="14339" width="4.875" style="67" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="67" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="67" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="67" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="67" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="67" customWidth="1"/>
     <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14592" max="14592" width="3.875" style="67" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="67" customWidth="1"/>
     <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14595" max="14595" width="4.875" style="67" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="67" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="67" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="67" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="67" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="67" customWidth="1"/>
     <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14848" max="14848" width="3.875" style="67" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="67" customWidth="1"/>
     <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14851" max="14851" width="4.875" style="67" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="67" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="67" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="67" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="67" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="67" customWidth="1"/>
     <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15104" max="15104" width="3.875" style="67" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="67" customWidth="1"/>
     <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15107" max="15107" width="4.875" style="67" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="67" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="67" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="67" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="67" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="67" customWidth="1"/>
     <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15360" max="15360" width="3.875" style="67" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="67" customWidth="1"/>
     <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15363" max="15363" width="4.875" style="67" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="67" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="67" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="67" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="67" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="67" customWidth="1"/>
     <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15616" max="15616" width="3.875" style="67" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="67" customWidth="1"/>
     <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15619" max="15619" width="4.875" style="67" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="67" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="67" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="67" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="67" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="67" customWidth="1"/>
     <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15872" max="15872" width="3.875" style="67" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="67" customWidth="1"/>
     <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15875" max="15875" width="4.875" style="67" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="67" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="67" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="67" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="67" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="67" customWidth="1"/>
     <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16128" max="16128" width="3.875" style="67" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="67" customWidth="1"/>
     <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
+    <col min="16131" max="16131" width="4.875" style="67" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="67" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="67" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="67" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="67" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="67" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4">
+    <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="65" t="s">
         <v>69</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="69" customFormat="1" ht="22.5" customHeight="1">
@@ -4098,10 +4106,10 @@
         <v>76</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A6" s="71">
         <v>2</v>
       </c>
@@ -4121,10 +4129,10 @@
         <v>80</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A7" s="71">
         <v>3</v>
       </c>
@@ -4144,23 +4152,55 @@
         <v>81</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="76" customFormat="1">
-      <c r="A8" s="67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="I9" s="80"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="76" customFormat="1" ht="42.75">
+      <c r="A8" s="71">
+        <v>4</v>
+      </c>
+      <c r="B8" s="75">
+        <v>44791</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="76" customFormat="1">
+      <c r="A9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" s="76" customFormat="1">
+      <c r="A10" s="67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="79" customFormat="1" ht="18.75">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="I11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4172,7 +4212,7 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G10:G65360">
+  <conditionalFormatting sqref="G1:G2 G12:G65362">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -4193,9 +4233,9 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="20"/>
+    <col min="1" max="16384" width="2.625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -4265,12 +4305,12 @@
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="4:4">
@@ -4293,7 +4333,7 @@
         <v>53</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -4327,58 +4367,58 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2">
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2">
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2">
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="16.8" thickBot="1">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="25" t="s">
@@ -4386,34 +4426,34 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="116" t="s">
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="116" t="s">
+      <c r="K8" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.8" thickBot="1">
-      <c r="B9" s="90"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+    <row r="9" spans="1:12" ht="24.75" thickBot="1">
+      <c r="B9" s="127"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="34" t="s">
         <v>107</v>
       </c>
@@ -4427,29 +4467,29 @@
       <c r="I9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="132"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="124"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="93">
+      <c r="B10" s="97">
         <v>1</v>
       </c>
-      <c r="C10" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="129" t="s">
+      <c r="C10" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="90" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>7</v>
@@ -4458,23 +4498,23 @@
         <v>114</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L10" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="131" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="95"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
@@ -4483,23 +4523,23 @@
         <v>114</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L11" s="100"/>
+        <v>220</v>
+      </c>
+      <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
@@ -4508,23 +4548,23 @@
         <v>114</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="100"/>
-    </row>
-    <row r="13" spans="1:12" ht="37.799999999999997">
-      <c r="B13" s="95"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
+        <v>220</v>
+      </c>
+      <c r="L12" s="132"/>
+    </row>
+    <row r="13" spans="1:12" ht="36">
+      <c r="B13" s="100"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
@@ -4533,23 +4573,23 @@
         <v>116</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="100"/>
-    </row>
-    <row r="14" spans="1:12" ht="38.4" thickBot="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
+        <v>220</v>
+      </c>
+      <c r="L13" s="132"/>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
+      <c r="B14" s="98"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>102</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>3</v>
@@ -4558,20 +4598,20 @@
         <v>50</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="101"/>
-    </row>
-    <row r="15" spans="1:12" ht="37.799999999999997">
-      <c r="B15" s="93">
+        <v>221</v>
+      </c>
+      <c r="L14" s="133"/>
+    </row>
+    <row r="15" spans="1:12" ht="36">
+      <c r="B15" s="97">
         <v>2</v>
       </c>
-      <c r="C15" s="108" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="108"/>
+      <c r="C15" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="92"/>
       <c r="E15" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>102</v>
@@ -4580,7 +4620,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>9</v>
@@ -4589,18 +4629,18 @@
         <v>118</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L15" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="L15" s="102" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="63.6" thickBot="1">
-      <c r="B16" s="113"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
+    <row r="16" spans="1:12" ht="48.75" thickBot="1">
+      <c r="B16" s="101"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>102</v>
@@ -4609,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>8</v>
@@ -4618,109 +4658,109 @@
         <v>50</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="98"/>
+        <v>221</v>
+      </c>
+      <c r="L16" s="110"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="93">
+      <c r="B17" s="97">
         <v>3</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="92"/>
+      <c r="E17" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="124" t="s">
+      <c r="I17" s="119" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="L17" s="97" t="s">
-        <v>226</v>
+      <c r="K17" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="102" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="121"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="116"/>
       <c r="J18" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="119"/>
-      <c r="L18" s="133"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="125"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="95"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="126" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="121" t="s">
+      <c r="H19" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="116" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="119" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="114"/>
+      <c r="K19" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="L19" s="103"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="95"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="121"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="116"/>
       <c r="J20" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="114"/>
-    </row>
-    <row r="21" spans="2:12" ht="37.799999999999997">
-      <c r="B21" s="95"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="103"/>
+    </row>
+    <row r="21" spans="2:12" ht="36">
+      <c r="B21" s="100"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>102</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>12</v>
@@ -4729,23 +4769,23 @@
         <v>50</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="L21" s="114"/>
-    </row>
-    <row r="22" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B22" s="96"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
+        <v>221</v>
+      </c>
+      <c r="L21" s="103"/>
+    </row>
+    <row r="22" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B22" s="98"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>102</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>13</v>
@@ -4754,27 +4794,27 @@
         <v>120</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" s="115"/>
-    </row>
-    <row r="23" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B23" s="93">
+        <v>220</v>
+      </c>
+      <c r="L22" s="104"/>
+    </row>
+    <row r="23" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B23" s="97">
         <v>4</v>
       </c>
-      <c r="C23" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="108"/>
+      <c r="C23" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="92"/>
       <c r="E23" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>16</v>
@@ -4783,25 +4823,25 @@
         <v>122</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L23" s="97" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B24" s="95"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
+        <v>220</v>
+      </c>
+      <c r="L23" s="102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B24" s="100"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
@@ -4810,23 +4850,23 @@
         <v>122</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L24" s="114"/>
-    </row>
-    <row r="25" spans="2:12" ht="37.799999999999997">
-      <c r="B25" s="95"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+        <v>220</v>
+      </c>
+      <c r="L24" s="103"/>
+    </row>
+    <row r="25" spans="2:12" ht="36">
+      <c r="B25" s="100"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
@@ -4835,25 +4875,25 @@
         <v>122</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L25" s="114"/>
-    </row>
-    <row r="26" spans="2:12" ht="25.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="130" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" s="103"/>
+    </row>
+    <row r="26" spans="2:12" ht="24">
+      <c r="B26" s="100"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="91" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
@@ -4862,44 +4902,44 @@
         <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" s="114"/>
+        <v>222</v>
+      </c>
+      <c r="L26" s="103"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="95"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="130"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="134" t="s">
+      <c r="J27" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="135"/>
-      <c r="L27" s="114"/>
-    </row>
-    <row r="28" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B28" s="95"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="103"/>
+    </row>
+    <row r="28" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B28" s="100"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>19</v>
@@ -4908,23 +4948,23 @@
         <v>122</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L28" s="114"/>
-    </row>
-    <row r="29" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B29" s="96"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
+        <v>220</v>
+      </c>
+      <c r="L28" s="103"/>
+    </row>
+    <row r="29" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B29" s="98"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>20</v>
@@ -4933,29 +4973,29 @@
         <v>122</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" s="115"/>
-    </row>
-    <row r="30" spans="2:12" ht="37.799999999999997">
-      <c r="B30" s="93">
+        <v>220</v>
+      </c>
+      <c r="L29" s="104"/>
+    </row>
+    <row r="30" spans="2:12" ht="36">
+      <c r="B30" s="97">
         <v>5</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="108" t="s">
-        <v>178</v>
-      </c>
       <c r="E30" s="82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>21</v>
@@ -4964,25 +5004,25 @@
         <v>125</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L30" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" s="102" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="37.799999999999997">
-      <c r="B31" s="95"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="110"/>
+    <row r="31" spans="2:12" ht="36">
+      <c r="B31" s="100"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -4991,23 +5031,23 @@
         <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="114"/>
-    </row>
-    <row r="32" spans="2:12" ht="37.799999999999997">
-      <c r="B32" s="95"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="110"/>
+        <v>221</v>
+      </c>
+      <c r="L31" s="103"/>
+    </row>
+    <row r="32" spans="2:12" ht="36">
+      <c r="B32" s="100"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -5016,23 +5056,23 @@
         <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="114"/>
-    </row>
-    <row r="33" spans="2:12" ht="37.799999999999997">
-      <c r="B33" s="95"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="110"/>
+        <v>221</v>
+      </c>
+      <c r="L32" s="103"/>
+    </row>
+    <row r="33" spans="2:12" ht="36">
+      <c r="B33" s="100"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
@@ -5041,23 +5081,23 @@
         <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L33" s="114"/>
-    </row>
-    <row r="34" spans="2:12" ht="37.799999999999997">
-      <c r="B34" s="95"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="110"/>
+        <v>221</v>
+      </c>
+      <c r="L33" s="103"/>
+    </row>
+    <row r="34" spans="2:12" ht="36">
+      <c r="B34" s="100"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
@@ -5066,25 +5106,25 @@
         <v>120</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L34" s="114"/>
-    </row>
-    <row r="35" spans="2:12" ht="37.799999999999997">
-      <c r="B35" s="95"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="110" t="s">
-        <v>179</v>
+        <v>220</v>
+      </c>
+      <c r="L34" s="103"/>
+    </row>
+    <row r="35" spans="2:12" ht="36">
+      <c r="B35" s="100"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="93" t="s">
+        <v>178</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
@@ -5093,25 +5133,25 @@
         <v>126</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L35" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" s="103" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="37.799999999999997">
-      <c r="B36" s="95"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="110"/>
+    <row r="36" spans="2:12" ht="36">
+      <c r="B36" s="100"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
@@ -5120,25 +5160,25 @@
         <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" s="114"/>
-    </row>
-    <row r="37" spans="2:12" ht="37.799999999999997">
-      <c r="B37" s="95"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="110" t="s">
-        <v>180</v>
+        <v>221</v>
+      </c>
+      <c r="L36" s="103"/>
+    </row>
+    <row r="37" spans="2:12" ht="36">
+      <c r="B37" s="100"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="93" t="s">
+        <v>179</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
@@ -5147,25 +5187,25 @@
         <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L37" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="37.799999999999997">
-      <c r="B38" s="95"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="110"/>
+    <row r="38" spans="2:12" ht="36">
+      <c r="B38" s="100"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -5174,23 +5214,23 @@
         <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L38" s="114"/>
-    </row>
-    <row r="39" spans="2:12" ht="51" thickBot="1">
-      <c r="B39" s="96"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="111"/>
+        <v>221</v>
+      </c>
+      <c r="L38" s="103"/>
+    </row>
+    <row r="39" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B39" s="98"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>102</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>49</v>
@@ -5199,29 +5239,29 @@
         <v>129</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L39" s="115"/>
-    </row>
-    <row r="40" spans="2:12" ht="88.2">
-      <c r="B40" s="93">
+        <v>220</v>
+      </c>
+      <c r="L39" s="104"/>
+    </row>
+    <row r="40" spans="2:12" ht="84">
+      <c r="B40" s="97">
         <v>6</v>
       </c>
-      <c r="C40" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="129" t="s">
+      <c r="C40" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="90" t="s">
         <v>101</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>30</v>
@@ -5230,67 +5270,67 @@
         <v>130</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L40" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" s="102" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="63">
-      <c r="B41" s="95"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="130"/>
+    <row r="41" spans="2:12" ht="48">
+      <c r="B41" s="100"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="134" t="s">
+      <c r="J41" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="K41" s="135"/>
-      <c r="L41" s="114"/>
-    </row>
-    <row r="42" spans="2:12" ht="37.799999999999997">
-      <c r="B42" s="95"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="130"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="103"/>
+    </row>
+    <row r="42" spans="2:12" ht="24">
+      <c r="B42" s="100"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="91"/>
       <c r="G42" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="134" t="s">
+      <c r="J42" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="135"/>
-      <c r="L42" s="114"/>
-    </row>
-    <row r="43" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="103"/>
+    </row>
+    <row r="43" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B43" s="98"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>33</v>
@@ -5299,29 +5339,29 @@
         <v>50</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L43" s="115"/>
-    </row>
-    <row r="44" spans="2:12" ht="50.4">
-      <c r="B44" s="93">
+        <v>221</v>
+      </c>
+      <c r="L43" s="104"/>
+    </row>
+    <row r="44" spans="2:12" ht="48">
+      <c r="B44" s="97">
         <v>7</v>
       </c>
-      <c r="C44" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="129" t="s">
+      <c r="C44" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="92"/>
+      <c r="E44" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="90" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>34</v>
@@ -5330,46 +5370,46 @@
         <v>133</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" s="102" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="63">
-      <c r="B45" s="95"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="130"/>
+    <row r="45" spans="2:12" ht="60">
+      <c r="B45" s="100"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="91"/>
       <c r="G45" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="134" t="s">
+      <c r="J45" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="K45" s="135"/>
-      <c r="L45" s="114"/>
-    </row>
-    <row r="46" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B46" s="96"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="103"/>
+    </row>
+    <row r="46" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B46" s="98"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F46" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>36</v>
@@ -5378,79 +5418,79 @@
         <v>50</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L46" s="115"/>
-    </row>
-    <row r="47" spans="2:12" ht="37.799999999999997">
-      <c r="B47" s="93">
+        <v>221</v>
+      </c>
+      <c r="L46" s="104"/>
+    </row>
+    <row r="47" spans="2:12" ht="36">
+      <c r="B47" s="97">
         <v>8</v>
       </c>
-      <c r="C47" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="129" t="s">
+      <c r="C47" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="E47" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="90" t="s">
         <v>101</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="L47" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="L47" s="102" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="50.4">
-      <c r="B48" s="95"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="130"/>
+    <row r="48" spans="2:12" ht="36">
+      <c r="B48" s="100"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="91"/>
       <c r="G48" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L48" s="114"/>
-    </row>
-    <row r="49" spans="2:12" ht="37.799999999999997">
-      <c r="B49" s="95"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
+        <v>222</v>
+      </c>
+      <c r="L48" s="103"/>
+    </row>
+    <row r="49" spans="2:12" ht="36">
+      <c r="B49" s="100"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
       <c r="E49" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
@@ -5459,23 +5499,23 @@
         <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L49" s="114"/>
-    </row>
-    <row r="50" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B50" s="113"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
+        <v>221</v>
+      </c>
+      <c r="L49" s="103"/>
+    </row>
+    <row r="50" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B50" s="101"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
       <c r="E50" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>102</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>40</v>
@@ -5484,29 +5524,29 @@
         <v>50</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="L50" s="98"/>
-    </row>
-    <row r="51" spans="2:12" ht="50.4">
-      <c r="B51" s="93">
+        <v>221</v>
+      </c>
+      <c r="L50" s="110"/>
+    </row>
+    <row r="51" spans="2:12" ht="48">
+      <c r="B51" s="97">
         <v>9</v>
       </c>
-      <c r="C51" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="108"/>
-      <c r="E51" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F51" s="129" t="s">
+      <c r="C51" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="90" t="s">
         <v>101</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>41</v>
@@ -5515,46 +5555,46 @@
         <v>129</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="L51" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="L51" s="102" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="63">
-      <c r="B52" s="95"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="130"/>
+    <row r="52" spans="2:12" ht="48">
+      <c r="B52" s="100"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="134" t="s">
+      <c r="J52" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="114"/>
-    </row>
-    <row r="53" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B53" s="96"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="103"/>
+    </row>
+    <row r="53" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B53" s="98"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>43</v>
@@ -5563,29 +5603,29 @@
         <v>50</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L53" s="115"/>
-    </row>
-    <row r="54" spans="2:12" ht="25.2">
-      <c r="B54" s="93">
+        <v>221</v>
+      </c>
+      <c r="L53" s="104"/>
+    </row>
+    <row r="54" spans="2:12" ht="24">
+      <c r="B54" s="97">
         <v>10</v>
       </c>
-      <c r="C54" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="108"/>
-      <c r="E54" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="129" t="s">
+      <c r="C54" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="92"/>
+      <c r="E54" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="90" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>44</v>
@@ -5594,23 +5634,23 @@
         <v>133</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L54" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="L54" s="102" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="95"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="130"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="91"/>
       <c r="G55" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
@@ -5619,23 +5659,23 @@
         <v>133</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L55" s="114"/>
-    </row>
-    <row r="56" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B56" s="96"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
+        <v>220</v>
+      </c>
+      <c r="L55" s="103"/>
+    </row>
+    <row r="56" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B56" s="98"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F56" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I56" s="48" t="s">
         <v>46</v>
@@ -5644,27 +5684,27 @@
         <v>133</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L56" s="115"/>
-    </row>
-    <row r="57" spans="2:12" ht="63">
-      <c r="B57" s="93">
+        <v>220</v>
+      </c>
+      <c r="L56" s="104"/>
+    </row>
+    <row r="57" spans="2:12" ht="60">
+      <c r="B57" s="97">
         <v>11</v>
       </c>
-      <c r="C57" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="108"/>
+      <c r="C57" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="92"/>
       <c r="E57" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>47</v>
@@ -5673,25 +5713,25 @@
         <v>51</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="L57" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="L57" s="102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="63.6" thickBot="1">
-      <c r="B58" s="96"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
+    <row r="58" spans="2:12" ht="48.75" thickBot="1">
+      <c r="B58" s="98"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
       <c r="E58" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>48</v>
@@ -5700,17 +5740,17 @@
         <v>141</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L58" s="115"/>
+        <v>220</v>
+      </c>
+      <c r="L58" s="104"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="139" t="s">
+      <c r="F59" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5724,13 +5764,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="F44:F45"/>
@@ -5747,57 +5831,13 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5842,52 +5882,52 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="25.2">
+    <row r="6" spans="1:3" ht="24">
       <c r="B6" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="100.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="84">
       <c r="B7" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5895,7 +5935,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5914,12 +5954,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="100.8">
+    <row r="11" spans="1:3" ht="84">
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5935,15 +5975,15 @@
         <v>62</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75.599999999999994">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72">
       <c r="B14" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5951,15 +5991,15 @@
         <v>64</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="37.799999999999997">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36">
       <c r="B16" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93376E11-A311-4701-AF02-5988580FC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA67E8-F787-4A00-A264-26EEF5E56D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="235">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -632,16 +632,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>The prettyPrint tag provided in the Nablarch custom tag allows you to output values without escaping, specifying the available tags and attributes.
-https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JSP Custom Tags</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Output of a value without HTML escape</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1170,6 +1161,20 @@
   </si>
   <si>
     <t>Corrected a typographical error in PCI DDSS.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Please consider the following methods.
+- Use an OSS HTML parser to parse the input values and validate if there are any HTML tags that are not permitted.
+- If it is a simple decoration, have users input in Markdown, and convert from Markdown to HTML on the client side using an OSS JavaScript library.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Since the use of the prettyPrint tag is deprecated, changed the status of support at Nablarch to 'C' and modified the explanation to the method using OSS.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1970,158 +1975,158 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4074,7 +4079,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="69" customFormat="1" ht="22.5" customHeight="1">
@@ -4106,7 +4111,7 @@
         <v>76</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
@@ -4129,7 +4134,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
@@ -4152,7 +4157,7 @@
         <v>81</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="76" customFormat="1" ht="42.75">
@@ -4166,30 +4171,44 @@
         <v>78</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E8" s="72" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="76" customFormat="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="76" customFormat="1" ht="42.75">
+      <c r="A9" s="71">
+        <v>5</v>
+      </c>
+      <c r="B9" s="75">
+        <v>44791</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="76" customFormat="1">
       <c r="A10" s="67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="79" customFormat="1" ht="18.75">
@@ -4305,12 +4324,12 @@
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="4:4">
@@ -4333,7 +4352,7 @@
         <v>53</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -4398,7 +4417,7 @@
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4410,7 +4429,7 @@
     </row>
     <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4426,34 +4445,34 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="128"/>
-      <c r="E8" s="113" t="s">
+      <c r="D8" s="91"/>
+      <c r="E8" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="111" t="s">
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="111" t="s">
+      <c r="K8" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="131" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" thickBot="1">
-      <c r="B9" s="127"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="34" t="s">
         <v>107</v>
       </c>
@@ -4467,29 +4486,29 @@
       <c r="I9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="124"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="97">
+      <c r="B10" s="93">
         <v>1</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>7</v>
@@ -4498,23 +4517,23 @@
         <v>114</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="99" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="91"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
@@ -4523,23 +4542,23 @@
         <v>114</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L11" s="132"/>
+        <v>218</v>
+      </c>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="100"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
@@ -4548,23 +4567,23 @@
         <v>114</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L12" s="132"/>
+        <v>218</v>
+      </c>
+      <c r="L12" s="100"/>
     </row>
     <row r="13" spans="1:12" ht="36">
-      <c r="B13" s="100"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
@@ -4573,23 +4592,23 @@
         <v>116</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="132"/>
+        <v>218</v>
+      </c>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B14" s="98"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>102</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>3</v>
@@ -4598,20 +4617,20 @@
         <v>50</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="133"/>
+        <v>219</v>
+      </c>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:12" ht="36">
-      <c r="B15" s="97">
+      <c r="B15" s="93">
         <v>2</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="92"/>
+      <c r="C15" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="108"/>
       <c r="E15" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>102</v>
@@ -4620,7 +4639,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>9</v>
@@ -4629,18 +4648,18 @@
         <v>118</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L15" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="97" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="48.75" thickBot="1">
-      <c r="B16" s="101"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>102</v>
@@ -4649,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>8</v>
@@ -4658,109 +4677,109 @@
         <v>50</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="110"/>
+        <v>219</v>
+      </c>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="97">
+      <c r="B17" s="93">
         <v>3</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="136" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="134" t="s">
+      <c r="C17" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="134" t="s">
+      <c r="G17" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="120" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="119" t="s">
+      <c r="H17" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="124" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="L17" s="102" t="s">
-        <v>225</v>
+      <c r="K17" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="130"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="116"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="125"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="133"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="100"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="121" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="116" t="s">
+      <c r="H19" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="121" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="103"/>
+      <c r="K19" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" s="114"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="100"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="116"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="114"/>
-      <c r="L20" s="103"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="114"/>
     </row>
     <row r="21" spans="2:12" ht="36">
-      <c r="B21" s="100"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>102</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>12</v>
@@ -4769,23 +4788,23 @@
         <v>50</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="L21" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="L21" s="114"/>
     </row>
     <row r="22" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B22" s="98"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>102</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>13</v>
@@ -4794,27 +4813,27 @@
         <v>120</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="L22" s="104"/>
+        <v>218</v>
+      </c>
+      <c r="L22" s="115"/>
     </row>
     <row r="23" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B23" s="97">
+      <c r="B23" s="93">
         <v>4</v>
       </c>
-      <c r="C23" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="92"/>
+      <c r="C23" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="108"/>
       <c r="E23" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>16</v>
@@ -4823,25 +4842,25 @@
         <v>122</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L23" s="102" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="L23" s="97" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B24" s="100"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
@@ -4850,23 +4869,23 @@
         <v>122</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L24" s="103"/>
+        <v>218</v>
+      </c>
+      <c r="L24" s="114"/>
     </row>
     <row r="25" spans="2:12" ht="36">
-      <c r="B25" s="100"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
@@ -4875,25 +4894,25 @@
         <v>122</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L25" s="103"/>
+        <v>218</v>
+      </c>
+      <c r="L25" s="114"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="100"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="91" t="s">
+      <c r="B26" s="95"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="130" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
@@ -4902,44 +4921,44 @@
         <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L26" s="103"/>
+        <v>220</v>
+      </c>
+      <c r="L26" s="114"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="100"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="91"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="105" t="s">
+      <c r="J27" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="103"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="114"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="100"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
       <c r="E28" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>19</v>
@@ -4948,23 +4967,23 @@
         <v>122</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L28" s="103"/>
+        <v>218</v>
+      </c>
+      <c r="L28" s="114"/>
     </row>
     <row r="29" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B29" s="98"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>20</v>
@@ -4973,56 +4992,56 @@
         <v>122</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" s="104"/>
+        <v>218</v>
+      </c>
+      <c r="L29" s="115"/>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="97">
+      <c r="B30" s="93">
         <v>5</v>
       </c>
-      <c r="C30" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>177</v>
+      <c r="C30" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>175</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L30" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="97" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="100"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="93"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="110"/>
       <c r="E31" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -5031,23 +5050,23 @@
         <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="L31" s="114"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="100"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="93"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -5056,23 +5075,23 @@
         <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="L32" s="114"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="100"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="93"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="110"/>
       <c r="E33" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
@@ -5081,23 +5100,23 @@
         <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L33" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="L33" s="114"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="100"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="93"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
@@ -5106,52 +5125,52 @@
         <v>120</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L34" s="103"/>
+        <v>218</v>
+      </c>
+      <c r="L34" s="114"/>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="100"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="93" t="s">
-        <v>178</v>
+      <c r="B35" s="95"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="110" t="s">
+        <v>176</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="54" t="s">
-        <v>126</v>
+      <c r="J35" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L35" s="103" t="s">
-        <v>124</v>
+        <v>232</v>
+      </c>
+      <c r="L35" s="114" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="100"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="93"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
@@ -5160,52 +5179,52 @@
         <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L36" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="L36" s="114"/>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="100"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="93" t="s">
-        <v>179</v>
+      <c r="B37" s="95"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="110" t="s">
+        <v>177</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L37" s="103" t="s">
-        <v>127</v>
+        <v>218</v>
+      </c>
+      <c r="L37" s="114" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="36">
-      <c r="B38" s="100"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="93"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -5214,123 +5233,123 @@
         <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L38" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="L38" s="114"/>
     </row>
     <row r="39" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B39" s="98"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="94"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>102</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="L39" s="104"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="115"/>
     </row>
     <row r="40" spans="2:12" ht="84">
-      <c r="B40" s="97">
+      <c r="B40" s="93">
         <v>6</v>
       </c>
-      <c r="C40" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="90" t="s">
+      <c r="C40" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="108"/>
+      <c r="E40" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L40" s="102" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="41" spans="2:12" ht="48">
-      <c r="B41" s="100"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="91"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="130"/>
       <c r="G41" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41" s="106"/>
-      <c r="L41" s="103"/>
+      <c r="J41" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="135"/>
+      <c r="L41" s="114"/>
     </row>
     <row r="42" spans="2:12" ht="24">
-      <c r="B42" s="100"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="91"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="130"/>
       <c r="G42" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" s="106"/>
-      <c r="L42" s="103"/>
+      <c r="J42" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="135"/>
+      <c r="L42" s="114"/>
     </row>
     <row r="43" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B43" s="98"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
       <c r="E43" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>33</v>
@@ -5339,77 +5358,77 @@
         <v>50</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L43" s="104"/>
+        <v>219</v>
+      </c>
+      <c r="L43" s="115"/>
     </row>
     <row r="44" spans="2:12" ht="48">
-      <c r="B44" s="97">
+      <c r="B44" s="93">
         <v>7</v>
       </c>
-      <c r="C44" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="90" t="s">
+      <c r="C44" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="108"/>
+      <c r="E44" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="K44" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L44" s="102" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="45" spans="2:12" ht="60">
-      <c r="B45" s="100"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="91"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="105" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="106"/>
-      <c r="L45" s="103"/>
+      <c r="J45" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="135"/>
+      <c r="L45" s="114"/>
     </row>
     <row r="46" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B46" s="98"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F46" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>36</v>
@@ -5418,79 +5437,79 @@
         <v>50</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L46" s="104"/>
+        <v>219</v>
+      </c>
+      <c r="L46" s="115"/>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="97">
+      <c r="B47" s="93">
         <v>8</v>
       </c>
-      <c r="C47" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="90" t="s">
+      <c r="C47" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="108"/>
+      <c r="E47" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="L47" s="102" t="s">
-        <v>136</v>
+        <v>220</v>
+      </c>
+      <c r="L47" s="97" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="100"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="91"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="130"/>
       <c r="G48" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L48" s="103"/>
+        <v>220</v>
+      </c>
+      <c r="L48" s="114"/>
     </row>
     <row r="49" spans="2:12" ht="36">
-      <c r="B49" s="100"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
       <c r="E49" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
@@ -5499,23 +5518,23 @@
         <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L49" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="L49" s="114"/>
     </row>
     <row r="50" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B50" s="101"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
       <c r="E50" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>102</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>40</v>
@@ -5524,77 +5543,77 @@
         <v>50</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="L50" s="110"/>
+        <v>219</v>
+      </c>
+      <c r="L50" s="98"/>
     </row>
     <row r="51" spans="2:12" ht="48">
-      <c r="B51" s="97">
+      <c r="B51" s="93">
         <v>9</v>
       </c>
-      <c r="C51" s="92" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="90" t="s">
+      <c r="C51" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="108"/>
+      <c r="E51" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>41</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="L51" s="102" t="s">
-        <v>138</v>
+        <v>218</v>
+      </c>
+      <c r="L51" s="97" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="48">
-      <c r="B52" s="100"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="91"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="130"/>
       <c r="G52" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="K52" s="106"/>
-      <c r="L52" s="103"/>
+      <c r="J52" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="K52" s="135"/>
+      <c r="L52" s="114"/>
     </row>
     <row r="53" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B53" s="98"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
       <c r="E53" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>43</v>
@@ -5603,108 +5622,108 @@
         <v>50</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L53" s="104"/>
+        <v>219</v>
+      </c>
+      <c r="L53" s="115"/>
     </row>
     <row r="54" spans="2:12" ht="24">
-      <c r="B54" s="97">
+      <c r="B54" s="93">
         <v>10</v>
       </c>
-      <c r="C54" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="90" t="s">
+      <c r="C54" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="108"/>
+      <c r="E54" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L54" s="102" t="s">
-        <v>139</v>
+        <v>218</v>
+      </c>
+      <c r="L54" s="97" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="100"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="91"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="130"/>
       <c r="G55" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L55" s="103"/>
+        <v>218</v>
+      </c>
+      <c r="L55" s="114"/>
     </row>
     <row r="56" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B56" s="98"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
       <c r="E56" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F56" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I56" s="48" t="s">
         <v>46</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="L56" s="104"/>
+        <v>218</v>
+      </c>
+      <c r="L56" s="115"/>
     </row>
     <row r="57" spans="2:12" ht="60">
-      <c r="B57" s="97">
+      <c r="B57" s="93">
         <v>11</v>
       </c>
-      <c r="C57" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="92"/>
+      <c r="C57" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="108"/>
       <c r="E57" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>47</v>
@@ -5713,44 +5732,44 @@
         <v>51</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="L57" s="102" t="s">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="L57" s="97" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B58" s="98"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
       <c r="E58" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="L58" s="104"/>
+        <v>218</v>
+      </c>
+      <c r="L58" s="115"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="89" t="s">
+      <c r="F59" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:12">
@@ -5764,19 +5783,51 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="C47:D50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:D56"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
     <mergeCell ref="L40:L43"/>
     <mergeCell ref="L47:L50"/>
     <mergeCell ref="J8:J9"/>
@@ -5793,51 +5844,19 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L17:L22"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="C47:D50"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:D56"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5851,28 +5870,27 @@
     <hyperlink ref="J57" r:id="rId8" xr:uid="{F955FF49-9B0D-4FBA-B1DF-3E6A1647A3FE}"/>
     <hyperlink ref="J58" r:id="rId9" xr:uid="{AB6AEF1D-AA26-4B0C-8635-5D387E1FFFBD}"/>
     <hyperlink ref="J26" r:id="rId10" location="L74" xr:uid="{A4D74E3D-D6D3-4D6E-ACDA-87936D36432F}"/>
-    <hyperlink ref="J35" r:id="rId11" location="tag-html-unescape" xr:uid="{FC107919-8E3D-4DE5-8317-FE796B8217A2}"/>
-    <hyperlink ref="J23" r:id="rId12" xr:uid="{83B168C5-B734-43CE-B2F1-ED8EC79C2C07}"/>
-    <hyperlink ref="J48" r:id="rId13" location="mail-mail-header-injection" display="メール送信" xr:uid="{7C0DD612-6FF5-4836-B74C-EBFCF69D02CD}"/>
-    <hyperlink ref="J10" r:id="rId14" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{77551F28-66B4-42FE-8D06-FFEA6C21D606}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{F4909BBB-F04D-411A-888F-CB53321E0447}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{F94155A1-DE27-46DD-B5A5-FE5511572027}"/>
-    <hyperlink ref="J11" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{DF1880DF-A205-4D81-A2DD-1F4020E982B2}"/>
-    <hyperlink ref="J12" r:id="rId18" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{5A849690-1060-42D6-8269-C3D464266A71}"/>
-    <hyperlink ref="J19" r:id="rId19" xr:uid="{CB5983E8-5924-4F78-9E03-93B0424F2DC4}"/>
-    <hyperlink ref="J20" r:id="rId20" xr:uid="{350A62DA-C942-47E9-B738-3A1F5BAA60A0}"/>
-    <hyperlink ref="J22" r:id="rId21" xr:uid="{63D22E6F-E14B-4D91-8728-F37C61CFF5E9}"/>
-    <hyperlink ref="J24" r:id="rId22" xr:uid="{38BAADA3-0500-4922-999A-8F5764526F2E}"/>
-    <hyperlink ref="J25" r:id="rId23" xr:uid="{D8D0FC36-D8F1-4F24-A3C2-FE4538C75737}"/>
-    <hyperlink ref="J28" r:id="rId24" xr:uid="{469CD663-4780-4593-B89A-9BEA93A165EF}"/>
-    <hyperlink ref="J29" r:id="rId25" xr:uid="{1F7563A8-B4CB-45D6-BB09-47879E388659}"/>
-    <hyperlink ref="J34" r:id="rId26" xr:uid="{0187B08A-3E00-4899-9654-73C01F93D036}"/>
-    <hyperlink ref="J51" r:id="rId27" xr:uid="{9C0C16D7-8E5C-46CD-9E7A-1EF79EA97A20}"/>
+    <hyperlink ref="J23" r:id="rId11" xr:uid="{83B168C5-B734-43CE-B2F1-ED8EC79C2C07}"/>
+    <hyperlink ref="J48" r:id="rId12" location="mail-mail-header-injection" display="メール送信" xr:uid="{7C0DD612-6FF5-4836-B74C-EBFCF69D02CD}"/>
+    <hyperlink ref="J10" r:id="rId13" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{77551F28-66B4-42FE-8D06-FFEA6C21D606}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{F4909BBB-F04D-411A-888F-CB53321E0447}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{F94155A1-DE27-46DD-B5A5-FE5511572027}"/>
+    <hyperlink ref="J11" r:id="rId16" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{DF1880DF-A205-4D81-A2DD-1F4020E982B2}"/>
+    <hyperlink ref="J12" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{5A849690-1060-42D6-8269-C3D464266A71}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{CB5983E8-5924-4F78-9E03-93B0424F2DC4}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{350A62DA-C942-47E9-B738-3A1F5BAA60A0}"/>
+    <hyperlink ref="J22" r:id="rId20" xr:uid="{63D22E6F-E14B-4D91-8728-F37C61CFF5E9}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{38BAADA3-0500-4922-999A-8F5764526F2E}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{D8D0FC36-D8F1-4F24-A3C2-FE4538C75737}"/>
+    <hyperlink ref="J28" r:id="rId23" xr:uid="{469CD663-4780-4593-B89A-9BEA93A165EF}"/>
+    <hyperlink ref="J29" r:id="rId24" xr:uid="{1F7563A8-B4CB-45D6-BB09-47879E388659}"/>
+    <hyperlink ref="J34" r:id="rId25" xr:uid="{0187B08A-3E00-4899-9654-73C01F93D036}"/>
+    <hyperlink ref="J51" r:id="rId26" xr:uid="{9C0C16D7-8E5C-46CD-9E7A-1EF79EA97A20}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -5892,22 +5910,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5916,10 +5934,10 @@
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
@@ -5927,7 +5945,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5935,7 +5953,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5959,7 +5977,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5975,7 +5993,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
@@ -5983,7 +6001,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5991,7 +6009,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36">
@@ -5999,7 +6017,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC773C-1EA9-4482-95C8-97AD49F5CD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA67E8-F787-4A00-A264-26EEF5E56D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="235">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -632,16 +632,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>The prettyPrint tag provided in the Nablarch custom tag allows you to output values without escaping, specifying the available tags and attributes.
-https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JSP Custom Tags</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Output of a value without HTML escape</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -721,10 +712,6 @@
   </si>
   <si>
     <t>Permission Check</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Of the requirements defined in the PCI DDSS, only requirement 6.5. corresponds to the checklist below.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1162,6 +1149,32 @@
   </si>
   <si>
     <t>Person in charge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Of the requirements defined in the PCI DSS, only requirement 6.5. corresponds to the checklist below.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.PCIDSS Correspondence Table</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Corrected a typographical error in PCI DDSS.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Please consider the following methods.
+- Use an OSS HTML parser to parse the input values and validate if there are any HTML tags that are not permitted.
+- If it is a simple decoration, have users input in Markdown, and convert from Markdown to HTML on the client side using an OSS JavaScript library.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Since the use of the prettyPrint tag is deprecated, changed the status of support at Nablarch to 'C' and modified the explanation to the method using OSS.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3321,718 +3334,718 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="67" customWidth="1"/>
     <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
     <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
+    <col min="256" max="256" width="3.875" style="67" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="67" customWidth="1"/>
     <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
+    <col min="259" max="259" width="4.875" style="67" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="67" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="67" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="67" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="67" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="67" customWidth="1"/>
     <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
+    <col min="512" max="512" width="3.875" style="67" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="67" customWidth="1"/>
     <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
+    <col min="515" max="515" width="4.875" style="67" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="67" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="67" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="67" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="67" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="67" customWidth="1"/>
     <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
+    <col min="768" max="768" width="3.875" style="67" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="67" customWidth="1"/>
     <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
+    <col min="771" max="771" width="4.875" style="67" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="67" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="67" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="67" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="67" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="67" customWidth="1"/>
     <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1024" max="1024" width="3.875" style="67" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="67" customWidth="1"/>
     <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1027" max="1027" width="4.875" style="67" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="67" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="67" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="67" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="67" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="67" customWidth="1"/>
     <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1280" max="1280" width="3.875" style="67" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="67" customWidth="1"/>
     <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1283" max="1283" width="4.875" style="67" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="67" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="67" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="67" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="67" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="67" customWidth="1"/>
     <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1536" max="1536" width="3.875" style="67" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="67" customWidth="1"/>
     <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1539" max="1539" width="4.875" style="67" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="67" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="67" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="67" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="67" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="67" customWidth="1"/>
     <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
+    <col min="1792" max="1792" width="3.875" style="67" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="67" customWidth="1"/>
     <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1795" max="1795" width="4.875" style="67" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="67" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="67" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="67" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="67" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="67" customWidth="1"/>
     <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2048" max="2048" width="3.875" style="67" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="67" customWidth="1"/>
     <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2051" max="2051" width="4.875" style="67" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="67" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="67" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="67" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="67" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="67" customWidth="1"/>
     <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2304" max="2304" width="3.875" style="67" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="67" customWidth="1"/>
     <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2307" max="2307" width="4.875" style="67" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="67" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="67" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="67" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="67" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="67" customWidth="1"/>
     <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2560" max="2560" width="3.875" style="67" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="67" customWidth="1"/>
     <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2563" max="2563" width="4.875" style="67" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="67" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="67" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="67" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="67" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="67" customWidth="1"/>
     <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
+    <col min="2816" max="2816" width="3.875" style="67" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="67" customWidth="1"/>
     <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
+    <col min="2819" max="2819" width="4.875" style="67" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="67" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="67" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="67" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="67" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="67" customWidth="1"/>
     <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3072" max="3072" width="3.875" style="67" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="67" customWidth="1"/>
     <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3075" max="3075" width="4.875" style="67" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="67" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="67" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="67" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="67" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="67" customWidth="1"/>
     <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3328" max="3328" width="3.875" style="67" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="67" customWidth="1"/>
     <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3331" max="3331" width="4.875" style="67" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="67" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="67" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="67" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="67" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="67" customWidth="1"/>
     <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3584" max="3584" width="3.875" style="67" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="67" customWidth="1"/>
     <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3587" max="3587" width="4.875" style="67" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="67" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="67" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="67" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="67" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="67" customWidth="1"/>
     <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
+    <col min="3840" max="3840" width="3.875" style="67" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="67" customWidth="1"/>
     <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
+    <col min="3843" max="3843" width="4.875" style="67" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="67" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="67" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="67" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="67" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="67" customWidth="1"/>
     <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4096" max="4096" width="3.875" style="67" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="67" customWidth="1"/>
     <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4099" max="4099" width="4.875" style="67" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="67" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="67" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="67" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="67" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="67" customWidth="1"/>
     <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4352" max="4352" width="3.875" style="67" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="67" customWidth="1"/>
     <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4355" max="4355" width="4.875" style="67" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="67" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="67" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="67" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="67" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="67" customWidth="1"/>
     <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4608" max="4608" width="3.875" style="67" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="67" customWidth="1"/>
     <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4611" max="4611" width="4.875" style="67" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="67" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="67" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="67" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="67" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="67" customWidth="1"/>
     <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
+    <col min="4864" max="4864" width="3.875" style="67" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="67" customWidth="1"/>
     <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
+    <col min="4867" max="4867" width="4.875" style="67" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="67" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="67" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="67" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="67" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="67" customWidth="1"/>
     <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5120" max="5120" width="3.875" style="67" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="67" customWidth="1"/>
     <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5123" max="5123" width="4.875" style="67" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="67" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="67" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="67" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="67" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="67" customWidth="1"/>
     <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5376" max="5376" width="3.875" style="67" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="67" customWidth="1"/>
     <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5379" max="5379" width="4.875" style="67" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="67" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="67" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="67" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="67" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="67" customWidth="1"/>
     <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5632" max="5632" width="3.875" style="67" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="67" customWidth="1"/>
     <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5635" max="5635" width="4.875" style="67" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="67" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="67" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="67" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="67" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="67" customWidth="1"/>
     <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
+    <col min="5888" max="5888" width="3.875" style="67" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="67" customWidth="1"/>
     <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
+    <col min="5891" max="5891" width="4.875" style="67" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="67" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="67" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="67" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="67" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="67" customWidth="1"/>
     <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6144" max="6144" width="3.875" style="67" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="67" customWidth="1"/>
     <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6147" max="6147" width="4.875" style="67" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="67" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="67" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="67" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="67" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="67" customWidth="1"/>
     <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6400" max="6400" width="3.875" style="67" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="67" customWidth="1"/>
     <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6403" max="6403" width="4.875" style="67" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="67" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="67" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="67" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="67" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="67" customWidth="1"/>
     <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6656" max="6656" width="3.875" style="67" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="67" customWidth="1"/>
     <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6659" max="6659" width="4.875" style="67" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="67" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="67" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="67" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="67" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="67" customWidth="1"/>
     <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
+    <col min="6912" max="6912" width="3.875" style="67" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="67" customWidth="1"/>
     <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
+    <col min="6915" max="6915" width="4.875" style="67" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="67" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="67" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="67" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="67" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="67" customWidth="1"/>
     <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7168" max="7168" width="3.875" style="67" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="67" customWidth="1"/>
     <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7171" max="7171" width="4.875" style="67" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="67" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="67" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="67" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="67" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="67" customWidth="1"/>
     <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7424" max="7424" width="3.875" style="67" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="67" customWidth="1"/>
     <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7427" max="7427" width="4.875" style="67" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="67" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="67" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="67" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="67" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="67" customWidth="1"/>
     <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7680" max="7680" width="3.875" style="67" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="67" customWidth="1"/>
     <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7683" max="7683" width="4.875" style="67" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="67" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="67" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="67" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="67" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="67" customWidth="1"/>
     <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
+    <col min="7936" max="7936" width="3.875" style="67" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="67" customWidth="1"/>
     <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7939" max="7939" width="4.875" style="67" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="67" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="67" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="67" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="67" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="67" customWidth="1"/>
     <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8192" max="8192" width="3.875" style="67" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="67" customWidth="1"/>
     <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8195" max="8195" width="4.875" style="67" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="67" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="67" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="67" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="67" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="67" customWidth="1"/>
     <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8448" max="8448" width="3.875" style="67" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="67" customWidth="1"/>
     <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8451" max="8451" width="4.875" style="67" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="67" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="67" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="67" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="67" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="67" customWidth="1"/>
     <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8704" max="8704" width="3.875" style="67" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="67" customWidth="1"/>
     <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8707" max="8707" width="4.875" style="67" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="67" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="67" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="67" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="67" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="67" customWidth="1"/>
     <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
+    <col min="8960" max="8960" width="3.875" style="67" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="67" customWidth="1"/>
     <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
+    <col min="8963" max="8963" width="4.875" style="67" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="67" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="67" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="67" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="67" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="67" customWidth="1"/>
     <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9216" max="9216" width="3.875" style="67" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="67" customWidth="1"/>
     <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9219" max="9219" width="4.875" style="67" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="67" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="67" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="67" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="67" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="67" customWidth="1"/>
     <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9472" max="9472" width="3.875" style="67" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="67" customWidth="1"/>
     <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9475" max="9475" width="4.875" style="67" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="67" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="67" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="67" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="67" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="67" customWidth="1"/>
     <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9728" max="9728" width="3.875" style="67" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="67" customWidth="1"/>
     <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9731" max="9731" width="4.875" style="67" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="67" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="67" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="67" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="67" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="67" customWidth="1"/>
     <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
+    <col min="9984" max="9984" width="3.875" style="67" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="67" customWidth="1"/>
     <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
+    <col min="9987" max="9987" width="4.875" style="67" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="67" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="67" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="67" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="67" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="67" customWidth="1"/>
     <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10240" max="10240" width="3.875" style="67" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="67" customWidth="1"/>
     <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10243" max="10243" width="4.875" style="67" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="67" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="67" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="67" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="67" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="67" customWidth="1"/>
     <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10496" max="10496" width="3.875" style="67" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="67" customWidth="1"/>
     <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10499" max="10499" width="4.875" style="67" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="67" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="67" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="67" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="67" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="67" customWidth="1"/>
     <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
+    <col min="10752" max="10752" width="3.875" style="67" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="67" customWidth="1"/>
     <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
+    <col min="10755" max="10755" width="4.875" style="67" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="67" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="67" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="67" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="67" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="67" customWidth="1"/>
     <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11008" max="11008" width="3.875" style="67" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="67" customWidth="1"/>
     <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11011" max="11011" width="4.875" style="67" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="67" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="67" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="67" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="67" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="67" customWidth="1"/>
     <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11264" max="11264" width="3.875" style="67" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="67" customWidth="1"/>
     <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11267" max="11267" width="4.875" style="67" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="67" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="67" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="67" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="67" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="67" customWidth="1"/>
     <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11520" max="11520" width="3.875" style="67" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="67" customWidth="1"/>
     <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11523" max="11523" width="4.875" style="67" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="67" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="67" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="67" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="67" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="67" customWidth="1"/>
     <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
+    <col min="11776" max="11776" width="3.875" style="67" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="67" customWidth="1"/>
     <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
+    <col min="11779" max="11779" width="4.875" style="67" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="67" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="67" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="67" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="67" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="67" customWidth="1"/>
     <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12032" max="12032" width="3.875" style="67" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="67" customWidth="1"/>
     <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12035" max="12035" width="4.875" style="67" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="67" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="67" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="67" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="67" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="67" customWidth="1"/>
     <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12288" max="12288" width="3.875" style="67" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="67" customWidth="1"/>
     <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12291" max="12291" width="4.875" style="67" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="67" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="67" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="67" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="67" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="67" customWidth="1"/>
     <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12544" max="12544" width="3.875" style="67" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="67" customWidth="1"/>
     <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12547" max="12547" width="4.875" style="67" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="67" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="67" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="67" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="67" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="67" customWidth="1"/>
     <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
+    <col min="12800" max="12800" width="3.875" style="67" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="67" customWidth="1"/>
     <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
+    <col min="12803" max="12803" width="4.875" style="67" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="67" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="67" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="67" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="67" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="67" customWidth="1"/>
     <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13056" max="13056" width="3.875" style="67" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="67" customWidth="1"/>
     <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13059" max="13059" width="4.875" style="67" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="67" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="67" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="67" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="67" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="67" customWidth="1"/>
     <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13312" max="13312" width="3.875" style="67" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="67" customWidth="1"/>
     <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13315" max="13315" width="4.875" style="67" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="67" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="67" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="67" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="67" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="67" customWidth="1"/>
     <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13568" max="13568" width="3.875" style="67" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="67" customWidth="1"/>
     <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13571" max="13571" width="4.875" style="67" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="67" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="67" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="67" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="67" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="67" customWidth="1"/>
     <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
+    <col min="13824" max="13824" width="3.875" style="67" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="67" customWidth="1"/>
     <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
+    <col min="13827" max="13827" width="4.875" style="67" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="67" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="67" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="67" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="67" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="67" customWidth="1"/>
     <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14080" max="14080" width="3.875" style="67" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="67" customWidth="1"/>
     <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14083" max="14083" width="4.875" style="67" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="67" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="67" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="67" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="67" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="67" customWidth="1"/>
     <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14336" max="14336" width="3.875" style="67" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="67" customWidth="1"/>
     <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14339" max="14339" width="4.875" style="67" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="67" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="67" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="67" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="67" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="67" customWidth="1"/>
     <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14592" max="14592" width="3.875" style="67" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="67" customWidth="1"/>
     <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14595" max="14595" width="4.875" style="67" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="67" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="67" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="67" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="67" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="67" customWidth="1"/>
     <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
+    <col min="14848" max="14848" width="3.875" style="67" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="67" customWidth="1"/>
     <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
+    <col min="14851" max="14851" width="4.875" style="67" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="67" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="67" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="67" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="67" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="67" customWidth="1"/>
     <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15104" max="15104" width="3.875" style="67" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="67" customWidth="1"/>
     <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15107" max="15107" width="4.875" style="67" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="67" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="67" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="67" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="67" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="67" customWidth="1"/>
     <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15360" max="15360" width="3.875" style="67" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="67" customWidth="1"/>
     <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15363" max="15363" width="4.875" style="67" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="67" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="67" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="67" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="67" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="67" customWidth="1"/>
     <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15616" max="15616" width="3.875" style="67" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="67" customWidth="1"/>
     <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15619" max="15619" width="4.875" style="67" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="67" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="67" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="67" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="67" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="67" customWidth="1"/>
     <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
+    <col min="15872" max="15872" width="3.875" style="67" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="67" customWidth="1"/>
     <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
+    <col min="15875" max="15875" width="4.875" style="67" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="67" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="67" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="67" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="67" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="67" customWidth="1"/>
     <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
+    <col min="16128" max="16128" width="3.875" style="67" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="67" customWidth="1"/>
     <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
+    <col min="16131" max="16131" width="4.875" style="67" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="67" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="67" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="67" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="67" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="67" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4">
+    <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="65" t="s">
         <v>69</v>
       </c>
@@ -4066,7 +4079,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="69" customFormat="1" ht="22.5" customHeight="1">
@@ -4098,10 +4111,10 @@
         <v>76</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A6" s="71">
         <v>2</v>
       </c>
@@ -4121,10 +4134,10 @@
         <v>80</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
       <c r="A7" s="71">
         <v>3</v>
       </c>
@@ -4144,23 +4157,69 @@
         <v>81</v>
       </c>
       <c r="G7" s="71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="76" customFormat="1" ht="42.75">
+      <c r="A8" s="71">
+        <v>4</v>
+      </c>
+      <c r="B8" s="75">
+        <v>44791</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="72" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="76" customFormat="1">
-      <c r="A8" s="67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="I9" s="80"/>
+      <c r="E8" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="76" customFormat="1" ht="42.75">
+      <c r="A9" s="71">
+        <v>5</v>
+      </c>
+      <c r="B9" s="75">
+        <v>44791</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="76" customFormat="1">
+      <c r="A10" s="67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="79" customFormat="1" ht="18.75">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="I11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4172,7 +4231,7 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G10:G65360">
+  <conditionalFormatting sqref="G1:G2 G12:G65362">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -4193,9 +4252,9 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="20"/>
+    <col min="1" max="16384" width="2.625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -4265,12 +4324,12 @@
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="4:4">
@@ -4293,7 +4352,7 @@
         <v>53</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -4327,58 +4386,58 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2">
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2">
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2">
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="16.8" thickBot="1">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="F7" s="25" t="s">
@@ -4410,7 +4469,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.8" thickBot="1">
+    <row r="9" spans="1:12" ht="24.75" thickBot="1">
       <c r="B9" s="90"/>
       <c r="C9" s="92"/>
       <c r="D9" s="92"/>
@@ -4436,11 +4495,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="108" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="108"/>
       <c r="E10" s="127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10" s="129" t="s">
         <v>101</v>
@@ -4449,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>7</v>
@@ -4458,7 +4517,7 @@
         <v>114</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L10" s="99" t="s">
         <v>115</v>
@@ -4474,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
@@ -4483,7 +4542,7 @@
         <v>114</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L11" s="100"/>
     </row>
@@ -4492,14 +4551,14 @@
       <c r="C12" s="110"/>
       <c r="D12" s="110"/>
       <c r="E12" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
@@ -4508,23 +4567,23 @@
         <v>114</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L12" s="100"/>
     </row>
-    <row r="13" spans="1:12" ht="37.799999999999997">
+    <row r="13" spans="1:12" ht="36">
       <c r="B13" s="95"/>
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
@@ -4533,23 +4592,23 @@
         <v>116</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L13" s="100"/>
     </row>
-    <row r="14" spans="1:12" ht="38.4" thickBot="1">
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
       <c r="B14" s="96"/>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
       <c r="E14" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>102</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>3</v>
@@ -4558,20 +4617,20 @@
         <v>50</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L14" s="101"/>
     </row>
-    <row r="15" spans="1:12" ht="37.799999999999997">
+    <row r="15" spans="1:12" ht="36">
       <c r="B15" s="93">
         <v>2</v>
       </c>
       <c r="C15" s="108" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D15" s="108"/>
       <c r="E15" s="35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>102</v>
@@ -4580,7 +4639,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>9</v>
@@ -4589,18 +4648,18 @@
         <v>118</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L15" s="97" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="63.6" thickBot="1">
+    <row r="16" spans="1:12" ht="48.75" thickBot="1">
       <c r="B16" s="113"/>
       <c r="C16" s="112"/>
       <c r="D16" s="112"/>
       <c r="E16" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>102</v>
@@ -4609,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>8</v>
@@ -4618,7 +4677,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L16" s="98"/>
     </row>
@@ -4627,11 +4686,11 @@
         <v>3</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D17" s="108"/>
       <c r="E17" s="105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17" s="102" t="s">
         <v>101</v>
@@ -4640,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="125" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I17" s="124" t="s">
         <v>10</v>
@@ -4649,10 +4708,10 @@
         <v>119</v>
       </c>
       <c r="K17" s="120" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
@@ -4680,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="122" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I19" s="121" t="s">
         <v>11</v>
@@ -4689,7 +4748,7 @@
         <v>119</v>
       </c>
       <c r="K19" s="119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L19" s="114"/>
     </row>
@@ -4708,19 +4767,19 @@
       <c r="K20" s="119"/>
       <c r="L20" s="114"/>
     </row>
-    <row r="21" spans="2:12" ht="37.799999999999997">
+    <row r="21" spans="2:12" ht="36">
       <c r="B21" s="95"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
       <c r="E21" s="49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>102</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I21" s="56" t="s">
         <v>12</v>
@@ -4729,23 +4788,23 @@
         <v>50</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L21" s="114"/>
     </row>
-    <row r="22" spans="2:12" ht="38.4" thickBot="1">
+    <row r="22" spans="2:12" ht="36.75" thickBot="1">
       <c r="B22" s="96"/>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
       <c r="E22" s="50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F22" s="52" t="s">
         <v>102</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>13</v>
@@ -4754,27 +4813,27 @@
         <v>120</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L22" s="115"/>
     </row>
-    <row r="23" spans="2:12" ht="38.4" thickBot="1">
+    <row r="23" spans="2:12" ht="36.75" thickBot="1">
       <c r="B23" s="93">
         <v>4</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D23" s="108"/>
       <c r="E23" s="35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>16</v>
@@ -4783,25 +4842,25 @@
         <v>122</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L23" s="97" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="38.4" thickBot="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="36.75" thickBot="1">
       <c r="B24" s="95"/>
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
       <c r="E24" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
@@ -4810,23 +4869,23 @@
         <v>122</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L24" s="114"/>
     </row>
-    <row r="25" spans="2:12" ht="37.799999999999997">
+    <row r="25" spans="2:12" ht="36">
       <c r="B25" s="95"/>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
@@ -4835,16 +4894,16 @@
         <v>122</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L25" s="114"/>
     </row>
-    <row r="26" spans="2:12" ht="25.2">
+    <row r="26" spans="2:12" ht="24">
       <c r="B26" s="95"/>
       <c r="C26" s="110"/>
       <c r="D26" s="110"/>
       <c r="E26" s="128" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26" s="130" t="s">
         <v>101</v>
@@ -4853,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
@@ -4862,7 +4921,7 @@
         <v>52</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L26" s="114"/>
     </row>
@@ -4876,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
@@ -4887,19 +4946,19 @@
       <c r="K27" s="135"/>
       <c r="L27" s="114"/>
     </row>
-    <row r="28" spans="2:12" ht="38.4" thickBot="1">
+    <row r="28" spans="2:12" ht="36.75" thickBot="1">
       <c r="B28" s="95"/>
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
       <c r="E28" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>19</v>
@@ -4908,23 +4967,23 @@
         <v>122</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L28" s="114"/>
     </row>
-    <row r="29" spans="2:12" ht="38.4" thickBot="1">
+    <row r="29" spans="2:12" ht="36.75" thickBot="1">
       <c r="B29" s="96"/>
       <c r="C29" s="111"/>
       <c r="D29" s="111"/>
       <c r="E29" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>20</v>
@@ -4933,56 +4992,56 @@
         <v>122</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L29" s="115"/>
     </row>
-    <row r="30" spans="2:12" ht="37.799999999999997">
+    <row r="30" spans="2:12" ht="36">
       <c r="B30" s="93">
         <v>5</v>
       </c>
       <c r="C30" s="136" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L30" s="97" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="37.799999999999997">
+    <row r="31" spans="2:12" ht="36">
       <c r="B31" s="95"/>
       <c r="C31" s="137"/>
       <c r="D31" s="110"/>
       <c r="E31" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -4991,23 +5050,23 @@
         <v>50</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L31" s="114"/>
     </row>
-    <row r="32" spans="2:12" ht="37.799999999999997">
+    <row r="32" spans="2:12" ht="36">
       <c r="B32" s="95"/>
       <c r="C32" s="137"/>
       <c r="D32" s="110"/>
       <c r="E32" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -5016,23 +5075,23 @@
         <v>50</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L32" s="114"/>
     </row>
-    <row r="33" spans="2:12" ht="37.799999999999997">
+    <row r="33" spans="2:12" ht="36">
       <c r="B33" s="95"/>
       <c r="C33" s="137"/>
       <c r="D33" s="110"/>
       <c r="E33" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
@@ -5041,23 +5100,23 @@
         <v>50</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L33" s="114"/>
     </row>
-    <row r="34" spans="2:12" ht="37.799999999999997">
+    <row r="34" spans="2:12" ht="36">
       <c r="B34" s="95"/>
       <c r="C34" s="137"/>
       <c r="D34" s="110"/>
       <c r="E34" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
@@ -5066,52 +5125,52 @@
         <v>120</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L34" s="114"/>
     </row>
-    <row r="35" spans="2:12" ht="37.799999999999997">
+    <row r="35" spans="2:12" ht="36">
       <c r="B35" s="95"/>
       <c r="C35" s="137"/>
       <c r="D35" s="110" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="54" t="s">
-        <v>126</v>
+      <c r="J35" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L35" s="114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="37.799999999999997">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="36">
       <c r="B36" s="95"/>
       <c r="C36" s="137"/>
       <c r="D36" s="110"/>
       <c r="E36" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
@@ -5120,52 +5179,52 @@
         <v>50</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L36" s="114"/>
     </row>
-    <row r="37" spans="2:12" ht="37.799999999999997">
+    <row r="37" spans="2:12" ht="36">
       <c r="B37" s="95"/>
       <c r="C37" s="137"/>
       <c r="D37" s="110" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L37" s="114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="37.799999999999997">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="36">
       <c r="B38" s="95"/>
       <c r="C38" s="137"/>
       <c r="D38" s="110"/>
       <c r="E38" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
@@ -5174,45 +5233,45 @@
         <v>50</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L38" s="114"/>
     </row>
-    <row r="39" spans="2:12" ht="51" thickBot="1">
+    <row r="39" spans="2:12" ht="36.75" thickBot="1">
       <c r="B39" s="96"/>
       <c r="C39" s="138"/>
       <c r="D39" s="111"/>
       <c r="E39" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>102</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L39" s="115"/>
     </row>
-    <row r="40" spans="2:12" ht="88.2">
+    <row r="40" spans="2:12" ht="84">
       <c r="B40" s="93">
         <v>6</v>
       </c>
       <c r="C40" s="108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D40" s="108"/>
       <c r="E40" s="127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F40" s="129" t="s">
         <v>101</v>
@@ -5221,22 +5280,22 @@
         <v>2</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L40" s="97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="63">
+    </row>
+    <row r="41" spans="2:12" ht="48">
       <c r="B41" s="95"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
@@ -5246,18 +5305,18 @@
         <v>2</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J41" s="134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K41" s="135"/>
       <c r="L41" s="114"/>
     </row>
-    <row r="42" spans="2:12" ht="37.799999999999997">
+    <row r="42" spans="2:12" ht="24">
       <c r="B42" s="95"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
@@ -5267,30 +5326,30 @@
         <v>2</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J42" s="134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K42" s="135"/>
       <c r="L42" s="114"/>
     </row>
-    <row r="43" spans="2:12" ht="38.4" thickBot="1">
+    <row r="43" spans="2:12" ht="36.75" thickBot="1">
       <c r="B43" s="96"/>
       <c r="C43" s="111"/>
       <c r="D43" s="111"/>
       <c r="E43" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>33</v>
@@ -5299,20 +5358,20 @@
         <v>50</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L43" s="115"/>
     </row>
-    <row r="44" spans="2:12" ht="50.4">
+    <row r="44" spans="2:12" ht="48">
       <c r="B44" s="93">
         <v>7</v>
       </c>
       <c r="C44" s="108" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D44" s="108"/>
       <c r="E44" s="127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F44" s="129" t="s">
         <v>101</v>
@@ -5321,22 +5380,22 @@
         <v>2</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J44" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="K44" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="63">
+    </row>
+    <row r="45" spans="2:12" ht="60">
       <c r="B45" s="95"/>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
@@ -5346,30 +5405,30 @@
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J45" s="134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K45" s="135"/>
       <c r="L45" s="114"/>
     </row>
-    <row r="46" spans="2:12" ht="38.4" thickBot="1">
+    <row r="46" spans="2:12" ht="36.75" thickBot="1">
       <c r="B46" s="96"/>
       <c r="C46" s="111"/>
       <c r="D46" s="111"/>
       <c r="E46" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F46" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="32" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>36</v>
@@ -5378,20 +5437,20 @@
         <v>50</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L46" s="115"/>
     </row>
-    <row r="47" spans="2:12" ht="37.799999999999997">
+    <row r="47" spans="2:12" ht="36">
       <c r="B47" s="93">
         <v>8</v>
       </c>
       <c r="C47" s="108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D47" s="108"/>
       <c r="E47" s="127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F47" s="129" t="s">
         <v>101</v>
@@ -5400,22 +5459,22 @@
         <v>0</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L47" s="97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="50.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="36">
       <c r="B48" s="95"/>
       <c r="C48" s="110"/>
       <c r="D48" s="110"/>
@@ -5425,32 +5484,32 @@
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L48" s="114"/>
     </row>
-    <row r="49" spans="2:12" ht="37.799999999999997">
+    <row r="49" spans="2:12" ht="36">
       <c r="B49" s="95"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
       <c r="E49" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
@@ -5459,23 +5518,23 @@
         <v>50</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L49" s="114"/>
     </row>
-    <row r="50" spans="2:12" ht="38.4" thickBot="1">
+    <row r="50" spans="2:12" ht="36.75" thickBot="1">
       <c r="B50" s="113"/>
       <c r="C50" s="112"/>
       <c r="D50" s="112"/>
       <c r="E50" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>102</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>40</v>
@@ -5484,20 +5543,20 @@
         <v>50</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L50" s="98"/>
     </row>
-    <row r="51" spans="2:12" ht="50.4">
+    <row r="51" spans="2:12" ht="48">
       <c r="B51" s="93">
         <v>9</v>
       </c>
       <c r="C51" s="108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D51" s="108"/>
       <c r="E51" s="127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F51" s="129" t="s">
         <v>101</v>
@@ -5506,22 +5565,22 @@
         <v>0</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>41</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L51" s="97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="63">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="48">
       <c r="B52" s="95"/>
       <c r="C52" s="110"/>
       <c r="D52" s="110"/>
@@ -5531,30 +5590,30 @@
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J52" s="134" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K52" s="135"/>
       <c r="L52" s="114"/>
     </row>
-    <row r="53" spans="2:12" ht="38.4" thickBot="1">
+    <row r="53" spans="2:12" ht="36.75" thickBot="1">
       <c r="B53" s="96"/>
       <c r="C53" s="111"/>
       <c r="D53" s="111"/>
       <c r="E53" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>102</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>43</v>
@@ -5563,20 +5622,20 @@
         <v>50</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L53" s="115"/>
     </row>
-    <row r="54" spans="2:12" ht="25.2">
+    <row r="54" spans="2:12" ht="24">
       <c r="B54" s="93">
         <v>10</v>
       </c>
       <c r="C54" s="108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D54" s="108"/>
       <c r="E54" s="127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F54" s="129" t="s">
         <v>101</v>
@@ -5585,19 +5644,19 @@
         <v>0</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L54" s="97" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
@@ -5610,61 +5669,61 @@
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L55" s="114"/>
     </row>
-    <row r="56" spans="2:12" ht="38.4" thickBot="1">
+    <row r="56" spans="2:12" ht="36.75" thickBot="1">
       <c r="B56" s="96"/>
       <c r="C56" s="111"/>
       <c r="D56" s="111"/>
       <c r="E56" s="45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F56" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I56" s="48" t="s">
         <v>46</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L56" s="115"/>
     </row>
-    <row r="57" spans="2:12" ht="63">
+    <row r="57" spans="2:12" ht="60">
       <c r="B57" s="93">
         <v>11</v>
       </c>
       <c r="C57" s="108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D57" s="108"/>
       <c r="E57" s="35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>102</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>47</v>
@@ -5673,34 +5732,34 @@
         <v>51</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L57" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="63.6" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="48.75" thickBot="1">
       <c r="B58" s="96"/>
       <c r="C58" s="111"/>
       <c r="D58" s="111"/>
       <c r="E58" s="45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F58" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>48</v>
       </c>
       <c r="J58" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L58" s="115"/>
     </row>
@@ -5811,28 +5870,27 @@
     <hyperlink ref="J57" r:id="rId8" xr:uid="{F955FF49-9B0D-4FBA-B1DF-3E6A1647A3FE}"/>
     <hyperlink ref="J58" r:id="rId9" xr:uid="{AB6AEF1D-AA26-4B0C-8635-5D387E1FFFBD}"/>
     <hyperlink ref="J26" r:id="rId10" location="L74" xr:uid="{A4D74E3D-D6D3-4D6E-ACDA-87936D36432F}"/>
-    <hyperlink ref="J35" r:id="rId11" location="tag-html-unescape" xr:uid="{FC107919-8E3D-4DE5-8317-FE796B8217A2}"/>
-    <hyperlink ref="J23" r:id="rId12" xr:uid="{83B168C5-B734-43CE-B2F1-ED8EC79C2C07}"/>
-    <hyperlink ref="J48" r:id="rId13" location="mail-mail-header-injection" display="メール送信" xr:uid="{7C0DD612-6FF5-4836-B74C-EBFCF69D02CD}"/>
-    <hyperlink ref="J10" r:id="rId14" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{77551F28-66B4-42FE-8D06-FFEA6C21D606}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{F4909BBB-F04D-411A-888F-CB53321E0447}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{F94155A1-DE27-46DD-B5A5-FE5511572027}"/>
-    <hyperlink ref="J11" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{DF1880DF-A205-4D81-A2DD-1F4020E982B2}"/>
-    <hyperlink ref="J12" r:id="rId18" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{5A849690-1060-42D6-8269-C3D464266A71}"/>
-    <hyperlink ref="J19" r:id="rId19" xr:uid="{CB5983E8-5924-4F78-9E03-93B0424F2DC4}"/>
-    <hyperlink ref="J20" r:id="rId20" xr:uid="{350A62DA-C942-47E9-B738-3A1F5BAA60A0}"/>
-    <hyperlink ref="J22" r:id="rId21" xr:uid="{63D22E6F-E14B-4D91-8728-F37C61CFF5E9}"/>
-    <hyperlink ref="J24" r:id="rId22" xr:uid="{38BAADA3-0500-4922-999A-8F5764526F2E}"/>
-    <hyperlink ref="J25" r:id="rId23" xr:uid="{D8D0FC36-D8F1-4F24-A3C2-FE4538C75737}"/>
-    <hyperlink ref="J28" r:id="rId24" xr:uid="{469CD663-4780-4593-B89A-9BEA93A165EF}"/>
-    <hyperlink ref="J29" r:id="rId25" xr:uid="{1F7563A8-B4CB-45D6-BB09-47879E388659}"/>
-    <hyperlink ref="J34" r:id="rId26" xr:uid="{0187B08A-3E00-4899-9654-73C01F93D036}"/>
-    <hyperlink ref="J51" r:id="rId27" xr:uid="{9C0C16D7-8E5C-46CD-9E7A-1EF79EA97A20}"/>
+    <hyperlink ref="J23" r:id="rId11" xr:uid="{83B168C5-B734-43CE-B2F1-ED8EC79C2C07}"/>
+    <hyperlink ref="J48" r:id="rId12" location="mail-mail-header-injection" display="メール送信" xr:uid="{7C0DD612-6FF5-4836-B74C-EBFCF69D02CD}"/>
+    <hyperlink ref="J10" r:id="rId13" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{77551F28-66B4-42FE-8D06-FFEA6C21D606}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{F4909BBB-F04D-411A-888F-CB53321E0447}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{F94155A1-DE27-46DD-B5A5-FE5511572027}"/>
+    <hyperlink ref="J11" r:id="rId16" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{DF1880DF-A205-4D81-A2DD-1F4020E982B2}"/>
+    <hyperlink ref="J12" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{5A849690-1060-42D6-8269-C3D464266A71}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{CB5983E8-5924-4F78-9E03-93B0424F2DC4}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{350A62DA-C942-47E9-B738-3A1F5BAA60A0}"/>
+    <hyperlink ref="J22" r:id="rId20" xr:uid="{63D22E6F-E14B-4D91-8728-F37C61CFF5E9}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{38BAADA3-0500-4922-999A-8F5764526F2E}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{D8D0FC36-D8F1-4F24-A3C2-FE4538C75737}"/>
+    <hyperlink ref="J28" r:id="rId23" xr:uid="{469CD663-4780-4593-B89A-9BEA93A165EF}"/>
+    <hyperlink ref="J29" r:id="rId24" xr:uid="{1F7563A8-B4CB-45D6-BB09-47879E388659}"/>
+    <hyperlink ref="J34" r:id="rId25" xr:uid="{0187B08A-3E00-4899-9654-73C01F93D036}"/>
+    <hyperlink ref="J51" r:id="rId26" xr:uid="{9C0C16D7-8E5C-46CD-9E7A-1EF79EA97A20}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -5842,52 +5900,52 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="25.2">
+    <row r="6" spans="1:3" ht="24">
       <c r="B6" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="100.8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="84">
       <c r="B7" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5895,7 +5953,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5914,12 +5972,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="100.8">
+    <row r="11" spans="1:3" ht="84">
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5935,15 +5993,15 @@
         <v>62</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75.599999999999994">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72">
       <c r="B14" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5951,15 +6009,15 @@
         <v>64</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="37.799999999999997">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36">
       <c r="B16" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFA67E8-F787-4A00-A264-26EEF5E56D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC21E61F-4F02-453F-96CD-728615D696F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -13,88 +13,10 @@
     <sheet name="2.2. Checklist" sheetId="6" r:id="rId3"/>
     <sheet name="3.PCIDSS Correspondence Table" sheetId="7" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Revision History'!$A$1:$I$2</definedName>
-    <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="①">#REF!</definedName>
-    <definedName name="②">#REF!</definedName>
-    <definedName name="aaa">#REF!</definedName>
-    <definedName name="aaaaa">#REF!</definedName>
-    <definedName name="Action">#REF!</definedName>
-    <definedName name="ActionForm">#REF!</definedName>
-    <definedName name="boundary">#REF!</definedName>
-    <definedName name="btnSakusei_click">[1]!btnSakusei_click</definedName>
-    <definedName name="BusinessService">#REF!</definedName>
-    <definedName name="Crisテーブル一覧">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'Revision History'!#REF!</definedName>
-    <definedName name="DBI">#REF!</definedName>
-    <definedName name="DB名">#REF!</definedName>
-    <definedName name="ENID">#REF!</definedName>
-    <definedName name="ha">#REF!</definedName>
-    <definedName name="hahaha">#REF!</definedName>
-    <definedName name="hahahaha">#REF!</definedName>
-    <definedName name="NOTNULL">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.Overview'!$A$1:$AR$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.Overview'!$A$1:$AQ$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.2. Checklist'!$A$1:$L$60</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Revision History'!$1:$4</definedName>
-    <definedName name="RuleComponent">#REF!</definedName>
-    <definedName name="ｓｄ">#REF!</definedName>
-    <definedName name="ServiceComponent">#REF!</definedName>
-    <definedName name="sss">#REF!</definedName>
-    <definedName name="utility">#REF!</definedName>
-    <definedName name="ｖｖｖ">#REF!</definedName>
-    <definedName name="x">[2]画面対応表!$B$2:$E$12</definedName>
-    <definedName name="あ">#REF!</definedName>
-    <definedName name="ああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$185</definedName>
-    <definedName name="あああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$260</definedName>
-    <definedName name="ｲﾝｽﾀﾝｽ一覧0930">#REF!</definedName>
-    <definedName name="クエリ1">#REF!</definedName>
-    <definedName name="サブシステム名">#REF!</definedName>
-    <definedName name="システム名">#REF!</definedName>
-    <definedName name="ﾄﾞﾒｲﾝ一覧0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_実体･分析対象対応_0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_分析対象ﾌｨｰﾙﾄﾞ･情報項目対応_0930">#REF!</definedName>
-    <definedName name="画面一覧">#REF!</definedName>
-    <definedName name="画面一覧２">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="基本キー">#REF!</definedName>
-    <definedName name="基本用語一覧0930">#REF!</definedName>
-    <definedName name="更新者">#REF!</definedName>
-    <definedName name="更新日">#REF!</definedName>
-    <definedName name="行長">#REF!</definedName>
-    <definedName name="項目ID">#REF!</definedName>
-    <definedName name="項目No">#REF!</definedName>
-    <definedName name="項目名">#REF!</definedName>
-    <definedName name="最新版日本語名称基本">#REF!</definedName>
-    <definedName name="最新版日本語名称基本の重複レコード2">#REF!</definedName>
-    <definedName name="作成者">#REF!</definedName>
-    <definedName name="作成日">#REF!</definedName>
-    <definedName name="索引1">#REF!</definedName>
-    <definedName name="索引2">#REF!</definedName>
-    <definedName name="索引3">#REF!</definedName>
-    <definedName name="索引4">#REF!</definedName>
-    <definedName name="索引5">#REF!</definedName>
-    <definedName name="索引6">#REF!</definedName>
-    <definedName name="索引7">#REF!</definedName>
-    <definedName name="索引P">#REF!</definedName>
-    <definedName name="実体一覧0930">#REF!</definedName>
-    <definedName name="小数桁数">#REF!</definedName>
-    <definedName name="情報項目一覧0930">#REF!</definedName>
-    <definedName name="成果物一覧２" hidden="1">#REF!</definedName>
-    <definedName name="属性">#REF!</definedName>
-    <definedName name="備考">#REF!</definedName>
-    <definedName name="表ID">#REF!</definedName>
-    <definedName name="表の備考">#REF!</definedName>
-    <definedName name="表名">#REF!</definedName>
-    <definedName name="文書名">#REF!</definedName>
-    <definedName name="明細エリア">#REF!</definedName>
-    <definedName name="有効桁数">#REF!</definedName>
-    <definedName name="列長">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1717,7 +1639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1737,14 +1659,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1777,15 +1696,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1804,14 +1717,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1822,30 +1732,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1861,18 +1759,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1896,12 +1782,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1956,24 +1836,129 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1987,24 +1972,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,9 +1987,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2032,101 +1999,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2771,245 +2645,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="WorkingLisKANJIt"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="btnSakusei_click"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TRO管理"/>
-      <sheetName val="画面対応表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>MG111-01</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>MG111_default</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>給与指数キー指定画面</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>MG111-10</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>MG111_regist</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>給与指数詳細登録画面</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>MG111-11</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>給与指数登録結果画面</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>MG111-20</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>MG111_copykey</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>給与指数コピー元指定画面</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>MG111-21</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>給与指数詳細コピー登録画面</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>MG111-22</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>給与指数コピー登録結果画面</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>MG111-30</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>給与指数詳細変更画面</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>MG111-31</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>給与指数変更結果画面</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>MG111-40</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>MG111_inquiry</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>給与指数詳細照会画面</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>MG111-50</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>MG111_delentry</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>給与指数詳細削除画面</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>MG111-51</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>MG111_delresult</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>給与指数削除結果画面</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="１．当資料の位置付け"/>
-      <sheetName val="２．プラットフォーム"/>
-      <sheetName val="３．処理パターン"/>
-      <sheetName val="３．１．処理パターン一覧"/>
-      <sheetName val="３．２．処理方式別パターン詳細"/>
-      <sheetName val="３．２．１．リアルタイム処理"/>
-      <sheetName val="３．２．１．５．リアルタイム_ステレオタイプ"/>
-      <sheetName val="３．２．２．バッチ処理"/>
-      <sheetName val="３．２．３．センターカット処理"/>
-      <sheetName val="３．２．４．システム間連携処理"/>
-      <sheetName val="３．２．５．ディレード処理"/>
-      <sheetName val="３．２．６．ワークフロー処理"/>
-      <sheetName val="３．２．７．帳票処理"/>
-      <sheetName val="３．２．８．ＦＡＸ処理"/>
-      <sheetName val="３．２．９．イメージ処理"/>
-      <sheetName val="３．２．１０．ファイルアップロード"/>
-      <sheetName val="４．処理パターン組み合わせ"/>
-      <sheetName val="別紙１－１　画面オンライン（更新）の処理フロー"/>
-      <sheetName val="別紙１－２　画面オンライン（会話型）の処理フロー"/>
-      <sheetName val="別紙２ WF（案件情報新規登録パターン）の処理フロー"/>
-      <sheetName val="別紙３ WF（前進パターン）の処理フロー"/>
-      <sheetName val="別紙４ WF（承認パターン）の処理フロー"/>
-      <sheetName val="別紙５ WF(選択・ｽｷｯﾌﾟ）ﾊﾟﾀﾝの処理フロー"/>
-      <sheetName val="別紙６ WF（保留パターン）の処理フロー"/>
-      <sheetName val="別紙７ WF（破棄パターン）の処理フロー"/>
-      <sheetName val="別紙８ CC_WF（案件新規一括登録パターン）の処理フロー"/>
-      <sheetName val="別紙９－１　ファイルアップロード（リクエスト）の処理フロー"/>
-      <sheetName val="別紙９－２　ファイルアップロード（業務）の処理フロー"/>
-      <sheetName val="テンプレート"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="185">
-          <cell r="D185" t="str">
-            <v>（６）　《Service Component》ステレオタイプ</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="D260" t="str">
-            <v>（９）　《utility Component》ステレオタイプ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3340,886 +2975,886 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
-    <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.5" style="67" customWidth="1"/>
-    <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.75" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.5" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.625" style="67" customWidth="1"/>
-    <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.5" style="67" customWidth="1"/>
-    <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.75" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.5" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.625" style="67" customWidth="1"/>
-    <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.5" style="67" customWidth="1"/>
-    <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.75" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.5" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.625" style="67" customWidth="1"/>
-    <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5" style="67" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.75" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.5" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.625" style="67" customWidth="1"/>
-    <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5" style="67" customWidth="1"/>
-    <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.75" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.5" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.625" style="67" customWidth="1"/>
-    <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5" style="67" customWidth="1"/>
-    <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.75" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.5" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.625" style="67" customWidth="1"/>
-    <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5" style="67" customWidth="1"/>
-    <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.75" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.5" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.625" style="67" customWidth="1"/>
-    <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5" style="67" customWidth="1"/>
-    <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.75" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.5" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.625" style="67" customWidth="1"/>
-    <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5" style="67" customWidth="1"/>
-    <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.75" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.5" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.625" style="67" customWidth="1"/>
-    <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5" style="67" customWidth="1"/>
-    <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.75" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.5" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.625" style="67" customWidth="1"/>
-    <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5" style="67" customWidth="1"/>
-    <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.75" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.5" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.625" style="67" customWidth="1"/>
-    <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5" style="67" customWidth="1"/>
-    <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.75" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.5" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.625" style="67" customWidth="1"/>
-    <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5" style="67" customWidth="1"/>
-    <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.75" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.5" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.625" style="67" customWidth="1"/>
-    <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5" style="67" customWidth="1"/>
-    <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.75" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.5" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.625" style="67" customWidth="1"/>
-    <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5" style="67" customWidth="1"/>
-    <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.75" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.5" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.625" style="67" customWidth="1"/>
-    <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5" style="67" customWidth="1"/>
-    <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.75" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.5" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.625" style="67" customWidth="1"/>
-    <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5" style="67" customWidth="1"/>
-    <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.75" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.5" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.625" style="67" customWidth="1"/>
-    <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5" style="67" customWidth="1"/>
-    <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.75" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.5" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.625" style="67" customWidth="1"/>
-    <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5" style="67" customWidth="1"/>
-    <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.75" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.5" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.625" style="67" customWidth="1"/>
-    <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5" style="67" customWidth="1"/>
-    <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.75" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.5" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.625" style="67" customWidth="1"/>
-    <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5" style="67" customWidth="1"/>
-    <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.75" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.5" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.625" style="67" customWidth="1"/>
-    <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5" style="67" customWidth="1"/>
-    <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.75" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.5" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.625" style="67" customWidth="1"/>
-    <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5" style="67" customWidth="1"/>
-    <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.75" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.5" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.625" style="67" customWidth="1"/>
-    <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5" style="67" customWidth="1"/>
-    <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.75" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.5" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.625" style="67" customWidth="1"/>
-    <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5" style="67" customWidth="1"/>
-    <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.75" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.5" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.625" style="67" customWidth="1"/>
-    <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5" style="67" customWidth="1"/>
-    <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.75" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.5" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.625" style="67" customWidth="1"/>
-    <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5" style="67" customWidth="1"/>
-    <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.75" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.5" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.625" style="67" customWidth="1"/>
-    <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5" style="67" customWidth="1"/>
-    <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.75" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.5" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.625" style="67" customWidth="1"/>
-    <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5" style="67" customWidth="1"/>
-    <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.75" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.5" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.625" style="67" customWidth="1"/>
-    <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5" style="67" customWidth="1"/>
-    <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.75" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.5" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.625" style="67" customWidth="1"/>
-    <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5" style="67" customWidth="1"/>
-    <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.75" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.5" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.625" style="67" customWidth="1"/>
-    <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5" style="67" customWidth="1"/>
-    <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.75" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.5" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.625" style="67" customWidth="1"/>
-    <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5" style="67" customWidth="1"/>
-    <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.75" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.5" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.625" style="67" customWidth="1"/>
-    <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5" style="67" customWidth="1"/>
-    <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.75" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.5" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.625" style="67" customWidth="1"/>
-    <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5" style="67" customWidth="1"/>
-    <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.75" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.5" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.625" style="67" customWidth="1"/>
-    <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5" style="67" customWidth="1"/>
-    <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.75" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.5" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.625" style="67" customWidth="1"/>
-    <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5" style="67" customWidth="1"/>
-    <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.75" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.5" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.625" style="67" customWidth="1"/>
-    <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5" style="67" customWidth="1"/>
-    <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.75" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.5" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.625" style="67" customWidth="1"/>
-    <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5" style="67" customWidth="1"/>
-    <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.75" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.5" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.625" style="67" customWidth="1"/>
-    <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5" style="67" customWidth="1"/>
-    <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.75" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.5" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.625" style="67" customWidth="1"/>
-    <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5" style="67" customWidth="1"/>
-    <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.75" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.5" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.625" style="67" customWidth="1"/>
-    <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5" style="67" customWidth="1"/>
-    <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.75" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.5" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.625" style="67" customWidth="1"/>
-    <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5" style="67" customWidth="1"/>
-    <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.75" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.5" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.625" style="67" customWidth="1"/>
-    <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5" style="67" customWidth="1"/>
-    <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.75" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.5" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.625" style="67" customWidth="1"/>
-    <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5" style="67" customWidth="1"/>
-    <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.75" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.5" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.625" style="67" customWidth="1"/>
-    <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5" style="67" customWidth="1"/>
-    <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.75" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.5" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.625" style="67" customWidth="1"/>
-    <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5" style="67" customWidth="1"/>
-    <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.75" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.5" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.625" style="67" customWidth="1"/>
-    <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5" style="67" customWidth="1"/>
-    <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.75" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.5" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.625" style="67" customWidth="1"/>
-    <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5" style="67" customWidth="1"/>
-    <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.75" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.5" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.625" style="67" customWidth="1"/>
-    <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5" style="67" customWidth="1"/>
-    <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.75" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.5" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.625" style="67" customWidth="1"/>
-    <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5" style="67" customWidth="1"/>
-    <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.75" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.5" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.625" style="67" customWidth="1"/>
-    <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5" style="67" customWidth="1"/>
-    <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.75" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.5" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.625" style="67" customWidth="1"/>
-    <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5" style="67" customWidth="1"/>
-    <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.75" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.5" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.625" style="67" customWidth="1"/>
-    <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5" style="67" customWidth="1"/>
-    <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.75" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.5" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.625" style="67" customWidth="1"/>
-    <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5" style="67" customWidth="1"/>
-    <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.75" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.5" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.625" style="67" customWidth="1"/>
-    <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5" style="67" customWidth="1"/>
-    <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.75" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.5" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.625" style="67" customWidth="1"/>
-    <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5" style="67" customWidth="1"/>
-    <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.75" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.5" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.625" style="67" customWidth="1"/>
-    <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5" style="67" customWidth="1"/>
-    <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.75" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.5" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.625" style="67" customWidth="1"/>
-    <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5" style="67" customWidth="1"/>
-    <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.75" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.5" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.625" style="67" customWidth="1"/>
-    <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5" style="67" customWidth="1"/>
-    <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.75" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.5" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.625" style="67" customWidth="1"/>
-    <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5" style="67" customWidth="1"/>
-    <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.75" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.5" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.625" style="67" customWidth="1"/>
-    <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5" style="67" customWidth="1"/>
-    <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.75" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.5" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.625" style="67" customWidth="1"/>
-    <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5" style="67" customWidth="1"/>
-    <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.75" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.5" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.625" style="67" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="3.875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9" style="53" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="53" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="67" customWidth="1"/>
+    <col min="10" max="255" width="9" style="53"/>
+    <col min="256" max="256" width="3.875" style="53" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="53" customWidth="1"/>
+    <col min="258" max="258" width="9" style="53"/>
+    <col min="259" max="259" width="4.875" style="53" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="53" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="53" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="53" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="53" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="53" customWidth="1"/>
+    <col min="266" max="511" width="9" style="53"/>
+    <col min="512" max="512" width="3.875" style="53" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="53" customWidth="1"/>
+    <col min="514" max="514" width="9" style="53"/>
+    <col min="515" max="515" width="4.875" style="53" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="53" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="53" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="53" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="53" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="53" customWidth="1"/>
+    <col min="522" max="767" width="9" style="53"/>
+    <col min="768" max="768" width="3.875" style="53" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="53" customWidth="1"/>
+    <col min="770" max="770" width="9" style="53"/>
+    <col min="771" max="771" width="4.875" style="53" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="53" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="53" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="53" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="53" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="53" customWidth="1"/>
+    <col min="778" max="1023" width="9" style="53"/>
+    <col min="1024" max="1024" width="3.875" style="53" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="53" customWidth="1"/>
+    <col min="1026" max="1026" width="9" style="53"/>
+    <col min="1027" max="1027" width="4.875" style="53" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="53" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="53" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="53" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="53" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="53" customWidth="1"/>
+    <col min="1034" max="1279" width="9" style="53"/>
+    <col min="1280" max="1280" width="3.875" style="53" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="53" customWidth="1"/>
+    <col min="1282" max="1282" width="9" style="53"/>
+    <col min="1283" max="1283" width="4.875" style="53" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="53" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="53" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="53" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="53" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="53" customWidth="1"/>
+    <col min="1290" max="1535" width="9" style="53"/>
+    <col min="1536" max="1536" width="3.875" style="53" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="53" customWidth="1"/>
+    <col min="1538" max="1538" width="9" style="53"/>
+    <col min="1539" max="1539" width="4.875" style="53" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="53" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="53" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="53" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="53" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="53" customWidth="1"/>
+    <col min="1546" max="1791" width="9" style="53"/>
+    <col min="1792" max="1792" width="3.875" style="53" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="53" customWidth="1"/>
+    <col min="1794" max="1794" width="9" style="53"/>
+    <col min="1795" max="1795" width="4.875" style="53" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="53" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="53" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="53" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="53" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="53" customWidth="1"/>
+    <col min="1802" max="2047" width="9" style="53"/>
+    <col min="2048" max="2048" width="3.875" style="53" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="53" customWidth="1"/>
+    <col min="2050" max="2050" width="9" style="53"/>
+    <col min="2051" max="2051" width="4.875" style="53" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="53" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="53" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="53" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="53" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="53" customWidth="1"/>
+    <col min="2058" max="2303" width="9" style="53"/>
+    <col min="2304" max="2304" width="3.875" style="53" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="53" customWidth="1"/>
+    <col min="2306" max="2306" width="9" style="53"/>
+    <col min="2307" max="2307" width="4.875" style="53" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="53" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="53" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="53" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="53" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="53" customWidth="1"/>
+    <col min="2314" max="2559" width="9" style="53"/>
+    <col min="2560" max="2560" width="3.875" style="53" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="53" customWidth="1"/>
+    <col min="2562" max="2562" width="9" style="53"/>
+    <col min="2563" max="2563" width="4.875" style="53" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="53" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="53" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="53" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="53" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="53" customWidth="1"/>
+    <col min="2570" max="2815" width="9" style="53"/>
+    <col min="2816" max="2816" width="3.875" style="53" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="53" customWidth="1"/>
+    <col min="2818" max="2818" width="9" style="53"/>
+    <col min="2819" max="2819" width="4.875" style="53" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="53" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="53" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="53" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="53" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="53" customWidth="1"/>
+    <col min="2826" max="3071" width="9" style="53"/>
+    <col min="3072" max="3072" width="3.875" style="53" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="53" customWidth="1"/>
+    <col min="3074" max="3074" width="9" style="53"/>
+    <col min="3075" max="3075" width="4.875" style="53" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="53" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="53" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="53" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="53" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="53" customWidth="1"/>
+    <col min="3082" max="3327" width="9" style="53"/>
+    <col min="3328" max="3328" width="3.875" style="53" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="53" customWidth="1"/>
+    <col min="3330" max="3330" width="9" style="53"/>
+    <col min="3331" max="3331" width="4.875" style="53" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="53" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="53" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="53" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="53" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="53" customWidth="1"/>
+    <col min="3338" max="3583" width="9" style="53"/>
+    <col min="3584" max="3584" width="3.875" style="53" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="53" customWidth="1"/>
+    <col min="3586" max="3586" width="9" style="53"/>
+    <col min="3587" max="3587" width="4.875" style="53" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="53" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="53" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="53" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="53" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="53" customWidth="1"/>
+    <col min="3594" max="3839" width="9" style="53"/>
+    <col min="3840" max="3840" width="3.875" style="53" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="53" customWidth="1"/>
+    <col min="3842" max="3842" width="9" style="53"/>
+    <col min="3843" max="3843" width="4.875" style="53" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="53" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="53" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="53" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="53" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="53" customWidth="1"/>
+    <col min="3850" max="4095" width="9" style="53"/>
+    <col min="4096" max="4096" width="3.875" style="53" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="53" customWidth="1"/>
+    <col min="4098" max="4098" width="9" style="53"/>
+    <col min="4099" max="4099" width="4.875" style="53" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="53" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="53" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="53" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="53" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="53" customWidth="1"/>
+    <col min="4106" max="4351" width="9" style="53"/>
+    <col min="4352" max="4352" width="3.875" style="53" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="53" customWidth="1"/>
+    <col min="4354" max="4354" width="9" style="53"/>
+    <col min="4355" max="4355" width="4.875" style="53" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="53" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="53" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="53" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="53" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="53" customWidth="1"/>
+    <col min="4362" max="4607" width="9" style="53"/>
+    <col min="4608" max="4608" width="3.875" style="53" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="53" customWidth="1"/>
+    <col min="4610" max="4610" width="9" style="53"/>
+    <col min="4611" max="4611" width="4.875" style="53" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="53" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="53" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="53" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="53" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="53" customWidth="1"/>
+    <col min="4618" max="4863" width="9" style="53"/>
+    <col min="4864" max="4864" width="3.875" style="53" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="53" customWidth="1"/>
+    <col min="4866" max="4866" width="9" style="53"/>
+    <col min="4867" max="4867" width="4.875" style="53" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="53" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="53" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="53" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="53" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="53" customWidth="1"/>
+    <col min="4874" max="5119" width="9" style="53"/>
+    <col min="5120" max="5120" width="3.875" style="53" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="53" customWidth="1"/>
+    <col min="5122" max="5122" width="9" style="53"/>
+    <col min="5123" max="5123" width="4.875" style="53" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="53" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="53" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="53" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="53" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="53" customWidth="1"/>
+    <col min="5130" max="5375" width="9" style="53"/>
+    <col min="5376" max="5376" width="3.875" style="53" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="53" customWidth="1"/>
+    <col min="5378" max="5378" width="9" style="53"/>
+    <col min="5379" max="5379" width="4.875" style="53" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="53" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="53" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="53" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="53" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="53" customWidth="1"/>
+    <col min="5386" max="5631" width="9" style="53"/>
+    <col min="5632" max="5632" width="3.875" style="53" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="53" customWidth="1"/>
+    <col min="5634" max="5634" width="9" style="53"/>
+    <col min="5635" max="5635" width="4.875" style="53" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="53" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="53" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="53" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="53" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="53" customWidth="1"/>
+    <col min="5642" max="5887" width="9" style="53"/>
+    <col min="5888" max="5888" width="3.875" style="53" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="53" customWidth="1"/>
+    <col min="5890" max="5890" width="9" style="53"/>
+    <col min="5891" max="5891" width="4.875" style="53" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="53" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="53" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="53" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="53" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="53" customWidth="1"/>
+    <col min="5898" max="6143" width="9" style="53"/>
+    <col min="6144" max="6144" width="3.875" style="53" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="53" customWidth="1"/>
+    <col min="6146" max="6146" width="9" style="53"/>
+    <col min="6147" max="6147" width="4.875" style="53" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="53" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="53" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="53" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="53" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="53" customWidth="1"/>
+    <col min="6154" max="6399" width="9" style="53"/>
+    <col min="6400" max="6400" width="3.875" style="53" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="53" customWidth="1"/>
+    <col min="6402" max="6402" width="9" style="53"/>
+    <col min="6403" max="6403" width="4.875" style="53" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="53" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="53" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="53" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="53" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="53" customWidth="1"/>
+    <col min="6410" max="6655" width="9" style="53"/>
+    <col min="6656" max="6656" width="3.875" style="53" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="53" customWidth="1"/>
+    <col min="6658" max="6658" width="9" style="53"/>
+    <col min="6659" max="6659" width="4.875" style="53" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="53" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="53" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="53" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="53" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="53" customWidth="1"/>
+    <col min="6666" max="6911" width="9" style="53"/>
+    <col min="6912" max="6912" width="3.875" style="53" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="53" customWidth="1"/>
+    <col min="6914" max="6914" width="9" style="53"/>
+    <col min="6915" max="6915" width="4.875" style="53" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="53" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="53" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="53" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="53" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="53" customWidth="1"/>
+    <col min="6922" max="7167" width="9" style="53"/>
+    <col min="7168" max="7168" width="3.875" style="53" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="53" customWidth="1"/>
+    <col min="7170" max="7170" width="9" style="53"/>
+    <col min="7171" max="7171" width="4.875" style="53" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="53" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="53" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="53" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="53" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="53" customWidth="1"/>
+    <col min="7178" max="7423" width="9" style="53"/>
+    <col min="7424" max="7424" width="3.875" style="53" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="53" customWidth="1"/>
+    <col min="7426" max="7426" width="9" style="53"/>
+    <col min="7427" max="7427" width="4.875" style="53" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="53" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="53" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="53" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="53" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="53" customWidth="1"/>
+    <col min="7434" max="7679" width="9" style="53"/>
+    <col min="7680" max="7680" width="3.875" style="53" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="53" customWidth="1"/>
+    <col min="7682" max="7682" width="9" style="53"/>
+    <col min="7683" max="7683" width="4.875" style="53" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="53" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="53" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="53" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="53" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="53" customWidth="1"/>
+    <col min="7690" max="7935" width="9" style="53"/>
+    <col min="7936" max="7936" width="3.875" style="53" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="53" customWidth="1"/>
+    <col min="7938" max="7938" width="9" style="53"/>
+    <col min="7939" max="7939" width="4.875" style="53" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="53" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="53" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="53" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="53" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="53" customWidth="1"/>
+    <col min="7946" max="8191" width="9" style="53"/>
+    <col min="8192" max="8192" width="3.875" style="53" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="53" customWidth="1"/>
+    <col min="8194" max="8194" width="9" style="53"/>
+    <col min="8195" max="8195" width="4.875" style="53" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="53" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="53" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="53" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="53" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="53" customWidth="1"/>
+    <col min="8202" max="8447" width="9" style="53"/>
+    <col min="8448" max="8448" width="3.875" style="53" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="53" customWidth="1"/>
+    <col min="8450" max="8450" width="9" style="53"/>
+    <col min="8451" max="8451" width="4.875" style="53" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="53" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="53" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="53" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="53" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="53" customWidth="1"/>
+    <col min="8458" max="8703" width="9" style="53"/>
+    <col min="8704" max="8704" width="3.875" style="53" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="53" customWidth="1"/>
+    <col min="8706" max="8706" width="9" style="53"/>
+    <col min="8707" max="8707" width="4.875" style="53" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="53" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="53" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="53" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="53" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="53" customWidth="1"/>
+    <col min="8714" max="8959" width="9" style="53"/>
+    <col min="8960" max="8960" width="3.875" style="53" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="53" customWidth="1"/>
+    <col min="8962" max="8962" width="9" style="53"/>
+    <col min="8963" max="8963" width="4.875" style="53" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="53" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="53" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="53" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="53" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="53" customWidth="1"/>
+    <col min="8970" max="9215" width="9" style="53"/>
+    <col min="9216" max="9216" width="3.875" style="53" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="53" customWidth="1"/>
+    <col min="9218" max="9218" width="9" style="53"/>
+    <col min="9219" max="9219" width="4.875" style="53" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="53" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="53" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="53" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="53" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="53" customWidth="1"/>
+    <col min="9226" max="9471" width="9" style="53"/>
+    <col min="9472" max="9472" width="3.875" style="53" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="53" customWidth="1"/>
+    <col min="9474" max="9474" width="9" style="53"/>
+    <col min="9475" max="9475" width="4.875" style="53" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="53" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="53" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="53" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="53" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="53" customWidth="1"/>
+    <col min="9482" max="9727" width="9" style="53"/>
+    <col min="9728" max="9728" width="3.875" style="53" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="53" customWidth="1"/>
+    <col min="9730" max="9730" width="9" style="53"/>
+    <col min="9731" max="9731" width="4.875" style="53" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="53" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="53" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="53" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="53" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="53" customWidth="1"/>
+    <col min="9738" max="9983" width="9" style="53"/>
+    <col min="9984" max="9984" width="3.875" style="53" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="53" customWidth="1"/>
+    <col min="9986" max="9986" width="9" style="53"/>
+    <col min="9987" max="9987" width="4.875" style="53" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="53" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="53" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="53" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="53" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="53" customWidth="1"/>
+    <col min="9994" max="10239" width="9" style="53"/>
+    <col min="10240" max="10240" width="3.875" style="53" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="53" customWidth="1"/>
+    <col min="10242" max="10242" width="9" style="53"/>
+    <col min="10243" max="10243" width="4.875" style="53" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="53" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="53" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="53" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="53" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="53" customWidth="1"/>
+    <col min="10250" max="10495" width="9" style="53"/>
+    <col min="10496" max="10496" width="3.875" style="53" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="53" customWidth="1"/>
+    <col min="10498" max="10498" width="9" style="53"/>
+    <col min="10499" max="10499" width="4.875" style="53" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="53" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="53" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="53" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="53" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="53" customWidth="1"/>
+    <col min="10506" max="10751" width="9" style="53"/>
+    <col min="10752" max="10752" width="3.875" style="53" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="53" customWidth="1"/>
+    <col min="10754" max="10754" width="9" style="53"/>
+    <col min="10755" max="10755" width="4.875" style="53" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="53" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="53" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="53" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="53" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="53" customWidth="1"/>
+    <col min="10762" max="11007" width="9" style="53"/>
+    <col min="11008" max="11008" width="3.875" style="53" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="53" customWidth="1"/>
+    <col min="11010" max="11010" width="9" style="53"/>
+    <col min="11011" max="11011" width="4.875" style="53" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="53" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="53" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="53" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="53" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="53" customWidth="1"/>
+    <col min="11018" max="11263" width="9" style="53"/>
+    <col min="11264" max="11264" width="3.875" style="53" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="53" customWidth="1"/>
+    <col min="11266" max="11266" width="9" style="53"/>
+    <col min="11267" max="11267" width="4.875" style="53" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="53" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="53" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="53" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="53" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="53" customWidth="1"/>
+    <col min="11274" max="11519" width="9" style="53"/>
+    <col min="11520" max="11520" width="3.875" style="53" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="53" customWidth="1"/>
+    <col min="11522" max="11522" width="9" style="53"/>
+    <col min="11523" max="11523" width="4.875" style="53" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="53" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="53" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="53" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="53" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="53" customWidth="1"/>
+    <col min="11530" max="11775" width="9" style="53"/>
+    <col min="11776" max="11776" width="3.875" style="53" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="53" customWidth="1"/>
+    <col min="11778" max="11778" width="9" style="53"/>
+    <col min="11779" max="11779" width="4.875" style="53" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="53" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="53" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="53" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="53" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="53" customWidth="1"/>
+    <col min="11786" max="12031" width="9" style="53"/>
+    <col min="12032" max="12032" width="3.875" style="53" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="53" customWidth="1"/>
+    <col min="12034" max="12034" width="9" style="53"/>
+    <col min="12035" max="12035" width="4.875" style="53" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="53" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="53" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="53" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="53" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="53" customWidth="1"/>
+    <col min="12042" max="12287" width="9" style="53"/>
+    <col min="12288" max="12288" width="3.875" style="53" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="53" customWidth="1"/>
+    <col min="12290" max="12290" width="9" style="53"/>
+    <col min="12291" max="12291" width="4.875" style="53" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="53" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="53" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="53" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="53" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="53" customWidth="1"/>
+    <col min="12298" max="12543" width="9" style="53"/>
+    <col min="12544" max="12544" width="3.875" style="53" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="53" customWidth="1"/>
+    <col min="12546" max="12546" width="9" style="53"/>
+    <col min="12547" max="12547" width="4.875" style="53" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="53" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="53" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="53" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="53" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="53" customWidth="1"/>
+    <col min="12554" max="12799" width="9" style="53"/>
+    <col min="12800" max="12800" width="3.875" style="53" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="53" customWidth="1"/>
+    <col min="12802" max="12802" width="9" style="53"/>
+    <col min="12803" max="12803" width="4.875" style="53" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="53" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="53" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="53" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="53" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="53" customWidth="1"/>
+    <col min="12810" max="13055" width="9" style="53"/>
+    <col min="13056" max="13056" width="3.875" style="53" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="53" customWidth="1"/>
+    <col min="13058" max="13058" width="9" style="53"/>
+    <col min="13059" max="13059" width="4.875" style="53" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="53" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="53" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="53" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="53" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="53" customWidth="1"/>
+    <col min="13066" max="13311" width="9" style="53"/>
+    <col min="13312" max="13312" width="3.875" style="53" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="53" customWidth="1"/>
+    <col min="13314" max="13314" width="9" style="53"/>
+    <col min="13315" max="13315" width="4.875" style="53" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="53" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="53" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="53" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="53" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="53" customWidth="1"/>
+    <col min="13322" max="13567" width="9" style="53"/>
+    <col min="13568" max="13568" width="3.875" style="53" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="53" customWidth="1"/>
+    <col min="13570" max="13570" width="9" style="53"/>
+    <col min="13571" max="13571" width="4.875" style="53" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="53" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="53" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="53" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="53" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="53" customWidth="1"/>
+    <col min="13578" max="13823" width="9" style="53"/>
+    <col min="13824" max="13824" width="3.875" style="53" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="53" customWidth="1"/>
+    <col min="13826" max="13826" width="9" style="53"/>
+    <col min="13827" max="13827" width="4.875" style="53" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="53" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="53" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="53" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="53" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="53" customWidth="1"/>
+    <col min="13834" max="14079" width="9" style="53"/>
+    <col min="14080" max="14080" width="3.875" style="53" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="53" customWidth="1"/>
+    <col min="14082" max="14082" width="9" style="53"/>
+    <col min="14083" max="14083" width="4.875" style="53" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="53" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="53" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="53" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="53" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="53" customWidth="1"/>
+    <col min="14090" max="14335" width="9" style="53"/>
+    <col min="14336" max="14336" width="3.875" style="53" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="53" customWidth="1"/>
+    <col min="14338" max="14338" width="9" style="53"/>
+    <col min="14339" max="14339" width="4.875" style="53" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="53" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="53" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="53" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="53" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="53" customWidth="1"/>
+    <col min="14346" max="14591" width="9" style="53"/>
+    <col min="14592" max="14592" width="3.875" style="53" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="53" customWidth="1"/>
+    <col min="14594" max="14594" width="9" style="53"/>
+    <col min="14595" max="14595" width="4.875" style="53" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="53" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="53" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="53" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="53" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="53" customWidth="1"/>
+    <col min="14602" max="14847" width="9" style="53"/>
+    <col min="14848" max="14848" width="3.875" style="53" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="53" customWidth="1"/>
+    <col min="14850" max="14850" width="9" style="53"/>
+    <col min="14851" max="14851" width="4.875" style="53" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="53" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="53" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="53" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="53" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="53" customWidth="1"/>
+    <col min="14858" max="15103" width="9" style="53"/>
+    <col min="15104" max="15104" width="3.875" style="53" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="53" customWidth="1"/>
+    <col min="15106" max="15106" width="9" style="53"/>
+    <col min="15107" max="15107" width="4.875" style="53" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="53" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="53" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="53" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="53" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="53" customWidth="1"/>
+    <col min="15114" max="15359" width="9" style="53"/>
+    <col min="15360" max="15360" width="3.875" style="53" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="53" customWidth="1"/>
+    <col min="15362" max="15362" width="9" style="53"/>
+    <col min="15363" max="15363" width="4.875" style="53" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="53" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="53" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="53" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="53" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="53" customWidth="1"/>
+    <col min="15370" max="15615" width="9" style="53"/>
+    <col min="15616" max="15616" width="3.875" style="53" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="53" customWidth="1"/>
+    <col min="15618" max="15618" width="9" style="53"/>
+    <col min="15619" max="15619" width="4.875" style="53" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="53" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="53" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="53" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="53" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="53" customWidth="1"/>
+    <col min="15626" max="15871" width="9" style="53"/>
+    <col min="15872" max="15872" width="3.875" style="53" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="53" customWidth="1"/>
+    <col min="15874" max="15874" width="9" style="53"/>
+    <col min="15875" max="15875" width="4.875" style="53" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="53" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="53" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="53" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="53" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="53" customWidth="1"/>
+    <col min="15882" max="16127" width="9" style="53"/>
+    <col min="16128" max="16128" width="3.875" style="53" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="53" customWidth="1"/>
+    <col min="16130" max="16130" width="9" style="53"/>
+    <col min="16131" max="16131" width="4.875" style="53" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="53" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="53" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="53" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="53" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="53" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="68"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" s="69" customFormat="1">
-      <c r="A3" s="88" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" s="55" customFormat="1">
+      <c r="A3" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="71" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="70" t="s">
+    <row r="4" spans="1:9" s="55" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="87"/>
-    </row>
-    <row r="5" spans="1:9" s="74" customFormat="1">
-      <c r="A5" s="71">
+      <c r="F4" s="72"/>
+      <c r="G4" s="71"/>
+    </row>
+    <row r="5" spans="1:9" s="60" customFormat="1">
+      <c r="A5" s="57">
         <v>1</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="59">
         <v>41547</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="71" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="42.75">
-      <c r="A6" s="71">
+    <row r="6" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A6" s="57">
         <v>2</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="61">
         <v>43949</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="42.75">
-      <c r="A7" s="71">
+    <row r="7" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A7" s="57">
         <v>3</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="61">
         <v>43970</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="76" customFormat="1" ht="42.75">
-      <c r="A8" s="71">
+    <row r="8" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A8" s="57">
         <v>4</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="61">
         <v>44791</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="76" customFormat="1" ht="42.75">
-      <c r="A9" s="71">
+    <row r="9" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A9" s="57">
         <v>5</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="61">
         <v>44791</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="76" customFormat="1">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:9" s="62" customFormat="1">
+      <c r="A10" s="53" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="79" customFormat="1" ht="18.75">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="I11" s="80"/>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="18.75">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="I11" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4237,7 +3872,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.82677165354330717" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;10TISインテックグループ外秘</oddHeader>
     <oddFooter>&amp;L
@@ -4254,112 +3889,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="20"/>
+    <col min="1" max="16384" width="2.625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="68" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="3:10">
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="3:10">
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="3:10">
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4383,7 +4018,7 @@
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4440,96 +4075,96 @@
     <row r="7" spans="1:12" ht="17.25" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="116" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="116" t="s">
+      <c r="K8" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="107" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" thickBot="1">
-      <c r="B9" s="90"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="34" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="132"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="108"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="93">
+      <c r="B10" s="81">
         <v>1</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="76"/>
+      <c r="E10" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="99" t="s">
+      <c r="L10" s="115" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="95"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="24" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -4538,43 +4173,43 @@
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L11" s="100"/>
+      <c r="L11" s="116"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="22" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="5" t="s">
         <v>154</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L12" s="100"/>
+      <c r="L12" s="116"/>
     </row>
     <row r="13" spans="1:12" ht="36">
-      <c r="B13" s="95"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="7" t="s">
         <v>155</v>
       </c>
@@ -4588,327 +4223,327 @@
       <c r="I13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L13" s="100"/>
+      <c r="L13" s="116"/>
     </row>
     <row r="14" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="30" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="L14" s="101"/>
+      <c r="L14" s="117"/>
     </row>
     <row r="15" spans="1:12" ht="36">
-      <c r="B15" s="93">
+      <c r="B15" s="81">
         <v>2</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="35" t="s">
+      <c r="D15" s="76"/>
+      <c r="E15" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L15" s="97" t="s">
+      <c r="L15" s="86" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="48.75" thickBot="1">
-      <c r="B16" s="113"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="40" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="L16" s="98"/>
+      <c r="L16" s="94"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="93">
+      <c r="B17" s="81">
         <v>3</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="105" t="s">
+      <c r="D17" s="76"/>
+      <c r="E17" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="102" t="s">
+      <c r="G17" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="124" t="s">
+      <c r="I17" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="120" t="s">
+      <c r="K17" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="L17" s="97" t="s">
+      <c r="L17" s="86" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="85" t="s">
+      <c r="B18" s="114"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="119"/>
-      <c r="L18" s="133"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="109"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="95"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="126" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="122" t="s">
+      <c r="H19" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="121" t="s">
+      <c r="I19" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="119" t="s">
+      <c r="K19" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="L19" s="114"/>
+      <c r="L19" s="87"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="95"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="85" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="114"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="87"/>
     </row>
     <row r="21" spans="2:12" ht="36">
-      <c r="B21" s="95"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="49" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="L21" s="114"/>
+      <c r="L21" s="87"/>
     </row>
     <row r="22" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B22" s="96"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="50" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="33" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="85" t="s">
+      <c r="J22" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L22" s="115"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B23" s="93">
+      <c r="B23" s="81">
         <v>4</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="35" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
+      <c r="G23" s="23"/>
+      <c r="H23" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L23" s="97" t="s">
+      <c r="L23" s="86" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B24" s="95"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="22" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="5" t="s">
         <v>168</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L24" s="114"/>
+      <c r="L24" s="87"/>
     </row>
     <row r="25" spans="2:12" ht="36">
-      <c r="B25" s="95"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="22" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="5" t="s">
         <v>169</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L25" s="114"/>
+      <c r="L25" s="87"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="95"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="128" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="130" t="s">
+      <c r="F26" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -4917,21 +4552,21 @@
       <c r="I26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="L26" s="114"/>
+      <c r="L26" s="87"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="95"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="24" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -4940,468 +4575,468 @@
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="134" t="s">
+      <c r="J27" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="135"/>
-      <c r="L27" s="114"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="87"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="95"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="21" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="10" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L28" s="114"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B29" s="96"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="36" t="s">
+      <c r="B29" s="82"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="33" t="s">
+      <c r="G29" s="28"/>
+      <c r="H29" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="53" t="s">
+      <c r="J29" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L29" s="115"/>
+      <c r="L29" s="88"/>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="93">
+      <c r="B30" s="81">
         <v>5</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L30" s="97" t="s">
+      <c r="L30" s="86" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="95"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="84" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="5" t="s">
         <v>179</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L31" s="114"/>
+      <c r="L31" s="87"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="95"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="84" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="5" t="s">
         <v>180</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L32" s="114"/>
+      <c r="L32" s="87"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="95"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="84" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L33" s="114"/>
+      <c r="L33" s="87"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="95"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="21" t="s">
+      <c r="B34" s="84"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
         <v>182</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="85" t="s">
+      <c r="J34" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L34" s="114"/>
+      <c r="L34" s="87"/>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="95"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="110" t="s">
+      <c r="B35" s="84"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="5" t="s">
         <v>183</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="L35" s="114" t="s">
+      <c r="L35" s="87" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="95"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="21" t="s">
+      <c r="B36" s="84"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="9" t="s">
         <v>184</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L36" s="114"/>
+      <c r="L36" s="87"/>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="95"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="110" t="s">
+      <c r="B37" s="84"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="5" t="s">
         <v>185</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="54" t="s">
+      <c r="J37" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L37" s="114" t="s">
+      <c r="L37" s="87" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="36">
-      <c r="B38" s="95"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="21" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="23"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="9" t="s">
         <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L38" s="114"/>
+      <c r="L38" s="87"/>
     </row>
     <row r="39" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B39" s="96"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="36" t="s">
+      <c r="B39" s="82"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="32" t="s">
+      <c r="G39" s="28"/>
+      <c r="H39" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="59" t="s">
+      <c r="J39" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L39" s="115"/>
+      <c r="L39" s="88"/>
     </row>
     <row r="40" spans="2:12" ht="84">
-      <c r="B40" s="93">
+      <c r="B40" s="81">
         <v>6</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="127" t="s">
+      <c r="D40" s="76"/>
+      <c r="E40" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="129" t="s">
+      <c r="F40" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K40" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L40" s="97" t="s">
+      <c r="L40" s="86" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="48">
-      <c r="B41" s="95"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="24" t="s">
+      <c r="B41" s="84"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>189</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="134" t="s">
+      <c r="J41" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="K41" s="135"/>
-      <c r="L41" s="114"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="87"/>
     </row>
     <row r="42" spans="2:12" ht="24">
-      <c r="B42" s="95"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="24" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>190</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="134" t="s">
+      <c r="J42" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="K42" s="135"/>
-      <c r="L42" s="114"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="87"/>
     </row>
     <row r="43" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="36" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="39" t="s">
+      <c r="G43" s="28"/>
+      <c r="H43" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="33" t="s">
+      <c r="K43" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="L43" s="115"/>
+      <c r="L43" s="88"/>
     </row>
     <row r="44" spans="2:12" ht="48">
-      <c r="B44" s="93">
+      <c r="B44" s="81">
         <v>7</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="127" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="129" t="s">
+      <c r="F44" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="J44" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K44" s="29" t="s">
+      <c r="K44" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L44" s="97" t="s">
+      <c r="L44" s="86" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="60">
-      <c r="B45" s="95"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="24" t="s">
+      <c r="B45" s="84"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -5410,77 +5045,77 @@
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="134" t="s">
+      <c r="J45" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="135"/>
-      <c r="L45" s="114"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="87"/>
     </row>
     <row r="46" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B46" s="96"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="36" t="s">
+      <c r="B46" s="82"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="32" t="s">
+      <c r="G46" s="28"/>
+      <c r="H46" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="L46" s="115"/>
+      <c r="L46" s="88"/>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="93">
+      <c r="B47" s="81">
         <v>8</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="127" t="s">
+      <c r="D47" s="76"/>
+      <c r="E47" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="129" t="s">
+      <c r="F47" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I47" s="28" t="s">
+      <c r="I47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="53" t="s">
+      <c r="J47" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="L47" s="97" t="s">
+      <c r="L47" s="86" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="95"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="24" t="s">
+      <c r="B48" s="84"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="21" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -5489,104 +5124,104 @@
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="54" t="s">
+      <c r="J48" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="L48" s="114"/>
+      <c r="L48" s="87"/>
     </row>
     <row r="49" spans="2:12" ht="36">
-      <c r="B49" s="95"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="22" t="s">
+      <c r="B49" s="84"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="24"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L49" s="114"/>
+      <c r="L49" s="87"/>
     </row>
     <row r="50" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B50" s="113"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="40" t="s">
+      <c r="B50" s="85"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="F50" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43" t="s">
+      <c r="G50" s="35"/>
+      <c r="H50" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="44" t="s">
+      <c r="J50" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="44" t="s">
+      <c r="K50" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="L50" s="98"/>
+      <c r="L50" s="94"/>
     </row>
     <row r="51" spans="2:12" ht="48">
-      <c r="B51" s="93">
+      <c r="B51" s="81">
         <v>9</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="108"/>
-      <c r="E51" s="127" t="s">
+      <c r="D51" s="76"/>
+      <c r="E51" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="129" t="s">
+      <c r="F51" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="I51" s="28" t="s">
+      <c r="I51" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J51" s="57" t="s">
+      <c r="J51" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="K51" s="86" t="s">
+      <c r="K51" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="L51" s="97" t="s">
+      <c r="L51" s="86" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="48">
-      <c r="B52" s="95"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="24" t="s">
+      <c r="B52" s="84"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="21" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -5595,77 +5230,77 @@
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="134" t="s">
+      <c r="J52" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="114"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="87"/>
     </row>
     <row r="53" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B53" s="96"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="30" t="s">
+      <c r="B53" s="82"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F53" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32" t="s">
+      <c r="G53" s="28"/>
+      <c r="H53" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="33" t="s">
+      <c r="J53" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="L53" s="115"/>
+      <c r="L53" s="88"/>
     </row>
     <row r="54" spans="2:12" ht="24">
-      <c r="B54" s="93">
+      <c r="B54" s="81">
         <v>10</v>
       </c>
-      <c r="C54" s="108" t="s">
+      <c r="C54" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="108"/>
-      <c r="E54" s="127" t="s">
+      <c r="D54" s="76"/>
+      <c r="E54" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="129" t="s">
+      <c r="F54" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="29" t="s">
+      <c r="K54" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="L54" s="97" t="s">
+      <c r="L54" s="86" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="95"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="24" t="s">
+      <c r="B55" s="84"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="21" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
@@ -5674,103 +5309,103 @@
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L55" s="114"/>
+      <c r="L55" s="87"/>
     </row>
     <row r="56" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B56" s="96"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="45" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="47" t="s">
+      <c r="G56" s="38"/>
+      <c r="H56" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="33" t="s">
+      <c r="J56" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="K56" s="33" t="s">
+      <c r="K56" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L56" s="115"/>
+      <c r="L56" s="88"/>
     </row>
     <row r="57" spans="2:12" ht="60">
-      <c r="B57" s="93">
+      <c r="B57" s="81">
         <v>11</v>
       </c>
-      <c r="C57" s="108" t="s">
+      <c r="C57" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="108"/>
-      <c r="E57" s="35" t="s">
+      <c r="D57" s="76"/>
+      <c r="E57" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27" t="s">
+      <c r="G57" s="23"/>
+      <c r="H57" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="I57" s="28" t="s">
+      <c r="I57" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="53" t="s">
+      <c r="J57" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="29" t="s">
+      <c r="K57" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="L57" s="97" t="s">
+      <c r="L57" s="86" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="48.75" thickBot="1">
-      <c r="B58" s="96"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="45" t="s">
+      <c r="B58" s="82"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="47" t="s">
+      <c r="G58" s="38"/>
+      <c r="H58" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="J58" s="59" t="s">
+      <c r="J58" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L58" s="115"/>
+      <c r="L58" s="88"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="139" t="s">
+      <c r="F59" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
-      <c r="J59" s="12"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="4"/>
@@ -5783,13 +5418,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="F44:F45"/>
@@ -5806,57 +5485,13 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5902,121 +5537,121 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="50" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="24">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="48" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="16" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="15" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="84">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="16" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="49" t="s">
         <v>217</v>
       </c>
     </row>

--- a/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
+++ b/en/Sample_Project/Design_Document/Nablarch_function_security_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC773C-1EA9-4482-95C8-97AD49F5CD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC21E61F-4F02-453F-96CD-728615D696F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="9" r:id="rId1"/>
@@ -13,88 +13,10 @@
     <sheet name="2.2. Checklist" sheetId="6" r:id="rId3"/>
     <sheet name="3.PCIDSS Correspondence Table" sheetId="7" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Revision History'!$A$1:$I$2</definedName>
-    <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="①">#REF!</definedName>
-    <definedName name="②">#REF!</definedName>
-    <definedName name="aaa">#REF!</definedName>
-    <definedName name="aaaaa">#REF!</definedName>
-    <definedName name="Action">#REF!</definedName>
-    <definedName name="ActionForm">#REF!</definedName>
-    <definedName name="boundary">#REF!</definedName>
-    <definedName name="btnSakusei_click">[1]!btnSakusei_click</definedName>
-    <definedName name="BusinessService">#REF!</definedName>
-    <definedName name="Crisテーブル一覧">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'Revision History'!#REF!</definedName>
-    <definedName name="DBI">#REF!</definedName>
-    <definedName name="DB名">#REF!</definedName>
-    <definedName name="ENID">#REF!</definedName>
-    <definedName name="ha">#REF!</definedName>
-    <definedName name="hahaha">#REF!</definedName>
-    <definedName name="hahahaha">#REF!</definedName>
-    <definedName name="NOTNULL">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.Overview'!$A$1:$AR$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.Overview'!$A$1:$AQ$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.2. Checklist'!$A$1:$L$60</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Revision History'!$1:$4</definedName>
-    <definedName name="RuleComponent">#REF!</definedName>
-    <definedName name="ｓｄ">#REF!</definedName>
-    <definedName name="ServiceComponent">#REF!</definedName>
-    <definedName name="sss">#REF!</definedName>
-    <definedName name="utility">#REF!</definedName>
-    <definedName name="ｖｖｖ">#REF!</definedName>
-    <definedName name="x">[2]画面対応表!$B$2:$E$12</definedName>
-    <definedName name="あ">#REF!</definedName>
-    <definedName name="ああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$185</definedName>
-    <definedName name="あああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$260</definedName>
-    <definedName name="ｲﾝｽﾀﾝｽ一覧0930">#REF!</definedName>
-    <definedName name="クエリ1">#REF!</definedName>
-    <definedName name="サブシステム名">#REF!</definedName>
-    <definedName name="システム名">#REF!</definedName>
-    <definedName name="ﾄﾞﾒｲﾝ一覧0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_実体･分析対象対応_0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_分析対象ﾌｨｰﾙﾄﾞ･情報項目対応_0930">#REF!</definedName>
-    <definedName name="画面一覧">#REF!</definedName>
-    <definedName name="画面一覧２">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="基本キー">#REF!</definedName>
-    <definedName name="基本用語一覧0930">#REF!</definedName>
-    <definedName name="更新者">#REF!</definedName>
-    <definedName name="更新日">#REF!</definedName>
-    <definedName name="行長">#REF!</definedName>
-    <definedName name="項目ID">#REF!</definedName>
-    <definedName name="項目No">#REF!</definedName>
-    <definedName name="項目名">#REF!</definedName>
-    <definedName name="最新版日本語名称基本">#REF!</definedName>
-    <definedName name="最新版日本語名称基本の重複レコード2">#REF!</definedName>
-    <definedName name="作成者">#REF!</definedName>
-    <definedName name="作成日">#REF!</definedName>
-    <definedName name="索引1">#REF!</definedName>
-    <definedName name="索引2">#REF!</definedName>
-    <definedName name="索引3">#REF!</definedName>
-    <definedName name="索引4">#REF!</definedName>
-    <definedName name="索引5">#REF!</definedName>
-    <definedName name="索引6">#REF!</definedName>
-    <definedName name="索引7">#REF!</definedName>
-    <definedName name="索引P">#REF!</definedName>
-    <definedName name="実体一覧0930">#REF!</definedName>
-    <definedName name="小数桁数">#REF!</definedName>
-    <definedName name="情報項目一覧0930">#REF!</definedName>
-    <definedName name="成果物一覧２" hidden="1">#REF!</definedName>
-    <definedName name="属性">#REF!</definedName>
-    <definedName name="備考">#REF!</definedName>
-    <definedName name="表ID">#REF!</definedName>
-    <definedName name="表の備考">#REF!</definedName>
-    <definedName name="表名">#REF!</definedName>
-    <definedName name="文書名">#REF!</definedName>
-    <definedName name="明細エリア">#REF!</definedName>
-    <definedName name="有効桁数">#REF!</definedName>
-    <definedName name="列長">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="235">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -632,16 +554,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>The prettyPrint tag provided in the Nablarch custom tag allows you to output values without escaping, specifying the available tags and attributes.
-https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JSP Custom Tags</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Output of a value without HTML escape</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -721,10 +634,6 @@
   </si>
   <si>
     <t>Permission Check</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Of the requirements defined in the PCI DDSS, only requirement 6.5. corresponds to the checklist below.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1162,6 +1071,32 @@
   </si>
   <si>
     <t>Person in charge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Of the requirements defined in the PCI DSS, only requirement 6.5. corresponds to the checklist below.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.PCIDSS Correspondence Table</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Corrected a typographical error in PCI DDSS.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Please consider the following methods.
+- Use an OSS HTML parser to parse the input values and validate if there are any HTML tags that are not permitted.
+- If it is a simple decoration, have users input in Markdown, and convert from Markdown to HTML on the client side using an OSS JavaScript library.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Since the use of the prettyPrint tag is deprecated, changed the status of support at Nablarch to 'C' and modified the explanation to the method using OSS.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1704,7 +1639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1724,14 +1659,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1764,15 +1696,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1791,14 +1717,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1809,30 +1732,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1848,18 +1759,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1883,12 +1782,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1943,24 +1836,129 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1974,24 +1972,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2004,9 +1987,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2019,101 +1999,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2758,245 +2645,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="WorkingLisKANJIt"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="btnSakusei_click"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TRO管理"/>
-      <sheetName val="画面対応表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>MG111-01</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>MG111_default</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>給与指数キー指定画面</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>MG111-10</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>MG111_regist</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>給与指数詳細登録画面</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>MG111-11</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>給与指数登録結果画面</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>MG111-20</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>MG111_copykey</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>給与指数コピー元指定画面</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>MG111-21</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>給与指数詳細コピー登録画面</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>MG111-22</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>給与指数コピー登録結果画面</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>MG111-30</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>給与指数詳細変更画面</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>MG111-31</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>給与指数変更結果画面</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>MG111-40</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>MG111_inquiry</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>給与指数詳細照会画面</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>MG111-50</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>MG111_delentry</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>給与指数詳細削除画面</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>MG111-51</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>MG111_delresult</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>給与指数削除結果画面</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="１．当資料の位置付け"/>
-      <sheetName val="２．プラットフォーム"/>
-      <sheetName val="３．処理パターン"/>
-      <sheetName val="３．１．処理パターン一覧"/>
-      <sheetName val="３．２．処理方式別パターン詳細"/>
-      <sheetName val="３．２．１．リアルタイム処理"/>
-      <sheetName val="３．２．１．５．リアルタイム_ステレオタイプ"/>
-      <sheetName val="３．２．２．バッチ処理"/>
-      <sheetName val="３．２．３．センターカット処理"/>
-      <sheetName val="３．２．４．システム間連携処理"/>
-      <sheetName val="３．２．５．ディレード処理"/>
-      <sheetName val="３．２．６．ワークフロー処理"/>
-      <sheetName val="３．２．７．帳票処理"/>
-      <sheetName val="３．２．８．ＦＡＸ処理"/>
-      <sheetName val="３．２．９．イメージ処理"/>
-      <sheetName val="３．２．１０．ファイルアップロード"/>
-      <sheetName val="４．処理パターン組み合わせ"/>
-      <sheetName val="別紙１－１　画面オンライン（更新）の処理フロー"/>
-      <sheetName val="別紙１－２　画面オンライン（会話型）の処理フロー"/>
-      <sheetName val="別紙２ WF（案件情報新規登録パターン）の処理フロー"/>
-      <sheetName val="別紙３ WF（前進パターン）の処理フロー"/>
-      <sheetName val="別紙４ WF（承認パターン）の処理フロー"/>
-      <sheetName val="別紙５ WF(選択・ｽｷｯﾌﾟ）ﾊﾟﾀﾝの処理フロー"/>
-      <sheetName val="別紙６ WF（保留パターン）の処理フロー"/>
-      <sheetName val="別紙７ WF（破棄パターン）の処理フロー"/>
-      <sheetName val="別紙８ CC_WF（案件新規一括登録パターン）の処理フロー"/>
-      <sheetName val="別紙９－１　ファイルアップロード（リクエスト）の処理フロー"/>
-      <sheetName val="別紙９－２　ファイルアップロード（業務）の処理フロー"/>
-      <sheetName val="テンプレート"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="185">
-          <cell r="D185" t="str">
-            <v>（６）　《Service Component》ステレオタイプ</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="D260" t="str">
-            <v>（９）　《utility Component》ステレオタイプ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3321,846 +2969,892 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="9" style="67" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="81" customWidth="1"/>
-    <col min="10" max="255" width="9" style="67"/>
-    <col min="256" max="256" width="3.88671875" style="67" customWidth="1"/>
-    <col min="257" max="257" width="5.44140625" style="67" customWidth="1"/>
-    <col min="258" max="258" width="9" style="67"/>
-    <col min="259" max="259" width="4.88671875" style="67" customWidth="1"/>
-    <col min="260" max="260" width="11.77734375" style="67" customWidth="1"/>
-    <col min="261" max="261" width="14.33203125" style="67" customWidth="1"/>
-    <col min="262" max="262" width="52.6640625" style="67" customWidth="1"/>
-    <col min="263" max="263" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.44140625" style="67" customWidth="1"/>
-    <col min="265" max="265" width="8.6640625" style="67" customWidth="1"/>
-    <col min="266" max="511" width="9" style="67"/>
-    <col min="512" max="512" width="3.88671875" style="67" customWidth="1"/>
-    <col min="513" max="513" width="5.44140625" style="67" customWidth="1"/>
-    <col min="514" max="514" width="9" style="67"/>
-    <col min="515" max="515" width="4.88671875" style="67" customWidth="1"/>
-    <col min="516" max="516" width="11.77734375" style="67" customWidth="1"/>
-    <col min="517" max="517" width="14.33203125" style="67" customWidth="1"/>
-    <col min="518" max="518" width="52.6640625" style="67" customWidth="1"/>
-    <col min="519" max="519" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.44140625" style="67" customWidth="1"/>
-    <col min="521" max="521" width="8.6640625" style="67" customWidth="1"/>
-    <col min="522" max="767" width="9" style="67"/>
-    <col min="768" max="768" width="3.88671875" style="67" customWidth="1"/>
-    <col min="769" max="769" width="5.44140625" style="67" customWidth="1"/>
-    <col min="770" max="770" width="9" style="67"/>
-    <col min="771" max="771" width="4.88671875" style="67" customWidth="1"/>
-    <col min="772" max="772" width="11.77734375" style="67" customWidth="1"/>
-    <col min="773" max="773" width="14.33203125" style="67" customWidth="1"/>
-    <col min="774" max="774" width="52.6640625" style="67" customWidth="1"/>
-    <col min="775" max="775" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.44140625" style="67" customWidth="1"/>
-    <col min="777" max="777" width="8.6640625" style="67" customWidth="1"/>
-    <col min="778" max="1023" width="9" style="67"/>
-    <col min="1024" max="1024" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1025" max="1025" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="67"/>
-    <col min="1027" max="1027" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1028" max="1028" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1029" max="1029" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1030" max="1030" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1031" max="1031" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1033" max="1033" width="8.6640625" style="67" customWidth="1"/>
-    <col min="1034" max="1279" width="9" style="67"/>
-    <col min="1280" max="1280" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1281" max="1281" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1282" max="1282" width="9" style="67"/>
-    <col min="1283" max="1283" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1284" max="1284" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1285" max="1285" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1286" max="1286" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1287" max="1287" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1289" max="1289" width="8.6640625" style="67" customWidth="1"/>
-    <col min="1290" max="1535" width="9" style="67"/>
-    <col min="1536" max="1536" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1537" max="1537" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1538" max="1538" width="9" style="67"/>
-    <col min="1539" max="1539" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1540" max="1540" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1541" max="1541" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1542" max="1542" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1543" max="1543" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1545" max="1545" width="8.6640625" style="67" customWidth="1"/>
-    <col min="1546" max="1791" width="9" style="67"/>
-    <col min="1792" max="1792" width="3.88671875" style="67" customWidth="1"/>
-    <col min="1793" max="1793" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1794" max="1794" width="9" style="67"/>
-    <col min="1795" max="1795" width="4.88671875" style="67" customWidth="1"/>
-    <col min="1796" max="1796" width="11.77734375" style="67" customWidth="1"/>
-    <col min="1797" max="1797" width="14.33203125" style="67" customWidth="1"/>
-    <col min="1798" max="1798" width="52.6640625" style="67" customWidth="1"/>
-    <col min="1799" max="1799" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.44140625" style="67" customWidth="1"/>
-    <col min="1801" max="1801" width="8.6640625" style="67" customWidth="1"/>
-    <col min="1802" max="2047" width="9" style="67"/>
-    <col min="2048" max="2048" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2049" max="2049" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2050" max="2050" width="9" style="67"/>
-    <col min="2051" max="2051" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2052" max="2052" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2053" max="2053" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2054" max="2054" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2055" max="2055" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2057" max="2057" width="8.6640625" style="67" customWidth="1"/>
-    <col min="2058" max="2303" width="9" style="67"/>
-    <col min="2304" max="2304" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2305" max="2305" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2306" max="2306" width="9" style="67"/>
-    <col min="2307" max="2307" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2308" max="2308" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2309" max="2309" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2310" max="2310" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2311" max="2311" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2313" max="2313" width="8.6640625" style="67" customWidth="1"/>
-    <col min="2314" max="2559" width="9" style="67"/>
-    <col min="2560" max="2560" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2561" max="2561" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2562" max="2562" width="9" style="67"/>
-    <col min="2563" max="2563" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2564" max="2564" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2565" max="2565" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2566" max="2566" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2567" max="2567" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2569" max="2569" width="8.6640625" style="67" customWidth="1"/>
-    <col min="2570" max="2815" width="9" style="67"/>
-    <col min="2816" max="2816" width="3.88671875" style="67" customWidth="1"/>
-    <col min="2817" max="2817" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2818" max="2818" width="9" style="67"/>
-    <col min="2819" max="2819" width="4.88671875" style="67" customWidth="1"/>
-    <col min="2820" max="2820" width="11.77734375" style="67" customWidth="1"/>
-    <col min="2821" max="2821" width="14.33203125" style="67" customWidth="1"/>
-    <col min="2822" max="2822" width="52.6640625" style="67" customWidth="1"/>
-    <col min="2823" max="2823" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.44140625" style="67" customWidth="1"/>
-    <col min="2825" max="2825" width="8.6640625" style="67" customWidth="1"/>
-    <col min="2826" max="3071" width="9" style="67"/>
-    <col min="3072" max="3072" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3073" max="3073" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3074" max="3074" width="9" style="67"/>
-    <col min="3075" max="3075" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3076" max="3076" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3077" max="3077" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3078" max="3078" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3079" max="3079" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3081" max="3081" width="8.6640625" style="67" customWidth="1"/>
-    <col min="3082" max="3327" width="9" style="67"/>
-    <col min="3328" max="3328" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3329" max="3329" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3330" max="3330" width="9" style="67"/>
-    <col min="3331" max="3331" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3332" max="3332" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3333" max="3333" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3334" max="3334" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3335" max="3335" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3337" max="3337" width="8.6640625" style="67" customWidth="1"/>
-    <col min="3338" max="3583" width="9" style="67"/>
-    <col min="3584" max="3584" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3585" max="3585" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3586" max="3586" width="9" style="67"/>
-    <col min="3587" max="3587" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3588" max="3588" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3589" max="3589" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3590" max="3590" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3591" max="3591" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3593" max="3593" width="8.6640625" style="67" customWidth="1"/>
-    <col min="3594" max="3839" width="9" style="67"/>
-    <col min="3840" max="3840" width="3.88671875" style="67" customWidth="1"/>
-    <col min="3841" max="3841" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3842" max="3842" width="9" style="67"/>
-    <col min="3843" max="3843" width="4.88671875" style="67" customWidth="1"/>
-    <col min="3844" max="3844" width="11.77734375" style="67" customWidth="1"/>
-    <col min="3845" max="3845" width="14.33203125" style="67" customWidth="1"/>
-    <col min="3846" max="3846" width="52.6640625" style="67" customWidth="1"/>
-    <col min="3847" max="3847" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.44140625" style="67" customWidth="1"/>
-    <col min="3849" max="3849" width="8.6640625" style="67" customWidth="1"/>
-    <col min="3850" max="4095" width="9" style="67"/>
-    <col min="4096" max="4096" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4097" max="4097" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4098" max="4098" width="9" style="67"/>
-    <col min="4099" max="4099" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4100" max="4100" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4101" max="4101" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4102" max="4102" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4103" max="4103" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4105" max="4105" width="8.6640625" style="67" customWidth="1"/>
-    <col min="4106" max="4351" width="9" style="67"/>
-    <col min="4352" max="4352" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4353" max="4353" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4354" max="4354" width="9" style="67"/>
-    <col min="4355" max="4355" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4356" max="4356" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4357" max="4357" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4358" max="4358" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4359" max="4359" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4361" max="4361" width="8.6640625" style="67" customWidth="1"/>
-    <col min="4362" max="4607" width="9" style="67"/>
-    <col min="4608" max="4608" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4609" max="4609" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4610" max="4610" width="9" style="67"/>
-    <col min="4611" max="4611" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4612" max="4612" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4613" max="4613" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4614" max="4614" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4615" max="4615" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4617" max="4617" width="8.6640625" style="67" customWidth="1"/>
-    <col min="4618" max="4863" width="9" style="67"/>
-    <col min="4864" max="4864" width="3.88671875" style="67" customWidth="1"/>
-    <col min="4865" max="4865" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4866" max="4866" width="9" style="67"/>
-    <col min="4867" max="4867" width="4.88671875" style="67" customWidth="1"/>
-    <col min="4868" max="4868" width="11.77734375" style="67" customWidth="1"/>
-    <col min="4869" max="4869" width="14.33203125" style="67" customWidth="1"/>
-    <col min="4870" max="4870" width="52.6640625" style="67" customWidth="1"/>
-    <col min="4871" max="4871" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.44140625" style="67" customWidth="1"/>
-    <col min="4873" max="4873" width="8.6640625" style="67" customWidth="1"/>
-    <col min="4874" max="5119" width="9" style="67"/>
-    <col min="5120" max="5120" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5121" max="5121" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5122" max="5122" width="9" style="67"/>
-    <col min="5123" max="5123" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5124" max="5124" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5125" max="5125" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5126" max="5126" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5127" max="5127" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5129" max="5129" width="8.6640625" style="67" customWidth="1"/>
-    <col min="5130" max="5375" width="9" style="67"/>
-    <col min="5376" max="5376" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5377" max="5377" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5378" max="5378" width="9" style="67"/>
-    <col min="5379" max="5379" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5380" max="5380" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5381" max="5381" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5382" max="5382" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5383" max="5383" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5385" max="5385" width="8.6640625" style="67" customWidth="1"/>
-    <col min="5386" max="5631" width="9" style="67"/>
-    <col min="5632" max="5632" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5633" max="5633" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5634" max="5634" width="9" style="67"/>
-    <col min="5635" max="5635" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5636" max="5636" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5637" max="5637" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5638" max="5638" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5639" max="5639" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5641" max="5641" width="8.6640625" style="67" customWidth="1"/>
-    <col min="5642" max="5887" width="9" style="67"/>
-    <col min="5888" max="5888" width="3.88671875" style="67" customWidth="1"/>
-    <col min="5889" max="5889" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5890" max="5890" width="9" style="67"/>
-    <col min="5891" max="5891" width="4.88671875" style="67" customWidth="1"/>
-    <col min="5892" max="5892" width="11.77734375" style="67" customWidth="1"/>
-    <col min="5893" max="5893" width="14.33203125" style="67" customWidth="1"/>
-    <col min="5894" max="5894" width="52.6640625" style="67" customWidth="1"/>
-    <col min="5895" max="5895" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.44140625" style="67" customWidth="1"/>
-    <col min="5897" max="5897" width="8.6640625" style="67" customWidth="1"/>
-    <col min="5898" max="6143" width="9" style="67"/>
-    <col min="6144" max="6144" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6145" max="6145" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6146" max="6146" width="9" style="67"/>
-    <col min="6147" max="6147" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6148" max="6148" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6149" max="6149" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6150" max="6150" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6151" max="6151" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6153" max="6153" width="8.6640625" style="67" customWidth="1"/>
-    <col min="6154" max="6399" width="9" style="67"/>
-    <col min="6400" max="6400" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6401" max="6401" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6402" max="6402" width="9" style="67"/>
-    <col min="6403" max="6403" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6404" max="6404" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6405" max="6405" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6406" max="6406" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6407" max="6407" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6409" max="6409" width="8.6640625" style="67" customWidth="1"/>
-    <col min="6410" max="6655" width="9" style="67"/>
-    <col min="6656" max="6656" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6657" max="6657" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6658" max="6658" width="9" style="67"/>
-    <col min="6659" max="6659" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6660" max="6660" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6661" max="6661" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6662" max="6662" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6663" max="6663" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6665" max="6665" width="8.6640625" style="67" customWidth="1"/>
-    <col min="6666" max="6911" width="9" style="67"/>
-    <col min="6912" max="6912" width="3.88671875" style="67" customWidth="1"/>
-    <col min="6913" max="6913" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6914" max="6914" width="9" style="67"/>
-    <col min="6915" max="6915" width="4.88671875" style="67" customWidth="1"/>
-    <col min="6916" max="6916" width="11.77734375" style="67" customWidth="1"/>
-    <col min="6917" max="6917" width="14.33203125" style="67" customWidth="1"/>
-    <col min="6918" max="6918" width="52.6640625" style="67" customWidth="1"/>
-    <col min="6919" max="6919" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.44140625" style="67" customWidth="1"/>
-    <col min="6921" max="6921" width="8.6640625" style="67" customWidth="1"/>
-    <col min="6922" max="7167" width="9" style="67"/>
-    <col min="7168" max="7168" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7169" max="7169" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7170" max="7170" width="9" style="67"/>
-    <col min="7171" max="7171" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7172" max="7172" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7173" max="7173" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7174" max="7174" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7175" max="7175" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7177" max="7177" width="8.6640625" style="67" customWidth="1"/>
-    <col min="7178" max="7423" width="9" style="67"/>
-    <col min="7424" max="7424" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7425" max="7425" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7426" max="7426" width="9" style="67"/>
-    <col min="7427" max="7427" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7428" max="7428" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7429" max="7429" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7430" max="7430" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7431" max="7431" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7433" max="7433" width="8.6640625" style="67" customWidth="1"/>
-    <col min="7434" max="7679" width="9" style="67"/>
-    <col min="7680" max="7680" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7681" max="7681" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7682" max="7682" width="9" style="67"/>
-    <col min="7683" max="7683" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7684" max="7684" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7685" max="7685" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7686" max="7686" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7687" max="7687" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7689" max="7689" width="8.6640625" style="67" customWidth="1"/>
-    <col min="7690" max="7935" width="9" style="67"/>
-    <col min="7936" max="7936" width="3.88671875" style="67" customWidth="1"/>
-    <col min="7937" max="7937" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7938" max="7938" width="9" style="67"/>
-    <col min="7939" max="7939" width="4.88671875" style="67" customWidth="1"/>
-    <col min="7940" max="7940" width="11.77734375" style="67" customWidth="1"/>
-    <col min="7941" max="7941" width="14.33203125" style="67" customWidth="1"/>
-    <col min="7942" max="7942" width="52.6640625" style="67" customWidth="1"/>
-    <col min="7943" max="7943" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.44140625" style="67" customWidth="1"/>
-    <col min="7945" max="7945" width="8.6640625" style="67" customWidth="1"/>
-    <col min="7946" max="8191" width="9" style="67"/>
-    <col min="8192" max="8192" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8193" max="8193" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8194" max="8194" width="9" style="67"/>
-    <col min="8195" max="8195" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8196" max="8196" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8197" max="8197" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8198" max="8198" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8199" max="8199" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8201" max="8201" width="8.6640625" style="67" customWidth="1"/>
-    <col min="8202" max="8447" width="9" style="67"/>
-    <col min="8448" max="8448" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8449" max="8449" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8450" max="8450" width="9" style="67"/>
-    <col min="8451" max="8451" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8452" max="8452" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8453" max="8453" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8454" max="8454" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8455" max="8455" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8457" max="8457" width="8.6640625" style="67" customWidth="1"/>
-    <col min="8458" max="8703" width="9" style="67"/>
-    <col min="8704" max="8704" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8705" max="8705" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8706" max="8706" width="9" style="67"/>
-    <col min="8707" max="8707" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8708" max="8708" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8709" max="8709" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8710" max="8710" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8711" max="8711" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8713" max="8713" width="8.6640625" style="67" customWidth="1"/>
-    <col min="8714" max="8959" width="9" style="67"/>
-    <col min="8960" max="8960" width="3.88671875" style="67" customWidth="1"/>
-    <col min="8961" max="8961" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8962" max="8962" width="9" style="67"/>
-    <col min="8963" max="8963" width="4.88671875" style="67" customWidth="1"/>
-    <col min="8964" max="8964" width="11.77734375" style="67" customWidth="1"/>
-    <col min="8965" max="8965" width="14.33203125" style="67" customWidth="1"/>
-    <col min="8966" max="8966" width="52.6640625" style="67" customWidth="1"/>
-    <col min="8967" max="8967" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.44140625" style="67" customWidth="1"/>
-    <col min="8969" max="8969" width="8.6640625" style="67" customWidth="1"/>
-    <col min="8970" max="9215" width="9" style="67"/>
-    <col min="9216" max="9216" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9217" max="9217" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9218" max="9218" width="9" style="67"/>
-    <col min="9219" max="9219" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9220" max="9220" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9221" max="9221" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9222" max="9222" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9223" max="9223" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9225" max="9225" width="8.6640625" style="67" customWidth="1"/>
-    <col min="9226" max="9471" width="9" style="67"/>
-    <col min="9472" max="9472" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9473" max="9473" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9474" max="9474" width="9" style="67"/>
-    <col min="9475" max="9475" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9476" max="9476" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9477" max="9477" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9478" max="9478" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9479" max="9479" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9481" max="9481" width="8.6640625" style="67" customWidth="1"/>
-    <col min="9482" max="9727" width="9" style="67"/>
-    <col min="9728" max="9728" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9729" max="9729" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9730" max="9730" width="9" style="67"/>
-    <col min="9731" max="9731" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9732" max="9732" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9733" max="9733" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9734" max="9734" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9735" max="9735" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9737" max="9737" width="8.6640625" style="67" customWidth="1"/>
-    <col min="9738" max="9983" width="9" style="67"/>
-    <col min="9984" max="9984" width="3.88671875" style="67" customWidth="1"/>
-    <col min="9985" max="9985" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9986" max="9986" width="9" style="67"/>
-    <col min="9987" max="9987" width="4.88671875" style="67" customWidth="1"/>
-    <col min="9988" max="9988" width="11.77734375" style="67" customWidth="1"/>
-    <col min="9989" max="9989" width="14.33203125" style="67" customWidth="1"/>
-    <col min="9990" max="9990" width="52.6640625" style="67" customWidth="1"/>
-    <col min="9991" max="9991" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.44140625" style="67" customWidth="1"/>
-    <col min="9993" max="9993" width="8.6640625" style="67" customWidth="1"/>
-    <col min="9994" max="10239" width="9" style="67"/>
-    <col min="10240" max="10240" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10241" max="10241" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10242" max="10242" width="9" style="67"/>
-    <col min="10243" max="10243" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10244" max="10244" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10245" max="10245" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10246" max="10246" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10247" max="10247" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10249" max="10249" width="8.6640625" style="67" customWidth="1"/>
-    <col min="10250" max="10495" width="9" style="67"/>
-    <col min="10496" max="10496" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10497" max="10497" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10498" max="10498" width="9" style="67"/>
-    <col min="10499" max="10499" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10500" max="10500" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10501" max="10501" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10502" max="10502" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10503" max="10503" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10505" max="10505" width="8.6640625" style="67" customWidth="1"/>
-    <col min="10506" max="10751" width="9" style="67"/>
-    <col min="10752" max="10752" width="3.88671875" style="67" customWidth="1"/>
-    <col min="10753" max="10753" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10754" max="10754" width="9" style="67"/>
-    <col min="10755" max="10755" width="4.88671875" style="67" customWidth="1"/>
-    <col min="10756" max="10756" width="11.77734375" style="67" customWidth="1"/>
-    <col min="10757" max="10757" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10758" max="10758" width="52.6640625" style="67" customWidth="1"/>
-    <col min="10759" max="10759" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.44140625" style="67" customWidth="1"/>
-    <col min="10761" max="10761" width="8.6640625" style="67" customWidth="1"/>
-    <col min="10762" max="11007" width="9" style="67"/>
-    <col min="11008" max="11008" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11009" max="11009" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11010" max="11010" width="9" style="67"/>
-    <col min="11011" max="11011" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11012" max="11012" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11013" max="11013" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11014" max="11014" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11015" max="11015" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11017" max="11017" width="8.6640625" style="67" customWidth="1"/>
-    <col min="11018" max="11263" width="9" style="67"/>
-    <col min="11264" max="11264" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11265" max="11265" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11266" max="11266" width="9" style="67"/>
-    <col min="11267" max="11267" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11268" max="11268" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11269" max="11269" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11270" max="11270" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11271" max="11271" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11273" max="11273" width="8.6640625" style="67" customWidth="1"/>
-    <col min="11274" max="11519" width="9" style="67"/>
-    <col min="11520" max="11520" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11521" max="11521" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11522" max="11522" width="9" style="67"/>
-    <col min="11523" max="11523" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11524" max="11524" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11525" max="11525" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11526" max="11526" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11527" max="11527" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11529" max="11529" width="8.6640625" style="67" customWidth="1"/>
-    <col min="11530" max="11775" width="9" style="67"/>
-    <col min="11776" max="11776" width="3.88671875" style="67" customWidth="1"/>
-    <col min="11777" max="11777" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11778" max="11778" width="9" style="67"/>
-    <col min="11779" max="11779" width="4.88671875" style="67" customWidth="1"/>
-    <col min="11780" max="11780" width="11.77734375" style="67" customWidth="1"/>
-    <col min="11781" max="11781" width="14.33203125" style="67" customWidth="1"/>
-    <col min="11782" max="11782" width="52.6640625" style="67" customWidth="1"/>
-    <col min="11783" max="11783" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.44140625" style="67" customWidth="1"/>
-    <col min="11785" max="11785" width="8.6640625" style="67" customWidth="1"/>
-    <col min="11786" max="12031" width="9" style="67"/>
-    <col min="12032" max="12032" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12033" max="12033" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12034" max="12034" width="9" style="67"/>
-    <col min="12035" max="12035" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12036" max="12036" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12037" max="12037" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12038" max="12038" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12039" max="12039" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12041" max="12041" width="8.6640625" style="67" customWidth="1"/>
-    <col min="12042" max="12287" width="9" style="67"/>
-    <col min="12288" max="12288" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12289" max="12289" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12290" max="12290" width="9" style="67"/>
-    <col min="12291" max="12291" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12292" max="12292" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12293" max="12293" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12294" max="12294" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12295" max="12295" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12297" max="12297" width="8.6640625" style="67" customWidth="1"/>
-    <col min="12298" max="12543" width="9" style="67"/>
-    <col min="12544" max="12544" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12545" max="12545" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12546" max="12546" width="9" style="67"/>
-    <col min="12547" max="12547" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12548" max="12548" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12549" max="12549" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12550" max="12550" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12551" max="12551" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12553" max="12553" width="8.6640625" style="67" customWidth="1"/>
-    <col min="12554" max="12799" width="9" style="67"/>
-    <col min="12800" max="12800" width="3.88671875" style="67" customWidth="1"/>
-    <col min="12801" max="12801" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12802" max="12802" width="9" style="67"/>
-    <col min="12803" max="12803" width="4.88671875" style="67" customWidth="1"/>
-    <col min="12804" max="12804" width="11.77734375" style="67" customWidth="1"/>
-    <col min="12805" max="12805" width="14.33203125" style="67" customWidth="1"/>
-    <col min="12806" max="12806" width="52.6640625" style="67" customWidth="1"/>
-    <col min="12807" max="12807" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.44140625" style="67" customWidth="1"/>
-    <col min="12809" max="12809" width="8.6640625" style="67" customWidth="1"/>
-    <col min="12810" max="13055" width="9" style="67"/>
-    <col min="13056" max="13056" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13057" max="13057" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13058" max="13058" width="9" style="67"/>
-    <col min="13059" max="13059" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13060" max="13060" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13061" max="13061" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13062" max="13062" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13063" max="13063" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13065" max="13065" width="8.6640625" style="67" customWidth="1"/>
-    <col min="13066" max="13311" width="9" style="67"/>
-    <col min="13312" max="13312" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13313" max="13313" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13314" max="13314" width="9" style="67"/>
-    <col min="13315" max="13315" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13316" max="13316" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13317" max="13317" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13318" max="13318" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13319" max="13319" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13321" max="13321" width="8.6640625" style="67" customWidth="1"/>
-    <col min="13322" max="13567" width="9" style="67"/>
-    <col min="13568" max="13568" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13569" max="13569" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13570" max="13570" width="9" style="67"/>
-    <col min="13571" max="13571" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13572" max="13572" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13573" max="13573" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13574" max="13574" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13575" max="13575" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13577" max="13577" width="8.6640625" style="67" customWidth="1"/>
-    <col min="13578" max="13823" width="9" style="67"/>
-    <col min="13824" max="13824" width="3.88671875" style="67" customWidth="1"/>
-    <col min="13825" max="13825" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13826" max="13826" width="9" style="67"/>
-    <col min="13827" max="13827" width="4.88671875" style="67" customWidth="1"/>
-    <col min="13828" max="13828" width="11.77734375" style="67" customWidth="1"/>
-    <col min="13829" max="13829" width="14.33203125" style="67" customWidth="1"/>
-    <col min="13830" max="13830" width="52.6640625" style="67" customWidth="1"/>
-    <col min="13831" max="13831" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.44140625" style="67" customWidth="1"/>
-    <col min="13833" max="13833" width="8.6640625" style="67" customWidth="1"/>
-    <col min="13834" max="14079" width="9" style="67"/>
-    <col min="14080" max="14080" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14081" max="14081" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14082" max="14082" width="9" style="67"/>
-    <col min="14083" max="14083" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14084" max="14084" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14085" max="14085" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14086" max="14086" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14087" max="14087" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14089" max="14089" width="8.6640625" style="67" customWidth="1"/>
-    <col min="14090" max="14335" width="9" style="67"/>
-    <col min="14336" max="14336" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14337" max="14337" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14338" max="14338" width="9" style="67"/>
-    <col min="14339" max="14339" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14340" max="14340" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14341" max="14341" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14342" max="14342" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14343" max="14343" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14345" max="14345" width="8.6640625" style="67" customWidth="1"/>
-    <col min="14346" max="14591" width="9" style="67"/>
-    <col min="14592" max="14592" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14593" max="14593" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14594" max="14594" width="9" style="67"/>
-    <col min="14595" max="14595" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14596" max="14596" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14597" max="14597" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14598" max="14598" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14599" max="14599" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14601" max="14601" width="8.6640625" style="67" customWidth="1"/>
-    <col min="14602" max="14847" width="9" style="67"/>
-    <col min="14848" max="14848" width="3.88671875" style="67" customWidth="1"/>
-    <col min="14849" max="14849" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14850" max="14850" width="9" style="67"/>
-    <col min="14851" max="14851" width="4.88671875" style="67" customWidth="1"/>
-    <col min="14852" max="14852" width="11.77734375" style="67" customWidth="1"/>
-    <col min="14853" max="14853" width="14.33203125" style="67" customWidth="1"/>
-    <col min="14854" max="14854" width="52.6640625" style="67" customWidth="1"/>
-    <col min="14855" max="14855" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.44140625" style="67" customWidth="1"/>
-    <col min="14857" max="14857" width="8.6640625" style="67" customWidth="1"/>
-    <col min="14858" max="15103" width="9" style="67"/>
-    <col min="15104" max="15104" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15105" max="15105" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15106" max="15106" width="9" style="67"/>
-    <col min="15107" max="15107" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15108" max="15108" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15109" max="15109" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15110" max="15110" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15111" max="15111" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15113" max="15113" width="8.6640625" style="67" customWidth="1"/>
-    <col min="15114" max="15359" width="9" style="67"/>
-    <col min="15360" max="15360" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15361" max="15361" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15362" max="15362" width="9" style="67"/>
-    <col min="15363" max="15363" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15364" max="15364" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15365" max="15365" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15366" max="15366" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15367" max="15367" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15369" max="15369" width="8.6640625" style="67" customWidth="1"/>
-    <col min="15370" max="15615" width="9" style="67"/>
-    <col min="15616" max="15616" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15617" max="15617" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15618" max="15618" width="9" style="67"/>
-    <col min="15619" max="15619" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15620" max="15620" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15621" max="15621" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15622" max="15622" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15623" max="15623" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15625" max="15625" width="8.6640625" style="67" customWidth="1"/>
-    <col min="15626" max="15871" width="9" style="67"/>
-    <col min="15872" max="15872" width="3.88671875" style="67" customWidth="1"/>
-    <col min="15873" max="15873" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15874" max="15874" width="9" style="67"/>
-    <col min="15875" max="15875" width="4.88671875" style="67" customWidth="1"/>
-    <col min="15876" max="15876" width="11.77734375" style="67" customWidth="1"/>
-    <col min="15877" max="15877" width="14.33203125" style="67" customWidth="1"/>
-    <col min="15878" max="15878" width="52.6640625" style="67" customWidth="1"/>
-    <col min="15879" max="15879" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.44140625" style="67" customWidth="1"/>
-    <col min="15881" max="15881" width="8.6640625" style="67" customWidth="1"/>
-    <col min="15882" max="16127" width="9" style="67"/>
-    <col min="16128" max="16128" width="3.88671875" style="67" customWidth="1"/>
-    <col min="16129" max="16129" width="5.44140625" style="67" customWidth="1"/>
-    <col min="16130" max="16130" width="9" style="67"/>
-    <col min="16131" max="16131" width="4.88671875" style="67" customWidth="1"/>
-    <col min="16132" max="16132" width="11.77734375" style="67" customWidth="1"/>
-    <col min="16133" max="16133" width="14.33203125" style="67" customWidth="1"/>
-    <col min="16134" max="16134" width="52.6640625" style="67" customWidth="1"/>
-    <col min="16135" max="16135" width="6.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.44140625" style="67" customWidth="1"/>
-    <col min="16137" max="16137" width="8.6640625" style="67" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="3.875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9" style="53" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="53" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="67" customWidth="1"/>
+    <col min="10" max="255" width="9" style="53"/>
+    <col min="256" max="256" width="3.875" style="53" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="53" customWidth="1"/>
+    <col min="258" max="258" width="9" style="53"/>
+    <col min="259" max="259" width="4.875" style="53" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="53" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="53" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="53" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="53" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="53" customWidth="1"/>
+    <col min="266" max="511" width="9" style="53"/>
+    <col min="512" max="512" width="3.875" style="53" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="53" customWidth="1"/>
+    <col min="514" max="514" width="9" style="53"/>
+    <col min="515" max="515" width="4.875" style="53" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="53" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="53" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="53" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="53" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="53" customWidth="1"/>
+    <col min="522" max="767" width="9" style="53"/>
+    <col min="768" max="768" width="3.875" style="53" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="53" customWidth="1"/>
+    <col min="770" max="770" width="9" style="53"/>
+    <col min="771" max="771" width="4.875" style="53" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="53" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="53" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="53" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="53" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="53" customWidth="1"/>
+    <col min="778" max="1023" width="9" style="53"/>
+    <col min="1024" max="1024" width="3.875" style="53" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="53" customWidth="1"/>
+    <col min="1026" max="1026" width="9" style="53"/>
+    <col min="1027" max="1027" width="4.875" style="53" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="53" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="53" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="53" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="53" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="53" customWidth="1"/>
+    <col min="1034" max="1279" width="9" style="53"/>
+    <col min="1280" max="1280" width="3.875" style="53" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="53" customWidth="1"/>
+    <col min="1282" max="1282" width="9" style="53"/>
+    <col min="1283" max="1283" width="4.875" style="53" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="53" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="53" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="53" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="53" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="53" customWidth="1"/>
+    <col min="1290" max="1535" width="9" style="53"/>
+    <col min="1536" max="1536" width="3.875" style="53" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="53" customWidth="1"/>
+    <col min="1538" max="1538" width="9" style="53"/>
+    <col min="1539" max="1539" width="4.875" style="53" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="53" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="53" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="53" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="53" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="53" customWidth="1"/>
+    <col min="1546" max="1791" width="9" style="53"/>
+    <col min="1792" max="1792" width="3.875" style="53" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="53" customWidth="1"/>
+    <col min="1794" max="1794" width="9" style="53"/>
+    <col min="1795" max="1795" width="4.875" style="53" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="53" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="53" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="53" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="53" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="53" customWidth="1"/>
+    <col min="1802" max="2047" width="9" style="53"/>
+    <col min="2048" max="2048" width="3.875" style="53" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="53" customWidth="1"/>
+    <col min="2050" max="2050" width="9" style="53"/>
+    <col min="2051" max="2051" width="4.875" style="53" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="53" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="53" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="53" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="53" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="53" customWidth="1"/>
+    <col min="2058" max="2303" width="9" style="53"/>
+    <col min="2304" max="2304" width="3.875" style="53" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="53" customWidth="1"/>
+    <col min="2306" max="2306" width="9" style="53"/>
+    <col min="2307" max="2307" width="4.875" style="53" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="53" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="53" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="53" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="53" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="53" customWidth="1"/>
+    <col min="2314" max="2559" width="9" style="53"/>
+    <col min="2560" max="2560" width="3.875" style="53" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="53" customWidth="1"/>
+    <col min="2562" max="2562" width="9" style="53"/>
+    <col min="2563" max="2563" width="4.875" style="53" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="53" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="53" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="53" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="53" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="53" customWidth="1"/>
+    <col min="2570" max="2815" width="9" style="53"/>
+    <col min="2816" max="2816" width="3.875" style="53" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="53" customWidth="1"/>
+    <col min="2818" max="2818" width="9" style="53"/>
+    <col min="2819" max="2819" width="4.875" style="53" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="53" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="53" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="53" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="53" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="53" customWidth="1"/>
+    <col min="2826" max="3071" width="9" style="53"/>
+    <col min="3072" max="3072" width="3.875" style="53" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="53" customWidth="1"/>
+    <col min="3074" max="3074" width="9" style="53"/>
+    <col min="3075" max="3075" width="4.875" style="53" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="53" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="53" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="53" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="53" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="53" customWidth="1"/>
+    <col min="3082" max="3327" width="9" style="53"/>
+    <col min="3328" max="3328" width="3.875" style="53" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="53" customWidth="1"/>
+    <col min="3330" max="3330" width="9" style="53"/>
+    <col min="3331" max="3331" width="4.875" style="53" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="53" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="53" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="53" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="53" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="53" customWidth="1"/>
+    <col min="3338" max="3583" width="9" style="53"/>
+    <col min="3584" max="3584" width="3.875" style="53" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="53" customWidth="1"/>
+    <col min="3586" max="3586" width="9" style="53"/>
+    <col min="3587" max="3587" width="4.875" style="53" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="53" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="53" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="53" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="53" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="53" customWidth="1"/>
+    <col min="3594" max="3839" width="9" style="53"/>
+    <col min="3840" max="3840" width="3.875" style="53" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="53" customWidth="1"/>
+    <col min="3842" max="3842" width="9" style="53"/>
+    <col min="3843" max="3843" width="4.875" style="53" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="53" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="53" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="53" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="53" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="53" customWidth="1"/>
+    <col min="3850" max="4095" width="9" style="53"/>
+    <col min="4096" max="4096" width="3.875" style="53" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="53" customWidth="1"/>
+    <col min="4098" max="4098" width="9" style="53"/>
+    <col min="4099" max="4099" width="4.875" style="53" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="53" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="53" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="53" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="53" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="53" customWidth="1"/>
+    <col min="4106" max="4351" width="9" style="53"/>
+    <col min="4352" max="4352" width="3.875" style="53" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="53" customWidth="1"/>
+    <col min="4354" max="4354" width="9" style="53"/>
+    <col min="4355" max="4355" width="4.875" style="53" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="53" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="53" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="53" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="53" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="53" customWidth="1"/>
+    <col min="4362" max="4607" width="9" style="53"/>
+    <col min="4608" max="4608" width="3.875" style="53" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="53" customWidth="1"/>
+    <col min="4610" max="4610" width="9" style="53"/>
+    <col min="4611" max="4611" width="4.875" style="53" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="53" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="53" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="53" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="53" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="53" customWidth="1"/>
+    <col min="4618" max="4863" width="9" style="53"/>
+    <col min="4864" max="4864" width="3.875" style="53" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="53" customWidth="1"/>
+    <col min="4866" max="4866" width="9" style="53"/>
+    <col min="4867" max="4867" width="4.875" style="53" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="53" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="53" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="53" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="53" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="53" customWidth="1"/>
+    <col min="4874" max="5119" width="9" style="53"/>
+    <col min="5120" max="5120" width="3.875" style="53" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="53" customWidth="1"/>
+    <col min="5122" max="5122" width="9" style="53"/>
+    <col min="5123" max="5123" width="4.875" style="53" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="53" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="53" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="53" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="53" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="53" customWidth="1"/>
+    <col min="5130" max="5375" width="9" style="53"/>
+    <col min="5376" max="5376" width="3.875" style="53" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="53" customWidth="1"/>
+    <col min="5378" max="5378" width="9" style="53"/>
+    <col min="5379" max="5379" width="4.875" style="53" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="53" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="53" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="53" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="53" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="53" customWidth="1"/>
+    <col min="5386" max="5631" width="9" style="53"/>
+    <col min="5632" max="5632" width="3.875" style="53" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="53" customWidth="1"/>
+    <col min="5634" max="5634" width="9" style="53"/>
+    <col min="5635" max="5635" width="4.875" style="53" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="53" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="53" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="53" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="53" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="53" customWidth="1"/>
+    <col min="5642" max="5887" width="9" style="53"/>
+    <col min="5888" max="5888" width="3.875" style="53" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="53" customWidth="1"/>
+    <col min="5890" max="5890" width="9" style="53"/>
+    <col min="5891" max="5891" width="4.875" style="53" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="53" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="53" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="53" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="53" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="53" customWidth="1"/>
+    <col min="5898" max="6143" width="9" style="53"/>
+    <col min="6144" max="6144" width="3.875" style="53" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="53" customWidth="1"/>
+    <col min="6146" max="6146" width="9" style="53"/>
+    <col min="6147" max="6147" width="4.875" style="53" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="53" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="53" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="53" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="53" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="53" customWidth="1"/>
+    <col min="6154" max="6399" width="9" style="53"/>
+    <col min="6400" max="6400" width="3.875" style="53" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="53" customWidth="1"/>
+    <col min="6402" max="6402" width="9" style="53"/>
+    <col min="6403" max="6403" width="4.875" style="53" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="53" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="53" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="53" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="53" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="53" customWidth="1"/>
+    <col min="6410" max="6655" width="9" style="53"/>
+    <col min="6656" max="6656" width="3.875" style="53" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="53" customWidth="1"/>
+    <col min="6658" max="6658" width="9" style="53"/>
+    <col min="6659" max="6659" width="4.875" style="53" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="53" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="53" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="53" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="53" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="53" customWidth="1"/>
+    <col min="6666" max="6911" width="9" style="53"/>
+    <col min="6912" max="6912" width="3.875" style="53" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="53" customWidth="1"/>
+    <col min="6914" max="6914" width="9" style="53"/>
+    <col min="6915" max="6915" width="4.875" style="53" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="53" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="53" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="53" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="53" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="53" customWidth="1"/>
+    <col min="6922" max="7167" width="9" style="53"/>
+    <col min="7168" max="7168" width="3.875" style="53" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="53" customWidth="1"/>
+    <col min="7170" max="7170" width="9" style="53"/>
+    <col min="7171" max="7171" width="4.875" style="53" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="53" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="53" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="53" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="53" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="53" customWidth="1"/>
+    <col min="7178" max="7423" width="9" style="53"/>
+    <col min="7424" max="7424" width="3.875" style="53" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="53" customWidth="1"/>
+    <col min="7426" max="7426" width="9" style="53"/>
+    <col min="7427" max="7427" width="4.875" style="53" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="53" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="53" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="53" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="53" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="53" customWidth="1"/>
+    <col min="7434" max="7679" width="9" style="53"/>
+    <col min="7680" max="7680" width="3.875" style="53" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="53" customWidth="1"/>
+    <col min="7682" max="7682" width="9" style="53"/>
+    <col min="7683" max="7683" width="4.875" style="53" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="53" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="53" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="53" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="53" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="53" customWidth="1"/>
+    <col min="7690" max="7935" width="9" style="53"/>
+    <col min="7936" max="7936" width="3.875" style="53" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="53" customWidth="1"/>
+    <col min="7938" max="7938" width="9" style="53"/>
+    <col min="7939" max="7939" width="4.875" style="53" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="53" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="53" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="53" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="53" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="53" customWidth="1"/>
+    <col min="7946" max="8191" width="9" style="53"/>
+    <col min="8192" max="8192" width="3.875" style="53" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="53" customWidth="1"/>
+    <col min="8194" max="8194" width="9" style="53"/>
+    <col min="8195" max="8195" width="4.875" style="53" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="53" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="53" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="53" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="53" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="53" customWidth="1"/>
+    <col min="8202" max="8447" width="9" style="53"/>
+    <col min="8448" max="8448" width="3.875" style="53" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="53" customWidth="1"/>
+    <col min="8450" max="8450" width="9" style="53"/>
+    <col min="8451" max="8451" width="4.875" style="53" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="53" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="53" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="53" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="53" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="53" customWidth="1"/>
+    <col min="8458" max="8703" width="9" style="53"/>
+    <col min="8704" max="8704" width="3.875" style="53" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="53" customWidth="1"/>
+    <col min="8706" max="8706" width="9" style="53"/>
+    <col min="8707" max="8707" width="4.875" style="53" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="53" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="53" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="53" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="53" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="53" customWidth="1"/>
+    <col min="8714" max="8959" width="9" style="53"/>
+    <col min="8960" max="8960" width="3.875" style="53" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="53" customWidth="1"/>
+    <col min="8962" max="8962" width="9" style="53"/>
+    <col min="8963" max="8963" width="4.875" style="53" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="53" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="53" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="53" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="53" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="53" customWidth="1"/>
+    <col min="8970" max="9215" width="9" style="53"/>
+    <col min="9216" max="9216" width="3.875" style="53" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="53" customWidth="1"/>
+    <col min="9218" max="9218" width="9" style="53"/>
+    <col min="9219" max="9219" width="4.875" style="53" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="53" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="53" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="53" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="53" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="53" customWidth="1"/>
+    <col min="9226" max="9471" width="9" style="53"/>
+    <col min="9472" max="9472" width="3.875" style="53" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="53" customWidth="1"/>
+    <col min="9474" max="9474" width="9" style="53"/>
+    <col min="9475" max="9475" width="4.875" style="53" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="53" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="53" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="53" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="53" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="53" customWidth="1"/>
+    <col min="9482" max="9727" width="9" style="53"/>
+    <col min="9728" max="9728" width="3.875" style="53" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="53" customWidth="1"/>
+    <col min="9730" max="9730" width="9" style="53"/>
+    <col min="9731" max="9731" width="4.875" style="53" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="53" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="53" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="53" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="53" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="53" customWidth="1"/>
+    <col min="9738" max="9983" width="9" style="53"/>
+    <col min="9984" max="9984" width="3.875" style="53" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="53" customWidth="1"/>
+    <col min="9986" max="9986" width="9" style="53"/>
+    <col min="9987" max="9987" width="4.875" style="53" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="53" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="53" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="53" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="53" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="53" customWidth="1"/>
+    <col min="9994" max="10239" width="9" style="53"/>
+    <col min="10240" max="10240" width="3.875" style="53" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="53" customWidth="1"/>
+    <col min="10242" max="10242" width="9" style="53"/>
+    <col min="10243" max="10243" width="4.875" style="53" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="53" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="53" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="53" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="53" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="53" customWidth="1"/>
+    <col min="10250" max="10495" width="9" style="53"/>
+    <col min="10496" max="10496" width="3.875" style="53" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="53" customWidth="1"/>
+    <col min="10498" max="10498" width="9" style="53"/>
+    <col min="10499" max="10499" width="4.875" style="53" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="53" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="53" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="53" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="53" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="53" customWidth="1"/>
+    <col min="10506" max="10751" width="9" style="53"/>
+    <col min="10752" max="10752" width="3.875" style="53" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="53" customWidth="1"/>
+    <col min="10754" max="10754" width="9" style="53"/>
+    <col min="10755" max="10755" width="4.875" style="53" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="53" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="53" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="53" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="53" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="53" customWidth="1"/>
+    <col min="10762" max="11007" width="9" style="53"/>
+    <col min="11008" max="11008" width="3.875" style="53" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="53" customWidth="1"/>
+    <col min="11010" max="11010" width="9" style="53"/>
+    <col min="11011" max="11011" width="4.875" style="53" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="53" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="53" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="53" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="53" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="53" customWidth="1"/>
+    <col min="11018" max="11263" width="9" style="53"/>
+    <col min="11264" max="11264" width="3.875" style="53" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="53" customWidth="1"/>
+    <col min="11266" max="11266" width="9" style="53"/>
+    <col min="11267" max="11267" width="4.875" style="53" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="53" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="53" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="53" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="53" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="53" customWidth="1"/>
+    <col min="11274" max="11519" width="9" style="53"/>
+    <col min="11520" max="11520" width="3.875" style="53" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="53" customWidth="1"/>
+    <col min="11522" max="11522" width="9" style="53"/>
+    <col min="11523" max="11523" width="4.875" style="53" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="53" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="53" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="53" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="53" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="53" customWidth="1"/>
+    <col min="11530" max="11775" width="9" style="53"/>
+    <col min="11776" max="11776" width="3.875" style="53" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="53" customWidth="1"/>
+    <col min="11778" max="11778" width="9" style="53"/>
+    <col min="11779" max="11779" width="4.875" style="53" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="53" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="53" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="53" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="53" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="53" customWidth="1"/>
+    <col min="11786" max="12031" width="9" style="53"/>
+    <col min="12032" max="12032" width="3.875" style="53" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="53" customWidth="1"/>
+    <col min="12034" max="12034" width="9" style="53"/>
+    <col min="12035" max="12035" width="4.875" style="53" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="53" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="53" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="53" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="53" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="53" customWidth="1"/>
+    <col min="12042" max="12287" width="9" style="53"/>
+    <col min="12288" max="12288" width="3.875" style="53" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="53" customWidth="1"/>
+    <col min="12290" max="12290" width="9" style="53"/>
+    <col min="12291" max="12291" width="4.875" style="53" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="53" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="53" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="53" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="53" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="53" customWidth="1"/>
+    <col min="12298" max="12543" width="9" style="53"/>
+    <col min="12544" max="12544" width="3.875" style="53" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="53" customWidth="1"/>
+    <col min="12546" max="12546" width="9" style="53"/>
+    <col min="12547" max="12547" width="4.875" style="53" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="53" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="53" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="53" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="53" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="53" customWidth="1"/>
+    <col min="12554" max="12799" width="9" style="53"/>
+    <col min="12800" max="12800" width="3.875" style="53" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="53" customWidth="1"/>
+    <col min="12802" max="12802" width="9" style="53"/>
+    <col min="12803" max="12803" width="4.875" style="53" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="53" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="53" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="53" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="53" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="53" customWidth="1"/>
+    <col min="12810" max="13055" width="9" style="53"/>
+    <col min="13056" max="13056" width="3.875" style="53" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="53" customWidth="1"/>
+    <col min="13058" max="13058" width="9" style="53"/>
+    <col min="13059" max="13059" width="4.875" style="53" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="53" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="53" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="53" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="53" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="53" customWidth="1"/>
+    <col min="13066" max="13311" width="9" style="53"/>
+    <col min="13312" max="13312" width="3.875" style="53" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="53" customWidth="1"/>
+    <col min="13314" max="13314" width="9" style="53"/>
+    <col min="13315" max="13315" width="4.875" style="53" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="53" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="53" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="53" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="53" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="53" customWidth="1"/>
+    <col min="13322" max="13567" width="9" style="53"/>
+    <col min="13568" max="13568" width="3.875" style="53" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="53" customWidth="1"/>
+    <col min="13570" max="13570" width="9" style="53"/>
+    <col min="13571" max="13571" width="4.875" style="53" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="53" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="53" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="53" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="53" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="53" customWidth="1"/>
+    <col min="13578" max="13823" width="9" style="53"/>
+    <col min="13824" max="13824" width="3.875" style="53" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="53" customWidth="1"/>
+    <col min="13826" max="13826" width="9" style="53"/>
+    <col min="13827" max="13827" width="4.875" style="53" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="53" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="53" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="53" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="53" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="53" customWidth="1"/>
+    <col min="13834" max="14079" width="9" style="53"/>
+    <col min="14080" max="14080" width="3.875" style="53" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="53" customWidth="1"/>
+    <col min="14082" max="14082" width="9" style="53"/>
+    <col min="14083" max="14083" width="4.875" style="53" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="53" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="53" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="53" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="53" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="53" customWidth="1"/>
+    <col min="14090" max="14335" width="9" style="53"/>
+    <col min="14336" max="14336" width="3.875" style="53" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="53" customWidth="1"/>
+    <col min="14338" max="14338" width="9" style="53"/>
+    <col min="14339" max="14339" width="4.875" style="53" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="53" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="53" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="53" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="53" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="53" customWidth="1"/>
+    <col min="14346" max="14591" width="9" style="53"/>
+    <col min="14592" max="14592" width="3.875" style="53" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="53" customWidth="1"/>
+    <col min="14594" max="14594" width="9" style="53"/>
+    <col min="14595" max="14595" width="4.875" style="53" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="53" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="53" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="53" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="53" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="53" customWidth="1"/>
+    <col min="14602" max="14847" width="9" style="53"/>
+    <col min="14848" max="14848" width="3.875" style="53" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="53" customWidth="1"/>
+    <col min="14850" max="14850" width="9" style="53"/>
+    <col min="14851" max="14851" width="4.875" style="53" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="53" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="53" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="53" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="53" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="53" customWidth="1"/>
+    <col min="14858" max="15103" width="9" style="53"/>
+    <col min="15104" max="15104" width="3.875" style="53" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="53" customWidth="1"/>
+    <col min="15106" max="15106" width="9" style="53"/>
+    <col min="15107" max="15107" width="4.875" style="53" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="53" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="53" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="53" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="53" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="53" customWidth="1"/>
+    <col min="15114" max="15359" width="9" style="53"/>
+    <col min="15360" max="15360" width="3.875" style="53" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="53" customWidth="1"/>
+    <col min="15362" max="15362" width="9" style="53"/>
+    <col min="15363" max="15363" width="4.875" style="53" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="53" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="53" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="53" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="53" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="53" customWidth="1"/>
+    <col min="15370" max="15615" width="9" style="53"/>
+    <col min="15616" max="15616" width="3.875" style="53" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="53" customWidth="1"/>
+    <col min="15618" max="15618" width="9" style="53"/>
+    <col min="15619" max="15619" width="4.875" style="53" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="53" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="53" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="53" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="53" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="53" customWidth="1"/>
+    <col min="15626" max="15871" width="9" style="53"/>
+    <col min="15872" max="15872" width="3.875" style="53" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="53" customWidth="1"/>
+    <col min="15874" max="15874" width="9" style="53"/>
+    <col min="15875" max="15875" width="4.875" style="53" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="53" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="53" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="53" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="53" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="53" customWidth="1"/>
+    <col min="15882" max="16127" width="9" style="53"/>
+    <col min="16128" max="16128" width="3.875" style="53" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="53" customWidth="1"/>
+    <col min="16130" max="16130" width="9" style="53"/>
+    <col min="16131" max="16131" width="4.875" style="53" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="53" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="53" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="53" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="53" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="53" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:9" ht="24.75">
+      <c r="A1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="68"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" s="69" customFormat="1">
-      <c r="A3" s="88" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" s="55" customFormat="1">
+      <c r="A3" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="55" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="71"/>
+    </row>
+    <row r="5" spans="1:9" s="60" customFormat="1">
+      <c r="A5" s="57">
+        <v>1</v>
+      </c>
+      <c r="B5" s="59">
+        <v>41547</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A6" s="57">
+        <v>2</v>
+      </c>
+      <c r="B6" s="61">
+        <v>43949</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A7" s="57">
+        <v>3</v>
+      </c>
+      <c r="B7" s="61">
+        <v>43970</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A8" s="57">
+        <v>4</v>
+      </c>
+      <c r="B8" s="61">
+        <v>44791</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="87"/>
-    </row>
-    <row r="5" spans="1:9" s="74" customFormat="1">
-      <c r="A5" s="71">
-        <v>1</v>
-      </c>
-      <c r="B5" s="73">
-        <v>41547</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="76" customFormat="1" ht="26.4">
-      <c r="A6" s="71">
-        <v>2</v>
-      </c>
-      <c r="B6" s="75">
-        <v>43949</v>
-      </c>
-      <c r="C6" s="71" t="s">
+      <c r="G8" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="62" customFormat="1" ht="42.75">
+      <c r="A9" s="57">
+        <v>5</v>
+      </c>
+      <c r="B9" s="61">
+        <v>44791</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="76" customFormat="1" ht="26.4">
-      <c r="A7" s="71">
-        <v>3</v>
-      </c>
-      <c r="B7" s="75">
-        <v>43970</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="76" customFormat="1">
-      <c r="A8" s="67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="79" customFormat="1" ht="17.399999999999999">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="I9" s="80"/>
+      <c r="E9" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="62" customFormat="1">
+      <c r="A10" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="18.75">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="I11" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4172,13 +3866,13 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G10:G65360">
+  <conditionalFormatting sqref="G1:G2 G12:G65362">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.82677165354330717" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;10TISインテックグループ外秘</oddHeader>
     <oddFooter>&amp;L
@@ -4193,114 +3887,114 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="20"/>
+    <col min="1" max="16384" width="2.625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="68" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="20" t="s">
-        <v>227</v>
+      <c r="D19" s="19" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="20" t="s">
-        <v>228</v>
+      <c r="D20" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="3:10">
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="3:10">
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="20" t="s">
-        <v>149</v>
+      <c r="J47" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="3:10">
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4324,1394 +4018,1394 @@
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.2">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2">
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2">
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2">
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="16.8" thickBot="1">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="116" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="116" t="s">
+      <c r="K8" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.8" thickBot="1">
-      <c r="B9" s="90"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="34" t="s">
+    <row r="9" spans="1:12" ht="24.75" thickBot="1">
+      <c r="B9" s="111"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="132"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="108"/>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" thickBot="1">
-      <c r="B10" s="93">
+      <c r="B10" s="81">
         <v>1</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="26" t="s">
+      <c r="I10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
+      <c r="B11" s="84"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L10" s="99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B11" s="95"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="24" t="s">
-        <v>2</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L11" s="100"/>
+      <c r="K11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="116"/>
     </row>
     <row r="12" spans="1:12" ht="57" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="22" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="100"/>
-    </row>
-    <row r="13" spans="1:12" ht="37.799999999999997">
-      <c r="B13" s="95"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
+      <c r="K12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="116"/>
+    </row>
+    <row r="13" spans="1:12" ht="36">
+      <c r="B13" s="84"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="100"/>
-    </row>
-    <row r="14" spans="1:12" ht="38.4" thickBot="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="30" t="s">
+      <c r="K13" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="116"/>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
+      <c r="B14" s="82"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="117"/>
+    </row>
+    <row r="15" spans="1:12" ht="36">
+      <c r="B15" s="81">
+        <v>2</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="D15" s="76"/>
+      <c r="E15" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32" t="s">
+      <c r="G15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48.75" thickBot="1">
+      <c r="B16" s="85"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="94"/>
+    </row>
+    <row r="17" spans="2:12" ht="27" customHeight="1">
+      <c r="B17" s="81">
         <v>3</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="C17" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="86" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
+      <c r="B18" s="114"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="98"/>
+      <c r="L18" s="109"/>
+    </row>
+    <row r="19" spans="2:12" ht="27" customHeight="1">
+      <c r="B19" s="84"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" s="87"/>
+    </row>
+    <row r="20" spans="2:12" ht="37.5" customHeight="1">
+      <c r="B20" s="84"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="98"/>
+      <c r="L20" s="87"/>
+    </row>
+    <row r="21" spans="2:12" ht="36">
+      <c r="B21" s="84"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="101"/>
-    </row>
-    <row r="15" spans="1:12" ht="37.799999999999997">
-      <c r="B15" s="93">
-        <v>2</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="K21" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="87"/>
+    </row>
+    <row r="22" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B22" s="82"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L15" s="97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="63.6" thickBot="1">
-      <c r="B16" s="113"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="42" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="88"/>
+    </row>
+    <row r="23" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B23" s="81">
+        <v>4</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="98"/>
-    </row>
-    <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="93">
-        <v>3</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="L17" s="97" t="s">
+      <c r="G23" s="23"/>
+      <c r="H23" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="86" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="36" customHeight="1" thickBot="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="119"/>
-      <c r="L18" s="133"/>
-    </row>
-    <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="95"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="119" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="114"/>
-    </row>
-    <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="95"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="114"/>
-    </row>
-    <row r="21" spans="2:12" ht="37.799999999999997">
-      <c r="B21" s="95"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="51" t="s">
+    <row r="24" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B24" s="84"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="L21" s="114"/>
-    </row>
-    <row r="22" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B22" s="96"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="33" t="s">
+      <c r="G24" s="21"/>
+      <c r="H24" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" s="115"/>
-    </row>
-    <row r="23" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B23" s="93">
-        <v>4</v>
-      </c>
-      <c r="C23" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L23" s="97" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B24" s="95"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L24" s="114"/>
-    </row>
-    <row r="25" spans="2:12" ht="37.799999999999997">
-      <c r="B25" s="95"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="24" t="s">
+      <c r="K24" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="87"/>
+    </row>
+    <row r="25" spans="2:12" ht="36">
+      <c r="B25" s="84"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L25" s="114"/>
-    </row>
-    <row r="26" spans="2:12" ht="25.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="130" t="s">
+      <c r="K25" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="87"/>
+    </row>
+    <row r="26" spans="2:12" ht="24">
+      <c r="B26" s="84"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" s="114"/>
+      <c r="K26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" s="87"/>
     </row>
     <row r="27" spans="2:12" ht="80.25" customHeight="1" thickBot="1">
-      <c r="B27" s="95"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="24" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="134" t="s">
+      <c r="J27" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="135"/>
-      <c r="L27" s="114"/>
-    </row>
-    <row r="28" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B28" s="95"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="23" t="s">
+      <c r="K27" s="90"/>
+      <c r="L27" s="87"/>
+    </row>
+    <row r="28" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B28" s="84"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="10" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="87"/>
+    </row>
+    <row r="29" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B29" s="82"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="88"/>
+    </row>
+    <row r="30" spans="2:12" ht="36">
+      <c r="B30" s="81">
+        <v>5</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L28" s="114"/>
-    </row>
-    <row r="29" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B29" s="96"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="E30" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" s="115"/>
-    </row>
-    <row r="30" spans="2:12" ht="37.799999999999997">
-      <c r="B30" s="93">
-        <v>5</v>
-      </c>
-      <c r="C30" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="108" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="26" t="s">
+      <c r="I30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="36">
+      <c r="B31" s="84"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L30" s="97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="37.799999999999997">
-      <c r="B31" s="95"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="114"/>
-    </row>
-    <row r="32" spans="2:12" ht="37.799999999999997">
-      <c r="B32" s="95"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="24" t="s">
+      <c r="K31" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="87"/>
+    </row>
+    <row r="32" spans="2:12" ht="36">
+      <c r="B32" s="84"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="114"/>
-    </row>
-    <row r="33" spans="2:12" ht="37.799999999999997">
-      <c r="B33" s="95"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="24" t="s">
+      <c r="K32" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" s="87"/>
+    </row>
+    <row r="33" spans="2:12" ht="36">
+      <c r="B33" s="84"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L33" s="114"/>
-    </row>
-    <row r="34" spans="2:12" ht="37.799999999999997">
-      <c r="B34" s="95"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="K33" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="87"/>
+    </row>
+    <row r="34" spans="2:12" ht="36">
+      <c r="B34" s="84"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="85" t="s">
+      <c r="J34" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L34" s="114"/>
-    </row>
-    <row r="35" spans="2:12" ht="37.799999999999997">
-      <c r="B35" s="95"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="24" t="s">
+      <c r="K34" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="87"/>
+    </row>
+    <row r="35" spans="2:12" ht="36">
+      <c r="B35" s="84"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L35" s="114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="37.799999999999997">
-      <c r="B36" s="95"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="21" t="s">
-        <v>158</v>
+      <c r="J35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="36">
+      <c r="B36" s="84"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" s="114"/>
-    </row>
-    <row r="37" spans="2:12" ht="37.799999999999997">
-      <c r="B37" s="95"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="24" t="s">
+      <c r="K36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" s="87"/>
+    </row>
+    <row r="37" spans="2:12" ht="36">
+      <c r="B37" s="84"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L37" s="114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="37.799999999999997">
-      <c r="B38" s="95"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="21" t="s">
-        <v>158</v>
+      <c r="J37" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" s="87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="36">
+      <c r="B38" s="84"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="23"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L38" s="114"/>
-    </row>
-    <row r="39" spans="2:12" ht="51" thickBot="1">
-      <c r="B39" s="96"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F39" s="31" t="s">
+      <c r="K38" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L38" s="87"/>
+    </row>
+    <row r="39" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B39" s="82"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="I39" s="30" t="s">
+      <c r="G39" s="28"/>
+      <c r="H39" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L39" s="115"/>
-    </row>
-    <row r="40" spans="2:12" ht="88.2">
-      <c r="B40" s="93">
+      <c r="J39" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="88"/>
+    </row>
+    <row r="40" spans="2:12" ht="84">
+      <c r="B40" s="81">
         <v>6</v>
       </c>
-      <c r="C40" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="129" t="s">
+      <c r="C40" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="I40" s="28" t="s">
+      <c r="H40" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I40" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L40" s="97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="63">
-      <c r="B41" s="95"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="24" t="s">
+    </row>
+    <row r="41" spans="2:12" ht="48">
+      <c r="B41" s="84"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>192</v>
+      <c r="H41" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="134" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41" s="135"/>
-      <c r="L41" s="114"/>
-    </row>
-    <row r="42" spans="2:12" ht="37.799999999999997">
-      <c r="B42" s="95"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="24" t="s">
+      <c r="J41" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="90"/>
+      <c r="L41" s="87"/>
+    </row>
+    <row r="42" spans="2:12" ht="24">
+      <c r="B42" s="84"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>193</v>
+      <c r="H42" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="134" t="s">
+      <c r="J42" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="90"/>
+      <c r="L42" s="87"/>
+    </row>
+    <row r="43" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B43" s="82"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L43" s="88"/>
+    </row>
+    <row r="44" spans="2:12" ht="48">
+      <c r="B44" s="81">
+        <v>7</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="135"/>
-      <c r="L42" s="114"/>
-    </row>
-    <row r="43" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L43" s="115"/>
-    </row>
-    <row r="44" spans="2:12" ht="50.4">
-      <c r="B44" s="93">
-        <v>7</v>
-      </c>
-      <c r="C44" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="26" t="s">
+      <c r="K44" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" s="86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="60">
+      <c r="B45" s="84"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="63">
-      <c r="B45" s="95"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="24" t="s">
-        <v>2</v>
-      </c>
       <c r="H45" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="134" t="s">
+      <c r="J45" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="90"/>
+      <c r="L45" s="87"/>
+    </row>
+    <row r="46" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B46" s="82"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L46" s="88"/>
+    </row>
+    <row r="47" spans="2:12" ht="36">
+      <c r="B47" s="81">
+        <v>8</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L47" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="K45" s="135"/>
-      <c r="L45" s="114"/>
-    </row>
-    <row r="46" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B46" s="96"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="32" t="s">
+    </row>
+    <row r="48" spans="2:12" ht="36">
+      <c r="B48" s="84"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L46" s="115"/>
-    </row>
-    <row r="47" spans="2:12" ht="37.799999999999997">
-      <c r="B47" s="93">
-        <v>8</v>
-      </c>
-      <c r="C47" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="L47" s="97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="50.4">
-      <c r="B48" s="95"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L48" s="114"/>
-    </row>
-    <row r="49" spans="2:12" ht="37.799999999999997">
-      <c r="B49" s="95"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="24" t="s">
+      <c r="J48" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="L48" s="87"/>
+    </row>
+    <row r="49" spans="2:12" ht="36">
+      <c r="B49" s="84"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="24"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L49" s="114"/>
-    </row>
-    <row r="50" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B50" s="113"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="41" t="s">
+      <c r="K49" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L49" s="87"/>
+    </row>
+    <row r="50" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B50" s="85"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" s="40" t="s">
+      <c r="G50" s="35"/>
+      <c r="H50" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="44" t="s">
+      <c r="J50" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="L50" s="98"/>
-    </row>
-    <row r="51" spans="2:12" ht="50.4">
-      <c r="B51" s="93">
+      <c r="K50" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="L50" s="94"/>
+    </row>
+    <row r="51" spans="2:12" ht="48">
+      <c r="B51" s="81">
         <v>9</v>
       </c>
-      <c r="C51" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="108"/>
-      <c r="E51" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F51" s="129" t="s">
+      <c r="C51" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="E51" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="I51" s="28" t="s">
+      <c r="H51" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J51" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="K51" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="L51" s="97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="63">
-      <c r="B52" s="95"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="24" t="s">
+      <c r="J51" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="L51" s="86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="48">
+      <c r="B52" s="84"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="21" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="134" t="s">
+      <c r="J52" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="K52" s="90"/>
+      <c r="L52" s="87"/>
+    </row>
+    <row r="53" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B53" s="82"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L53" s="88"/>
+    </row>
+    <row r="54" spans="2:12" ht="24">
+      <c r="B54" s="81">
+        <v>10</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L54" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="114"/>
-    </row>
-    <row r="53" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B53" s="96"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L53" s="115"/>
-    </row>
-    <row r="54" spans="2:12" ht="25.2">
-      <c r="B54" s="93">
-        <v>10</v>
-      </c>
-      <c r="C54" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="108"/>
-      <c r="E54" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="G54" s="26" t="s">
+    </row>
+    <row r="55" spans="2:12" ht="45" customHeight="1">
+      <c r="B55" s="84"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L54" s="97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="45" customHeight="1">
-      <c r="B55" s="95"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="24" t="s">
-        <v>0</v>
-      </c>
       <c r="H55" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L55" s="114"/>
-    </row>
-    <row r="56" spans="2:12" ht="38.4" thickBot="1">
-      <c r="B56" s="96"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" s="46" t="s">
+      <c r="J55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L55" s="87"/>
+    </row>
+    <row r="56" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B56" s="82"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="47" t="s">
+      <c r="G56" s="38"/>
+      <c r="H56" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L56" s="88"/>
+    </row>
+    <row r="57" spans="2:12" ht="60">
+      <c r="B57" s="81">
+        <v>11</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="76"/>
+      <c r="E57" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L57" s="86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="48.75" thickBot="1">
+      <c r="B58" s="82"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="I56" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J56" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K56" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L56" s="115"/>
-    </row>
-    <row r="57" spans="2:12" ht="63">
-      <c r="B57" s="93">
-        <v>11</v>
-      </c>
-      <c r="C57" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="108"/>
-      <c r="E57" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="J57" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="L57" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="63.6" thickBot="1">
-      <c r="B58" s="96"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="J58" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="K58" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L58" s="115"/>
+      <c r="J58" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L58" s="88"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="F59" s="139" t="s">
+      <c r="F59" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
-      <c r="J59" s="12"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="4"/>
@@ -5724,13 +5418,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C40:D43"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C17:D22"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="L23:L29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C23:D29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="F44:F45"/>
@@ -5747,57 +5485,13 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="L23:L29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C23:D29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="C17:D22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C40:D43"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E47:E48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5811,28 +5505,27 @@
     <hyperlink ref="J57" r:id="rId8" xr:uid="{F955FF49-9B0D-4FBA-B1DF-3E6A1647A3FE}"/>
     <hyperlink ref="J58" r:id="rId9" xr:uid="{AB6AEF1D-AA26-4B0C-8635-5D387E1FFFBD}"/>
     <hyperlink ref="J26" r:id="rId10" location="L74" xr:uid="{A4D74E3D-D6D3-4D6E-ACDA-87936D36432F}"/>
-    <hyperlink ref="J35" r:id="rId11" location="tag-html-unescape" xr:uid="{FC107919-8E3D-4DE5-8317-FE796B8217A2}"/>
-    <hyperlink ref="J23" r:id="rId12" xr:uid="{83B168C5-B734-43CE-B2F1-ED8EC79C2C07}"/>
-    <hyperlink ref="J48" r:id="rId13" location="mail-mail-header-injection" display="メール送信" xr:uid="{7C0DD612-6FF5-4836-B74C-EBFCF69D02CD}"/>
-    <hyperlink ref="J10" r:id="rId14" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{77551F28-66B4-42FE-8D06-FFEA6C21D606}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{F4909BBB-F04D-411A-888F-CB53321E0447}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{F94155A1-DE27-46DD-B5A5-FE5511572027}"/>
-    <hyperlink ref="J11" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{DF1880DF-A205-4D81-A2DD-1F4020E982B2}"/>
-    <hyperlink ref="J12" r:id="rId18" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{5A849690-1060-42D6-8269-C3D464266A71}"/>
-    <hyperlink ref="J19" r:id="rId19" xr:uid="{CB5983E8-5924-4F78-9E03-93B0424F2DC4}"/>
-    <hyperlink ref="J20" r:id="rId20" xr:uid="{350A62DA-C942-47E9-B738-3A1F5BAA60A0}"/>
-    <hyperlink ref="J22" r:id="rId21" xr:uid="{63D22E6F-E14B-4D91-8728-F37C61CFF5E9}"/>
-    <hyperlink ref="J24" r:id="rId22" xr:uid="{38BAADA3-0500-4922-999A-8F5764526F2E}"/>
-    <hyperlink ref="J25" r:id="rId23" xr:uid="{D8D0FC36-D8F1-4F24-A3C2-FE4538C75737}"/>
-    <hyperlink ref="J28" r:id="rId24" xr:uid="{469CD663-4780-4593-B89A-9BEA93A165EF}"/>
-    <hyperlink ref="J29" r:id="rId25" xr:uid="{1F7563A8-B4CB-45D6-BB09-47879E388659}"/>
-    <hyperlink ref="J34" r:id="rId26" xr:uid="{0187B08A-3E00-4899-9654-73C01F93D036}"/>
-    <hyperlink ref="J51" r:id="rId27" xr:uid="{9C0C16D7-8E5C-46CD-9E7A-1EF79EA97A20}"/>
+    <hyperlink ref="J23" r:id="rId11" xr:uid="{83B168C5-B734-43CE-B2F1-ED8EC79C2C07}"/>
+    <hyperlink ref="J48" r:id="rId12" location="mail-mail-header-injection" display="メール送信" xr:uid="{7C0DD612-6FF5-4836-B74C-EBFCF69D02CD}"/>
+    <hyperlink ref="J10" r:id="rId13" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{77551F28-66B4-42FE-8D06-FFEA6C21D606}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{F4909BBB-F04D-411A-888F-CB53321E0447}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{F94155A1-DE27-46DD-B5A5-FE5511572027}"/>
+    <hyperlink ref="J11" r:id="rId16" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{DF1880DF-A205-4D81-A2DD-1F4020E982B2}"/>
+    <hyperlink ref="J12" r:id="rId17" display="https://nablarch.github.io/docs/LATEST/doc/en/application_framework/application_framework/libraries/database_management.html" xr:uid="{5A849690-1060-42D6-8269-C3D464266A71}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{CB5983E8-5924-4F78-9E03-93B0424F2DC4}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{350A62DA-C942-47E9-B738-3A1F5BAA60A0}"/>
+    <hyperlink ref="J22" r:id="rId20" xr:uid="{63D22E6F-E14B-4D91-8728-F37C61CFF5E9}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{38BAADA3-0500-4922-999A-8F5764526F2E}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{D8D0FC36-D8F1-4F24-A3C2-FE4538C75737}"/>
+    <hyperlink ref="J28" r:id="rId23" xr:uid="{469CD663-4780-4593-B89A-9BEA93A165EF}"/>
+    <hyperlink ref="J29" r:id="rId24" xr:uid="{1F7563A8-B4CB-45D6-BB09-47879E388659}"/>
+    <hyperlink ref="J34" r:id="rId25" xr:uid="{0187B08A-3E00-4899-9654-73C01F93D036}"/>
+    <hyperlink ref="J51" r:id="rId26" xr:uid="{9C0C16D7-8E5C-46CD-9E7A-1EF79EA97A20}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -5842,124 +5535,124 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="2.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="24">
+      <c r="B6" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
+    <row r="7" spans="1:3" ht="84">
+      <c r="B7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="84">
+      <c r="B11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72">
+      <c r="B14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="25.2">
-      <c r="B6" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="100.8">
-      <c r="B7" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="100.8">
-      <c r="B11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="17" t="s">
+    <row r="16" spans="1:3" ht="36">
+      <c r="B16" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75.599999999999994">
-      <c r="B14" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="37.799999999999997">
-      <c r="B16" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
